--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R909"/>
+  <dimension ref="A1:R912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E892" t="n">
         <v>5</v>
@@ -64577,36 +64577,36 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J892" t="n">
         <v>35</v>
       </c>
       <c r="K892" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="L892" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="M892" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>1833</v>
+        <v>2400</v>
       </c>
       <c r="Q892" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E893" t="n">
         <v>5</v>
@@ -64644,41 +64644,41 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K893" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="L893" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="M893" t="n">
-        <v>28000</v>
+        <v>36479</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>1556</v>
+        <v>2432</v>
       </c>
       <c r="Q893" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R893" t="inlineStr">
         <is>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -64725,32 +64725,32 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K894" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="L894" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="M894" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>1056</v>
+        <v>2133</v>
       </c>
       <c r="Q894" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -64788,25 +64788,25 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J895" t="n">
         <v>35</v>
       </c>
       <c r="K895" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L895" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M895" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>1111</v>
+        <v>1833</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E896" t="n">
         <v>5</v>
@@ -64865,20 +64865,20 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K896" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L896" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M896" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>1389</v>
+        <v>1556</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E897" t="n">
         <v>5</v>
@@ -64932,25 +64932,25 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K897" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L897" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="M897" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>1167</v>
+        <v>1056</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -65004,7 +65004,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -65016,13 +65016,13 @@
         <v>35</v>
       </c>
       <c r="K898" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L898" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M898" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65076,25 +65076,25 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J899" t="n">
         <v>38</v>
       </c>
       <c r="K899" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L899" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M899" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65148,25 +65148,25 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K900" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L900" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M900" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>778</v>
+        <v>1167</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E901" t="n">
         <v>5</v>
@@ -65220,41 +65220,41 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K901" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L901" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M901" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>2333</v>
+        <v>1000</v>
       </c>
       <c r="Q901" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E902" t="n">
         <v>5</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65314,19 +65314,19 @@
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q902" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E903" t="n">
         <v>5</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,32 +65373,32 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K903" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L903" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M903" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="Q903" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R903" t="inlineStr">
         <is>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K904" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L904" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M904" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>1133</v>
+        <v>2333</v>
       </c>
       <c r="Q904" t="n">
         <v>15</v>
@@ -65508,25 +65508,25 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K905" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L905" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M905" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>933</v>
+        <v>1200</v>
       </c>
       <c r="Q905" t="n">
         <v>15</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65580,41 +65580,41 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K906" t="n">
         <v>15000</v>
       </c>
       <c r="L906" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M906" t="n">
-        <v>15521</v>
+        <v>15000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>776</v>
+        <v>1000</v>
       </c>
       <c r="Q906" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R906" t="inlineStr">
         <is>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E907" t="n">
         <v>5</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="K907" t="n">
         <v>17000</v>
       </c>
       <c r="L907" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M907" t="n">
-        <v>17462</v>
+        <v>17000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>1164</v>
+        <v>1133</v>
       </c>
       <c r="Q907" t="n">
         <v>15</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E908" t="n">
         <v>5</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65733,16 +65733,16 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K908" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L908" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M908" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="Q908" t="n">
         <v>15</v>
@@ -65796,43 +65796,259 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I909" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J909" t="n">
+        <v>73</v>
+      </c>
+      <c r="K909" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L909" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M909" t="n">
+        <v>15521</v>
+      </c>
+      <c r="N909" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="O909" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P909" t="n">
+        <v>776</v>
+      </c>
+      <c r="Q909" t="n">
+        <v>20</v>
+      </c>
+      <c r="R909" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>3</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D910" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E910" t="n">
+        <v>5</v>
+      </c>
+      <c r="F910" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I910" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J910" t="n">
+        <v>65</v>
+      </c>
+      <c r="K910" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L910" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M910" t="n">
+        <v>17462</v>
+      </c>
+      <c r="N910" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O910" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P910" t="n">
+        <v>1164</v>
+      </c>
+      <c r="Q910" t="n">
+        <v>15</v>
+      </c>
+      <c r="R910" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>3</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D911" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E911" t="n">
+        <v>5</v>
+      </c>
+      <c r="F911" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I911" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J911" t="n">
+        <v>30</v>
+      </c>
+      <c r="K911" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L911" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M911" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N911" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O911" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P911" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q911" t="n">
+        <v>15</v>
+      </c>
+      <c r="R911" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>3</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D912" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E912" t="n">
+        <v>5</v>
+      </c>
+      <c r="F912" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I909" t="inlineStr">
+      <c r="I912" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J909" t="n">
+      <c r="J912" t="n">
         <v>70</v>
       </c>
-      <c r="K909" t="n">
+      <c r="K912" t="n">
         <v>17000</v>
       </c>
-      <c r="L909" t="n">
+      <c r="L912" t="n">
         <v>18000</v>
       </c>
-      <c r="M909" t="n">
+      <c r="M912" t="n">
         <v>17500</v>
       </c>
-      <c r="N909" t="inlineStr">
+      <c r="N912" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O909" t="inlineStr">
+      <c r="O912" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P909" t="n">
+      <c r="P912" t="n">
         <v>1167</v>
       </c>
-      <c r="Q909" t="n">
+      <c r="Q912" t="n">
         <v>15</v>
       </c>
-      <c r="R909" t="inlineStr">
+      <c r="R912" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R912"/>
+  <dimension ref="A1:R915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E830" t="n">
         <v>5</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K830" t="n">
-        <v>31000</v>
+        <v>36000</v>
       </c>
       <c r="L830" t="n">
-        <v>31000</v>
+        <v>36000</v>
       </c>
       <c r="M830" t="n">
-        <v>31000</v>
+        <v>36000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>2067</v>
+        <v>2400</v>
       </c>
       <c r="Q830" t="n">
         <v>15</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E831" t="n">
         <v>5</v>
@@ -60180,25 +60180,25 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K831" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L831" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M831" t="n">
-        <v>27000</v>
+        <v>36041</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>1800</v>
+        <v>2403</v>
       </c>
       <c r="Q831" t="n">
         <v>15</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E832" t="n">
         <v>5</v>
@@ -60257,36 +60257,36 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K832" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="L832" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M832" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>1222</v>
+        <v>2067</v>
       </c>
       <c r="Q832" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R832" t="inlineStr">
         <is>
@@ -60324,41 +60324,41 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K833" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="L833" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M833" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>1000</v>
+        <v>2067</v>
       </c>
       <c r="Q833" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R833" t="inlineStr">
         <is>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E834" t="n">
         <v>5</v>
@@ -60396,41 +60396,41 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K834" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L834" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="M834" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="Q834" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R834" t="inlineStr">
         <is>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E835" t="n">
         <v>5</v>
@@ -60468,7 +60468,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -60477,32 +60477,32 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K835" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L835" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="M835" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>2200</v>
+        <v>1222</v>
       </c>
       <c r="Q835" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R835" t="inlineStr">
         <is>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E836" t="n">
         <v>5</v>
@@ -60540,7 +60540,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -60549,32 +60549,32 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K836" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L836" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M836" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>1867</v>
+        <v>1000</v>
       </c>
       <c r="Q836" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60612,7 +60612,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -60621,32 +60621,32 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K837" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="L837" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M837" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>1933</v>
+        <v>1700</v>
       </c>
       <c r="Q837" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R837" t="inlineStr">
         <is>
@@ -60684,25 +60684,25 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K838" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L838" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M838" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>1667</v>
+        <v>2200</v>
       </c>
       <c r="Q838" t="n">
         <v>15</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E839" t="n">
         <v>5</v>
@@ -60756,41 +60756,41 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K839" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="L839" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="M839" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>800</v>
+        <v>1867</v>
       </c>
       <c r="Q839" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R839" t="inlineStr">
         <is>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E840" t="n">
         <v>5</v>
@@ -60828,41 +60828,41 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K840" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L840" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="M840" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>1333</v>
+        <v>1933</v>
       </c>
       <c r="Q840" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R840" t="inlineStr">
         <is>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E841" t="n">
         <v>5</v>
@@ -60900,41 +60900,41 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K841" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L841" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M841" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>1111</v>
+        <v>1667</v>
       </c>
       <c r="Q841" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R841" t="inlineStr">
         <is>
@@ -60972,41 +60972,41 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J842" t="n">
         <v>35</v>
       </c>
       <c r="K842" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L842" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M842" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="Q842" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R842" t="inlineStr">
         <is>
@@ -61044,25 +61044,25 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J843" t="n">
         <v>30</v>
       </c>
       <c r="K843" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L843" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M843" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>944</v>
+        <v>1333</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61116,25 +61116,25 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J844" t="n">
         <v>35</v>
       </c>
       <c r="K844" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L844" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M844" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E845" t="n">
         <v>5</v>
@@ -61193,36 +61193,36 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="K845" t="n">
-        <v>32000</v>
+        <v>17000</v>
       </c>
       <c r="L845" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="M845" t="n">
-        <v>32485</v>
+        <v>17000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>2166</v>
+        <v>944</v>
       </c>
       <c r="Q845" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E846" t="n">
         <v>5</v>
@@ -61269,32 +61269,32 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K846" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="L846" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="M846" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>1733</v>
+        <v>944</v>
       </c>
       <c r="Q846" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R846" t="inlineStr">
         <is>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E847" t="n">
         <v>5</v>
@@ -61332,41 +61332,41 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="K847" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="L847" t="n">
-        <v>36000</v>
+        <v>14000</v>
       </c>
       <c r="M847" t="n">
-        <v>35500</v>
+        <v>14000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>2367</v>
+        <v>778</v>
       </c>
       <c r="Q847" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E848" t="n">
         <v>5</v>
@@ -61409,20 +61409,20 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="K848" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="L848" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="M848" t="n">
-        <v>31000</v>
+        <v>32485</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>2067</v>
+        <v>2166</v>
       </c>
       <c r="Q848" t="n">
         <v>15</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E849" t="n">
         <v>5</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K849" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="L849" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="M849" t="n">
-        <v>31479</v>
+        <v>26000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>2099</v>
+        <v>1733</v>
       </c>
       <c r="Q849" t="n">
         <v>15</v>
@@ -61548,25 +61548,25 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="K850" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L850" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="M850" t="n">
-        <v>28000</v>
+        <v>35500</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>1867</v>
+        <v>2367</v>
       </c>
       <c r="Q850" t="n">
         <v>15</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E851" t="n">
         <v>5</v>
@@ -61620,29 +61620,29 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J851" t="n">
         <v>35</v>
       </c>
       <c r="K851" t="n">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="L851" t="n">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="M851" t="n">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
@@ -61651,10 +61651,10 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>1650</v>
+        <v>2067</v>
       </c>
       <c r="Q851" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E852" t="n">
         <v>5</v>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="K852" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="L852" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M852" t="n">
-        <v>29446</v>
+        <v>31479</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>1963</v>
+        <v>2099</v>
       </c>
       <c r="Q852" t="n">
         <v>15</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E853" t="n">
         <v>5</v>
@@ -61764,7 +61764,7 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
@@ -61773,16 +61773,16 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="K853" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L853" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M853" t="n">
-        <v>25456</v>
+        <v>28000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>1697</v>
+        <v>1867</v>
       </c>
       <c r="Q853" t="n">
         <v>15</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61845,20 +61845,20 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="K854" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L854" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M854" t="n">
-        <v>24500</v>
+        <v>33000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
@@ -61867,10 +61867,10 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>1633</v>
+        <v>1650</v>
       </c>
       <c r="Q854" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R854" t="inlineStr">
         <is>
@@ -61908,7 +61908,7 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
@@ -61917,32 +61917,32 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="K855" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L855" t="n">
         <v>31000</v>
       </c>
       <c r="M855" t="n">
-        <v>30000</v>
+        <v>29446</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>1667</v>
+        <v>1963</v>
       </c>
       <c r="Q855" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R855" t="inlineStr">
         <is>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="K856" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L856" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M856" t="n">
-        <v>20959</v>
+        <v>25456</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>1397</v>
+        <v>1697</v>
       </c>
       <c r="Q856" t="n">
         <v>15</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E857" t="n">
         <v>5</v>
@@ -62052,41 +62052,41 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K857" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L857" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M857" t="n">
-        <v>17000</v>
+        <v>24500</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>944</v>
+        <v>1633</v>
       </c>
       <c r="Q857" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R857" t="inlineStr">
         <is>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E858" t="n">
         <v>5</v>
@@ -62124,7 +62124,7 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
@@ -62133,16 +62133,16 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="K858" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="L858" t="n">
-        <v>14000</v>
+        <v>31000</v>
       </c>
       <c r="M858" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>778</v>
+        <v>1667</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E859" t="n">
         <v>5</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62205,32 +62205,32 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="K859" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L859" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M859" t="n">
-        <v>11000</v>
+        <v>20959</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>611</v>
+        <v>1397</v>
       </c>
       <c r="Q859" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R859" t="inlineStr">
         <is>
@@ -62268,7 +62268,7 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
@@ -62277,16 +62277,16 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K860" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L860" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M860" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="Q860" t="n">
         <v>18</v>
@@ -62340,7 +62340,7 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
@@ -62352,13 +62352,13 @@
         <v>40</v>
       </c>
       <c r="K861" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L861" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M861" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62412,7 +62412,7 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K862" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L862" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M862" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E863" t="n">
         <v>5</v>
@@ -62484,41 +62484,41 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J863" t="n">
         <v>38</v>
       </c>
       <c r="K863" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="L863" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M863" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>1667</v>
+        <v>778</v>
       </c>
       <c r="Q863" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R863" t="inlineStr">
         <is>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E864" t="n">
         <v>5</v>
@@ -62556,41 +62556,41 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K864" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L864" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M864" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="Q864" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R864" t="inlineStr">
         <is>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E865" t="n">
         <v>5</v>
@@ -62633,36 +62633,36 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K865" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L865" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="M865" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="Q865" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R865" t="inlineStr">
         <is>
@@ -62700,25 +62700,25 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K866" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L866" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M866" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>1133</v>
+        <v>1667</v>
       </c>
       <c r="Q866" t="n">
         <v>15</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E867" t="n">
         <v>5</v>
@@ -62772,25 +62772,25 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J867" t="n">
         <v>35</v>
       </c>
       <c r="K867" t="n">
-        <v>39000</v>
+        <v>21000</v>
       </c>
       <c r="L867" t="n">
-        <v>39000</v>
+        <v>21000</v>
       </c>
       <c r="M867" t="n">
-        <v>39000</v>
+        <v>21000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="Q867" t="n">
         <v>15</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E868" t="n">
         <v>5</v>
@@ -62844,7 +62844,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K868" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L868" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M868" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>933</v>
+        <v>1400</v>
       </c>
       <c r="Q868" t="n">
         <v>15</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E869" t="n">
         <v>5</v>
@@ -62916,7 +62916,7 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -62925,16 +62925,16 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K869" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L869" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M869" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>733</v>
+        <v>1133</v>
       </c>
       <c r="Q869" t="n">
         <v>15</v>
@@ -62988,25 +62988,25 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K870" t="n">
-        <v>15000</v>
+        <v>39000</v>
       </c>
       <c r="L870" t="n">
-        <v>15000</v>
+        <v>39000</v>
       </c>
       <c r="M870" t="n">
-        <v>15000</v>
+        <v>39000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="Q870" t="n">
         <v>15</v>
@@ -63060,25 +63060,25 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K871" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L871" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M871" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="Q871" t="n">
         <v>15</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E872" t="n">
         <v>5</v>
@@ -63137,36 +63137,36 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K872" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="L872" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M872" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>1222</v>
+        <v>733</v>
       </c>
       <c r="Q872" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R872" t="inlineStr">
         <is>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E873" t="n">
         <v>5</v>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -63213,32 +63213,32 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K873" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L873" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M873" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q873" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R873" t="inlineStr">
         <is>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E874" t="n">
         <v>5</v>
@@ -63276,7 +63276,7 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
@@ -63285,32 +63285,32 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K874" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L874" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M874" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q874" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63348,25 +63348,25 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K875" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L875" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M875" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>667</v>
+        <v>1222</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63420,25 +63420,25 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J876" t="n">
         <v>35</v>
       </c>
       <c r="K876" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L876" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M876" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>444</v>
+        <v>889</v>
       </c>
       <c r="Q876" t="n">
         <v>18</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E877" t="n">
         <v>5</v>
@@ -63497,36 +63497,36 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="K877" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L877" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M877" t="n">
-        <v>17524</v>
+        <v>13000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>1168</v>
+        <v>722</v>
       </c>
       <c r="Q877" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R877" t="inlineStr">
         <is>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E878" t="n">
         <v>5</v>
@@ -63564,41 +63564,41 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K878" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L878" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M878" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="Q878" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R878" t="inlineStr">
         <is>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E879" t="n">
         <v>5</v>
@@ -63641,36 +63641,36 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J879" t="n">
         <v>35</v>
       </c>
       <c r="K879" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L879" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M879" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>1133</v>
+        <v>444</v>
       </c>
       <c r="Q879" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63708,25 +63708,25 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="K880" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L880" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M880" t="n">
-        <v>14000</v>
+        <v>17524</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>933</v>
+        <v>1168</v>
       </c>
       <c r="Q880" t="n">
         <v>15</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E881" t="n">
         <v>5</v>
@@ -63785,36 +63785,36 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K881" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="L881" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="M881" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>1833</v>
+        <v>933</v>
       </c>
       <c r="Q881" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E882" t="n">
         <v>5</v>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,32 +63861,32 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K882" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="L882" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="M882" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>1722</v>
+        <v>1133</v>
       </c>
       <c r="Q882" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E883" t="n">
         <v>5</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63933,32 +63933,32 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K883" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="L883" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M883" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>1500</v>
+        <v>933</v>
       </c>
       <c r="Q883" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K884" t="n">
-        <v>19000</v>
+        <v>33000</v>
       </c>
       <c r="L884" t="n">
-        <v>19000</v>
+        <v>33000</v>
       </c>
       <c r="M884" t="n">
-        <v>19000</v>
+        <v>33000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>1056</v>
+        <v>1833</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64068,7 +64068,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -64080,13 +64080,13 @@
         <v>38</v>
       </c>
       <c r="K885" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L885" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="M885" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>889</v>
+        <v>1722</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64140,7 +64140,7 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K886" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="L886" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="M886" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>778</v>
+        <v>1500</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E887" t="n">
         <v>5</v>
@@ -64212,7 +64212,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K887" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L887" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M887" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>944</v>
+        <v>1056</v>
       </c>
       <c r="Q887" t="n">
         <v>18</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E888" t="n">
         <v>5</v>
@@ -64284,7 +64284,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -64296,13 +64296,13 @@
         <v>38</v>
       </c>
       <c r="K888" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L888" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M888" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E889" t="n">
         <v>5</v>
@@ -64356,7 +64356,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K889" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L889" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M889" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64428,25 +64428,25 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K890" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L890" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M890" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64500,25 +64500,25 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K891" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L891" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M891" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E892" t="n">
         <v>5</v>
@@ -64584,29 +64584,29 @@
         <v>35</v>
       </c>
       <c r="K892" t="n">
-        <v>36000</v>
+        <v>11000</v>
       </c>
       <c r="L892" t="n">
-        <v>36000</v>
+        <v>11000</v>
       </c>
       <c r="M892" t="n">
-        <v>36000</v>
+        <v>11000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>2400</v>
+        <v>611</v>
       </c>
       <c r="Q892" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E893" t="n">
         <v>5</v>
@@ -64653,32 +64653,32 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K893" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="L893" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="M893" t="n">
-        <v>36479</v>
+        <v>12000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>2432</v>
+        <v>667</v>
       </c>
       <c r="Q893" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R893" t="inlineStr">
         <is>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -64725,32 +64725,32 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K894" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="L894" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="M894" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>2133</v>
+        <v>500</v>
       </c>
       <c r="Q894" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -64793,36 +64793,36 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J895" t="n">
         <v>35</v>
       </c>
       <c r="K895" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="L895" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="M895" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>1833</v>
+        <v>2400</v>
       </c>
       <c r="Q895" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R895" t="inlineStr">
         <is>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E896" t="n">
         <v>5</v>
@@ -64860,41 +64860,41 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K896" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="L896" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="M896" t="n">
-        <v>28000</v>
+        <v>36479</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>1556</v>
+        <v>2432</v>
       </c>
       <c r="Q896" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E897" t="n">
         <v>5</v>
@@ -64941,32 +64941,32 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K897" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="L897" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="M897" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>1056</v>
+        <v>2133</v>
       </c>
       <c r="Q897" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R897" t="inlineStr">
         <is>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E898" t="n">
         <v>5</v>
@@ -65004,25 +65004,25 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J898" t="n">
         <v>35</v>
       </c>
       <c r="K898" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L898" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M898" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>1111</v>
+        <v>1833</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E899" t="n">
         <v>5</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K899" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L899" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M899" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>1389</v>
+        <v>1556</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E900" t="n">
         <v>5</v>
@@ -65148,25 +65148,25 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K900" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L900" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="M900" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>1167</v>
+        <v>1056</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65232,13 +65232,13 @@
         <v>35</v>
       </c>
       <c r="K901" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L901" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M901" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65292,25 +65292,25 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J902" t="n">
         <v>38</v>
       </c>
       <c r="K902" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L902" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M902" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="Q902" t="n">
         <v>18</v>
@@ -65364,25 +65364,25 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K903" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L903" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M903" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>778</v>
+        <v>1167</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E904" t="n">
         <v>5</v>
@@ -65436,41 +65436,41 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K904" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L904" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M904" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>2333</v>
+        <v>1000</v>
       </c>
       <c r="Q904" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R904" t="inlineStr">
         <is>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E905" t="n">
         <v>5</v>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -65530,19 +65530,19 @@
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q905" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,32 +65589,32 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K906" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L906" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M906" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="Q906" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R906" t="inlineStr">
         <is>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K907" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L907" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M907" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>1133</v>
+        <v>2333</v>
       </c>
       <c r="Q907" t="n">
         <v>15</v>
@@ -65724,25 +65724,25 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K908" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L908" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M908" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>933</v>
+        <v>1200</v>
       </c>
       <c r="Q908" t="n">
         <v>15</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E909" t="n">
         <v>5</v>
@@ -65796,41 +65796,41 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K909" t="n">
         <v>15000</v>
       </c>
       <c r="L909" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M909" t="n">
-        <v>15521</v>
+        <v>15000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>776</v>
+        <v>1000</v>
       </c>
       <c r="Q909" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R909" t="inlineStr">
         <is>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E910" t="n">
         <v>5</v>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="K910" t="n">
         <v>17000</v>
       </c>
       <c r="L910" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M910" t="n">
-        <v>17462</v>
+        <v>17000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>1164</v>
+        <v>1133</v>
       </c>
       <c r="Q910" t="n">
         <v>15</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E911" t="n">
         <v>5</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K911" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L911" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M911" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="Q911" t="n">
         <v>15</v>
@@ -66012,43 +66012,259 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I912" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J912" t="n">
+        <v>73</v>
+      </c>
+      <c r="K912" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L912" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M912" t="n">
+        <v>15521</v>
+      </c>
+      <c r="N912" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="O912" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P912" t="n">
+        <v>776</v>
+      </c>
+      <c r="Q912" t="n">
+        <v>20</v>
+      </c>
+      <c r="R912" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>3</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D913" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E913" t="n">
+        <v>5</v>
+      </c>
+      <c r="F913" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I913" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J913" t="n">
+        <v>65</v>
+      </c>
+      <c r="K913" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L913" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M913" t="n">
+        <v>17462</v>
+      </c>
+      <c r="N913" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O913" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P913" t="n">
+        <v>1164</v>
+      </c>
+      <c r="Q913" t="n">
+        <v>15</v>
+      </c>
+      <c r="R913" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>3</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D914" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E914" t="n">
+        <v>5</v>
+      </c>
+      <c r="F914" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I914" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J914" t="n">
+        <v>30</v>
+      </c>
+      <c r="K914" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L914" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M914" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N914" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O914" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P914" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q914" t="n">
+        <v>15</v>
+      </c>
+      <c r="R914" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>3</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D915" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E915" t="n">
+        <v>5</v>
+      </c>
+      <c r="F915" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I912" t="inlineStr">
+      <c r="I915" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J912" t="n">
+      <c r="J915" t="n">
         <v>70</v>
       </c>
-      <c r="K912" t="n">
+      <c r="K915" t="n">
         <v>17000</v>
       </c>
-      <c r="L912" t="n">
+      <c r="L915" t="n">
         <v>18000</v>
       </c>
-      <c r="M912" t="n">
+      <c r="M915" t="n">
         <v>17500</v>
       </c>
-      <c r="N912" t="inlineStr">
+      <c r="N915" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O912" t="inlineStr">
+      <c r="O915" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P912" t="n">
+      <c r="P915" t="n">
         <v>1167</v>
       </c>
-      <c r="Q912" t="n">
+      <c r="Q915" t="n">
         <v>15</v>
       </c>
-      <c r="R912" t="inlineStr">
+      <c r="R915" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R940"/>
+  <dimension ref="A1:R944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E867" t="n">
         <v>5</v>
@@ -62772,7 +62772,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -62781,32 +62781,32 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K867" t="n">
-        <v>16000</v>
+        <v>37000</v>
       </c>
       <c r="L867" t="n">
-        <v>16000</v>
+        <v>37000</v>
       </c>
       <c r="M867" t="n">
-        <v>16000</v>
+        <v>37000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>800</v>
+        <v>2467</v>
       </c>
       <c r="Q867" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R867" t="inlineStr">
         <is>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E868" t="n">
         <v>5</v>
@@ -62844,25 +62844,25 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J868" t="n">
         <v>35</v>
       </c>
       <c r="K868" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="L868" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="M868" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>2067</v>
+        <v>2200</v>
       </c>
       <c r="Q868" t="n">
         <v>15</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E869" t="n">
         <v>5</v>
@@ -62916,25 +62916,25 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Zafiro s/e</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K869" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="L869" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M869" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>1533</v>
+        <v>2267</v>
       </c>
       <c r="Q869" t="n">
         <v>15</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E870" t="n">
         <v>5</v>
@@ -62988,25 +62988,25 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Zafiro s/e</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J870" t="n">
         <v>35</v>
       </c>
       <c r="K870" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="L870" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M870" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>1200</v>
+        <v>2067</v>
       </c>
       <c r="Q870" t="n">
         <v>15</v>
@@ -63060,7 +63060,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
@@ -63082,19 +63082,19 @@
       </c>
       <c r="N871" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>1067</v>
+        <v>800</v>
       </c>
       <c r="Q871" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R871" t="inlineStr">
         <is>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E872" t="n">
         <v>5</v>
@@ -63132,7 +63132,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
@@ -63141,32 +63141,32 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K872" t="n">
-        <v>41000</v>
+        <v>31000</v>
       </c>
       <c r="L872" t="n">
-        <v>41000</v>
+        <v>31000</v>
       </c>
       <c r="M872" t="n">
-        <v>41000</v>
+        <v>31000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>2278</v>
+        <v>2067</v>
       </c>
       <c r="Q872" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R872" t="inlineStr">
         <is>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E873" t="n">
         <v>5</v>
@@ -63204,41 +63204,41 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro s/e</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K873" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L873" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M873" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>1944</v>
+        <v>1533</v>
       </c>
       <c r="Q873" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R873" t="inlineStr">
         <is>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E874" t="n">
         <v>5</v>
@@ -63276,7 +63276,7 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro s/e</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
@@ -63288,29 +63288,29 @@
         <v>35</v>
       </c>
       <c r="K874" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L874" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M874" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>1056</v>
+        <v>1200</v>
       </c>
       <c r="Q874" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E875" t="n">
         <v>5</v>
@@ -63348,7 +63348,7 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
@@ -63357,16 +63357,16 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K875" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="L875" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="M875" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>2133</v>
+        <v>1067</v>
       </c>
       <c r="Q875" t="n">
         <v>15</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E876" t="n">
         <v>5</v>
@@ -63425,36 +63425,36 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K876" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="L876" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="M876" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>1867</v>
+        <v>2278</v>
       </c>
       <c r="Q876" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R876" t="inlineStr">
         <is>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E877" t="n">
         <v>5</v>
@@ -63492,25 +63492,25 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J877" t="n">
         <v>35</v>
       </c>
       <c r="K877" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L877" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M877" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>1278</v>
+        <v>1944</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E878" t="n">
         <v>5</v>
@@ -63569,7 +63569,7 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J878" t="n">
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E879" t="n">
         <v>5</v>
@@ -63636,7 +63636,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -63645,32 +63645,32 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K879" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L879" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="M879" t="n">
-        <v>23479</v>
+        <v>32000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>1174</v>
+        <v>2133</v>
       </c>
       <c r="Q879" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E880" t="n">
         <v>5</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K880" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="L880" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="M880" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>1267</v>
+        <v>1867</v>
       </c>
       <c r="Q880" t="n">
         <v>15</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E881" t="n">
         <v>5</v>
@@ -63780,41 +63780,41 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K881" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L881" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="M881" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>1000</v>
+        <v>1278</v>
       </c>
       <c r="Q881" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E882" t="n">
         <v>5</v>
@@ -63857,36 +63857,36 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K882" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L882" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M882" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>1133</v>
+        <v>1056</v>
       </c>
       <c r="Q882" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63924,41 +63924,41 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K883" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L883" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M883" t="n">
-        <v>14000</v>
+        <v>23479</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>933</v>
+        <v>1174</v>
       </c>
       <c r="Q883" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E884" t="n">
         <v>5</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,32 +64005,32 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K884" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="L884" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="M884" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>1200</v>
+        <v>1267</v>
       </c>
       <c r="Q884" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R884" t="inlineStr">
         <is>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E885" t="n">
         <v>5</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K885" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L885" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M885" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>1133</v>
+        <v>1000</v>
       </c>
       <c r="Q885" t="n">
         <v>15</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E886" t="n">
         <v>5</v>
@@ -64140,25 +64140,25 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K886" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L886" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M886" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="Q886" t="n">
         <v>15</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E887" t="n">
         <v>5</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K887" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L887" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M887" t="n">
-        <v>18462</v>
+        <v>14000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>1231</v>
+        <v>933</v>
       </c>
       <c r="Q887" t="n">
         <v>15</v>
@@ -64284,41 +64284,41 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K888" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L888" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M888" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q888" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R888" t="inlineStr">
         <is>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E889" t="n">
         <v>5</v>
@@ -64361,36 +64361,36 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J889" t="n">
         <v>35</v>
       </c>
       <c r="K889" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L889" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M889" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>1278</v>
+        <v>1133</v>
       </c>
       <c r="Q889" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R889" t="inlineStr">
         <is>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E890" t="n">
         <v>5</v>
@@ -64433,36 +64433,36 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J890" t="n">
         <v>38</v>
       </c>
       <c r="K890" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L890" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M890" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>1056</v>
+        <v>933</v>
       </c>
       <c r="Q890" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R890" t="inlineStr">
         <is>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E891" t="n">
         <v>5</v>
@@ -64500,41 +64500,41 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="K891" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L891" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M891" t="n">
-        <v>15000</v>
+        <v>18462</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>833</v>
+        <v>1231</v>
       </c>
       <c r="Q891" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R891" t="inlineStr">
         <is>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E892" t="n">
         <v>5</v>
@@ -64577,36 +64577,36 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K892" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L892" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M892" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="Q892" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64644,25 +64644,25 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J893" t="n">
         <v>35</v>
       </c>
       <c r="K893" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L893" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M893" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>778</v>
+        <v>1278</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K894" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="L894" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M894" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>1389</v>
+        <v>1056</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K895" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L895" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M895" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>1167</v>
+        <v>833</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E896" t="n">
         <v>5</v>
@@ -64860,25 +64860,25 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K896" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L896" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M896" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E897" t="n">
         <v>5</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K897" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L897" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M897" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -65004,25 +65004,25 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J898" t="n">
         <v>35</v>
       </c>
       <c r="K898" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L898" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M898" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>944</v>
+        <v>1389</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65076,25 +65076,25 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K899" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L899" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M899" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>833</v>
+        <v>1167</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E900" t="n">
         <v>5</v>
@@ -65153,36 +65153,36 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K900" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L900" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M900" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>1733</v>
+        <v>1000</v>
       </c>
       <c r="Q900" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E901" t="n">
         <v>5</v>
@@ -65220,41 +65220,41 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K901" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L901" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M901" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>1467</v>
+        <v>1111</v>
       </c>
       <c r="Q901" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E902" t="n">
         <v>5</v>
@@ -65301,32 +65301,32 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K902" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L902" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M902" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>1333</v>
+        <v>944</v>
       </c>
       <c r="Q902" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E903" t="n">
         <v>5</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K903" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L903" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M903" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>1278</v>
+        <v>833</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65436,25 +65436,25 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J904" t="n">
         <v>40</v>
       </c>
       <c r="K904" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="L904" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M904" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>1000</v>
+        <v>1733</v>
       </c>
       <c r="Q904" t="n">
         <v>15</v>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -65517,32 +65517,32 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K905" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L905" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="M905" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>1056</v>
+        <v>1467</v>
       </c>
       <c r="Q905" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65580,41 +65580,41 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="K906" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L906" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M906" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>1389</v>
+        <v>1333</v>
       </c>
       <c r="Q906" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R906" t="inlineStr">
         <is>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E907" t="n">
         <v>5</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K907" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L907" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M907" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>1167</v>
+        <v>1278</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E908" t="n">
         <v>5</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65733,32 +65733,32 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K908" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L908" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M908" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P908" t="n">
         <v>1000</v>
       </c>
       <c r="Q908" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E909" t="n">
         <v>5</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K909" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L909" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M909" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>1000</v>
+        <v>1056</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65868,25 +65868,25 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K910" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L910" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M910" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>833</v>
+        <v>1389</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65940,25 +65940,25 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K911" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="L911" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M911" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>667</v>
+        <v>1167</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E912" t="n">
         <v>5</v>
@@ -66012,41 +66012,41 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K912" t="n">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="L912" t="n">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="M912" t="n">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="Q912" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E913" t="n">
         <v>5</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66096,29 +66096,29 @@
         <v>38</v>
       </c>
       <c r="K913" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L913" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M913" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="Q913" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E914" t="n">
         <v>5</v>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66168,29 +66168,29 @@
         <v>35</v>
       </c>
       <c r="K914" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L914" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M914" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>733</v>
+        <v>833</v>
       </c>
       <c r="Q914" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R914" t="inlineStr">
         <is>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E915" t="n">
         <v>5</v>
@@ -66233,36 +66233,36 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K915" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L915" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M915" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q915" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R915" t="inlineStr">
         <is>
@@ -66300,25 +66300,25 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J916" t="n">
         <v>35</v>
       </c>
       <c r="K916" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="L916" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="M916" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="Q916" t="n">
         <v>15</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E917" t="n">
         <v>5</v>
@@ -66377,11 +66377,11 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K917" t="n">
         <v>14000</v>
@@ -66399,7 +66399,7 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P917" t="n">
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K918" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L918" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M918" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q918" t="n">
         <v>15</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E919" t="n">
         <v>5</v>
@@ -66516,25 +66516,25 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K919" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L919" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M919" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q919" t="n">
         <v>15</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K920" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L920" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M920" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q920" t="n">
         <v>15</v>
@@ -66660,25 +66660,25 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J921" t="n">
         <v>35</v>
       </c>
       <c r="K921" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L921" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M921" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>467</v>
+        <v>933</v>
       </c>
       <c r="Q921" t="n">
         <v>15</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E922" t="n">
         <v>5</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,32 +66741,32 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K922" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L922" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M922" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P922" t="n">
         <v>800</v>
       </c>
       <c r="Q922" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E923" t="n">
         <v>5</v>
@@ -66804,25 +66804,25 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K923" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L923" t="n">
-        <v>31000</v>
+        <v>10000</v>
       </c>
       <c r="M923" t="n">
-        <v>30462</v>
+        <v>10000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>2031</v>
+        <v>667</v>
       </c>
       <c r="Q923" t="n">
         <v>15</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E924" t="n">
         <v>5</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K924" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="L924" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M924" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>1467</v>
+        <v>600</v>
       </c>
       <c r="Q924" t="n">
         <v>15</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E925" t="n">
         <v>5</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66960,13 +66960,13 @@
         <v>35</v>
       </c>
       <c r="K925" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="L925" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="M925" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>1267</v>
+        <v>467</v>
       </c>
       <c r="Q925" t="n">
         <v>15</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,7 +67029,7 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K926" t="n">
         <v>16000</v>
@@ -67042,19 +67042,19 @@
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>1067</v>
+        <v>800</v>
       </c>
       <c r="Q926" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67092,25 +67092,25 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="K927" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="L927" t="n">
-        <v>14000</v>
+        <v>31000</v>
       </c>
       <c r="M927" t="n">
-        <v>14000</v>
+        <v>30462</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>933</v>
+        <v>2031</v>
       </c>
       <c r="Q927" t="n">
         <v>15</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E928" t="n">
         <v>5</v>
@@ -67169,36 +67169,36 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K928" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="L928" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M928" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>2222</v>
+        <v>1467</v>
       </c>
       <c r="Q928" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E929" t="n">
         <v>5</v>
@@ -67241,36 +67241,36 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J929" t="n">
         <v>35</v>
       </c>
       <c r="K929" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="L929" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="M929" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>2056</v>
+        <v>1267</v>
       </c>
       <c r="Q929" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E930" t="n">
         <v>5</v>
@@ -67308,41 +67308,41 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K930" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="L930" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="M930" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>1889</v>
+        <v>1067</v>
       </c>
       <c r="Q930" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E931" t="n">
         <v>5</v>
@@ -67385,36 +67385,36 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
         <v>35</v>
       </c>
       <c r="K931" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L931" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M931" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="Q931" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67452,25 +67452,25 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K932" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="L932" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="M932" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>889</v>
+        <v>2222</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E933" t="n">
         <v>5</v>
@@ -67536,29 +67536,29 @@
         <v>35</v>
       </c>
       <c r="K933" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="L933" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="M933" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>2200</v>
+        <v>2056</v>
       </c>
       <c r="Q933" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E934" t="n">
         <v>5</v>
@@ -67605,32 +67605,32 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K934" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="L934" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M934" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>1933</v>
+        <v>1889</v>
       </c>
       <c r="Q934" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E935" t="n">
         <v>5</v>
@@ -67677,32 +67677,32 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K935" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L935" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M935" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>1867</v>
+        <v>1000</v>
       </c>
       <c r="Q935" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E936" t="n">
         <v>5</v>
@@ -67740,25 +67740,25 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K936" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L936" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M936" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67821,32 +67821,32 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K937" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="L937" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="M937" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>778</v>
+        <v>2200</v>
       </c>
       <c r="Q937" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R937" t="inlineStr">
         <is>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E938" t="n">
         <v>5</v>
@@ -67893,32 +67893,32 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K938" t="n">
-        <v>11000</v>
+        <v>29000</v>
       </c>
       <c r="L938" t="n">
-        <v>11000</v>
+        <v>29000</v>
       </c>
       <c r="M938" t="n">
-        <v>11000</v>
+        <v>29000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>611</v>
+        <v>1933</v>
       </c>
       <c r="Q938" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -67965,32 +67965,32 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K939" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="L939" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="M939" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>722</v>
+        <v>1867</v>
       </c>
       <c r="Q939" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68028,25 +68028,25 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K940" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L940" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M940" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,12 +68059,300 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>611</v>
+        <v>944</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
       </c>
       <c r="R940" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>3</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D941" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E941" t="n">
+        <v>5</v>
+      </c>
+      <c r="F941" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J941" t="n">
+        <v>38</v>
+      </c>
+      <c r="K941" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L941" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M941" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N941" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O941" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P941" t="n">
+        <v>778</v>
+      </c>
+      <c r="Q941" t="n">
+        <v>18</v>
+      </c>
+      <c r="R941" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>3</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D942" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E942" t="n">
+        <v>5</v>
+      </c>
+      <c r="F942" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J942" t="n">
+        <v>35</v>
+      </c>
+      <c r="K942" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L942" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M942" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N942" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O942" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P942" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q942" t="n">
+        <v>18</v>
+      </c>
+      <c r="R942" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>3</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D943" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E943" t="n">
+        <v>5</v>
+      </c>
+      <c r="F943" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J943" t="n">
+        <v>35</v>
+      </c>
+      <c r="K943" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L943" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M943" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N943" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O943" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P943" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q943" t="n">
+        <v>18</v>
+      </c>
+      <c r="R943" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>3</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D944" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E944" t="n">
+        <v>5</v>
+      </c>
+      <c r="F944" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J944" t="n">
+        <v>38</v>
+      </c>
+      <c r="K944" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L944" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M944" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N944" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O944" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P944" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q944" t="n">
+        <v>18</v>
+      </c>
+      <c r="R944" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R969"/>
+  <dimension ref="A1:R973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E836" t="n">
         <v>5</v>
@@ -60540,7 +60540,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -60549,32 +60549,32 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="K836" t="n">
-        <v>34000</v>
+        <v>42000</v>
       </c>
       <c r="L836" t="n">
-        <v>34000</v>
+        <v>43000</v>
       </c>
       <c r="M836" t="n">
-        <v>34000</v>
+        <v>42479</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>1700</v>
+        <v>2832</v>
       </c>
       <c r="Q836" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E837" t="n">
         <v>5</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K837" t="n">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="L837" t="n">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="M837" t="n">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>2200</v>
+        <v>2533</v>
       </c>
       <c r="Q837" t="n">
         <v>15</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E838" t="n">
         <v>5</v>
@@ -60684,25 +60684,25 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K838" t="n">
-        <v>28000</v>
+        <v>39000</v>
       </c>
       <c r="L838" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="M838" t="n">
-        <v>28000</v>
+        <v>39479</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>1867</v>
+        <v>2632</v>
       </c>
       <c r="Q838" t="n">
         <v>15</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E839" t="n">
         <v>5</v>
@@ -60761,20 +60761,20 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K839" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L839" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M839" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>1933</v>
+        <v>2333</v>
       </c>
       <c r="Q839" t="n">
         <v>15</v>
@@ -60828,41 +60828,41 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K840" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L840" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M840" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>1667</v>
+        <v>1700</v>
       </c>
       <c r="Q840" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R840" t="inlineStr">
         <is>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E841" t="n">
         <v>5</v>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60909,32 +60909,32 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K841" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L841" t="n">
-        <v>16000</v>
+        <v>33000</v>
       </c>
       <c r="M841" t="n">
-        <v>15479</v>
+        <v>33000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>774</v>
+        <v>2200</v>
       </c>
       <c r="Q841" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R841" t="inlineStr">
         <is>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E842" t="n">
         <v>5</v>
@@ -60977,20 +60977,20 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K842" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L842" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="M842" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>1200</v>
+        <v>1867</v>
       </c>
       <c r="Q842" t="n">
         <v>15</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E843" t="n">
         <v>5</v>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61053,16 +61053,16 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K843" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="L843" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="M843" t="n">
-        <v>15479</v>
+        <v>29000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>1032</v>
+        <v>1933</v>
       </c>
       <c r="Q843" t="n">
         <v>15</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E844" t="n">
         <v>5</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K844" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L844" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M844" t="n">
-        <v>14521</v>
+        <v>25000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>968</v>
+        <v>1667</v>
       </c>
       <c r="Q844" t="n">
         <v>15</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E845" t="n">
         <v>5</v>
@@ -61188,41 +61188,41 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="K845" t="n">
         <v>15000</v>
       </c>
       <c r="L845" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M845" t="n">
-        <v>15000</v>
+        <v>15479</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>833</v>
+        <v>774</v>
       </c>
       <c r="Q845" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E846" t="n">
         <v>5</v>
@@ -61265,36 +61265,36 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K846" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L846" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M846" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="Q846" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R846" t="inlineStr">
         <is>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E847" t="n">
         <v>5</v>
@@ -61337,36 +61337,36 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K847" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L847" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M847" t="n">
-        <v>10000</v>
+        <v>15479</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>556</v>
+        <v>1032</v>
       </c>
       <c r="Q847" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E848" t="n">
         <v>5</v>
@@ -61413,32 +61413,32 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K848" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L848" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M848" t="n">
-        <v>10000</v>
+        <v>14521</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>556</v>
+        <v>968</v>
       </c>
       <c r="Q848" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R848" t="inlineStr">
         <is>
@@ -61476,25 +61476,25 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K849" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L849" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M849" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E850" t="n">
         <v>5</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K850" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="L850" t="n">
-        <v>41000</v>
+        <v>12000</v>
       </c>
       <c r="M850" t="n">
-        <v>40500</v>
+        <v>12000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>2250</v>
+        <v>667</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E851" t="n">
         <v>5</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K851" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="L851" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="M851" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>2056</v>
+        <v>556</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E852" t="n">
         <v>5</v>
@@ -61692,25 +61692,25 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K852" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="L852" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="M852" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>1889</v>
+        <v>556</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E853" t="n">
         <v>5</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J853" t="n">
         <v>35</v>
       </c>
       <c r="K853" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="L853" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M853" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>1167</v>
+        <v>444</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61836,25 +61836,25 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K854" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="L854" t="n">
-        <v>19000</v>
+        <v>41000</v>
       </c>
       <c r="M854" t="n">
-        <v>19000</v>
+        <v>40500</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>1056</v>
+        <v>2250</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61908,25 +61908,25 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K855" t="n">
-        <v>17000</v>
+        <v>37000</v>
       </c>
       <c r="L855" t="n">
-        <v>17000</v>
+        <v>37000</v>
       </c>
       <c r="M855" t="n">
-        <v>17000</v>
+        <v>37000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>944</v>
+        <v>2056</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E856" t="n">
         <v>5</v>
@@ -61980,41 +61980,41 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K856" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="L856" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="M856" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>750</v>
+        <v>1889</v>
       </c>
       <c r="Q856" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R856" t="inlineStr">
         <is>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E857" t="n">
         <v>5</v>
@@ -62052,7 +62052,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -62064,29 +62064,29 @@
         <v>35</v>
       </c>
       <c r="K857" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="L857" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="M857" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>2000</v>
+        <v>1167</v>
       </c>
       <c r="Q857" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R857" t="inlineStr">
         <is>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E858" t="n">
         <v>5</v>
@@ -62124,41 +62124,41 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K858" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L858" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="M858" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>1400</v>
+        <v>1056</v>
       </c>
       <c r="Q858" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R858" t="inlineStr">
         <is>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E859" t="n">
         <v>5</v>
@@ -62196,41 +62196,41 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K859" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L859" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M859" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>1200</v>
+        <v>944</v>
       </c>
       <c r="Q859" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R859" t="inlineStr">
         <is>
@@ -62268,16 +62268,16 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K860" t="n">
         <v>15000</v>
@@ -62290,19 +62290,19 @@
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="Q860" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62340,25 +62340,25 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K861" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L861" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M861" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q861" t="n">
         <v>15</v>
@@ -62412,25 +62412,25 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J862" t="n">
         <v>35</v>
       </c>
       <c r="K862" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="L862" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M862" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="Q862" t="n">
         <v>15</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E863" t="n">
         <v>5</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K863" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="L863" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="M863" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>2267</v>
+        <v>1200</v>
       </c>
       <c r="Q863" t="n">
         <v>15</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E864" t="n">
         <v>5</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K864" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L864" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M864" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q864" t="n">
         <v>15</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E865" t="n">
         <v>5</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K865" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="L865" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="M865" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q865" t="n">
         <v>15</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E866" t="n">
         <v>5</v>
@@ -62712,13 +62712,13 @@
         <v>35</v>
       </c>
       <c r="K866" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L866" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M866" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>1533</v>
+        <v>867</v>
       </c>
       <c r="Q866" t="n">
         <v>15</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E867" t="n">
         <v>5</v>
@@ -62772,7 +62772,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -62781,32 +62781,32 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K867" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="L867" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="M867" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>800</v>
+        <v>2267</v>
       </c>
       <c r="Q867" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R867" t="inlineStr">
         <is>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E868" t="n">
         <v>5</v>
@@ -62844,7 +62844,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
@@ -62853,32 +62853,32 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K868" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L868" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M868" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="Q868" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R868" t="inlineStr">
         <is>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E869" t="n">
         <v>5</v>
@@ -62916,25 +62916,25 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K869" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="L869" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M869" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>2067</v>
+        <v>1800</v>
       </c>
       <c r="Q869" t="n">
         <v>15</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E870" t="n">
         <v>5</v>
@@ -62988,25 +62988,25 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K870" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L870" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M870" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>1667</v>
+        <v>1533</v>
       </c>
       <c r="Q870" t="n">
         <v>15</v>
@@ -63060,7 +63060,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
@@ -63072,29 +63072,29 @@
         <v>38</v>
       </c>
       <c r="K871" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="L871" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M871" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="Q871" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R871" t="inlineStr">
         <is>
@@ -63132,41 +63132,41 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K872" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L872" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M872" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>1067</v>
+        <v>600</v>
       </c>
       <c r="Q872" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R872" t="inlineStr">
         <is>
@@ -63204,25 +63204,25 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J873" t="n">
         <v>35</v>
       </c>
       <c r="K873" t="n">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="L873" t="n">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="M873" t="n">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>800</v>
+        <v>2067</v>
       </c>
       <c r="Q873" t="n">
         <v>15</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E874" t="n">
         <v>5</v>
@@ -63276,41 +63276,41 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K874" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L874" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M874" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>750</v>
+        <v>1667</v>
       </c>
       <c r="Q874" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E875" t="n">
         <v>5</v>
@@ -63348,41 +63348,41 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K875" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="L875" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M875" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="Q875" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R875" t="inlineStr">
         <is>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E876" t="n">
         <v>5</v>
@@ -63420,25 +63420,25 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K876" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L876" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M876" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="Q876" t="n">
         <v>15</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E877" t="n">
         <v>5</v>
@@ -63492,25 +63492,25 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K877" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L877" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M877" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="Q877" t="n">
         <v>15</v>
@@ -63564,41 +63564,41 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K878" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L878" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M878" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="Q878" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R878" t="inlineStr">
         <is>
@@ -63636,41 +63636,41 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K879" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L879" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M879" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Q879" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63708,25 +63708,25 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K880" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L880" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M880" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q880" t="n">
         <v>15</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E881" t="n">
         <v>5</v>
@@ -63785,36 +63785,36 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K881" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L881" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M881" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>889</v>
+        <v>933</v>
       </c>
       <c r="Q881" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E882" t="n">
         <v>5</v>
@@ -63857,36 +63857,36 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K882" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L882" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M882" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q882" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E883" t="n">
         <v>5</v>
@@ -63924,41 +63924,41 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K883" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L883" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M883" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="Q883" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E884" t="n">
         <v>5</v>
@@ -64001,36 +64001,36 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J884" t="n">
         <v>45</v>
       </c>
       <c r="K884" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L884" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M884" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="Q884" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R884" t="inlineStr">
         <is>
@@ -64068,25 +64068,25 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K885" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L885" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M885" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>444</v>
+        <v>889</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E886" t="n">
         <v>5</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J886" t="n">
         <v>38</v>
       </c>
       <c r="K886" t="n">
-        <v>36000</v>
+        <v>13000</v>
       </c>
       <c r="L886" t="n">
-        <v>36000</v>
+        <v>13000</v>
       </c>
       <c r="M886" t="n">
-        <v>36000</v>
+        <v>13000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>2000</v>
+        <v>722</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E887" t="n">
         <v>5</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J887" t="n">
         <v>35</v>
       </c>
       <c r="K887" t="n">
-        <v>33000</v>
+        <v>11000</v>
       </c>
       <c r="L887" t="n">
-        <v>33000</v>
+        <v>11000</v>
       </c>
       <c r="M887" t="n">
-        <v>33000</v>
+        <v>11000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>1833</v>
+        <v>611</v>
       </c>
       <c r="Q887" t="n">
         <v>18</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E888" t="n">
         <v>5</v>
@@ -64284,7 +64284,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -64293,32 +64293,32 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K888" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="L888" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M888" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>1667</v>
+        <v>611</v>
       </c>
       <c r="Q888" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R888" t="inlineStr">
         <is>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E889" t="n">
         <v>5</v>
@@ -64356,7 +64356,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -64365,32 +64365,32 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K889" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="L889" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M889" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>1400</v>
+        <v>444</v>
       </c>
       <c r="Q889" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R889" t="inlineStr">
         <is>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E890" t="n">
         <v>5</v>
@@ -64428,41 +64428,41 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K890" t="n">
-        <v>21000</v>
+        <v>36000</v>
       </c>
       <c r="L890" t="n">
-        <v>21000</v>
+        <v>36000</v>
       </c>
       <c r="M890" t="n">
-        <v>21000</v>
+        <v>36000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="Q890" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R890" t="inlineStr">
         <is>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E891" t="n">
         <v>5</v>
@@ -64500,41 +64500,41 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K891" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L891" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="M891" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>1133</v>
+        <v>1833</v>
       </c>
       <c r="Q891" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R891" t="inlineStr">
         <is>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E892" t="n">
         <v>5</v>
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K892" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L892" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M892" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>2467</v>
+        <v>1667</v>
       </c>
       <c r="Q892" t="n">
         <v>15</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E893" t="n">
         <v>5</v>
@@ -64656,13 +64656,13 @@
         <v>35</v>
       </c>
       <c r="K893" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="L893" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="M893" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="Q893" t="n">
         <v>15</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -64725,16 +64725,16 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K894" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="L894" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="M894" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>2267</v>
+        <v>1400</v>
       </c>
       <c r="Q894" t="n">
         <v>15</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K895" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="L895" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="M895" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>2067</v>
+        <v>1133</v>
       </c>
       <c r="Q895" t="n">
         <v>15</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E896" t="n">
         <v>5</v>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -64869,32 +64869,32 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K896" t="n">
-        <v>16000</v>
+        <v>37000</v>
       </c>
       <c r="L896" t="n">
-        <v>16000</v>
+        <v>37000</v>
       </c>
       <c r="M896" t="n">
-        <v>16000</v>
+        <v>37000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>800</v>
+        <v>2467</v>
       </c>
       <c r="Q896" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E897" t="n">
         <v>5</v>
@@ -64932,25 +64932,25 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J897" t="n">
         <v>35</v>
       </c>
       <c r="K897" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="L897" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="M897" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>2067</v>
+        <v>2200</v>
       </c>
       <c r="Q897" t="n">
         <v>15</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E898" t="n">
         <v>5</v>
@@ -65004,25 +65004,25 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Zafiro s/e</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K898" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="L898" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M898" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>1533</v>
+        <v>2267</v>
       </c>
       <c r="Q898" t="n">
         <v>15</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E899" t="n">
         <v>5</v>
@@ -65076,25 +65076,25 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Zafiro s/e</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J899" t="n">
         <v>35</v>
       </c>
       <c r="K899" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="L899" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M899" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>1200</v>
+        <v>2067</v>
       </c>
       <c r="Q899" t="n">
         <v>15</v>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -65170,19 +65170,19 @@
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>1067</v>
+        <v>800</v>
       </c>
       <c r="Q900" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E901" t="n">
         <v>5</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,32 +65229,32 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K901" t="n">
-        <v>41000</v>
+        <v>31000</v>
       </c>
       <c r="L901" t="n">
-        <v>41000</v>
+        <v>31000</v>
       </c>
       <c r="M901" t="n">
-        <v>41000</v>
+        <v>31000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>2278</v>
+        <v>2067</v>
       </c>
       <c r="Q901" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E902" t="n">
         <v>5</v>
@@ -65292,41 +65292,41 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro s/e</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K902" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L902" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M902" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>1944</v>
+        <v>1533</v>
       </c>
       <c r="Q902" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E903" t="n">
         <v>5</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro s/e</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65376,29 +65376,29 @@
         <v>35</v>
       </c>
       <c r="K903" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L903" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M903" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>1056</v>
+        <v>1200</v>
       </c>
       <c r="Q903" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R903" t="inlineStr">
         <is>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E904" t="n">
         <v>5</v>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K904" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="L904" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="M904" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>2133</v>
+        <v>1067</v>
       </c>
       <c r="Q904" t="n">
         <v>15</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E905" t="n">
         <v>5</v>
@@ -65513,36 +65513,36 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K905" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="L905" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="M905" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>1867</v>
+        <v>2278</v>
       </c>
       <c r="Q905" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65580,25 +65580,25 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J906" t="n">
         <v>35</v>
       </c>
       <c r="K906" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L906" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M906" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>1278</v>
+        <v>1944</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E907" t="n">
         <v>5</v>
@@ -65657,7 +65657,7 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E908" t="n">
         <v>5</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65733,32 +65733,32 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K908" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L908" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="M908" t="n">
-        <v>23479</v>
+        <v>32000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>1174</v>
+        <v>2133</v>
       </c>
       <c r="Q908" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E909" t="n">
         <v>5</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K909" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="L909" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="M909" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>1267</v>
+        <v>1867</v>
       </c>
       <c r="Q909" t="n">
         <v>15</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E910" t="n">
         <v>5</v>
@@ -65868,41 +65868,41 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K910" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L910" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="M910" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>1000</v>
+        <v>1278</v>
       </c>
       <c r="Q910" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R910" t="inlineStr">
         <is>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E911" t="n">
         <v>5</v>
@@ -65945,36 +65945,36 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K911" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L911" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M911" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>1133</v>
+        <v>1056</v>
       </c>
       <c r="Q911" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -66012,41 +66012,41 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K912" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L912" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M912" t="n">
-        <v>14000</v>
+        <v>23479</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>933</v>
+        <v>1174</v>
       </c>
       <c r="Q912" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E913" t="n">
         <v>5</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,32 +66093,32 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K913" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="L913" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="M913" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>1200</v>
+        <v>1267</v>
       </c>
       <c r="Q913" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E914" t="n">
         <v>5</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K914" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L914" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M914" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>1133</v>
+        <v>1000</v>
       </c>
       <c r="Q914" t="n">
         <v>15</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E915" t="n">
         <v>5</v>
@@ -66228,25 +66228,25 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K915" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L915" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M915" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="Q915" t="n">
         <v>15</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E916" t="n">
         <v>5</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K916" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L916" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M916" t="n">
-        <v>18462</v>
+        <v>14000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>1231</v>
+        <v>933</v>
       </c>
       <c r="Q916" t="n">
         <v>15</v>
@@ -66372,41 +66372,41 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K917" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L917" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M917" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q917" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R917" t="inlineStr">
         <is>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -66449,36 +66449,36 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J918" t="n">
         <v>35</v>
       </c>
       <c r="K918" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L918" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M918" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>1278</v>
+        <v>1133</v>
       </c>
       <c r="Q918" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R918" t="inlineStr">
         <is>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E919" t="n">
         <v>5</v>
@@ -66521,36 +66521,36 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J919" t="n">
         <v>38</v>
       </c>
       <c r="K919" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L919" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M919" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>1056</v>
+        <v>933</v>
       </c>
       <c r="Q919" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66588,41 +66588,41 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="K920" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L920" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M920" t="n">
-        <v>15000</v>
+        <v>18462</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>833</v>
+        <v>1231</v>
       </c>
       <c r="Q920" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E921" t="n">
         <v>5</v>
@@ -66665,36 +66665,36 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K921" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L921" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M921" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="Q921" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R921" t="inlineStr">
         <is>
@@ -66732,25 +66732,25 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J922" t="n">
         <v>35</v>
       </c>
       <c r="K922" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L922" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M922" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>778</v>
+        <v>1278</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E923" t="n">
         <v>5</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K923" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="L923" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M923" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>1389</v>
+        <v>1056</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E924" t="n">
         <v>5</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K924" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L924" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M924" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>1167</v>
+        <v>833</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E925" t="n">
         <v>5</v>
@@ -66948,25 +66948,25 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K925" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L925" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M925" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E926" t="n">
         <v>5</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K926" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L926" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M926" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67092,25 +67092,25 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J927" t="n">
         <v>35</v>
       </c>
       <c r="K927" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L927" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M927" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>944</v>
+        <v>1389</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67164,25 +67164,25 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K928" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L928" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M928" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>833</v>
+        <v>1167</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E929" t="n">
         <v>5</v>
@@ -67241,36 +67241,36 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K929" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L929" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M929" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>1733</v>
+        <v>1000</v>
       </c>
       <c r="Q929" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E930" t="n">
         <v>5</v>
@@ -67308,41 +67308,41 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K930" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L930" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M930" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>1467</v>
+        <v>1111</v>
       </c>
       <c r="Q930" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E931" t="n">
         <v>5</v>
@@ -67389,32 +67389,32 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K931" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L931" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M931" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>1333</v>
+        <v>944</v>
       </c>
       <c r="Q931" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E932" t="n">
         <v>5</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K932" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L932" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M932" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>1278</v>
+        <v>833</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67524,25 +67524,25 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J933" t="n">
         <v>40</v>
       </c>
       <c r="K933" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="L933" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M933" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>1000</v>
+        <v>1733</v>
       </c>
       <c r="Q933" t="n">
         <v>15</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,32 +67605,32 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K934" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L934" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="M934" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>1056</v>
+        <v>1467</v>
       </c>
       <c r="Q934" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E935" t="n">
         <v>5</v>
@@ -67668,41 +67668,41 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="K935" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L935" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M935" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>1389</v>
+        <v>1333</v>
       </c>
       <c r="Q935" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E936" t="n">
         <v>5</v>
@@ -67740,7 +67740,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K936" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L936" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M936" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>1167</v>
+        <v>1278</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67812,7 +67812,7 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
@@ -67821,32 +67821,32 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K937" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L937" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M937" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P937" t="n">
         <v>1000</v>
       </c>
       <c r="Q937" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R937" t="inlineStr">
         <is>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E938" t="n">
         <v>5</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K938" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L938" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M938" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>1000</v>
+        <v>1056</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67956,25 +67956,25 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K939" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L939" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M939" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>833</v>
+        <v>1389</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68028,25 +68028,25 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K940" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="L940" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M940" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>667</v>
+        <v>1167</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E941" t="n">
         <v>5</v>
@@ -68100,41 +68100,41 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K941" t="n">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="L941" t="n">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="M941" t="n">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="Q941" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E942" t="n">
         <v>5</v>
@@ -68172,7 +68172,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
@@ -68184,29 +68184,29 @@
         <v>38</v>
       </c>
       <c r="K942" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L942" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M942" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="Q942" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E943" t="n">
         <v>5</v>
@@ -68244,7 +68244,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -68256,29 +68256,29 @@
         <v>35</v>
       </c>
       <c r="K943" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L943" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M943" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>733</v>
+        <v>833</v>
       </c>
       <c r="Q943" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E944" t="n">
         <v>5</v>
@@ -68321,36 +68321,36 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K944" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L944" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M944" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q944" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68388,25 +68388,25 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J945" t="n">
         <v>35</v>
       </c>
       <c r="K945" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="L945" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="M945" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="Q945" t="n">
         <v>15</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68465,11 +68465,11 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K946" t="n">
         <v>14000</v>
@@ -68487,7 +68487,7 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P946" t="n">
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K947" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L947" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M947" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q947" t="n">
         <v>15</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E948" t="n">
         <v>5</v>
@@ -68604,25 +68604,25 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K948" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L948" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M948" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q948" t="n">
         <v>15</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E949" t="n">
         <v>5</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K949" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L949" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M949" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q949" t="n">
         <v>15</v>
@@ -68748,25 +68748,25 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J950" t="n">
         <v>35</v>
       </c>
       <c r="K950" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L950" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M950" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>467</v>
+        <v>933</v>
       </c>
       <c r="Q950" t="n">
         <v>15</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E951" t="n">
         <v>5</v>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68829,32 +68829,32 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K951" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L951" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M951" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P951" t="n">
         <v>800</v>
       </c>
       <c r="Q951" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E952" t="n">
         <v>5</v>
@@ -68892,25 +68892,25 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K952" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L952" t="n">
-        <v>31000</v>
+        <v>10000</v>
       </c>
       <c r="M952" t="n">
-        <v>30462</v>
+        <v>10000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>2031</v>
+        <v>667</v>
       </c>
       <c r="Q952" t="n">
         <v>15</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E953" t="n">
         <v>5</v>
@@ -68964,7 +68964,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K953" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="L953" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M953" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>1467</v>
+        <v>600</v>
       </c>
       <c r="Q953" t="n">
         <v>15</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E954" t="n">
         <v>5</v>
@@ -69036,7 +69036,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -69048,13 +69048,13 @@
         <v>35</v>
       </c>
       <c r="K954" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="L954" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="M954" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>1267</v>
+        <v>467</v>
       </c>
       <c r="Q954" t="n">
         <v>15</v>
@@ -69108,7 +69108,7 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
@@ -69117,7 +69117,7 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K955" t="n">
         <v>16000</v>
@@ -69130,19 +69130,19 @@
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>1067</v>
+        <v>800</v>
       </c>
       <c r="Q955" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69180,25 +69180,25 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="K956" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="L956" t="n">
-        <v>14000</v>
+        <v>31000</v>
       </c>
       <c r="M956" t="n">
-        <v>14000</v>
+        <v>30462</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>933</v>
+        <v>2031</v>
       </c>
       <c r="Q956" t="n">
         <v>15</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E957" t="n">
         <v>5</v>
@@ -69257,36 +69257,36 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K957" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="L957" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M957" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>2222</v>
+        <v>1467</v>
       </c>
       <c r="Q957" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R957" t="inlineStr">
         <is>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69329,36 +69329,36 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J958" t="n">
         <v>35</v>
       </c>
       <c r="K958" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="L958" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="M958" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>2056</v>
+        <v>1267</v>
       </c>
       <c r="Q958" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E959" t="n">
         <v>5</v>
@@ -69396,41 +69396,41 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K959" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="L959" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="M959" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>1889</v>
+        <v>1067</v>
       </c>
       <c r="Q959" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E960" t="n">
         <v>5</v>
@@ -69473,36 +69473,36 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J960" t="n">
         <v>35</v>
       </c>
       <c r="K960" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L960" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M960" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="Q960" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R960" t="inlineStr">
         <is>
@@ -69540,25 +69540,25 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K961" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="L961" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="M961" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>889</v>
+        <v>2222</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E962" t="n">
         <v>5</v>
@@ -69624,29 +69624,29 @@
         <v>35</v>
       </c>
       <c r="K962" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="L962" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="M962" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>2200</v>
+        <v>2056</v>
       </c>
       <c r="Q962" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E963" t="n">
         <v>5</v>
@@ -69693,32 +69693,32 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K963" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="L963" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M963" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>1933</v>
+        <v>1889</v>
       </c>
       <c r="Q963" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E964" t="n">
         <v>5</v>
@@ -69765,32 +69765,32 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K964" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L964" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M964" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>1867</v>
+        <v>1000</v>
       </c>
       <c r="Q964" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E965" t="n">
         <v>5</v>
@@ -69828,25 +69828,25 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K965" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L965" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M965" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E966" t="n">
         <v>5</v>
@@ -69909,32 +69909,32 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K966" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="L966" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="M966" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>778</v>
+        <v>2200</v>
       </c>
       <c r="Q966" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E967" t="n">
         <v>5</v>
@@ -69981,32 +69981,32 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K967" t="n">
-        <v>11000</v>
+        <v>29000</v>
       </c>
       <c r="L967" t="n">
-        <v>11000</v>
+        <v>29000</v>
       </c>
       <c r="M967" t="n">
-        <v>11000</v>
+        <v>29000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>611</v>
+        <v>1933</v>
       </c>
       <c r="Q967" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70053,32 +70053,32 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K968" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="L968" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="M968" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>722</v>
+        <v>1867</v>
       </c>
       <c r="Q968" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70116,25 +70116,25 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K969" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L969" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M969" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,12 +70147,300 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>611</v>
+        <v>944</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
       </c>
       <c r="R969" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>3</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D970" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E970" t="n">
+        <v>5</v>
+      </c>
+      <c r="F970" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I970" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J970" t="n">
+        <v>38</v>
+      </c>
+      <c r="K970" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L970" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M970" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N970" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O970" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P970" t="n">
+        <v>778</v>
+      </c>
+      <c r="Q970" t="n">
+        <v>18</v>
+      </c>
+      <c r="R970" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>3</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D971" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E971" t="n">
+        <v>5</v>
+      </c>
+      <c r="F971" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I971" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J971" t="n">
+        <v>35</v>
+      </c>
+      <c r="K971" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L971" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M971" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N971" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O971" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P971" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q971" t="n">
+        <v>18</v>
+      </c>
+      <c r="R971" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>3</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D972" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E972" t="n">
+        <v>5</v>
+      </c>
+      <c r="F972" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I972" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J972" t="n">
+        <v>35</v>
+      </c>
+      <c r="K972" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L972" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M972" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N972" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O972" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P972" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q972" t="n">
+        <v>18</v>
+      </c>
+      <c r="R972" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>3</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D973" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E973" t="n">
+        <v>5</v>
+      </c>
+      <c r="F973" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I973" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J973" t="n">
+        <v>38</v>
+      </c>
+      <c r="K973" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L973" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M973" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N973" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O973" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P973" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q973" t="n">
+        <v>18</v>
+      </c>
+      <c r="R973" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R977"/>
+  <dimension ref="A1:R979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E807" t="n">
         <v>5</v>
@@ -58464,13 +58464,13 @@
         <v>73</v>
       </c>
       <c r="K807" t="n">
-        <v>41000</v>
+        <v>43000</v>
       </c>
       <c r="L807" t="n">
-        <v>42000</v>
+        <v>44000</v>
       </c>
       <c r="M807" t="n">
-        <v>41479</v>
+        <v>43521</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>2765</v>
+        <v>2901</v>
       </c>
       <c r="Q807" t="n">
         <v>15</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E808" t="n">
         <v>5</v>
@@ -58524,25 +58524,25 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K808" t="n">
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="L808" t="n">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="M808" t="n">
-        <v>36000</v>
+        <v>39521</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>2400</v>
+        <v>2635</v>
       </c>
       <c r="Q808" t="n">
         <v>15</v>
@@ -58596,7 +58596,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
@@ -58605,16 +58605,16 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K809" t="n">
-        <v>3800</v>
+        <v>41000</v>
       </c>
       <c r="L809" t="n">
-        <v>3800</v>
+        <v>42000</v>
       </c>
       <c r="M809" t="n">
-        <v>3800</v>
+        <v>41479</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>253</v>
+        <v>2765</v>
       </c>
       <c r="Q809" t="n">
         <v>15</v>
@@ -58668,7 +58668,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -58677,16 +58677,16 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K810" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="L810" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="M810" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>2267</v>
+        <v>2400</v>
       </c>
       <c r="Q810" t="n">
         <v>15</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E811" t="n">
         <v>5</v>
@@ -58740,7 +58740,7 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -58749,32 +58749,32 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="K811" t="n">
-        <v>15000</v>
+        <v>3800</v>
       </c>
       <c r="L811" t="n">
-        <v>16000</v>
+        <v>3800</v>
       </c>
       <c r="M811" t="n">
-        <v>15467</v>
+        <v>3800</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>773</v>
+        <v>253</v>
       </c>
       <c r="Q811" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R811" t="inlineStr">
         <is>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E812" t="n">
         <v>5</v>
@@ -58812,25 +58812,25 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K812" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="L812" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="M812" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>1000</v>
+        <v>2267</v>
       </c>
       <c r="Q812" t="n">
         <v>15</v>
@@ -58884,41 +58884,41 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="K813" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L813" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M813" t="n">
-        <v>13000</v>
+        <v>15467</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>867</v>
+        <v>773</v>
       </c>
       <c r="Q813" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R813" t="inlineStr">
         <is>
@@ -58956,7 +58956,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
@@ -58965,16 +58965,16 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K814" t="n">
         <v>15000</v>
       </c>
       <c r="L814" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M814" t="n">
-        <v>15521</v>
+        <v>15000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>1035</v>
+        <v>1000</v>
       </c>
       <c r="Q814" t="n">
         <v>15</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E815" t="n">
         <v>5</v>
@@ -59028,41 +59028,41 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="K815" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L815" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M815" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="Q815" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R815" t="inlineStr">
         <is>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E816" t="n">
         <v>5</v>
@@ -59100,7 +59100,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
@@ -59109,16 +59109,16 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K816" t="n">
         <v>15000</v>
       </c>
       <c r="L816" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M816" t="n">
-        <v>15000</v>
+        <v>15521</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>1000</v>
+        <v>1035</v>
       </c>
       <c r="Q816" t="n">
         <v>15</v>
@@ -59172,41 +59172,41 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="K817" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L817" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M817" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P817" t="n">
         <v>800</v>
       </c>
       <c r="Q817" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R817" t="inlineStr">
         <is>
@@ -59244,7 +59244,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -59256,13 +59256,13 @@
         <v>40</v>
       </c>
       <c r="K818" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L818" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M818" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="Q818" t="n">
         <v>15</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E819" t="n">
         <v>5</v>
@@ -59316,41 +59316,41 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J819" t="n">
         <v>35</v>
       </c>
       <c r="K819" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L819" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M819" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>1333</v>
+        <v>800</v>
       </c>
       <c r="Q819" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R819" t="inlineStr">
         <is>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E820" t="n">
         <v>5</v>
@@ -59388,41 +59388,41 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K820" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L820" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M820" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>1333</v>
+        <v>933</v>
       </c>
       <c r="Q820" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R820" t="inlineStr">
         <is>
@@ -59460,7 +59460,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K821" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L821" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="M821" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>1167</v>
+        <v>1333</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K822" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L822" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M822" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59604,25 +59604,25 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K823" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="L823" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M823" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>722</v>
+        <v>1167</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59676,25 +59676,25 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J824" t="n">
         <v>35</v>
       </c>
       <c r="K824" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L824" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M824" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J825" t="n">
         <v>38</v>
       </c>
       <c r="K825" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L825" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M825" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E826" t="n">
         <v>5</v>
@@ -59820,7 +59820,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -59829,32 +59829,32 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K826" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L826" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M826" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>1067</v>
+        <v>611</v>
       </c>
       <c r="Q826" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R826" t="inlineStr">
         <is>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E827" t="n">
         <v>5</v>
@@ -59892,7 +59892,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -59901,32 +59901,32 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K827" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L827" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M827" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>933</v>
+        <v>444</v>
       </c>
       <c r="Q827" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R827" t="inlineStr">
         <is>
@@ -59964,7 +59964,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -59973,16 +59973,16 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K828" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L828" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M828" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>1133</v>
+        <v>1067</v>
       </c>
       <c r="Q828" t="n">
         <v>15</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E829" t="n">
         <v>5</v>
@@ -60041,36 +60041,36 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K829" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L829" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M829" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>889</v>
+        <v>933</v>
       </c>
       <c r="Q829" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R829" t="inlineStr">
         <is>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E830" t="n">
         <v>5</v>
@@ -60108,7 +60108,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
@@ -60117,32 +60117,32 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K830" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L830" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M830" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>722</v>
+        <v>1133</v>
       </c>
       <c r="Q830" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R830" t="inlineStr">
         <is>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K831" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L831" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M831" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>611</v>
+        <v>889</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60252,7 +60252,7 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
@@ -60261,16 +60261,16 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K832" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L832" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M832" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60324,7 +60324,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K833" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L833" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M833" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E834" t="n">
         <v>5</v>
@@ -60396,7 +60396,7 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
@@ -60408,29 +60408,29 @@
         <v>45</v>
       </c>
       <c r="K834" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L834" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M834" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>750</v>
+        <v>611</v>
       </c>
       <c r="Q834" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R834" t="inlineStr">
         <is>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E835" t="n">
         <v>5</v>
@@ -60468,41 +60468,41 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K835" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L835" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M835" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>1133</v>
+        <v>444</v>
       </c>
       <c r="Q835" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R835" t="inlineStr">
         <is>
@@ -60540,7 +60540,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -60549,7 +60549,7 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K836" t="n">
         <v>15000</v>
@@ -60562,19 +60562,19 @@
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="Q836" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J837" t="n">
         <v>35</v>
       </c>
       <c r="K837" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L837" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M837" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>867</v>
+        <v>1133</v>
       </c>
       <c r="Q837" t="n">
         <v>15</v>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -60696,13 +60696,13 @@
         <v>38</v>
       </c>
       <c r="K838" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L838" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M838" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>1133</v>
+        <v>1000</v>
       </c>
       <c r="Q838" t="n">
         <v>15</v>
@@ -60756,7 +60756,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -60768,13 +60768,13 @@
         <v>35</v>
       </c>
       <c r="K839" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L839" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M839" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="Q839" t="n">
         <v>15</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E840" t="n">
         <v>5</v>
@@ -60828,7 +60828,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -60837,16 +60837,16 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K840" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L840" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M840" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>1667</v>
+        <v>1133</v>
       </c>
       <c r="Q840" t="n">
         <v>15</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E841" t="n">
         <v>5</v>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K841" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L841" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M841" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>1400</v>
+        <v>933</v>
       </c>
       <c r="Q841" t="n">
         <v>15</v>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60984,13 +60984,13 @@
         <v>35</v>
       </c>
       <c r="K842" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L842" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M842" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="Q842" t="n">
         <v>15</v>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61056,13 +61056,13 @@
         <v>25</v>
       </c>
       <c r="K843" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L843" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M843" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>1133</v>
+        <v>1400</v>
       </c>
       <c r="Q843" t="n">
         <v>15</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E844" t="n">
         <v>5</v>
@@ -61116,7 +61116,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -61128,29 +61128,29 @@
         <v>35</v>
       </c>
       <c r="K844" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L844" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M844" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>500</v>
+        <v>1333</v>
       </c>
       <c r="Q844" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R844" t="inlineStr">
         <is>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E845" t="n">
         <v>5</v>
@@ -61188,7 +61188,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -61197,32 +61197,32 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K845" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L845" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M845" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>400</v>
+        <v>1133</v>
       </c>
       <c r="Q845" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61260,41 +61260,41 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J846" t="n">
         <v>35</v>
       </c>
       <c r="K846" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L846" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M846" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q846" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R846" t="inlineStr">
         <is>
@@ -61332,41 +61332,41 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J847" t="n">
         <v>38</v>
       </c>
       <c r="K847" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L847" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M847" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="Q847" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61409,20 +61409,20 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J848" t="n">
         <v>35</v>
       </c>
       <c r="K848" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L848" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M848" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61476,7 +61476,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
@@ -61488,13 +61488,13 @@
         <v>38</v>
       </c>
       <c r="K849" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L849" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M849" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61548,7 +61548,7 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
@@ -61560,13 +61560,13 @@
         <v>35</v>
       </c>
       <c r="K850" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L850" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M850" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E851" t="n">
         <v>5</v>
@@ -61620,7 +61620,7 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
@@ -61632,29 +61632,29 @@
         <v>38</v>
       </c>
       <c r="K851" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L851" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M851" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q851" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E852" t="n">
         <v>5</v>
@@ -61692,41 +61692,41 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J852" t="n">
         <v>35</v>
       </c>
       <c r="K852" t="n">
-        <v>31000</v>
+        <v>8000</v>
       </c>
       <c r="L852" t="n">
-        <v>31000</v>
+        <v>8000</v>
       </c>
       <c r="M852" t="n">
-        <v>31000</v>
+        <v>8000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>2067</v>
+        <v>444</v>
       </c>
       <c r="Q852" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R852" t="inlineStr">
         <is>
@@ -61764,41 +61764,41 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Zafiro s/e</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J853" t="n">
         <v>38</v>
       </c>
       <c r="K853" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L853" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M853" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>1533</v>
+        <v>800</v>
       </c>
       <c r="Q853" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R853" t="inlineStr">
         <is>
@@ -61836,25 +61836,25 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Zafiro s/e</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J854" t="n">
         <v>35</v>
       </c>
       <c r="K854" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="L854" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M854" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>1200</v>
+        <v>2067</v>
       </c>
       <c r="Q854" t="n">
         <v>15</v>
@@ -61908,25 +61908,25 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro s/e</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J855" t="n">
         <v>38</v>
       </c>
       <c r="K855" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L855" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M855" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>1067</v>
+        <v>1533</v>
       </c>
       <c r="Q855" t="n">
         <v>15</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E856" t="n">
         <v>5</v>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro s/e</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E857" t="n">
         <v>5</v>
@@ -62052,25 +62052,25 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J857" t="n">
         <v>38</v>
       </c>
       <c r="K857" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L857" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M857" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="Q857" t="n">
         <v>15</v>
@@ -62124,7 +62124,7 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
@@ -62133,16 +62133,16 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K858" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L858" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M858" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q858" t="n">
         <v>15</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62208,13 +62208,13 @@
         <v>38</v>
       </c>
       <c r="K859" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L859" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M859" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q859" t="n">
         <v>15</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E860" t="n">
         <v>5</v>
@@ -62268,41 +62268,41 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
         <v>38</v>
       </c>
       <c r="K860" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L860" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M860" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="Q860" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E861" t="n">
         <v>5</v>
@@ -62340,41 +62340,41 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J861" t="n">
         <v>38</v>
       </c>
       <c r="K861" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L861" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M861" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="Q861" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R861" t="inlineStr">
         <is>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K862" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L862" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M862" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>611</v>
+        <v>944</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62484,12 +62484,12 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J863" t="n">
@@ -62556,25 +62556,25 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K864" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L864" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M864" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K865" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L865" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M865" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E866" t="n">
         <v>5</v>
@@ -62700,25 +62700,25 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K866" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="L866" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="M866" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>1833</v>
+        <v>667</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E867" t="n">
         <v>5</v>
@@ -62772,25 +62772,25 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K867" t="n">
-        <v>31000</v>
+        <v>10000</v>
       </c>
       <c r="L867" t="n">
-        <v>31000</v>
+        <v>10000</v>
       </c>
       <c r="M867" t="n">
-        <v>31000</v>
+        <v>10000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>1722</v>
+        <v>556</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K868" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L868" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="M868" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62916,25 +62916,25 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K869" t="n">
-        <v>19000</v>
+        <v>31000</v>
       </c>
       <c r="L869" t="n">
-        <v>19000</v>
+        <v>31000</v>
       </c>
       <c r="M869" t="n">
-        <v>19000</v>
+        <v>31000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>1056</v>
+        <v>1722</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62988,25 +62988,25 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K870" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="L870" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="M870" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>889</v>
+        <v>1500</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K871" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L871" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M871" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>778</v>
+        <v>1056</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E872" t="n">
         <v>5</v>
@@ -63132,12 +63132,12 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J872" t="n">
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E873" t="n">
         <v>5</v>
@@ -63204,25 +63204,25 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K873" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L873" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M873" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K874" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L874" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M874" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63348,16 +63348,16 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K875" t="n">
         <v>13000</v>
@@ -63420,25 +63420,25 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K876" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L876" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M876" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q876" t="n">
         <v>18</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J877" t="n">
         <v>35</v>
       </c>
       <c r="K877" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L877" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M877" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E878" t="n">
         <v>5</v>
@@ -63564,7 +63564,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
@@ -63573,32 +63573,32 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K878" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L878" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M878" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>900</v>
+        <v>611</v>
       </c>
       <c r="Q878" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R878" t="inlineStr">
         <is>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E879" t="n">
         <v>5</v>
@@ -63636,41 +63636,41 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="K879" t="n">
-        <v>36000</v>
+        <v>9000</v>
       </c>
       <c r="L879" t="n">
-        <v>37000</v>
+        <v>9000</v>
       </c>
       <c r="M879" t="n">
-        <v>36538</v>
+        <v>9000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>2436</v>
+        <v>500</v>
       </c>
       <c r="Q879" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,7 +63717,7 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K880" t="n">
         <v>18000</v>
@@ -63730,19 +63730,19 @@
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Q880" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R880" t="inlineStr">
         <is>
@@ -63780,25 +63780,25 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="K881" t="n">
-        <v>14000</v>
+        <v>36000</v>
       </c>
       <c r="L881" t="n">
-        <v>14000</v>
+        <v>37000</v>
       </c>
       <c r="M881" t="n">
-        <v>14000</v>
+        <v>36538</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>933</v>
+        <v>2436</v>
       </c>
       <c r="Q881" t="n">
         <v>15</v>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63864,13 +63864,13 @@
         <v>35</v>
       </c>
       <c r="K882" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L882" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M882" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q882" t="n">
         <v>15</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E884" t="n">
         <v>5</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64008,13 +64008,13 @@
         <v>35</v>
       </c>
       <c r="K884" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L884" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M884" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>1600</v>
+        <v>1133</v>
       </c>
       <c r="Q884" t="n">
         <v>15</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E885" t="n">
         <v>5</v>
@@ -64068,7 +64068,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -64080,13 +64080,13 @@
         <v>38</v>
       </c>
       <c r="K885" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L885" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M885" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>1333</v>
+        <v>933</v>
       </c>
       <c r="Q885" t="n">
         <v>15</v>
@@ -64140,7 +64140,7 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -64152,13 +64152,13 @@
         <v>35</v>
       </c>
       <c r="K886" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L886" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M886" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q886" t="n">
         <v>15</v>
@@ -64212,7 +64212,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -64224,13 +64224,13 @@
         <v>38</v>
       </c>
       <c r="K887" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L887" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M887" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>933</v>
+        <v>1333</v>
       </c>
       <c r="Q887" t="n">
         <v>15</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E888" t="n">
         <v>5</v>
@@ -64284,25 +64284,25 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K888" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="L888" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="M888" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>2133</v>
+        <v>1200</v>
       </c>
       <c r="Q888" t="n">
         <v>15</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E889" t="n">
         <v>5</v>
@@ -64356,25 +64356,25 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J889" t="n">
         <v>38</v>
       </c>
       <c r="K889" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="L889" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="M889" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>1867</v>
+        <v>933</v>
       </c>
       <c r="Q889" t="n">
         <v>15</v>
@@ -64428,25 +64428,25 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J890" t="n">
         <v>38</v>
       </c>
       <c r="K890" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L890" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M890" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>1667</v>
+        <v>2133</v>
       </c>
       <c r="Q890" t="n">
         <v>15</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K891" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L891" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M891" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>1467</v>
+        <v>1867</v>
       </c>
       <c r="Q891" t="n">
         <v>15</v>
@@ -64572,7 +64572,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
@@ -64584,13 +64584,13 @@
         <v>38</v>
       </c>
       <c r="K892" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L892" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M892" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>933</v>
+        <v>1667</v>
       </c>
       <c r="Q892" t="n">
         <v>15</v>
@@ -64644,7 +64644,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
@@ -64656,13 +64656,13 @@
         <v>35</v>
       </c>
       <c r="K893" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L893" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M893" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>800</v>
+        <v>1467</v>
       </c>
       <c r="Q893" t="n">
         <v>15</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -64716,41 +64716,41 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K894" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L894" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M894" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="Q894" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -64788,41 +64788,41 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K895" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L895" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M895" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q895" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R895" t="inlineStr">
         <is>
@@ -64865,20 +64865,20 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J896" t="n">
         <v>35</v>
       </c>
       <c r="K896" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L896" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M896" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>611</v>
+        <v>944</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64932,7 +64932,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K897" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L897" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M897" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -65004,7 +65004,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K898" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L898" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M898" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E899" t="n">
         <v>5</v>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65085,32 +65085,32 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K899" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L899" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M899" t="n">
-        <v>20521</v>
+        <v>12000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>1026</v>
+        <v>667</v>
       </c>
       <c r="Q899" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E900" t="n">
         <v>5</v>
@@ -65148,41 +65148,41 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K900" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L900" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M900" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q900" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,32 +65229,32 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K901" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L901" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M901" t="n">
-        <v>16000</v>
+        <v>20521</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>1067</v>
+        <v>1026</v>
       </c>
       <c r="Q901" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J902" t="n">
         <v>38</v>
       </c>
       <c r="K902" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L902" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M902" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q902" t="n">
         <v>15</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,7 +65445,7 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K904" t="n">
         <v>13000</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E905" t="n">
         <v>5</v>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -65520,13 +65520,13 @@
         <v>35</v>
       </c>
       <c r="K905" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L905" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="M905" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>2200</v>
+        <v>1067</v>
       </c>
       <c r="Q905" t="n">
         <v>15</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K906" t="n">
-        <v>29000</v>
+        <v>13000</v>
       </c>
       <c r="L906" t="n">
-        <v>29000</v>
+        <v>13000</v>
       </c>
       <c r="M906" t="n">
-        <v>29000</v>
+        <v>13000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>1933</v>
+        <v>867</v>
       </c>
       <c r="Q906" t="n">
         <v>15</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K907" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L907" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M907" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>1867</v>
+        <v>2200</v>
       </c>
       <c r="Q907" t="n">
         <v>15</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E908" t="n">
         <v>5</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K908" t="n">
-        <v>17000</v>
+        <v>29000</v>
       </c>
       <c r="L908" t="n">
-        <v>17000</v>
+        <v>29000</v>
       </c>
       <c r="M908" t="n">
-        <v>17000</v>
+        <v>29000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>1133</v>
+        <v>1933</v>
       </c>
       <c r="Q908" t="n">
         <v>15</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E909" t="n">
         <v>5</v>
@@ -65796,7 +65796,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K909" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="L909" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="M909" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65823,11 +65823,11 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>1000</v>
+        <v>1867</v>
       </c>
       <c r="Q909" t="n">
         <v>15</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K910" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L910" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M910" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q910" t="n">
         <v>15</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,7 +65949,7 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K911" t="n">
         <v>15000</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,7 +66021,7 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K912" t="n">
         <v>12000</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E913" t="n">
         <v>5</v>
@@ -66084,41 +66084,41 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K913" t="n">
-        <v>43000</v>
+        <v>15000</v>
       </c>
       <c r="L913" t="n">
-        <v>43000</v>
+        <v>15000</v>
       </c>
       <c r="M913" t="n">
-        <v>43000</v>
+        <v>15000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>2389</v>
+        <v>1000</v>
       </c>
       <c r="Q913" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E914" t="n">
         <v>5</v>
@@ -66156,41 +66156,41 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K914" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L914" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M914" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>1944</v>
+        <v>800</v>
       </c>
       <c r="Q914" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R914" t="inlineStr">
         <is>
@@ -66228,7 +66228,7 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K915" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L915" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="M915" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>1333</v>
+        <v>2389</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K916" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="L916" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M916" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>1222</v>
+        <v>1944</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K917" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L917" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M917" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66453,32 +66453,32 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K918" t="n">
-        <v>41000</v>
+        <v>22000</v>
       </c>
       <c r="L918" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="M918" t="n">
-        <v>41521</v>
+        <v>22000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>2768</v>
+        <v>1222</v>
       </c>
       <c r="Q918" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R918" t="inlineStr">
         <is>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E919" t="n">
         <v>5</v>
@@ -66516,7 +66516,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
@@ -66525,32 +66525,32 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K919" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="L919" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="M919" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="Q919" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K920" t="n">
-        <v>37000</v>
+        <v>41000</v>
       </c>
       <c r="L920" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="M920" t="n">
-        <v>37000</v>
+        <v>41521</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>2467</v>
+        <v>2768</v>
       </c>
       <c r="Q920" t="n">
         <v>15</v>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K921" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="L921" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="M921" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>2133</v>
+        <v>2400</v>
       </c>
       <c r="Q921" t="n">
         <v>15</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E922" t="n">
         <v>5</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,32 +66741,32 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K922" t="n">
-        <v>13000</v>
+        <v>37000</v>
       </c>
       <c r="L922" t="n">
-        <v>13000</v>
+        <v>37000</v>
       </c>
       <c r="M922" t="n">
-        <v>13000</v>
+        <v>37000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>650</v>
+        <v>2467</v>
       </c>
       <c r="Q922" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E923" t="n">
         <v>5</v>
@@ -66804,7 +66804,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -66813,32 +66813,32 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K923" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="L923" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="M923" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>500</v>
+        <v>2133</v>
       </c>
       <c r="Q923" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66876,41 +66876,41 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J924" t="n">
         <v>40</v>
       </c>
       <c r="K924" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L924" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M924" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>1222</v>
+        <v>650</v>
       </c>
       <c r="Q924" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66948,41 +66948,41 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J925" t="n">
         <v>40</v>
       </c>
       <c r="K925" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L925" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M925" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q925" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K926" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L926" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M926" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67104,13 +67104,13 @@
         <v>40</v>
       </c>
       <c r="K927" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L927" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M927" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K928" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L928" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M928" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E929" t="n">
         <v>5</v>
@@ -67236,25 +67236,25 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K929" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L929" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M929" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E930" t="n">
         <v>5</v>
@@ -67308,25 +67308,25 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K930" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L930" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M930" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>1111</v>
+        <v>444</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J931" t="n">
         <v>35</v>
       </c>
       <c r="K931" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L931" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M931" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>944</v>
+        <v>1333</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K932" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L932" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M932" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>889</v>
+        <v>1111</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K933" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L933" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M933" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E934" t="n">
         <v>5</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,32 +67605,32 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K934" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="L934" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="M934" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>1700</v>
+        <v>889</v>
       </c>
       <c r="Q934" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E935" t="n">
         <v>5</v>
@@ -67668,41 +67668,41 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J935" t="n">
         <v>38</v>
       </c>
       <c r="K935" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="L935" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="M935" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>2200</v>
+        <v>778</v>
       </c>
       <c r="Q935" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67740,41 +67740,41 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K936" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L936" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M936" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>1867</v>
+        <v>1700</v>
       </c>
       <c r="Q936" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67812,7 +67812,7 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
@@ -67824,13 +67824,13 @@
         <v>38</v>
       </c>
       <c r="K937" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L937" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="M937" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>1933</v>
+        <v>2200</v>
       </c>
       <c r="Q937" t="n">
         <v>15</v>
@@ -67884,7 +67884,7 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K938" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L938" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M938" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>1667</v>
+        <v>1867</v>
       </c>
       <c r="Q938" t="n">
         <v>15</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -67956,41 +67956,41 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J939" t="n">
         <v>38</v>
       </c>
       <c r="K939" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="L939" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="M939" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>2333</v>
+        <v>1933</v>
       </c>
       <c r="Q939" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E940" t="n">
         <v>5</v>
@@ -68028,41 +68028,41 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K940" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L940" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M940" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>2056</v>
+        <v>1667</v>
       </c>
       <c r="Q940" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68100,25 +68100,25 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J941" t="n">
         <v>38</v>
       </c>
       <c r="K941" t="n">
-        <v>18000</v>
+        <v>42000</v>
       </c>
       <c r="L941" t="n">
-        <v>18000</v>
+        <v>42000</v>
       </c>
       <c r="M941" t="n">
-        <v>18000</v>
+        <v>42000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>1000</v>
+        <v>2333</v>
       </c>
       <c r="Q941" t="n">
         <v>18</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E942" t="n">
         <v>5</v>
@@ -68181,7 +68181,7 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K942" t="n">
         <v>37000</v>
@@ -68194,19 +68194,19 @@
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>2467</v>
+        <v>2056</v>
       </c>
       <c r="Q942" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E943" t="n">
         <v>5</v>
@@ -68244,41 +68244,41 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K943" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L943" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="M943" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="Q943" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K944" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="L944" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="M944" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>2267</v>
+        <v>2467</v>
       </c>
       <c r="Q944" t="n">
         <v>15</v>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
@@ -68400,13 +68400,13 @@
         <v>35</v>
       </c>
       <c r="K945" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="L945" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="M945" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>2067</v>
+        <v>2200</v>
       </c>
       <c r="Q945" t="n">
         <v>15</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68460,41 +68460,41 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J946" t="n">
         <v>35</v>
       </c>
       <c r="K946" t="n">
-        <v>43000</v>
+        <v>34000</v>
       </c>
       <c r="L946" t="n">
-        <v>43000</v>
+        <v>34000</v>
       </c>
       <c r="M946" t="n">
-        <v>43000</v>
+        <v>34000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>2389</v>
+        <v>2267</v>
       </c>
       <c r="Q946" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R946" t="inlineStr">
         <is>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68532,41 +68532,41 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K947" t="n">
-        <v>38000</v>
+        <v>31000</v>
       </c>
       <c r="L947" t="n">
-        <v>38000</v>
+        <v>31000</v>
       </c>
       <c r="M947" t="n">
-        <v>38000</v>
+        <v>31000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>2111</v>
+        <v>2067</v>
       </c>
       <c r="Q947" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R947" t="inlineStr">
         <is>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K948" t="n">
-        <v>35000</v>
+        <v>43000</v>
       </c>
       <c r="L948" t="n">
-        <v>35000</v>
+        <v>43000</v>
       </c>
       <c r="M948" t="n">
-        <v>35000</v>
+        <v>43000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>1944</v>
+        <v>2389</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68676,25 +68676,25 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J949" t="n">
         <v>40</v>
       </c>
       <c r="K949" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="L949" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="M949" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>1222</v>
+        <v>2111</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68748,25 +68748,25 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K950" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L950" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M950" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>1000</v>
+        <v>1944</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J951" t="n">
         <v>40</v>
       </c>
       <c r="K951" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L951" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M951" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>889</v>
+        <v>1222</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E952" t="n">
         <v>5</v>
@@ -68892,25 +68892,25 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K952" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L952" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M952" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E953" t="n">
         <v>5</v>
@@ -68964,25 +68964,25 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K953" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L953" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M953" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="Q953" t="n">
         <v>18</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K954" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L954" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M954" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69108,7 +69108,7 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K955" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L955" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M955" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q955" t="n">
         <v>18</v>
@@ -69180,7 +69180,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K956" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L956" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M956" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q956" t="n">
         <v>18</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E957" t="n">
         <v>5</v>
@@ -69252,41 +69252,41 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K957" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L957" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M957" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>1133</v>
+        <v>556</v>
       </c>
       <c r="Q957" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R957" t="inlineStr">
         <is>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69324,41 +69324,41 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K958" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L958" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M958" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q958" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69401,20 +69401,20 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K959" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L959" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M959" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q959" t="n">
         <v>15</v>
@@ -69468,7 +69468,7 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K960" t="n">
         <v>15000</v>
       </c>
       <c r="L960" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M960" t="n">
-        <v>15511</v>
+        <v>15000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>1034</v>
+        <v>1000</v>
       </c>
       <c r="Q960" t="n">
         <v>15</v>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="K961" t="n">
         <v>12000</v>
       </c>
       <c r="L961" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M961" t="n">
-        <v>12545</v>
+        <v>12000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>836</v>
+        <v>800</v>
       </c>
       <c r="Q961" t="n">
         <v>15</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E962" t="n">
         <v>5</v>
@@ -69612,41 +69612,41 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="K962" t="n">
         <v>15000</v>
       </c>
       <c r="L962" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M962" t="n">
-        <v>15000</v>
+        <v>15511</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>833</v>
+        <v>1034</v>
       </c>
       <c r="Q962" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E963" t="n">
         <v>5</v>
@@ -69684,41 +69684,41 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="K963" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L963" t="n">
         <v>13000</v>
       </c>
       <c r="M963" t="n">
-        <v>13000</v>
+        <v>12545</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>722</v>
+        <v>836</v>
       </c>
       <c r="Q963" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69761,20 +69761,20 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J964" t="n">
         <v>35</v>
       </c>
       <c r="K964" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L964" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M964" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69828,25 +69828,25 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J965" t="n">
         <v>38</v>
       </c>
       <c r="K965" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L965" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M965" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69900,16 +69900,16 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K966" t="n">
         <v>10000</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K967" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L967" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M967" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -70053,32 +70053,32 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K968" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L968" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M968" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="Q968" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E969" t="n">
         <v>5</v>
@@ -70116,7 +70116,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -70125,32 +70125,32 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K969" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L969" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M969" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="Q969" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70188,41 +70188,41 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J970" t="n">
         <v>35</v>
       </c>
       <c r="K970" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L970" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M970" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>1167</v>
+        <v>600</v>
       </c>
       <c r="Q970" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70260,41 +70260,41 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J971" t="n">
         <v>38</v>
       </c>
       <c r="K971" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L971" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M971" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>944</v>
+        <v>500</v>
       </c>
       <c r="Q971" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70332,7 +70332,7 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -70341,16 +70341,16 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K972" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L972" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M972" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>889</v>
+        <v>1167</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70404,7 +70404,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -70416,13 +70416,13 @@
         <v>38</v>
       </c>
       <c r="K973" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L973" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M973" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J974" t="n">
         <v>38</v>
       </c>
       <c r="K974" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L974" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M974" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="Q974" t="n">
         <v>18</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E975" t="n">
         <v>5</v>
@@ -70548,7 +70548,7 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
@@ -70557,32 +70557,32 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K975" t="n">
-        <v>31000</v>
+        <v>14000</v>
       </c>
       <c r="L975" t="n">
-        <v>31000</v>
+        <v>14000</v>
       </c>
       <c r="M975" t="n">
-        <v>31000</v>
+        <v>14000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>2067</v>
+        <v>778</v>
       </c>
       <c r="Q975" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E976" t="n">
         <v>5</v>
@@ -70620,7 +70620,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -70629,32 +70629,32 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K976" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L976" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M976" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>1667</v>
+        <v>667</v>
       </c>
       <c r="Q976" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70692,7 +70692,7 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K977" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="L977" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="M977" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,12 +70723,156 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>1600</v>
+        <v>2067</v>
       </c>
       <c r="Q977" t="n">
         <v>15</v>
       </c>
       <c r="R977" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>3</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D978" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E978" t="n">
+        <v>5</v>
+      </c>
+      <c r="F978" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J978" t="n">
+        <v>35</v>
+      </c>
+      <c r="K978" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L978" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M978" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N978" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O978" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P978" t="n">
+        <v>1667</v>
+      </c>
+      <c r="Q978" t="n">
+        <v>15</v>
+      </c>
+      <c r="R978" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>3</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D979" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E979" t="n">
+        <v>5</v>
+      </c>
+      <c r="F979" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J979" t="n">
+        <v>38</v>
+      </c>
+      <c r="K979" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L979" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M979" t="n">
+        <v>24000</v>
+      </c>
+      <c r="N979" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O979" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P979" t="n">
+        <v>1600</v>
+      </c>
+      <c r="Q979" t="n">
+        <v>15</v>
+      </c>
+      <c r="R979" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1009"/>
+  <dimension ref="A1:R1012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E872" t="n">
         <v>5</v>
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K872" t="n">
-        <v>25000</v>
+        <v>41000</v>
       </c>
       <c r="L872" t="n">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="M872" t="n">
-        <v>25000</v>
+        <v>41479</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>1667</v>
+        <v>2765</v>
       </c>
       <c r="Q872" t="n">
         <v>15</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E873" t="n">
         <v>5</v>
@@ -63204,25 +63204,25 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="K873" t="n">
-        <v>21000</v>
+        <v>37000</v>
       </c>
       <c r="L873" t="n">
-        <v>21000</v>
+        <v>38000</v>
       </c>
       <c r="M873" t="n">
-        <v>21000</v>
+        <v>37521</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>1400</v>
+        <v>2501</v>
       </c>
       <c r="Q873" t="n">
         <v>15</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E874" t="n">
         <v>5</v>
@@ -63285,32 +63285,32 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K874" t="n">
-        <v>20000</v>
+        <v>41000</v>
       </c>
       <c r="L874" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="M874" t="n">
-        <v>20000</v>
+        <v>41479</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>1333</v>
+        <v>2304</v>
       </c>
       <c r="Q874" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63348,25 +63348,25 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K875" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L875" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M875" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1133</v>
+        <v>1667</v>
       </c>
       <c r="Q875" t="n">
         <v>15</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E876" t="n">
         <v>5</v>
@@ -63420,41 +63420,41 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K876" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="L876" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="M876" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="Q876" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R876" t="inlineStr">
         <is>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E877" t="n">
         <v>5</v>
@@ -63492,41 +63492,41 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K877" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L877" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M877" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>400</v>
+        <v>1333</v>
       </c>
       <c r="Q877" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R877" t="inlineStr">
         <is>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E878" t="n">
         <v>5</v>
@@ -63564,41 +63564,41 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K878" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L878" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M878" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>833</v>
+        <v>1133</v>
       </c>
       <c r="Q878" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R878" t="inlineStr">
         <is>
@@ -63636,7 +63636,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -63645,32 +63645,32 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K879" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L879" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M879" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q879" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,32 +63717,32 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K880" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L880" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M880" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q880" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R880" t="inlineStr">
         <is>
@@ -63780,25 +63780,25 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K881" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L881" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M881" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63852,25 +63852,25 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K882" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L882" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M882" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q882" t="n">
         <v>18</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E883" t="n">
         <v>5</v>
@@ -63924,41 +63924,41 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K883" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L883" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M883" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q883" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E884" t="n">
         <v>5</v>
@@ -63996,41 +63996,41 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K884" t="n">
-        <v>31000</v>
+        <v>10000</v>
       </c>
       <c r="L884" t="n">
-        <v>31000</v>
+        <v>10000</v>
       </c>
       <c r="M884" t="n">
-        <v>31000</v>
+        <v>10000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>2067</v>
+        <v>556</v>
       </c>
       <c r="Q884" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R884" t="inlineStr">
         <is>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E885" t="n">
         <v>5</v>
@@ -64068,41 +64068,41 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Zafiro s/e</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K885" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="L885" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="M885" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>1533</v>
+        <v>444</v>
       </c>
       <c r="Q885" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R885" t="inlineStr">
         <is>
@@ -64140,7 +64140,7 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Zafiro s/e</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -64149,32 +64149,32 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K886" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L886" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M886" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q886" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R886" t="inlineStr">
         <is>
@@ -64212,25 +64212,25 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K887" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L887" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="M887" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>1067</v>
+        <v>2067</v>
       </c>
       <c r="Q887" t="n">
         <v>15</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E888" t="n">
         <v>5</v>
@@ -64284,25 +64284,25 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro s/e</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K888" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L888" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M888" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>1200</v>
+        <v>1533</v>
       </c>
       <c r="Q888" t="n">
         <v>15</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E889" t="n">
         <v>5</v>
@@ -64356,25 +64356,25 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro s/e</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K889" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L889" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M889" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q889" t="n">
         <v>15</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E890" t="n">
         <v>5</v>
@@ -64440,13 +64440,13 @@
         <v>38</v>
       </c>
       <c r="K890" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L890" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M890" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="Q890" t="n">
         <v>15</v>
@@ -64500,25 +64500,25 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K891" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L891" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M891" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q891" t="n">
         <v>15</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E892" t="n">
         <v>5</v>
@@ -64577,36 +64577,36 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J892" t="n">
         <v>38</v>
       </c>
       <c r="K892" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L892" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M892" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="Q892" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E893" t="n">
         <v>5</v>
@@ -64644,7 +64644,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
@@ -64656,29 +64656,29 @@
         <v>38</v>
       </c>
       <c r="K893" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L893" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M893" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="Q893" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R893" t="inlineStr">
         <is>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -64716,7 +64716,7 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -64725,32 +64725,32 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K894" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L894" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M894" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>611</v>
+        <v>867</v>
       </c>
       <c r="Q894" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64788,7 +64788,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -64800,13 +64800,13 @@
         <v>38</v>
       </c>
       <c r="K895" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L895" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M895" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -64872,13 +64872,13 @@
         <v>38</v>
       </c>
       <c r="K896" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L896" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M896" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64932,7 +64932,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -64944,13 +64944,13 @@
         <v>35</v>
       </c>
       <c r="K897" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L897" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M897" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E898" t="n">
         <v>5</v>
@@ -65004,7 +65004,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K898" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="L898" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="M898" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>1833</v>
+        <v>778</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E899" t="n">
         <v>5</v>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65088,13 +65088,13 @@
         <v>38</v>
       </c>
       <c r="K899" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="L899" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="M899" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>1722</v>
+        <v>667</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E900" t="n">
         <v>5</v>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -65160,13 +65160,13 @@
         <v>35</v>
       </c>
       <c r="K900" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="L900" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="M900" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>1500</v>
+        <v>556</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K901" t="n">
-        <v>19000</v>
+        <v>33000</v>
       </c>
       <c r="L901" t="n">
-        <v>19000</v>
+        <v>33000</v>
       </c>
       <c r="M901" t="n">
-        <v>19000</v>
+        <v>33000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>1056</v>
+        <v>1833</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65304,13 +65304,13 @@
         <v>38</v>
       </c>
       <c r="K902" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L902" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="M902" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>889</v>
+        <v>1722</v>
       </c>
       <c r="Q902" t="n">
         <v>18</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K903" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="L903" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="M903" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>778</v>
+        <v>1500</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E904" t="n">
         <v>5</v>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K904" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L904" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M904" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>889</v>
+        <v>1056</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E905" t="n">
         <v>5</v>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -65520,13 +65520,13 @@
         <v>38</v>
       </c>
       <c r="K905" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L905" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M905" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K906" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L906" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M906" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K907" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L907" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M907" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65736,13 +65736,13 @@
         <v>38</v>
       </c>
       <c r="K908" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L908" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M908" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65796,7 +65796,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -65808,13 +65808,13 @@
         <v>35</v>
       </c>
       <c r="K909" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L909" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M909" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E910" t="n">
         <v>5</v>
@@ -65868,41 +65868,41 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K910" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L910" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M910" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="Q910" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R910" t="inlineStr">
         <is>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E911" t="n">
         <v>5</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,32 +65949,32 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="K911" t="n">
-        <v>36000</v>
+        <v>11000</v>
       </c>
       <c r="L911" t="n">
-        <v>37000</v>
+        <v>11000</v>
       </c>
       <c r="M911" t="n">
-        <v>36538</v>
+        <v>11000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>2436</v>
+        <v>611</v>
       </c>
       <c r="Q911" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E912" t="n">
         <v>5</v>
@@ -66012,41 +66012,41 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J912" t="n">
         <v>35</v>
       </c>
       <c r="K912" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L912" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M912" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q912" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66084,41 +66084,41 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K913" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L913" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M913" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="Q913" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="K914" t="n">
-        <v>17000</v>
+        <v>36000</v>
       </c>
       <c r="L914" t="n">
-        <v>17000</v>
+        <v>37000</v>
       </c>
       <c r="M914" t="n">
-        <v>17000</v>
+        <v>36538</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>1133</v>
+        <v>2436</v>
       </c>
       <c r="Q914" t="n">
         <v>15</v>
@@ -66228,25 +66228,25 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K915" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L915" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M915" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>933</v>
+        <v>1200</v>
       </c>
       <c r="Q915" t="n">
         <v>15</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E916" t="n">
         <v>5</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K916" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L916" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M916" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>1600</v>
+        <v>933</v>
       </c>
       <c r="Q916" t="n">
         <v>15</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E917" t="n">
         <v>5</v>
@@ -66372,25 +66372,25 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K917" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L917" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M917" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>1333</v>
+        <v>1133</v>
       </c>
       <c r="Q917" t="n">
         <v>15</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K918" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L918" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M918" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>1200</v>
+        <v>933</v>
       </c>
       <c r="Q918" t="n">
         <v>15</v>
@@ -66516,25 +66516,25 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K919" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L919" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M919" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>933</v>
+        <v>1600</v>
       </c>
       <c r="Q919" t="n">
         <v>15</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66588,25 +66588,25 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J920" t="n">
         <v>38</v>
       </c>
       <c r="K920" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="L920" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M920" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>2133</v>
+        <v>1333</v>
       </c>
       <c r="Q920" t="n">
         <v>15</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E921" t="n">
         <v>5</v>
@@ -66660,25 +66660,25 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K921" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L921" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M921" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>1867</v>
+        <v>1200</v>
       </c>
       <c r="Q921" t="n">
         <v>15</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E922" t="n">
         <v>5</v>
@@ -66732,25 +66732,25 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J922" t="n">
         <v>38</v>
       </c>
       <c r="K922" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="L922" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M922" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>1667</v>
+        <v>933</v>
       </c>
       <c r="Q922" t="n">
         <v>15</v>
@@ -66804,25 +66804,25 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K923" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="L923" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M923" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>1467</v>
+        <v>2133</v>
       </c>
       <c r="Q923" t="n">
         <v>15</v>
@@ -66876,25 +66876,25 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J924" t="n">
         <v>38</v>
       </c>
       <c r="K924" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="L924" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="M924" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>933</v>
+        <v>1867</v>
       </c>
       <c r="Q924" t="n">
         <v>15</v>
@@ -66948,25 +66948,25 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K925" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L925" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M925" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>800</v>
+        <v>1667</v>
       </c>
       <c r="Q925" t="n">
         <v>15</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E926" t="n">
         <v>5</v>
@@ -67025,36 +67025,36 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J926" t="n">
         <v>35</v>
       </c>
       <c r="K926" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L926" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M926" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>944</v>
+        <v>1467</v>
       </c>
       <c r="Q926" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E927" t="n">
         <v>5</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67104,29 +67104,29 @@
         <v>38</v>
       </c>
       <c r="K927" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L927" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M927" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q927" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R927" t="inlineStr">
         <is>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E928" t="n">
         <v>5</v>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
@@ -67176,29 +67176,29 @@
         <v>35</v>
       </c>
       <c r="K928" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L928" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M928" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="Q928" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67236,25 +67236,25 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K929" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L929" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M929" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67308,25 +67308,25 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K930" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L930" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M930" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E931" t="n">
         <v>5</v>
@@ -67380,41 +67380,41 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K931" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L931" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="M931" t="n">
-        <v>20521</v>
+        <v>11000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>1026</v>
+        <v>611</v>
       </c>
       <c r="Q931" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E932" t="n">
         <v>5</v>
@@ -67452,41 +67452,41 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K932" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L932" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M932" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q932" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E933" t="n">
         <v>5</v>
@@ -67524,41 +67524,41 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K933" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L933" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M933" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>1067</v>
+        <v>500</v>
       </c>
       <c r="Q933" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67596,41 +67596,41 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K934" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L934" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M934" t="n">
-        <v>13000</v>
+        <v>20521</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>867</v>
+        <v>1026</v>
       </c>
       <c r="Q934" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67668,25 +67668,25 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K935" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L935" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M935" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>1067</v>
+        <v>1200</v>
       </c>
       <c r="Q935" t="n">
         <v>15</v>
@@ -67740,25 +67740,25 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J936" t="n">
         <v>35</v>
       </c>
       <c r="K936" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L936" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M936" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="Q936" t="n">
         <v>15</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K937" t="n">
-        <v>33000</v>
+        <v>13000</v>
       </c>
       <c r="L937" t="n">
-        <v>33000</v>
+        <v>13000</v>
       </c>
       <c r="M937" t="n">
-        <v>33000</v>
+        <v>13000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>2200</v>
+        <v>867</v>
       </c>
       <c r="Q937" t="n">
         <v>15</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E938" t="n">
         <v>5</v>
@@ -67884,25 +67884,25 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K938" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L938" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="M938" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>1933</v>
+        <v>1067</v>
       </c>
       <c r="Q938" t="n">
         <v>15</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K939" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="L939" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="M939" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>1867</v>
+        <v>867</v>
       </c>
       <c r="Q939" t="n">
         <v>15</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E940" t="n">
         <v>5</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K940" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L940" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="M940" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>1133</v>
+        <v>2200</v>
       </c>
       <c r="Q940" t="n">
         <v>15</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E941" t="n">
         <v>5</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K941" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="L941" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="M941" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>1000</v>
+        <v>1933</v>
       </c>
       <c r="Q941" t="n">
         <v>15</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E942" t="n">
         <v>5</v>
@@ -68172,25 +68172,25 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J942" t="n">
         <v>38</v>
       </c>
       <c r="K942" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="L942" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="M942" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>800</v>
+        <v>1867</v>
       </c>
       <c r="Q942" t="n">
         <v>15</v>
@@ -68244,25 +68244,25 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K943" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L943" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M943" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>1000</v>
+        <v>1133</v>
       </c>
       <c r="Q943" t="n">
         <v>15</v>
@@ -68316,25 +68316,25 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
         <v>40</v>
       </c>
       <c r="K944" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L944" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M944" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q944" t="n">
         <v>15</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
@@ -68393,36 +68393,36 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K945" t="n">
-        <v>43000</v>
+        <v>12000</v>
       </c>
       <c r="L945" t="n">
-        <v>43000</v>
+        <v>12000</v>
       </c>
       <c r="M945" t="n">
-        <v>43000</v>
+        <v>12000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>2389</v>
+        <v>800</v>
       </c>
       <c r="Q945" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,32 +68469,32 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="K946" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L946" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M946" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>1944</v>
+        <v>1000</v>
       </c>
       <c r="Q946" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R946" t="inlineStr">
         <is>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68537,36 +68537,36 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K947" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L947" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M947" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>1333</v>
+        <v>800</v>
       </c>
       <c r="Q947" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R947" t="inlineStr">
         <is>
@@ -68604,25 +68604,25 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K948" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L948" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="M948" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>1222</v>
+        <v>2389</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68676,25 +68676,25 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K949" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L949" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M949" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>1000</v>
+        <v>1944</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E950" t="n">
         <v>5</v>
@@ -68748,41 +68748,41 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="K950" t="n">
-        <v>41000</v>
+        <v>24000</v>
       </c>
       <c r="L950" t="n">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="M950" t="n">
-        <v>41521</v>
+        <v>24000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>2768</v>
+        <v>1333</v>
       </c>
       <c r="Q950" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E951" t="n">
         <v>5</v>
@@ -68820,41 +68820,41 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J951" t="n">
         <v>35</v>
       </c>
       <c r="K951" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="L951" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="M951" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>2400</v>
+        <v>1222</v>
       </c>
       <c r="Q951" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E952" t="n">
         <v>5</v>
@@ -68897,36 +68897,36 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K952" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="L952" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="M952" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>2467</v>
+        <v>1000</v>
       </c>
       <c r="Q952" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68964,25 +68964,25 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K953" t="n">
-        <v>32000</v>
+        <v>41000</v>
       </c>
       <c r="L953" t="n">
-        <v>32000</v>
+        <v>42000</v>
       </c>
       <c r="M953" t="n">
-        <v>32000</v>
+        <v>41521</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>2133</v>
+        <v>2768</v>
       </c>
       <c r="Q953" t="n">
         <v>15</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E954" t="n">
         <v>5</v>
@@ -69036,41 +69036,41 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K954" t="n">
-        <v>13000</v>
+        <v>36000</v>
       </c>
       <c r="L954" t="n">
-        <v>13000</v>
+        <v>36000</v>
       </c>
       <c r="M954" t="n">
-        <v>13000</v>
+        <v>36000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>650</v>
+        <v>2400</v>
       </c>
       <c r="Q954" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E955" t="n">
         <v>5</v>
@@ -69108,41 +69108,41 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K955" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="L955" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="M955" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>500</v>
+        <v>2467</v>
       </c>
       <c r="Q955" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E956" t="n">
         <v>5</v>
@@ -69180,41 +69180,41 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K956" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="L956" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M956" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>1222</v>
+        <v>2133</v>
       </c>
       <c r="Q956" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69264,29 +69264,29 @@
         <v>40</v>
       </c>
       <c r="K957" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L957" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M957" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q957" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R957" t="inlineStr">
         <is>
@@ -69324,7 +69324,7 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
@@ -69333,32 +69333,32 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K958" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L958" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M958" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q958" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69396,25 +69396,25 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J959" t="n">
         <v>40</v>
       </c>
       <c r="K959" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L959" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M959" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>667</v>
+        <v>1222</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69468,25 +69468,25 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K960" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L960" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M960" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E961" t="n">
         <v>5</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K961" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L961" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M961" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>1333</v>
+        <v>833</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E962" t="n">
         <v>5</v>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K962" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L962" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M962" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>1111</v>
+        <v>667</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E963" t="n">
         <v>5</v>
@@ -69684,7 +69684,7 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K963" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L963" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M963" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69756,25 +69756,25 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J964" t="n">
         <v>35</v>
       </c>
       <c r="K964" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L964" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="M964" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>889</v>
+        <v>1333</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69828,25 +69828,25 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J965" t="n">
         <v>38</v>
       </c>
       <c r="K965" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L965" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M965" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E966" t="n">
         <v>5</v>
@@ -69900,41 +69900,41 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K966" t="n">
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="L966" t="n">
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="M966" t="n">
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>1700</v>
+        <v>944</v>
       </c>
       <c r="Q966" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E967" t="n">
         <v>5</v>
@@ -69972,7 +69972,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -69981,32 +69981,32 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K967" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L967" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="M967" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>2200</v>
+        <v>889</v>
       </c>
       <c r="Q967" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -70053,32 +70053,32 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K968" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="L968" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="M968" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>1867</v>
+        <v>778</v>
       </c>
       <c r="Q968" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70116,7 +70116,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -70125,32 +70125,32 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K969" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="L969" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M969" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>1933</v>
+        <v>1700</v>
       </c>
       <c r="Q969" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70188,25 +70188,25 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K970" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L970" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M970" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>1667</v>
+        <v>2200</v>
       </c>
       <c r="Q970" t="n">
         <v>15</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E971" t="n">
         <v>5</v>
@@ -70265,36 +70265,36 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K971" t="n">
-        <v>42000</v>
+        <v>28000</v>
       </c>
       <c r="L971" t="n">
-        <v>42000</v>
+        <v>28000</v>
       </c>
       <c r="M971" t="n">
-        <v>42000</v>
+        <v>28000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>2333</v>
+        <v>1867</v>
       </c>
       <c r="Q971" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E972" t="n">
         <v>5</v>
@@ -70332,7 +70332,7 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -70341,32 +70341,32 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K972" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="L972" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="M972" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>2056</v>
+        <v>1933</v>
       </c>
       <c r="Q972" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E973" t="n">
         <v>5</v>
@@ -70409,36 +70409,36 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K973" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L973" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M973" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="Q973" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E974" t="n">
         <v>5</v>
@@ -70481,36 +70481,36 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K974" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="L974" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="M974" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>2467</v>
+        <v>2333</v>
       </c>
       <c r="Q974" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E975" t="n">
         <v>5</v>
@@ -70553,36 +70553,36 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
         <v>35</v>
       </c>
       <c r="K975" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="L975" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="M975" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>2200</v>
+        <v>2056</v>
       </c>
       <c r="Q975" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E976" t="n">
         <v>5</v>
@@ -70629,32 +70629,32 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K976" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="L976" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="M976" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>2267</v>
+        <v>1000</v>
       </c>
       <c r="Q976" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70692,25 +70692,25 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K977" t="n">
-        <v>31000</v>
+        <v>37000</v>
       </c>
       <c r="L977" t="n">
-        <v>31000</v>
+        <v>37000</v>
       </c>
       <c r="M977" t="n">
-        <v>31000</v>
+        <v>37000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>2067</v>
+        <v>2467</v>
       </c>
       <c r="Q977" t="n">
         <v>15</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E978" t="n">
         <v>5</v>
@@ -70769,36 +70769,36 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J978" t="n">
         <v>35</v>
       </c>
       <c r="K978" t="n">
-        <v>43000</v>
+        <v>33000</v>
       </c>
       <c r="L978" t="n">
-        <v>43000</v>
+        <v>33000</v>
       </c>
       <c r="M978" t="n">
-        <v>43000</v>
+        <v>33000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>2389</v>
+        <v>2200</v>
       </c>
       <c r="Q978" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E979" t="n">
         <v>5</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,32 +70845,32 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K979" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="L979" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="M979" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>2111</v>
+        <v>2267</v>
       </c>
       <c r="Q979" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R979" t="inlineStr">
         <is>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E980" t="n">
         <v>5</v>
@@ -70908,7 +70908,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
@@ -70917,32 +70917,32 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K980" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="L980" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M980" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>1944</v>
+        <v>2067</v>
       </c>
       <c r="Q980" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70980,7 +70980,7 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
@@ -70989,16 +70989,16 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K981" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L981" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="M981" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>1222</v>
+        <v>2389</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71052,7 +71052,7 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K982" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="L982" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="M982" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>1000</v>
+        <v>2111</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71124,7 +71124,7 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K983" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="L983" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="M983" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>889</v>
+        <v>1944</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E984" t="n">
         <v>5</v>
@@ -71196,7 +71196,7 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K984" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L984" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M984" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E985" t="n">
         <v>5</v>
@@ -71268,7 +71268,7 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K985" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L985" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M985" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q985" t="n">
         <v>18</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E986" t="n">
         <v>5</v>
@@ -71340,7 +71340,7 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K986" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L986" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M986" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71412,25 +71412,25 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K987" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L987" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M987" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71484,25 +71484,25 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K988" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L988" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M988" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E989" t="n">
         <v>5</v>
@@ -71561,36 +71561,36 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K989" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L989" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M989" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>1133</v>
+        <v>556</v>
       </c>
       <c r="Q989" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E990" t="n">
         <v>5</v>
@@ -71628,7 +71628,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -71637,32 +71637,32 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K990" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L990" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M990" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="Q990" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E991" t="n">
         <v>5</v>
@@ -71700,7 +71700,7 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
@@ -71709,32 +71709,32 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K991" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L991" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M991" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="Q991" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71772,25 +71772,25 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="K992" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L992" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M992" t="n">
-        <v>15511</v>
+        <v>17000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>1034</v>
+        <v>1133</v>
       </c>
       <c r="Q992" t="n">
         <v>15</v>
@@ -71844,25 +71844,25 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K993" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L993" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M993" t="n">
-        <v>12545</v>
+        <v>15000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>836</v>
+        <v>1000</v>
       </c>
       <c r="Q993" t="n">
         <v>15</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E994" t="n">
         <v>5</v>
@@ -71921,36 +71921,36 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K994" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L994" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M994" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="Q994" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E995" t="n">
         <v>5</v>
@@ -71988,7 +71988,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -71997,32 +71997,32 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K995" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L995" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M995" t="n">
-        <v>13000</v>
+        <v>15511</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>722</v>
+        <v>1034</v>
       </c>
       <c r="Q995" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E996" t="n">
         <v>5</v>
@@ -72060,7 +72060,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -72069,32 +72069,32 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="K996" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L996" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M996" t="n">
-        <v>10000</v>
+        <v>12545</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>556</v>
+        <v>836</v>
       </c>
       <c r="Q996" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72132,7 +72132,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -72141,16 +72141,16 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K997" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L997" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M997" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q997" t="n">
         <v>18</v>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72216,13 +72216,13 @@
         <v>38</v>
       </c>
       <c r="K998" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L998" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M998" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72276,7 +72276,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -72288,13 +72288,13 @@
         <v>35</v>
       </c>
       <c r="K999" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L999" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M999" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1000" t="n">
         <v>5</v>
@@ -72348,16 +72348,16 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1000" t="n">
         <v>12000</v>
@@ -72370,19 +72370,19 @@
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q1000" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1001" t="n">
         <v>5</v>
@@ -72420,12 +72420,12 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1001" t="n">
@@ -72442,19 +72442,19 @@
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q1001" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1002" t="n">
         <v>5</v>
@@ -72492,25 +72492,25 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1002" t="n">
         <v>35</v>
       </c>
       <c r="K1002" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="L1002" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M1002" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72519,11 +72519,11 @@
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>1167</v>
+        <v>444</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72564,7 +72564,7 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
@@ -72573,32 +72573,32 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1003" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L1003" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M1003" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>944</v>
+        <v>600</v>
       </c>
       <c r="Q1003" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72636,41 +72636,41 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1004" t="n">
         <v>38</v>
       </c>
       <c r="K1004" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L1004" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1004" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="Q1004" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72708,25 +72708,25 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1005" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L1005" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M1005" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>778</v>
+        <v>1167</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72780,25 +72780,25 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1006" t="n">
         <v>38</v>
       </c>
       <c r="K1006" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L1006" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M1006" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1007" t="n">
         <v>5</v>
@@ -72852,41 +72852,41 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1007" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="L1007" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="M1007" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>2067</v>
+        <v>889</v>
       </c>
       <c r="Q1007" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1008" t="n">
         <v>5</v>
@@ -72924,41 +72924,41 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1008" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="L1008" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M1008" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>1667</v>
+        <v>778</v>
       </c>
       <c r="Q1008" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1009" t="n">
         <v>5</v>
@@ -73001,38 +73001,254 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1009" t="n">
         <v>38</v>
       </c>
       <c r="K1009" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N1009" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1009" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1009" t="n">
+        <v>667</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1009" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1010" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1010" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1010" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1010" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>31000</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>31000</v>
+      </c>
+      <c r="N1010" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1010" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1010" t="n">
+        <v>2067</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1010" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1011" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1011" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1011" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1011" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N1011" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1011" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1011" t="n">
+        <v>1667</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1011" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1012" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1012" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1012" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1012" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1012" t="n">
         <v>24000</v>
       </c>
-      <c r="L1009" t="n">
+      <c r="L1012" t="n">
         <v>24000</v>
       </c>
-      <c r="M1009" t="n">
+      <c r="M1012" t="n">
         <v>24000</v>
       </c>
-      <c r="N1009" t="inlineStr">
+      <c r="N1012" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O1009" t="inlineStr">
+      <c r="O1012" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1009" t="n">
+      <c r="P1012" t="n">
         <v>1600</v>
       </c>
-      <c r="Q1009" t="n">
+      <c r="Q1012" t="n">
         <v>15</v>
       </c>
-      <c r="R1009" t="inlineStr">
+      <c r="R1012" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1029"/>
+  <dimension ref="A1:R1032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E877" t="n">
         <v>5</v>
@@ -63501,7 +63501,7 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K877" t="n">
         <v>42000</v>
@@ -63510,7 +63510,7 @@
         <v>43000</v>
       </c>
       <c r="M877" t="n">
-        <v>42462</v>
+        <v>42479</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="Q877" t="n">
         <v>15</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E878" t="n">
         <v>5</v>
@@ -63564,25 +63564,25 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K878" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L878" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="M878" t="n">
-        <v>40000</v>
+        <v>30479</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>2667</v>
+        <v>2032</v>
       </c>
       <c r="Q878" t="n">
         <v>15</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E879" t="n">
         <v>5</v>
@@ -63645,32 +63645,32 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="K879" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="L879" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="M879" t="n">
-        <v>37500</v>
+        <v>35479</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>2500</v>
+        <v>1971</v>
       </c>
       <c r="Q879" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63708,25 +63708,25 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K880" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="L880" t="n">
-        <v>35000</v>
+        <v>43000</v>
       </c>
       <c r="M880" t="n">
-        <v>35000</v>
+        <v>42462</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>2333</v>
+        <v>2831</v>
       </c>
       <c r="Q880" t="n">
         <v>15</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E881" t="n">
         <v>5</v>
@@ -63780,41 +63780,41 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K881" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="L881" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="M881" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>800</v>
+        <v>2667</v>
       </c>
       <c r="Q881" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E882" t="n">
         <v>5</v>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K882" t="n">
-        <v>15000</v>
+        <v>37000</v>
       </c>
       <c r="L882" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
       <c r="M882" t="n">
-        <v>15000</v>
+        <v>37500</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="Q882" t="n">
         <v>15</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E883" t="n">
         <v>5</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K883" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="L883" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M883" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>800</v>
+        <v>2333</v>
       </c>
       <c r="Q883" t="n">
         <v>15</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,32 +64005,32 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="K884" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L884" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M884" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="Q884" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R884" t="inlineStr">
         <is>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E885" t="n">
         <v>5</v>
@@ -64068,41 +64068,41 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K885" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="L885" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="M885" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>1444</v>
+        <v>1000</v>
       </c>
       <c r="Q885" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R885" t="inlineStr">
         <is>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E886" t="n">
         <v>5</v>
@@ -64145,36 +64145,36 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J886" t="n">
         <v>35</v>
       </c>
       <c r="K886" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L886" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M886" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>1333</v>
+        <v>800</v>
       </c>
       <c r="Q886" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R886" t="inlineStr">
         <is>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E887" t="n">
         <v>5</v>
@@ -64212,7 +64212,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -64221,32 +64221,32 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K887" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L887" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M887" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>1167</v>
+        <v>933</v>
       </c>
       <c r="Q887" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R887" t="inlineStr">
         <is>
@@ -64284,25 +64284,25 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J888" t="n">
         <v>35</v>
       </c>
       <c r="K888" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L888" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M888" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>1000</v>
+        <v>1444</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64356,7 +64356,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -64368,13 +64368,13 @@
         <v>35</v>
       </c>
       <c r="K889" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L889" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M889" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64428,7 +64428,7 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
@@ -64440,13 +64440,13 @@
         <v>38</v>
       </c>
       <c r="K890" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L890" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M890" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>833</v>
+        <v>1167</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64512,13 +64512,13 @@
         <v>35</v>
       </c>
       <c r="K891" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L891" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M891" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E892" t="n">
         <v>5</v>
@@ -64572,41 +64572,41 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K892" t="n">
-        <v>41000</v>
+        <v>18000</v>
       </c>
       <c r="L892" t="n">
-        <v>42000</v>
+        <v>18000</v>
       </c>
       <c r="M892" t="n">
-        <v>41479</v>
+        <v>18000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>2765</v>
+        <v>1000</v>
       </c>
       <c r="Q892" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E893" t="n">
         <v>5</v>
@@ -64644,41 +64644,41 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K893" t="n">
-        <v>34000</v>
+        <v>15000</v>
       </c>
       <c r="L893" t="n">
-        <v>34000</v>
+        <v>15000</v>
       </c>
       <c r="M893" t="n">
-        <v>34000</v>
+        <v>15000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>2267</v>
+        <v>833</v>
       </c>
       <c r="Q893" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R893" t="inlineStr">
         <is>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -64721,36 +64721,36 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K894" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="L894" t="n">
-        <v>38000</v>
+        <v>12000</v>
       </c>
       <c r="M894" t="n">
-        <v>37521</v>
+        <v>12000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>2501</v>
+        <v>667</v>
       </c>
       <c r="Q894" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K895" t="n">
-        <v>33000</v>
+        <v>41000</v>
       </c>
       <c r="L895" t="n">
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="M895" t="n">
-        <v>33000</v>
+        <v>41479</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>2200</v>
+        <v>2765</v>
       </c>
       <c r="Q895" t="n">
         <v>15</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E896" t="n">
         <v>5</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K896" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="L896" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M896" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>1933</v>
+        <v>2267</v>
       </c>
       <c r="Q896" t="n">
         <v>15</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E897" t="n">
         <v>5</v>
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K897" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="L897" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="M897" t="n">
-        <v>28000</v>
+        <v>37521</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>1867</v>
+        <v>2501</v>
       </c>
       <c r="Q897" t="n">
         <v>15</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E898" t="n">
         <v>5</v>
@@ -65004,7 +65004,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -65013,32 +65013,32 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K898" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="L898" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="M898" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="Q898" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R898" t="inlineStr">
         <is>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E899" t="n">
         <v>5</v>
@@ -65081,7 +65081,7 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J899" t="n">
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E900" t="n">
         <v>5</v>
@@ -65148,41 +65148,41 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K900" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L900" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M900" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>1778</v>
+        <v>1867</v>
       </c>
       <c r="Q900" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,32 +65229,32 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K901" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="L901" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M901" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>1667</v>
+        <v>700</v>
       </c>
       <c r="Q901" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65292,25 +65292,25 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J902" t="n">
         <v>38</v>
       </c>
       <c r="K902" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L902" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="M902" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>1067</v>
+        <v>1933</v>
       </c>
       <c r="Q902" t="n">
         <v>15</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E903" t="n">
         <v>5</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,32 +65373,32 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K903" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="L903" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="M903" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>2200</v>
+        <v>1778</v>
       </c>
       <c r="Q903" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R903" t="inlineStr">
         <is>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E904" t="n">
         <v>5</v>
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K904" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L904" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M904" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="Q904" t="n">
         <v>15</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E905" t="n">
         <v>5</v>
@@ -65508,25 +65508,25 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K905" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L905" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M905" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>800</v>
+        <v>1067</v>
       </c>
       <c r="Q905" t="n">
         <v>15</v>
@@ -65580,25 +65580,25 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K906" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L906" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="M906" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="Q906" t="n">
         <v>15</v>
@@ -65652,25 +65652,25 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
         <v>40</v>
       </c>
       <c r="K907" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L907" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M907" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q907" t="n">
         <v>15</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E908" t="n">
         <v>5</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K908" t="n">
-        <v>42000</v>
+        <v>12000</v>
       </c>
       <c r="L908" t="n">
-        <v>42000</v>
+        <v>12000</v>
       </c>
       <c r="M908" t="n">
-        <v>42000</v>
+        <v>12000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="Q908" t="n">
         <v>15</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E909" t="n">
         <v>5</v>
@@ -65796,25 +65796,25 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K909" t="n">
-        <v>36000</v>
+        <v>15000</v>
       </c>
       <c r="L909" t="n">
-        <v>36000</v>
+        <v>15000</v>
       </c>
       <c r="M909" t="n">
-        <v>36000</v>
+        <v>15000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="Q909" t="n">
         <v>15</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E910" t="n">
         <v>5</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="K910" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L910" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="M910" t="n">
-        <v>36041</v>
+        <v>12000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>2403</v>
+        <v>800</v>
       </c>
       <c r="Q910" t="n">
         <v>15</v>
@@ -65940,25 +65940,25 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J911" t="n">
         <v>38</v>
       </c>
       <c r="K911" t="n">
-        <v>31000</v>
+        <v>42000</v>
       </c>
       <c r="L911" t="n">
-        <v>31000</v>
+        <v>42000</v>
       </c>
       <c r="M911" t="n">
-        <v>31000</v>
+        <v>42000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>2067</v>
+        <v>2800</v>
       </c>
       <c r="Q911" t="n">
         <v>15</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E912" t="n">
         <v>5</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K912" t="n">
-        <v>20000</v>
+        <v>36000</v>
       </c>
       <c r="L912" t="n">
-        <v>20000</v>
+        <v>36000</v>
       </c>
       <c r="M912" t="n">
-        <v>20000</v>
+        <v>36000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>1333</v>
+        <v>2400</v>
       </c>
       <c r="Q912" t="n">
         <v>15</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E913" t="n">
         <v>5</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K913" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L913" t="n">
-        <v>20000</v>
+        <v>37000</v>
       </c>
       <c r="M913" t="n">
-        <v>20000</v>
+        <v>36041</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>1333</v>
+        <v>2403</v>
       </c>
       <c r="Q913" t="n">
         <v>15</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E914" t="n">
         <v>5</v>
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K914" t="n">
-        <v>17000</v>
+        <v>31000</v>
       </c>
       <c r="L914" t="n">
-        <v>17000</v>
+        <v>31000</v>
       </c>
       <c r="M914" t="n">
-        <v>17000</v>
+        <v>31000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>1133</v>
+        <v>2067</v>
       </c>
       <c r="Q914" t="n">
         <v>15</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E915" t="n">
         <v>5</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K915" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L915" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M915" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="Q915" t="n">
         <v>15</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E916" t="n">
         <v>5</v>
@@ -66300,25 +66300,25 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K916" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L916" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="M916" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>1400</v>
+        <v>1333</v>
       </c>
       <c r="Q916" t="n">
         <v>15</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E917" t="n">
         <v>5</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K917" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L917" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="M917" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>1400</v>
+        <v>1133</v>
       </c>
       <c r="Q917" t="n">
         <v>15</v>
@@ -66444,25 +66444,25 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K918" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L918" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M918" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>1133</v>
+        <v>1667</v>
       </c>
       <c r="Q918" t="n">
         <v>15</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E919" t="n">
         <v>5</v>
@@ -66516,41 +66516,41 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K919" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L919" t="n">
         <v>21000</v>
       </c>
       <c r="M919" t="n">
-        <v>20521</v>
+        <v>21000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>1026</v>
+        <v>1400</v>
       </c>
       <c r="Q919" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66588,25 +66588,25 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K920" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L920" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M920" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q920" t="n">
         <v>15</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E921" t="n">
         <v>5</v>
@@ -66660,25 +66660,25 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K921" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L921" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M921" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>1067</v>
+        <v>1133</v>
       </c>
       <c r="Q921" t="n">
         <v>15</v>
@@ -66732,41 +66732,41 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K922" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L922" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M922" t="n">
-        <v>13000</v>
+        <v>20521</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>867</v>
+        <v>1026</v>
       </c>
       <c r="Q922" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66804,25 +66804,25 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K923" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L923" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M923" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>1067</v>
+        <v>1200</v>
       </c>
       <c r="Q923" t="n">
         <v>15</v>
@@ -66876,25 +66876,25 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J924" t="n">
         <v>35</v>
       </c>
       <c r="K924" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L924" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M924" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="Q924" t="n">
         <v>15</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E925" t="n">
         <v>5</v>
@@ -66953,36 +66953,36 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K925" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L925" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M925" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="Q925" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E926" t="n">
         <v>5</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,32 +67029,32 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K926" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L926" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M926" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="Q926" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E927" t="n">
         <v>5</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,32 +67101,32 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K927" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L927" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M927" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>556</v>
+        <v>867</v>
       </c>
       <c r="Q927" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R927" t="inlineStr">
         <is>
@@ -67164,25 +67164,25 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K928" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L928" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M928" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67236,25 +67236,25 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K929" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L929" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M929" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E930" t="n">
         <v>5</v>
@@ -67313,36 +67313,36 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K930" t="n">
-        <v>44000</v>
+        <v>10000</v>
       </c>
       <c r="L930" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="M930" t="n">
-        <v>44571</v>
+        <v>10000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>2971</v>
+        <v>556</v>
       </c>
       <c r="Q930" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E931" t="n">
         <v>5</v>
@@ -67389,32 +67389,32 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="K931" t="n">
-        <v>38000</v>
+        <v>10000</v>
       </c>
       <c r="L931" t="n">
-        <v>39000</v>
+        <v>10000</v>
       </c>
       <c r="M931" t="n">
-        <v>38500</v>
+        <v>10000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>2567</v>
+        <v>556</v>
       </c>
       <c r="Q931" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E932" t="n">
         <v>5</v>
@@ -67464,29 +67464,29 @@
         <v>35</v>
       </c>
       <c r="K932" t="n">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="L932" t="n">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="M932" t="n">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>2267</v>
+        <v>444</v>
       </c>
       <c r="Q932" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E933" t="n">
         <v>5</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,32 +67533,32 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K933" t="n">
-        <v>15000</v>
+        <v>44000</v>
       </c>
       <c r="L933" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="M933" t="n">
-        <v>15521</v>
+        <v>44571</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>776</v>
+        <v>2971</v>
       </c>
       <c r="Q933" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E934" t="n">
         <v>5</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K934" t="n">
-        <v>17000</v>
+        <v>38000</v>
       </c>
       <c r="L934" t="n">
-        <v>18000</v>
+        <v>39000</v>
       </c>
       <c r="M934" t="n">
-        <v>17462</v>
+        <v>38500</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>1164</v>
+        <v>2567</v>
       </c>
       <c r="Q934" t="n">
         <v>15</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E935" t="n">
         <v>5</v>
@@ -67668,7 +67668,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K935" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="L935" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="M935" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>1000</v>
+        <v>2267</v>
       </c>
       <c r="Q935" t="n">
         <v>15</v>
@@ -67740,7 +67740,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
@@ -67749,32 +67749,32 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K936" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L936" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M936" t="n">
-        <v>17500</v>
+        <v>15521</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>1167</v>
+        <v>776</v>
       </c>
       <c r="Q936" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K937" t="n">
-        <v>41000</v>
+        <v>17000</v>
       </c>
       <c r="L937" t="n">
-        <v>42000</v>
+        <v>18000</v>
       </c>
       <c r="M937" t="n">
-        <v>41479</v>
+        <v>17462</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>2765</v>
+        <v>1164</v>
       </c>
       <c r="Q937" t="n">
         <v>15</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E938" t="n">
         <v>5</v>
@@ -67884,25 +67884,25 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K938" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
       <c r="L938" t="n">
-        <v>39000</v>
+        <v>15000</v>
       </c>
       <c r="M938" t="n">
-        <v>38521</v>
+        <v>15000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>2568</v>
+        <v>1000</v>
       </c>
       <c r="Q938" t="n">
         <v>15</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -67965,32 +67965,32 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K939" t="n">
-        <v>41000</v>
+        <v>17000</v>
       </c>
       <c r="L939" t="n">
-        <v>41000</v>
+        <v>18000</v>
       </c>
       <c r="M939" t="n">
-        <v>41000</v>
+        <v>17500</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>2278</v>
+        <v>1167</v>
       </c>
       <c r="Q939" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E940" t="n">
         <v>5</v>
@@ -68037,32 +68037,32 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K940" t="n">
-        <v>27000</v>
+        <v>41000</v>
       </c>
       <c r="L940" t="n">
-        <v>27000</v>
+        <v>42000</v>
       </c>
       <c r="M940" t="n">
-        <v>27000</v>
+        <v>41479</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>1500</v>
+        <v>2765</v>
       </c>
       <c r="Q940" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E941" t="n">
         <v>5</v>
@@ -68100,41 +68100,41 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K941" t="n">
-        <v>21000</v>
+        <v>38000</v>
       </c>
       <c r="L941" t="n">
-        <v>21000</v>
+        <v>39000</v>
       </c>
       <c r="M941" t="n">
-        <v>21000</v>
+        <v>38521</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>1167</v>
+        <v>2568</v>
       </c>
       <c r="Q941" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E942" t="n">
         <v>5</v>
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K942" t="n">
-        <v>20000</v>
+        <v>41000</v>
       </c>
       <c r="L942" t="n">
-        <v>20000</v>
+        <v>41000</v>
       </c>
       <c r="M942" t="n">
-        <v>20000</v>
+        <v>41000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>1111</v>
+        <v>2278</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68244,25 +68244,25 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K943" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="L943" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="M943" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>944</v>
+        <v>1500</v>
       </c>
       <c r="Q943" t="n">
         <v>18</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E944" t="n">
         <v>5</v>
@@ -68321,36 +68321,36 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K944" t="n">
-        <v>41000</v>
+        <v>21000</v>
       </c>
       <c r="L944" t="n">
-        <v>42000</v>
+        <v>21000</v>
       </c>
       <c r="M944" t="n">
-        <v>41479</v>
+        <v>21000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>2765</v>
+        <v>1167</v>
       </c>
       <c r="Q944" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
@@ -68388,41 +68388,41 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K945" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="L945" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="M945" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>2467</v>
+        <v>1111</v>
       </c>
       <c r="Q945" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68465,36 +68465,36 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K946" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L946" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="M946" t="n">
-        <v>28479</v>
+        <v>17000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>1899</v>
+        <v>944</v>
       </c>
       <c r="Q946" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R946" t="inlineStr">
         <is>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K947" t="n">
-        <v>30000</v>
+        <v>41000</v>
       </c>
       <c r="L947" t="n">
-        <v>30000</v>
+        <v>42000</v>
       </c>
       <c r="M947" t="n">
-        <v>30000</v>
+        <v>41479</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>2000</v>
+        <v>2765</v>
       </c>
       <c r="Q947" t="n">
         <v>15</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E948" t="n">
         <v>5</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K948" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="L948" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M948" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>1667</v>
+        <v>2467</v>
       </c>
       <c r="Q948" t="n">
         <v>15</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E949" t="n">
         <v>5</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K949" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="L949" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="M949" t="n">
-        <v>16000</v>
+        <v>28479</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>1067</v>
+        <v>1899</v>
       </c>
       <c r="Q949" t="n">
         <v>15</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E950" t="n">
         <v>5</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K950" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L950" t="n">
-        <v>41000</v>
+        <v>30000</v>
       </c>
       <c r="M950" t="n">
-        <v>40479</v>
+        <v>30000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>2699</v>
+        <v>2000</v>
       </c>
       <c r="Q950" t="n">
         <v>15</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E951" t="n">
         <v>5</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K951" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L951" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M951" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>2333</v>
+        <v>1667</v>
       </c>
       <c r="Q951" t="n">
         <v>15</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E952" t="n">
         <v>5</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K952" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L952" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="M952" t="n">
-        <v>33959</v>
+        <v>16000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>2264</v>
+        <v>1067</v>
       </c>
       <c r="Q952" t="n">
         <v>15</v>
@@ -68964,25 +68964,25 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K953" t="n">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="L953" t="n">
-        <v>29000</v>
+        <v>41000</v>
       </c>
       <c r="M953" t="n">
-        <v>29000</v>
+        <v>40479</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>1933</v>
+        <v>2699</v>
       </c>
       <c r="Q953" t="n">
         <v>15</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E954" t="n">
         <v>5</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K954" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L954" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M954" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>1200</v>
+        <v>2333</v>
       </c>
       <c r="Q954" t="n">
         <v>15</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E955" t="n">
         <v>5</v>
@@ -69108,25 +69108,25 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K955" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L955" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M955" t="n">
-        <v>15000</v>
+        <v>33959</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>1000</v>
+        <v>2264</v>
       </c>
       <c r="Q955" t="n">
         <v>15</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E956" t="n">
         <v>5</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K956" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="L956" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="M956" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>1000</v>
+        <v>1933</v>
       </c>
       <c r="Q956" t="n">
         <v>15</v>
@@ -69252,25 +69252,25 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K957" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L957" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M957" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q957" t="n">
         <v>15</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69324,41 +69324,41 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K958" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L958" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M958" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q958" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E959" t="n">
         <v>5</v>
@@ -69396,41 +69396,41 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J959" t="n">
         <v>38</v>
       </c>
       <c r="K959" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L959" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M959" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q959" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E960" t="n">
         <v>5</v>
@@ -69468,41 +69468,41 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K960" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L960" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M960" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="Q960" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R960" t="inlineStr">
         <is>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,32 +69549,32 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K961" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L961" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M961" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q961" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69621,32 +69621,32 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K962" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L962" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M962" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q962" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69684,25 +69684,25 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K963" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L963" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M963" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69756,25 +69756,25 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K964" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L964" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M964" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E965" t="n">
         <v>5</v>
@@ -69833,36 +69833,36 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K965" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L965" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="M965" t="n">
-        <v>25479</v>
+        <v>10000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>1699</v>
+        <v>556</v>
       </c>
       <c r="Q965" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E966" t="n">
         <v>5</v>
@@ -69900,7 +69900,7 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
@@ -69909,32 +69909,32 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K966" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L966" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="M966" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>1533</v>
+        <v>556</v>
       </c>
       <c r="Q966" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E967" t="n">
         <v>5</v>
@@ -69972,7 +69972,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -69981,32 +69981,32 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K967" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L967" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M967" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>1267</v>
+        <v>444</v>
       </c>
       <c r="Q967" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70044,41 +70044,41 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K968" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L968" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="M968" t="n">
-        <v>13000</v>
+        <v>25479</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>650</v>
+        <v>1699</v>
       </c>
       <c r="Q968" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E969" t="n">
         <v>5</v>
@@ -70116,41 +70116,41 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K969" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="L969" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="M969" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>500</v>
+        <v>1533</v>
       </c>
       <c r="Q969" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E970" t="n">
         <v>5</v>
@@ -70193,36 +70193,36 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K970" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="L970" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M970" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>1222</v>
+        <v>1267</v>
       </c>
       <c r="Q970" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70260,7 +70260,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -70272,29 +70272,29 @@
         <v>40</v>
       </c>
       <c r="K971" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L971" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M971" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q971" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70332,7 +70332,7 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -70341,32 +70341,32 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K972" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L972" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M972" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q972" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70404,25 +70404,25 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J973" t="n">
         <v>40</v>
       </c>
       <c r="K973" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L973" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M973" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>667</v>
+        <v>1222</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70476,25 +70476,25 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K974" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L974" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M974" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="Q974" t="n">
         <v>18</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E975" t="n">
         <v>5</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K975" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L975" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M975" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E976" t="n">
         <v>5</v>
@@ -70620,7 +70620,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K976" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L976" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M976" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E977" t="n">
         <v>5</v>
@@ -70692,7 +70692,7 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K977" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L977" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M977" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70764,7 +70764,7 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
@@ -70776,13 +70776,13 @@
         <v>35</v>
       </c>
       <c r="K978" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L978" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M978" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K979" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L979" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M979" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70908,7 +70908,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K980" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L980" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M980" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E981" t="n">
         <v>5</v>
@@ -70980,7 +70980,7 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
@@ -70989,16 +70989,16 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K981" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L981" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M981" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>1944</v>
+        <v>667</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E982" t="n">
         <v>5</v>
@@ -71052,7 +71052,7 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -71064,13 +71064,13 @@
         <v>30</v>
       </c>
       <c r="K982" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="L982" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="M982" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>1778</v>
+        <v>556</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E983" t="n">
         <v>5</v>
@@ -71124,7 +71124,7 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
@@ -71136,13 +71136,13 @@
         <v>35</v>
       </c>
       <c r="K983" t="n">
-        <v>29000</v>
+        <v>8000</v>
       </c>
       <c r="L983" t="n">
-        <v>29000</v>
+        <v>8000</v>
       </c>
       <c r="M983" t="n">
-        <v>29000</v>
+        <v>8000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>1611</v>
+        <v>444</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71196,25 +71196,25 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="K984" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L984" t="n">
-        <v>18500</v>
+        <v>35000</v>
       </c>
       <c r="M984" t="n">
-        <v>18273</v>
+        <v>35000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>1015</v>
+        <v>1944</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71268,25 +71268,25 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K985" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="L985" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="M985" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>833</v>
+        <v>1778</v>
       </c>
       <c r="Q985" t="n">
         <v>18</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E986" t="n">
         <v>5</v>
@@ -71345,36 +71345,36 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="K986" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="L986" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M986" t="n">
-        <v>34476</v>
+        <v>29000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>2298</v>
+        <v>1611</v>
       </c>
       <c r="Q986" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E987" t="n">
         <v>5</v>
@@ -71412,41 +71412,41 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="K987" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L987" t="n">
-        <v>30000</v>
+        <v>18500</v>
       </c>
       <c r="M987" t="n">
-        <v>30000</v>
+        <v>18273</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>2000</v>
+        <v>1015</v>
       </c>
       <c r="Q987" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E988" t="n">
         <v>5</v>
@@ -71489,36 +71489,36 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J988" t="n">
         <v>35</v>
       </c>
       <c r="K988" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L988" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M988" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>2000</v>
+        <v>833</v>
       </c>
       <c r="Q988" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71556,25 +71556,25 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="K989" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L989" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M989" t="n">
-        <v>25000</v>
+        <v>34476</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>1667</v>
+        <v>2298</v>
       </c>
       <c r="Q989" t="n">
         <v>15</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E990" t="n">
         <v>5</v>
@@ -71628,41 +71628,41 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="K990" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L990" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M990" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="Q990" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E991" t="n">
         <v>5</v>
@@ -71700,41 +71700,41 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K991" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L991" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M991" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="Q991" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E992" t="n">
         <v>5</v>
@@ -71772,25 +71772,25 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K992" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L992" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M992" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="Q992" t="n">
         <v>15</v>
@@ -71844,41 +71844,41 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K993" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L993" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M993" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="Q993" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71916,41 +71916,41 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K994" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L994" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M994" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="Q994" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E995" t="n">
         <v>5</v>
@@ -71993,36 +71993,36 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K995" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L995" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M995" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="Q995" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E996" t="n">
         <v>5</v>
@@ -72065,36 +72065,36 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K996" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L996" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M996" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="Q996" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E997" t="n">
         <v>5</v>
@@ -72132,41 +72132,41 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K997" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L997" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M997" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="Q997" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,16 +72213,16 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K998" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L998" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M998" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>1111</v>
+        <v>1389</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72276,7 +72276,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K999" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L999" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M999" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>944</v>
+        <v>1167</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72348,7 +72348,7 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -72360,13 +72360,13 @@
         <v>35</v>
       </c>
       <c r="K1000" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L1000" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M1000" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q1000" t="n">
         <v>18</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1001" t="n">
         <v>5</v>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1001" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L1001" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M1001" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>889</v>
+        <v>1111</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1002" t="n">
         <v>5</v>
@@ -72492,7 +72492,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -72504,13 +72504,13 @@
         <v>35</v>
       </c>
       <c r="K1002" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L1002" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M1002" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1003" t="n">
         <v>5</v>
@@ -72564,7 +72564,7 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1003" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1003" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M1003" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q1003" t="n">
         <v>18</v>
@@ -72636,25 +72636,25 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1004" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L1004" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M1004" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="Q1004" t="n">
         <v>18</v>
@@ -72708,25 +72708,25 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1005" t="n">
         <v>35</v>
       </c>
       <c r="K1005" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L1005" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M1005" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1006" t="n">
         <v>5</v>
@@ -72780,12 +72780,12 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1006" t="n">
@@ -72802,19 +72802,19 @@
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="Q1006" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1007" t="n">
         <v>5</v>
@@ -72852,41 +72852,41 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1007" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L1007" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M1007" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="Q1007" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1008" t="n">
         <v>5</v>
@@ -72924,25 +72924,25 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1008" t="n">
         <v>35</v>
       </c>
       <c r="K1008" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="L1008" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="M1008" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>1278</v>
+        <v>500</v>
       </c>
       <c r="Q1008" t="n">
         <v>18</v>
@@ -72996,41 +72996,41 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1009" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="L1009" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="M1009" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>1167</v>
+        <v>550</v>
       </c>
       <c r="Q1009" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73068,41 +73068,41 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1010" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L1010" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M1010" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>833</v>
+        <v>400</v>
       </c>
       <c r="Q1010" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73140,25 +73140,25 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1011" t="n">
         <v>35</v>
       </c>
       <c r="K1011" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="L1011" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="M1011" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>611</v>
+        <v>1278</v>
       </c>
       <c r="Q1011" t="n">
         <v>18</v>
@@ -73212,25 +73212,25 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1012" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="L1012" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="M1012" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>611</v>
+        <v>1167</v>
       </c>
       <c r="Q1012" t="n">
         <v>18</v>
@@ -73284,25 +73284,25 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1013" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L1013" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M1013" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q1013" t="n">
         <v>18</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1014" t="n">
         <v>5</v>
@@ -73361,36 +73361,36 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K1014" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="L1014" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="M1014" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>2000</v>
+        <v>611</v>
       </c>
       <c r="Q1014" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1015" t="n">
         <v>5</v>
@@ -73428,41 +73428,41 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K1015" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="L1015" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="M1015" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>1733</v>
+        <v>611</v>
       </c>
       <c r="Q1015" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1016" t="n">
         <v>5</v>
@@ -73505,36 +73505,36 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1016" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="L1016" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M1016" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>1667</v>
+        <v>444</v>
       </c>
       <c r="Q1016" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73572,25 +73572,25 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K1017" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L1017" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M1017" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>1467</v>
+        <v>2000</v>
       </c>
       <c r="Q1017" t="n">
         <v>15</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1018" t="n">
         <v>5</v>
@@ -73649,36 +73649,36 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K1018" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="L1018" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M1018" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>833</v>
+        <v>1733</v>
       </c>
       <c r="Q1018" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1019" t="n">
         <v>5</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73728,29 +73728,29 @@
         <v>38</v>
       </c>
       <c r="K1019" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L1019" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="M1019" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>722</v>
+        <v>1667</v>
       </c>
       <c r="Q1019" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1020" t="n">
         <v>5</v>
@@ -73788,7 +73788,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -73800,29 +73800,29 @@
         <v>35</v>
       </c>
       <c r="K1020" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L1020" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M1020" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>556</v>
+        <v>1467</v>
       </c>
       <c r="Q1020" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1020" t="inlineStr">
         <is>
@@ -73860,25 +73860,25 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1021" t="n">
         <v>38</v>
       </c>
       <c r="K1021" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1021" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M1021" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q1021" t="n">
         <v>18</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1022" t="n">
         <v>5</v>
@@ -73941,32 +73941,32 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="K1022" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L1022" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M1022" t="n">
-        <v>24516</v>
+        <v>13000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>1634</v>
+        <v>722</v>
       </c>
       <c r="Q1022" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1022" t="inlineStr">
         <is>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1023" t="n">
         <v>5</v>
@@ -74013,32 +74013,32 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K1023" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L1023" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M1023" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>1467</v>
+        <v>556</v>
       </c>
       <c r="Q1023" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1024" t="n">
         <v>5</v>
@@ -74085,32 +74085,32 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K1024" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L1024" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M1024" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>1333</v>
+        <v>611</v>
       </c>
       <c r="Q1024" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
@@ -74148,7 +74148,7 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
@@ -74157,32 +74157,32 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K1025" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="L1025" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M1025" t="n">
-        <v>20438</v>
+        <v>24516</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>1135</v>
+        <v>1634</v>
       </c>
       <c r="Q1025" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
@@ -74220,7 +74220,7 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
@@ -74232,13 +74232,13 @@
         <v>50</v>
       </c>
       <c r="K1026" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L1026" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M1026" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>1200</v>
+        <v>1467</v>
       </c>
       <c r="Q1026" t="n">
         <v>15</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1027" t="n">
         <v>5</v>
@@ -74292,7 +74292,7 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K1027" t="n">
-        <v>41000</v>
+        <v>20000</v>
       </c>
       <c r="L1027" t="n">
-        <v>42000</v>
+        <v>20000</v>
       </c>
       <c r="M1027" t="n">
-        <v>41479</v>
+        <v>20000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>2765</v>
+        <v>1333</v>
       </c>
       <c r="Q1027" t="n">
         <v>15</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1028" t="n">
         <v>5</v>
@@ -74373,32 +74373,32 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="K1028" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="L1028" t="n">
-        <v>38000</v>
+        <v>22000</v>
       </c>
       <c r="M1028" t="n">
-        <v>37521</v>
+        <v>20438</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>2501</v>
+        <v>1135</v>
       </c>
       <c r="Q1028" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74421,58 +74421,274 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1029" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1029" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1029" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1029" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N1029" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1029" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1029" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1029" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1030" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1029" t="n">
-        <v>5</v>
-      </c>
-      <c r="F1029" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G1029" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H1029" t="inlineStr">
+      <c r="E1030" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1030" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1030" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1030" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1030" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>41000</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>41479</v>
+      </c>
+      <c r="N1030" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1030" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1030" t="n">
+        <v>2765</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1030" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1031" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1031" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1031" t="inlineStr">
         <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I1029" t="inlineStr">
+      <c r="I1031" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J1029" t="n">
+      <c r="J1031" t="n">
         <v>73</v>
       </c>
-      <c r="K1029" t="n">
+      <c r="K1031" t="n">
+        <v>37000</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>38000</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>37521</v>
+      </c>
+      <c r="N1031" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1031" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1031" t="n">
+        <v>2501</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1031" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1032" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1032" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1032" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1032" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1032" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1032" t="n">
         <v>41000</v>
       </c>
-      <c r="L1029" t="n">
+      <c r="L1032" t="n">
         <v>42000</v>
       </c>
-      <c r="M1029" t="n">
+      <c r="M1032" t="n">
         <v>41479</v>
       </c>
-      <c r="N1029" t="inlineStr">
+      <c r="N1032" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="O1029" t="inlineStr">
+      <c r="O1032" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P1029" t="n">
+      <c r="P1032" t="n">
         <v>2304</v>
       </c>
-      <c r="Q1029" t="n">
+      <c r="Q1032" t="n">
         <v>18</v>
       </c>
-      <c r="R1029" t="inlineStr">
+      <c r="R1032" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1032"/>
+  <dimension ref="A1:R1034"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E896" t="n">
         <v>5</v>
@@ -64860,25 +64860,25 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K896" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L896" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="M896" t="n">
-        <v>34000</v>
+        <v>35500</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>2267</v>
+        <v>2367</v>
       </c>
       <c r="Q896" t="n">
         <v>15</v>
@@ -64932,7 +64932,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -64944,13 +64944,13 @@
         <v>73</v>
       </c>
       <c r="K897" t="n">
-        <v>37000</v>
+        <v>41000</v>
       </c>
       <c r="L897" t="n">
-        <v>38000</v>
+        <v>42000</v>
       </c>
       <c r="M897" t="n">
-        <v>37521</v>
+        <v>41479</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>2501</v>
+        <v>2765</v>
       </c>
       <c r="Q897" t="n">
         <v>15</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E898" t="n">
         <v>5</v>
@@ -65009,20 +65009,20 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J898" t="n">
         <v>35</v>
       </c>
       <c r="K898" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L898" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M898" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>2200</v>
+        <v>2267</v>
       </c>
       <c r="Q898" t="n">
         <v>15</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E899" t="n">
         <v>5</v>
@@ -65076,25 +65076,25 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K899" t="n">
-        <v>29000</v>
+        <v>37000</v>
       </c>
       <c r="L899" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="M899" t="n">
-        <v>29000</v>
+        <v>37521</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>1933</v>
+        <v>2501</v>
       </c>
       <c r="Q899" t="n">
         <v>15</v>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K900" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L900" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M900" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>1867</v>
+        <v>2200</v>
       </c>
       <c r="Q900" t="n">
         <v>15</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E901" t="n">
         <v>5</v>
@@ -65220,41 +65220,41 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K901" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="L901" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="M901" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>700</v>
+        <v>1933</v>
       </c>
       <c r="Q901" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E902" t="n">
         <v>5</v>
@@ -65292,25 +65292,25 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J902" t="n">
         <v>38</v>
       </c>
       <c r="K902" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L902" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M902" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>1933</v>
+        <v>1867</v>
       </c>
       <c r="Q902" t="n">
         <v>15</v>
@@ -65364,41 +65364,41 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K903" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="L903" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="M903" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>1778</v>
+        <v>700</v>
       </c>
       <c r="Q903" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R903" t="inlineStr">
         <is>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K904" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L904" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M904" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>1667</v>
+        <v>1933</v>
       </c>
       <c r="Q904" t="n">
         <v>15</v>
@@ -65508,41 +65508,41 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K905" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="L905" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="M905" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>1067</v>
+        <v>1778</v>
       </c>
       <c r="Q905" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65580,25 +65580,25 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K906" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L906" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M906" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>2200</v>
+        <v>1667</v>
       </c>
       <c r="Q906" t="n">
         <v>15</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E907" t="n">
         <v>5</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K907" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L907" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M907" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="Q907" t="n">
         <v>15</v>
@@ -65724,25 +65724,25 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K908" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="L908" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="M908" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="Q908" t="n">
         <v>15</v>
@@ -65796,7 +65796,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -65805,7 +65805,7 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K909" t="n">
         <v>15000</v>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,7 +65877,7 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K910" t="n">
         <v>12000</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E911" t="n">
         <v>5</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K911" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="L911" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M911" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="Q911" t="n">
         <v>15</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E912" t="n">
         <v>5</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K912" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="L912" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="M912" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="Q912" t="n">
         <v>15</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K913" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="L913" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="M913" t="n">
-        <v>36041</v>
+        <v>42000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>2403</v>
+        <v>2800</v>
       </c>
       <c r="Q913" t="n">
         <v>15</v>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66168,13 +66168,13 @@
         <v>38</v>
       </c>
       <c r="K914" t="n">
-        <v>31000</v>
+        <v>36000</v>
       </c>
       <c r="L914" t="n">
-        <v>31000</v>
+        <v>36000</v>
       </c>
       <c r="M914" t="n">
-        <v>31000</v>
+        <v>36000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>2067</v>
+        <v>2400</v>
       </c>
       <c r="Q914" t="n">
         <v>15</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E915" t="n">
         <v>5</v>
@@ -66228,25 +66228,25 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K915" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L915" t="n">
-        <v>20000</v>
+        <v>37000</v>
       </c>
       <c r="M915" t="n">
-        <v>20000</v>
+        <v>36041</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>1333</v>
+        <v>2403</v>
       </c>
       <c r="Q915" t="n">
         <v>15</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E916" t="n">
         <v>5</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J916" t="n">
         <v>38</v>
       </c>
       <c r="K916" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="L916" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="M916" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>1333</v>
+        <v>2067</v>
       </c>
       <c r="Q916" t="n">
         <v>15</v>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66384,13 +66384,13 @@
         <v>35</v>
       </c>
       <c r="K917" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L917" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M917" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="Q917" t="n">
         <v>15</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66456,13 +66456,13 @@
         <v>38</v>
       </c>
       <c r="K918" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L918" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M918" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="Q918" t="n">
         <v>15</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E919" t="n">
         <v>5</v>
@@ -66516,7 +66516,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
@@ -66528,13 +66528,13 @@
         <v>35</v>
       </c>
       <c r="K919" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L919" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="M919" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>1400</v>
+        <v>1133</v>
       </c>
       <c r="Q919" t="n">
         <v>15</v>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K920" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L920" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M920" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>1400</v>
+        <v>1667</v>
       </c>
       <c r="Q920" t="n">
         <v>15</v>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K921" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L921" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M921" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>1133</v>
+        <v>1400</v>
       </c>
       <c r="Q921" t="n">
         <v>15</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E922" t="n">
         <v>5</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,32 +66741,32 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="K922" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L922" t="n">
         <v>21000</v>
       </c>
       <c r="M922" t="n">
-        <v>20521</v>
+        <v>21000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>1026</v>
+        <v>1400</v>
       </c>
       <c r="Q922" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E923" t="n">
         <v>5</v>
@@ -66804,25 +66804,25 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K923" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L923" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M923" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q923" t="n">
         <v>15</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,32 +66885,32 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K924" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L924" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M924" t="n">
-        <v>16000</v>
+        <v>20521</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>1067</v>
+        <v>1026</v>
       </c>
       <c r="Q924" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J925" t="n">
         <v>38</v>
       </c>
       <c r="K925" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L925" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M925" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q925" t="n">
         <v>15</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,7 +67101,7 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K927" t="n">
         <v>13000</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E928" t="n">
         <v>5</v>
@@ -67164,41 +67164,41 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K928" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L928" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M928" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>833</v>
+        <v>1067</v>
       </c>
       <c r="Q928" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E929" t="n">
         <v>5</v>
@@ -67236,41 +67236,41 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K929" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L929" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M929" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q929" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K930" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L930" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M930" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K931" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L931" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M931" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K932" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L932" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M932" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E933" t="n">
         <v>5</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,32 +67533,32 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K933" t="n">
-        <v>44000</v>
+        <v>10000</v>
       </c>
       <c r="L933" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="M933" t="n">
-        <v>44571</v>
+        <v>10000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>2971</v>
+        <v>556</v>
       </c>
       <c r="Q933" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E934" t="n">
         <v>5</v>
@@ -67601,36 +67601,36 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="K934" t="n">
-        <v>38000</v>
+        <v>8000</v>
       </c>
       <c r="L934" t="n">
-        <v>39000</v>
+        <v>8000</v>
       </c>
       <c r="M934" t="n">
-        <v>38500</v>
+        <v>8000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>2567</v>
+        <v>444</v>
       </c>
       <c r="Q934" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67668,25 +67668,25 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K935" t="n">
-        <v>34000</v>
+        <v>44000</v>
       </c>
       <c r="L935" t="n">
-        <v>34000</v>
+        <v>45000</v>
       </c>
       <c r="M935" t="n">
-        <v>34000</v>
+        <v>44571</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>2267</v>
+        <v>2971</v>
       </c>
       <c r="Q935" t="n">
         <v>15</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E936" t="n">
         <v>5</v>
@@ -67740,7 +67740,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
@@ -67749,32 +67749,32 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K936" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
       <c r="L936" t="n">
-        <v>16000</v>
+        <v>39000</v>
       </c>
       <c r="M936" t="n">
-        <v>15521</v>
+        <v>38500</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>776</v>
+        <v>2567</v>
       </c>
       <c r="Q936" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67812,25 +67812,25 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="K937" t="n">
-        <v>17000</v>
+        <v>34000</v>
       </c>
       <c r="L937" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="M937" t="n">
-        <v>17462</v>
+        <v>34000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>1164</v>
+        <v>2267</v>
       </c>
       <c r="Q937" t="n">
         <v>15</v>
@@ -67884,41 +67884,41 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K938" t="n">
         <v>15000</v>
       </c>
       <c r="L938" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M938" t="n">
-        <v>15000</v>
+        <v>15521</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>1000</v>
+        <v>776</v>
       </c>
       <c r="Q938" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67956,7 +67956,7 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -67965,7 +67965,7 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K939" t="n">
         <v>17000</v>
@@ -67974,7 +67974,7 @@
         <v>18000</v>
       </c>
       <c r="M939" t="n">
-        <v>17500</v>
+        <v>17462</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="Q939" t="n">
         <v>15</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E940" t="n">
         <v>5</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K940" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="L940" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M940" t="n">
-        <v>41479</v>
+        <v>15000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>2765</v>
+        <v>1000</v>
       </c>
       <c r="Q940" t="n">
         <v>15</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E941" t="n">
         <v>5</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K941" t="n">
-        <v>38000</v>
+        <v>17000</v>
       </c>
       <c r="L941" t="n">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="M941" t="n">
-        <v>38521</v>
+        <v>17500</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>2568</v>
+        <v>1167</v>
       </c>
       <c r="Q941" t="n">
         <v>15</v>
@@ -68172,7 +68172,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
@@ -68181,32 +68181,32 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K942" t="n">
         <v>41000</v>
       </c>
       <c r="L942" t="n">
-        <v>41000</v>
+        <v>42000</v>
       </c>
       <c r="M942" t="n">
-        <v>41000</v>
+        <v>41479</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>2278</v>
+        <v>2765</v>
       </c>
       <c r="Q942" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E943" t="n">
         <v>5</v>
@@ -68244,7 +68244,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -68253,32 +68253,32 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K943" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="L943" t="n">
-        <v>27000</v>
+        <v>39000</v>
       </c>
       <c r="M943" t="n">
-        <v>27000</v>
+        <v>38521</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>1500</v>
+        <v>2568</v>
       </c>
       <c r="Q943" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E944" t="n">
         <v>5</v>
@@ -68316,25 +68316,25 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
         <v>38</v>
       </c>
       <c r="K944" t="n">
-        <v>21000</v>
+        <v>41000</v>
       </c>
       <c r="L944" t="n">
-        <v>21000</v>
+        <v>41000</v>
       </c>
       <c r="M944" t="n">
-        <v>21000</v>
+        <v>41000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>1167</v>
+        <v>2278</v>
       </c>
       <c r="Q944" t="n">
         <v>18</v>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
@@ -68400,13 +68400,13 @@
         <v>35</v>
       </c>
       <c r="K945" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L945" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M945" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>1111</v>
+        <v>1500</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K946" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L946" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M946" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>944</v>
+        <v>1167</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68532,7 +68532,7 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
@@ -68541,32 +68541,32 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K947" t="n">
-        <v>41000</v>
+        <v>20000</v>
       </c>
       <c r="L947" t="n">
-        <v>42000</v>
+        <v>20000</v>
       </c>
       <c r="M947" t="n">
-        <v>41479</v>
+        <v>20000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>2765</v>
+        <v>1111</v>
       </c>
       <c r="Q947" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R947" t="inlineStr">
         <is>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E948" t="n">
         <v>5</v>
@@ -68604,7 +68604,7 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
@@ -68613,32 +68613,32 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K948" t="n">
-        <v>37000</v>
+        <v>17000</v>
       </c>
       <c r="L948" t="n">
-        <v>37000</v>
+        <v>17000</v>
       </c>
       <c r="M948" t="n">
-        <v>37000</v>
+        <v>17000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>2467</v>
+        <v>944</v>
       </c>
       <c r="Q948" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68676,7 +68676,7 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
@@ -68688,13 +68688,13 @@
         <v>73</v>
       </c>
       <c r="K949" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="L949" t="n">
-        <v>29000</v>
+        <v>42000</v>
       </c>
       <c r="M949" t="n">
-        <v>28479</v>
+        <v>41479</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>1899</v>
+        <v>2765</v>
       </c>
       <c r="Q949" t="n">
         <v>15</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E950" t="n">
         <v>5</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J950" t="n">
         <v>38</v>
       </c>
       <c r="K950" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="L950" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M950" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>2000</v>
+        <v>2467</v>
       </c>
       <c r="Q950" t="n">
         <v>15</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E951" t="n">
         <v>5</v>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68829,16 +68829,16 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K951" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L951" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M951" t="n">
-        <v>25000</v>
+        <v>28479</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>1667</v>
+        <v>1899</v>
       </c>
       <c r="Q951" t="n">
         <v>15</v>
@@ -68892,25 +68892,25 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J952" t="n">
         <v>38</v>
       </c>
       <c r="K952" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L952" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M952" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>1067</v>
+        <v>2000</v>
       </c>
       <c r="Q952" t="n">
         <v>15</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E953" t="n">
         <v>5</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K953" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L953" t="n">
-        <v>41000</v>
+        <v>25000</v>
       </c>
       <c r="M953" t="n">
-        <v>40479</v>
+        <v>25000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>2699</v>
+        <v>1667</v>
       </c>
       <c r="Q953" t="n">
         <v>15</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E954" t="n">
         <v>5</v>
@@ -69036,25 +69036,25 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K954" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="L954" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="M954" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>2333</v>
+        <v>1067</v>
       </c>
       <c r="Q954" t="n">
         <v>15</v>
@@ -69108,7 +69108,7 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
@@ -69120,13 +69120,13 @@
         <v>73</v>
       </c>
       <c r="K955" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="L955" t="n">
-        <v>35000</v>
+        <v>41000</v>
       </c>
       <c r="M955" t="n">
-        <v>33959</v>
+        <v>40479</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>2264</v>
+        <v>2699</v>
       </c>
       <c r="Q955" t="n">
         <v>15</v>
@@ -69180,7 +69180,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K956" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L956" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M956" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>1933</v>
+        <v>2333</v>
       </c>
       <c r="Q956" t="n">
         <v>15</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E957" t="n">
         <v>5</v>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K957" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L957" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M957" t="n">
-        <v>18000</v>
+        <v>33959</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>1200</v>
+        <v>2264</v>
       </c>
       <c r="Q957" t="n">
         <v>15</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69324,7 +69324,7 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K958" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="L958" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="M958" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>1000</v>
+        <v>1933</v>
       </c>
       <c r="Q958" t="n">
         <v>15</v>
@@ -69396,7 +69396,7 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K959" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L959" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M959" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q959" t="n">
         <v>15</v>
@@ -69468,7 +69468,7 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -69480,13 +69480,13 @@
         <v>38</v>
       </c>
       <c r="K960" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L960" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M960" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q960" t="n">
         <v>15</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E961" t="n">
         <v>5</v>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,32 +69549,32 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K961" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L961" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M961" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q961" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E962" t="n">
         <v>5</v>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69624,29 +69624,29 @@
         <v>38</v>
       </c>
       <c r="K962" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L962" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M962" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>400</v>
+        <v>867</v>
       </c>
       <c r="Q962" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69684,41 +69684,41 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J963" t="n">
         <v>35</v>
       </c>
       <c r="K963" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L963" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M963" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q963" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69756,41 +69756,41 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J964" t="n">
         <v>38</v>
       </c>
       <c r="K964" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L964" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M964" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="Q964" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J965" t="n">
         <v>35</v>
       </c>
       <c r="K965" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L965" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M965" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69900,7 +69900,7 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
@@ -69912,13 +69912,13 @@
         <v>38</v>
       </c>
       <c r="K966" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L966" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M966" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69972,7 +69972,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -69984,13 +69984,13 @@
         <v>35</v>
       </c>
       <c r="K967" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L967" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M967" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70044,41 +70044,41 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K968" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L968" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="M968" t="n">
-        <v>25479</v>
+        <v>10000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>1699</v>
+        <v>556</v>
       </c>
       <c r="Q968" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E969" t="n">
         <v>5</v>
@@ -70116,41 +70116,41 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J969" t="n">
         <v>35</v>
       </c>
       <c r="K969" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="L969" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="M969" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>1533</v>
+        <v>444</v>
       </c>
       <c r="Q969" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K970" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="L970" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="M970" t="n">
-        <v>19000</v>
+        <v>25479</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>1267</v>
+        <v>1699</v>
       </c>
       <c r="Q970" t="n">
         <v>15</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E971" t="n">
         <v>5</v>
@@ -70260,7 +70260,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -70269,32 +70269,32 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K971" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L971" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M971" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>650</v>
+        <v>1533</v>
       </c>
       <c r="Q971" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E972" t="n">
         <v>5</v>
@@ -70332,7 +70332,7 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -70341,32 +70341,32 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K972" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L972" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M972" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>500</v>
+        <v>1267</v>
       </c>
       <c r="Q972" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70404,41 +70404,41 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
         <v>40</v>
       </c>
       <c r="K973" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L973" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M973" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>1222</v>
+        <v>650</v>
       </c>
       <c r="Q973" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70476,41 +70476,41 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J974" t="n">
         <v>40</v>
       </c>
       <c r="K974" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L974" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M974" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q974" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K975" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L975" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M975" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70620,7 +70620,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -70632,13 +70632,13 @@
         <v>40</v>
       </c>
       <c r="K976" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L976" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M976" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70692,7 +70692,7 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K977" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L977" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M977" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E978" t="n">
         <v>5</v>
@@ -70764,25 +70764,25 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K978" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L978" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M978" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E979" t="n">
         <v>5</v>
@@ -70836,25 +70836,25 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K979" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L979" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M979" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K980" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L980" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M980" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70980,25 +70980,25 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
         <v>35</v>
       </c>
       <c r="K981" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L981" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M981" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71052,16 +71052,16 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K982" t="n">
         <v>10000</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J983" t="n">
         <v>35</v>
       </c>
       <c r="K983" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L983" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M983" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E984" t="n">
         <v>5</v>
@@ -71196,25 +71196,25 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K984" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="L984" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M984" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>1944</v>
+        <v>556</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E985" t="n">
         <v>5</v>
@@ -71268,25 +71268,25 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K985" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="L985" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="M985" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>1778</v>
+        <v>444</v>
       </c>
       <c r="Q985" t="n">
         <v>18</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K986" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L986" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M986" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>1611</v>
+        <v>1944</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71412,7 +71412,7 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K987" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="L987" t="n">
-        <v>18500</v>
+        <v>32000</v>
       </c>
       <c r="M987" t="n">
-        <v>18273</v>
+        <v>32000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>1015</v>
+        <v>1778</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71484,7 +71484,7 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
@@ -71496,13 +71496,13 @@
         <v>35</v>
       </c>
       <c r="K988" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="L988" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="M988" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>833</v>
+        <v>1611</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E989" t="n">
         <v>5</v>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -71565,32 +71565,32 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K989" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="L989" t="n">
-        <v>35000</v>
+        <v>18500</v>
       </c>
       <c r="M989" t="n">
-        <v>34476</v>
+        <v>18273</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>2298</v>
+        <v>1015</v>
       </c>
       <c r="Q989" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E990" t="n">
         <v>5</v>
@@ -71628,7 +71628,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -71637,32 +71637,32 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K990" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L990" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M990" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>2000</v>
+        <v>833</v>
       </c>
       <c r="Q990" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71700,7 +71700,7 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="K991" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L991" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M991" t="n">
-        <v>30000</v>
+        <v>34476</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>2000</v>
+        <v>2298</v>
       </c>
       <c r="Q991" t="n">
         <v>15</v>
@@ -71772,7 +71772,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K992" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L992" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M992" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="Q992" t="n">
         <v>15</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E993" t="n">
         <v>5</v>
@@ -71844,7 +71844,7 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
@@ -71853,32 +71853,32 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K993" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L993" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M993" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="Q993" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E994" t="n">
         <v>5</v>
@@ -71916,7 +71916,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
@@ -71925,32 +71925,32 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K994" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L994" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M994" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>600</v>
+        <v>1667</v>
       </c>
       <c r="Q994" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71988,7 +71988,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -71997,7 +71997,7 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K995" t="n">
         <v>15000</v>
@@ -72010,19 +72010,19 @@
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="Q995" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72060,7 +72060,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -72082,19 +72082,19 @@
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q996" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72132,7 +72132,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -72144,13 +72144,13 @@
         <v>40</v>
       </c>
       <c r="K997" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L997" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M997" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="Q997" t="n">
         <v>15</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E998" t="n">
         <v>5</v>
@@ -72209,36 +72209,36 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K998" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L998" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M998" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>1389</v>
+        <v>800</v>
       </c>
       <c r="Q998" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E999" t="n">
         <v>5</v>
@@ -72276,7 +72276,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -72285,32 +72285,32 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K999" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L999" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M999" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>1167</v>
+        <v>933</v>
       </c>
       <c r="Q999" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1000" t="n">
         <v>35</v>
       </c>
       <c r="K1000" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L1000" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M1000" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="Q1000" t="n">
         <v>18</v>
@@ -72420,25 +72420,25 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1001" t="n">
         <v>38</v>
       </c>
       <c r="K1001" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L1001" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M1001" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>1111</v>
+        <v>1167</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72492,25 +72492,25 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1002" t="n">
         <v>35</v>
       </c>
       <c r="K1002" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L1002" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M1002" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1003" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L1003" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M1003" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>833</v>
+        <v>1111</v>
       </c>
       <c r="Q1003" t="n">
         <v>18</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1004" t="n">
         <v>5</v>
@@ -72636,25 +72636,25 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K1004" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L1004" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M1004" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>889</v>
+        <v>944</v>
       </c>
       <c r="Q1004" t="n">
         <v>18</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1005" t="n">
         <v>5</v>
@@ -72708,25 +72708,25 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1005" t="n">
         <v>35</v>
       </c>
       <c r="K1005" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L1005" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1005" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1006" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L1006" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M1006" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>611</v>
+        <v>889</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72852,7 +72852,7 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1007" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L1007" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1007" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72924,7 +72924,7 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1008" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1008" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1008" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1008" t="n">
         <v>18</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1009" t="n">
         <v>5</v>
@@ -72996,7 +72996,7 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
@@ -73008,29 +73008,29 @@
         <v>38</v>
       </c>
       <c r="K1009" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1009" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M1009" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>550</v>
+        <v>667</v>
       </c>
       <c r="Q1009" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1010" t="n">
         <v>5</v>
@@ -73068,7 +73068,7 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
@@ -73080,29 +73080,29 @@
         <v>35</v>
       </c>
       <c r="K1010" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L1010" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1010" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q1010" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73140,7 +73140,7 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
@@ -73149,32 +73149,32 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1011" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="L1011" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="M1011" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>1278</v>
+        <v>550</v>
       </c>
       <c r="Q1011" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73212,41 +73212,41 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1012" t="n">
         <v>35</v>
       </c>
       <c r="K1012" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="L1012" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M1012" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>1167</v>
+        <v>400</v>
       </c>
       <c r="Q1012" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -73293,16 +73293,16 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1013" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L1013" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="M1013" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>833</v>
+        <v>1278</v>
       </c>
       <c r="Q1013" t="n">
         <v>18</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1014" t="n">
         <v>35</v>
       </c>
       <c r="K1014" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="L1014" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="M1014" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>611</v>
+        <v>1167</v>
       </c>
       <c r="Q1014" t="n">
         <v>18</v>
@@ -73428,7 +73428,7 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
@@ -73440,13 +73440,13 @@
         <v>38</v>
       </c>
       <c r="K1015" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1015" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M1015" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73500,7 +73500,7 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
@@ -73512,13 +73512,13 @@
         <v>35</v>
       </c>
       <c r="K1016" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1016" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1016" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q1016" t="n">
         <v>18</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1017" t="n">
         <v>5</v>
@@ -73572,7 +73572,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -73581,32 +73581,32 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K1017" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="L1017" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="M1017" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>2000</v>
+        <v>611</v>
       </c>
       <c r="Q1017" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1018" t="n">
         <v>5</v>
@@ -73644,7 +73644,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -73653,32 +73653,32 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K1018" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="L1018" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="M1018" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>1733</v>
+        <v>444</v>
       </c>
       <c r="Q1018" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K1019" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L1019" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M1019" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="Q1019" t="n">
         <v>15</v>
@@ -73788,7 +73788,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K1020" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L1020" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M1020" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>1467</v>
+        <v>1733</v>
       </c>
       <c r="Q1020" t="n">
         <v>15</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1021" t="n">
         <v>5</v>
@@ -73860,41 +73860,41 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1021" t="n">
         <v>38</v>
       </c>
       <c r="K1021" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L1021" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M1021" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>833</v>
+        <v>1667</v>
       </c>
       <c r="Q1021" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1022" t="n">
         <v>5</v>
@@ -73932,41 +73932,41 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1022" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L1022" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M1022" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>722</v>
+        <v>1467</v>
       </c>
       <c r="Q1022" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1022" t="inlineStr">
         <is>
@@ -74009,20 +74009,20 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1023" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1023" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1023" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q1023" t="n">
         <v>18</v>
@@ -74076,7 +74076,7 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -74088,13 +74088,13 @@
         <v>38</v>
       </c>
       <c r="K1024" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1024" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1024" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q1024" t="n">
         <v>18</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1025" t="n">
         <v>5</v>
@@ -74153,36 +74153,36 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="K1025" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L1025" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M1025" t="n">
-        <v>24516</v>
+        <v>10000</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>1634</v>
+        <v>556</v>
       </c>
       <c r="Q1025" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1026" t="n">
         <v>5</v>
@@ -74220,41 +74220,41 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K1026" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="L1026" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M1026" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>1467</v>
+        <v>611</v>
       </c>
       <c r="Q1026" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74292,7 +74292,7 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K1027" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L1027" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M1027" t="n">
-        <v>20000</v>
+        <v>24516</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>1333</v>
+        <v>1634</v>
       </c>
       <c r="Q1027" t="n">
         <v>15</v>
@@ -74364,41 +74364,41 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="K1028" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L1028" t="n">
         <v>22000</v>
       </c>
       <c r="M1028" t="n">
-        <v>20438</v>
+        <v>22000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>1135</v>
+        <v>1467</v>
       </c>
       <c r="Q1028" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K1029" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L1029" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1029" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="Q1029" t="n">
         <v>15</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1030" t="n">
         <v>5</v>
@@ -74508,7 +74508,7 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
@@ -74517,32 +74517,32 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="K1030" t="n">
-        <v>41000</v>
+        <v>19000</v>
       </c>
       <c r="L1030" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="M1030" t="n">
-        <v>41479</v>
+        <v>20438</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>2765</v>
+        <v>1135</v>
       </c>
       <c r="Q1030" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1031" t="n">
         <v>5</v>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K1031" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="L1031" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="M1031" t="n">
-        <v>37521</v>
+        <v>18000</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>2501</v>
+        <v>1200</v>
       </c>
       <c r="Q1031" t="n">
         <v>15</v>
@@ -74652,7 +74652,7 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
@@ -74674,21 +74674,165 @@
       </c>
       <c r="N1032" t="inlineStr">
         <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1032" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1032" t="n">
+        <v>2765</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1032" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1033" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1033" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1033" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1033" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1033" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>37000</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>38000</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>37521</v>
+      </c>
+      <c r="N1033" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1033" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1033" t="n">
+        <v>2501</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1033" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1034" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1034" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1034" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1034" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1034" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>41000</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>41479</v>
+      </c>
+      <c r="N1034" t="inlineStr">
+        <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="O1032" t="inlineStr">
+      <c r="O1034" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P1032" t="n">
+      <c r="P1034" t="n">
         <v>2304</v>
       </c>
-      <c r="Q1032" t="n">
+      <c r="Q1034" t="n">
         <v>18</v>
       </c>
-      <c r="R1032" t="inlineStr">
+      <c r="R1034" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1034"/>
+  <dimension ref="A1:R1036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E837" t="n">
         <v>5</v>
@@ -60612,25 +60612,25 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="K837" t="n">
-        <v>32000</v>
+        <v>41000</v>
       </c>
       <c r="L837" t="n">
-        <v>32000</v>
+        <v>42000</v>
       </c>
       <c r="M837" t="n">
-        <v>32000</v>
+        <v>41507</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>2133</v>
+        <v>2767</v>
       </c>
       <c r="Q837" t="n">
         <v>15</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E838" t="n">
         <v>5</v>
@@ -60689,36 +60689,36 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K838" t="n">
         <v>28000</v>
       </c>
       <c r="L838" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M838" t="n">
-        <v>28000</v>
+        <v>28479</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>1867</v>
+        <v>1582</v>
       </c>
       <c r="Q838" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R838" t="inlineStr">
         <is>
@@ -60756,25 +60756,25 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J839" t="n">
         <v>38</v>
       </c>
       <c r="K839" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L839" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M839" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>1667</v>
+        <v>2133</v>
       </c>
       <c r="Q839" t="n">
         <v>15</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K840" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L840" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M840" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>1467</v>
+        <v>1867</v>
       </c>
       <c r="Q840" t="n">
         <v>15</v>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60912,13 +60912,13 @@
         <v>38</v>
       </c>
       <c r="K841" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L841" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M841" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>933</v>
+        <v>1667</v>
       </c>
       <c r="Q841" t="n">
         <v>15</v>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60984,13 +60984,13 @@
         <v>35</v>
       </c>
       <c r="K842" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L842" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M842" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>800</v>
+        <v>1467</v>
       </c>
       <c r="Q842" t="n">
         <v>15</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E843" t="n">
         <v>5</v>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61053,32 +61053,32 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K843" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L843" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M843" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="Q843" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R843" t="inlineStr">
         <is>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E844" t="n">
         <v>5</v>
@@ -61116,25 +61116,25 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J844" t="n">
         <v>35</v>
       </c>
       <c r="K844" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="L844" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M844" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q844" t="n">
         <v>15</v>
@@ -61188,41 +61188,41 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K845" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L845" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M845" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="Q845" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61260,25 +61260,25 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K846" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L846" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M846" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="Q846" t="n">
         <v>15</v>
@@ -61337,20 +61337,20 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J847" t="n">
         <v>35</v>
       </c>
       <c r="K847" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L847" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M847" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q847" t="n">
         <v>15</v>
@@ -61404,7 +61404,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
@@ -61416,13 +61416,13 @@
         <v>38</v>
       </c>
       <c r="K848" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L848" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M848" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q848" t="n">
         <v>15</v>
@@ -61476,7 +61476,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
@@ -61488,13 +61488,13 @@
         <v>35</v>
       </c>
       <c r="K849" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L849" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M849" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q849" t="n">
         <v>15</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E850" t="n">
         <v>5</v>
@@ -61548,41 +61548,41 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K850" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L850" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M850" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="Q850" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R850" t="inlineStr">
         <is>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E851" t="n">
         <v>5</v>
@@ -61620,41 +61620,41 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K851" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L851" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M851" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="Q851" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J852" t="n">
         <v>35</v>
       </c>
       <c r="K852" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L852" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M852" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>611</v>
+        <v>944</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61764,7 +61764,7 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
@@ -61773,16 +61773,16 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K853" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L853" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M853" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61845,7 +61845,7 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K854" t="n">
         <v>11000</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E855" t="n">
         <v>5</v>
@@ -61908,25 +61908,25 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K855" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L855" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M855" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>889</v>
+        <v>722</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E856" t="n">
         <v>5</v>
@@ -61980,25 +61980,25 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J856" t="n">
         <v>38</v>
       </c>
       <c r="K856" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L856" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M856" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K857" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L857" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M857" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>611</v>
+        <v>889</v>
       </c>
       <c r="Q857" t="n">
         <v>18</v>
@@ -62124,7 +62124,7 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
@@ -62133,16 +62133,16 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K858" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L858" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M858" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K859" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L859" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M859" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E860" t="n">
         <v>5</v>
@@ -62268,25 +62268,25 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K860" t="n">
-        <v>40000</v>
+        <v>11000</v>
       </c>
       <c r="L860" t="n">
-        <v>40000</v>
+        <v>11000</v>
       </c>
       <c r="M860" t="n">
-        <v>40000</v>
+        <v>11000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>2222</v>
+        <v>611</v>
       </c>
       <c r="Q860" t="n">
         <v>18</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E861" t="n">
         <v>5</v>
@@ -62340,25 +62340,25 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K861" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="L861" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="M861" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>2056</v>
+        <v>444</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K862" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="L862" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="M862" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>1889</v>
+        <v>2222</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62484,7 +62484,7 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
@@ -62496,13 +62496,13 @@
         <v>35</v>
       </c>
       <c r="K863" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="L863" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="M863" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>1000</v>
+        <v>2056</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62556,7 +62556,7 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K864" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="L864" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="M864" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>889</v>
+        <v>1889</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E865" t="n">
         <v>5</v>
@@ -62628,7 +62628,7 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
@@ -62637,32 +62637,32 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="K865" t="n">
-        <v>41000</v>
+        <v>18000</v>
       </c>
       <c r="L865" t="n">
-        <v>42000</v>
+        <v>18000</v>
       </c>
       <c r="M865" t="n">
-        <v>41514</v>
+        <v>18000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>2768</v>
+        <v>1000</v>
       </c>
       <c r="Q865" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R865" t="inlineStr">
         <is>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E866" t="n">
         <v>5</v>
@@ -62705,36 +62705,36 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K866" t="n">
-        <v>38000</v>
+        <v>16000</v>
       </c>
       <c r="L866" t="n">
-        <v>39000</v>
+        <v>16000</v>
       </c>
       <c r="M866" t="n">
-        <v>38521</v>
+        <v>16000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>2568</v>
+        <v>889</v>
       </c>
       <c r="Q866" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R866" t="inlineStr">
         <is>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E867" t="n">
         <v>5</v>
@@ -62777,36 +62777,36 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="K867" t="n">
-        <v>36000</v>
+        <v>41000</v>
       </c>
       <c r="L867" t="n">
-        <v>36000</v>
+        <v>42000</v>
       </c>
       <c r="M867" t="n">
-        <v>36000</v>
+        <v>41514</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>2000</v>
+        <v>2768</v>
       </c>
       <c r="Q867" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R867" t="inlineStr">
         <is>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E868" t="n">
         <v>5</v>
@@ -62844,7 +62844,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
@@ -62853,32 +62853,32 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K868" t="n">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="L868" t="n">
-        <v>33000</v>
+        <v>39000</v>
       </c>
       <c r="M868" t="n">
-        <v>33000</v>
+        <v>38521</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>1833</v>
+        <v>2568</v>
       </c>
       <c r="Q868" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R868" t="inlineStr">
         <is>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E869" t="n">
         <v>5</v>
@@ -62921,36 +62921,36 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J869" t="n">
         <v>38</v>
       </c>
       <c r="K869" t="n">
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="L869" t="n">
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="M869" t="n">
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>1067</v>
+        <v>2000</v>
       </c>
       <c r="Q869" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E870" t="n">
         <v>5</v>
@@ -62993,36 +62993,36 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J870" t="n">
         <v>35</v>
       </c>
       <c r="K870" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="L870" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="M870" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>867</v>
+        <v>1833</v>
       </c>
       <c r="Q870" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R870" t="inlineStr">
         <is>
@@ -63060,7 +63060,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K871" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L871" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M871" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="Q871" t="n">
         <v>15</v>
@@ -63132,7 +63132,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K872" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L872" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M872" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="Q872" t="n">
         <v>15</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E873" t="n">
         <v>5</v>
@@ -63204,41 +63204,41 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K873" t="n">
-        <v>44000</v>
+        <v>15000</v>
       </c>
       <c r="L873" t="n">
-        <v>44000</v>
+        <v>15000</v>
       </c>
       <c r="M873" t="n">
-        <v>44000</v>
+        <v>15000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>2444</v>
+        <v>1000</v>
       </c>
       <c r="Q873" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R873" t="inlineStr">
         <is>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E874" t="n">
         <v>5</v>
@@ -63276,41 +63276,41 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K874" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L874" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M874" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>1944</v>
+        <v>800</v>
       </c>
       <c r="Q874" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63348,25 +63348,25 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J875" t="n">
         <v>30</v>
       </c>
       <c r="K875" t="n">
-        <v>22000</v>
+        <v>44000</v>
       </c>
       <c r="L875" t="n">
-        <v>22000</v>
+        <v>44000</v>
       </c>
       <c r="M875" t="n">
-        <v>22000</v>
+        <v>44000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1222</v>
+        <v>2444</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63420,25 +63420,25 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J876" t="n">
         <v>35</v>
       </c>
       <c r="K876" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L876" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M876" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>1000</v>
+        <v>1944</v>
       </c>
       <c r="Q876" t="n">
         <v>18</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E877" t="n">
         <v>5</v>
@@ -63492,7 +63492,7 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
@@ -63501,32 +63501,32 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K877" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="L877" t="n">
-        <v>43000</v>
+        <v>22000</v>
       </c>
       <c r="M877" t="n">
-        <v>42479</v>
+        <v>22000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>2832</v>
+        <v>1222</v>
       </c>
       <c r="Q877" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R877" t="inlineStr">
         <is>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E878" t="n">
         <v>5</v>
@@ -63569,36 +63569,36 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K878" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L878" t="n">
-        <v>31000</v>
+        <v>18000</v>
       </c>
       <c r="M878" t="n">
-        <v>30479</v>
+        <v>18000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>2032</v>
+        <v>1000</v>
       </c>
       <c r="Q878" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R878" t="inlineStr">
         <is>
@@ -63636,7 +63636,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -63648,29 +63648,29 @@
         <v>73</v>
       </c>
       <c r="K879" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="L879" t="n">
-        <v>36000</v>
+        <v>43000</v>
       </c>
       <c r="M879" t="n">
-        <v>35479</v>
+        <v>42479</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>1971</v>
+        <v>2832</v>
       </c>
       <c r="Q879" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E880" t="n">
         <v>5</v>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K880" t="n">
-        <v>42000</v>
+        <v>30000</v>
       </c>
       <c r="L880" t="n">
-        <v>43000</v>
+        <v>31000</v>
       </c>
       <c r="M880" t="n">
-        <v>42462</v>
+        <v>30479</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>2831</v>
+        <v>2032</v>
       </c>
       <c r="Q880" t="n">
         <v>15</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E881" t="n">
         <v>5</v>
@@ -63780,41 +63780,41 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K881" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="L881" t="n">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="M881" t="n">
-        <v>40000</v>
+        <v>35479</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>2667</v>
+        <v>1971</v>
       </c>
       <c r="Q881" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K882" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="L882" t="n">
-        <v>38000</v>
+        <v>43000</v>
       </c>
       <c r="M882" t="n">
-        <v>37500</v>
+        <v>42462</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>2500</v>
+        <v>2831</v>
       </c>
       <c r="Q882" t="n">
         <v>15</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63936,13 +63936,13 @@
         <v>30</v>
       </c>
       <c r="K883" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L883" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M883" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>2333</v>
+        <v>2667</v>
       </c>
       <c r="Q883" t="n">
         <v>15</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E884" t="n">
         <v>5</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,32 +64005,32 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K884" t="n">
-        <v>16000</v>
+        <v>37000</v>
       </c>
       <c r="L884" t="n">
-        <v>16000</v>
+        <v>38000</v>
       </c>
       <c r="M884" t="n">
-        <v>16000</v>
+        <v>37500</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q884" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R884" t="inlineStr">
         <is>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E885" t="n">
         <v>5</v>
@@ -64068,25 +64068,25 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K885" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L885" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M885" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>1000</v>
+        <v>2333</v>
       </c>
       <c r="Q885" t="n">
         <v>15</v>
@@ -64140,41 +64140,41 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="K886" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L886" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M886" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P886" t="n">
         <v>800</v>
       </c>
       <c r="Q886" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R886" t="inlineStr">
         <is>
@@ -64212,7 +64212,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -64224,13 +64224,13 @@
         <v>40</v>
       </c>
       <c r="K887" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L887" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M887" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="Q887" t="n">
         <v>15</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E888" t="n">
         <v>5</v>
@@ -64284,41 +64284,41 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J888" t="n">
         <v>35</v>
       </c>
       <c r="K888" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="L888" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="M888" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>1444</v>
+        <v>800</v>
       </c>
       <c r="Q888" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R888" t="inlineStr">
         <is>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E889" t="n">
         <v>5</v>
@@ -64356,41 +64356,41 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K889" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L889" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M889" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>1333</v>
+        <v>933</v>
       </c>
       <c r="Q889" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R889" t="inlineStr">
         <is>
@@ -64428,25 +64428,25 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K890" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L890" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="M890" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>1167</v>
+        <v>1444</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J891" t="n">
         <v>35</v>
       </c>
       <c r="K891" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L891" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M891" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64572,25 +64572,25 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K892" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L892" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M892" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="Q892" t="n">
         <v>18</v>
@@ -64644,25 +64644,25 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K893" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L893" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M893" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J894" t="n">
         <v>35</v>
       </c>
       <c r="K894" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L894" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M894" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -64788,7 +64788,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -64797,32 +64797,32 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K895" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="L895" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M895" t="n">
-        <v>41479</v>
+        <v>15000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>2765</v>
+        <v>833</v>
       </c>
       <c r="Q895" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R895" t="inlineStr">
         <is>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E896" t="n">
         <v>5</v>
@@ -64865,36 +64865,36 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="K896" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L896" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="M896" t="n">
-        <v>35500</v>
+        <v>12000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>2367</v>
+        <v>667</v>
       </c>
       <c r="Q896" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E897" t="n">
         <v>5</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E898" t="n">
         <v>5</v>
@@ -65004,25 +65004,25 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K898" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L898" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="M898" t="n">
-        <v>34000</v>
+        <v>35500</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>2267</v>
+        <v>2367</v>
       </c>
       <c r="Q898" t="n">
         <v>15</v>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65088,13 +65088,13 @@
         <v>73</v>
       </c>
       <c r="K899" t="n">
-        <v>37000</v>
+        <v>41000</v>
       </c>
       <c r="L899" t="n">
-        <v>38000</v>
+        <v>42000</v>
       </c>
       <c r="M899" t="n">
-        <v>37521</v>
+        <v>41479</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>2501</v>
+        <v>2765</v>
       </c>
       <c r="Q899" t="n">
         <v>15</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E900" t="n">
         <v>5</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J900" t="n">
         <v>35</v>
       </c>
       <c r="K900" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L900" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M900" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>2200</v>
+        <v>2267</v>
       </c>
       <c r="Q900" t="n">
         <v>15</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E901" t="n">
         <v>5</v>
@@ -65220,25 +65220,25 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K901" t="n">
-        <v>29000</v>
+        <v>37000</v>
       </c>
       <c r="L901" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="M901" t="n">
-        <v>29000</v>
+        <v>37521</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>1933</v>
+        <v>2501</v>
       </c>
       <c r="Q901" t="n">
         <v>15</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K902" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L902" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M902" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>1867</v>
+        <v>2200</v>
       </c>
       <c r="Q902" t="n">
         <v>15</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E903" t="n">
         <v>5</v>
@@ -65364,41 +65364,41 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K903" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="L903" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="M903" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>700</v>
+        <v>1933</v>
       </c>
       <c r="Q903" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R903" t="inlineStr">
         <is>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E904" t="n">
         <v>5</v>
@@ -65436,25 +65436,25 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J904" t="n">
         <v>38</v>
       </c>
       <c r="K904" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L904" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M904" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>1933</v>
+        <v>1867</v>
       </c>
       <c r="Q904" t="n">
         <v>15</v>
@@ -65508,41 +65508,41 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K905" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="L905" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="M905" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>1778</v>
+        <v>700</v>
       </c>
       <c r="Q905" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K906" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L906" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M906" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>1667</v>
+        <v>1933</v>
       </c>
       <c r="Q906" t="n">
         <v>15</v>
@@ -65652,41 +65652,41 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K907" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="L907" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="M907" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>1067</v>
+        <v>1778</v>
       </c>
       <c r="Q907" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E908" t="n">
         <v>5</v>
@@ -65724,25 +65724,25 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K908" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L908" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M908" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>2200</v>
+        <v>1667</v>
       </c>
       <c r="Q908" t="n">
         <v>15</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E909" t="n">
         <v>5</v>
@@ -65796,7 +65796,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K909" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L909" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M909" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="Q909" t="n">
         <v>15</v>
@@ -65868,25 +65868,25 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K910" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="L910" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="M910" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="Q910" t="n">
         <v>15</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,7 +65949,7 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K911" t="n">
         <v>15000</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,7 +66021,7 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K912" t="n">
         <v>12000</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E913" t="n">
         <v>5</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K913" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="L913" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M913" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="Q913" t="n">
         <v>15</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E914" t="n">
         <v>5</v>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K914" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="L914" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="M914" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="Q914" t="n">
         <v>15</v>
@@ -66228,7 +66228,7 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K915" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="L915" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="M915" t="n">
-        <v>36041</v>
+        <v>42000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>2403</v>
+        <v>2800</v>
       </c>
       <c r="Q915" t="n">
         <v>15</v>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -66312,13 +66312,13 @@
         <v>38</v>
       </c>
       <c r="K916" t="n">
-        <v>31000</v>
+        <v>36000</v>
       </c>
       <c r="L916" t="n">
-        <v>31000</v>
+        <v>36000</v>
       </c>
       <c r="M916" t="n">
-        <v>31000</v>
+        <v>36000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>2067</v>
+        <v>2400</v>
       </c>
       <c r="Q916" t="n">
         <v>15</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E917" t="n">
         <v>5</v>
@@ -66372,25 +66372,25 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K917" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L917" t="n">
-        <v>20000</v>
+        <v>37000</v>
       </c>
       <c r="M917" t="n">
-        <v>20000</v>
+        <v>36041</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>1333</v>
+        <v>2403</v>
       </c>
       <c r="Q917" t="n">
         <v>15</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J918" t="n">
         <v>38</v>
       </c>
       <c r="K918" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="L918" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="M918" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>1333</v>
+        <v>2067</v>
       </c>
       <c r="Q918" t="n">
         <v>15</v>
@@ -66516,7 +66516,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
@@ -66528,13 +66528,13 @@
         <v>35</v>
       </c>
       <c r="K919" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L919" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M919" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="Q919" t="n">
         <v>15</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66600,13 +66600,13 @@
         <v>38</v>
       </c>
       <c r="K920" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L920" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M920" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="Q920" t="n">
         <v>15</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E921" t="n">
         <v>5</v>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66672,13 +66672,13 @@
         <v>35</v>
       </c>
       <c r="K921" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L921" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="M921" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>1400</v>
+        <v>1133</v>
       </c>
       <c r="Q921" t="n">
         <v>15</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K922" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L922" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M922" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>1400</v>
+        <v>1667</v>
       </c>
       <c r="Q922" t="n">
         <v>15</v>
@@ -66804,7 +66804,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K923" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L923" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M923" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>1133</v>
+        <v>1400</v>
       </c>
       <c r="Q923" t="n">
         <v>15</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E924" t="n">
         <v>5</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,32 +66885,32 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="K924" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L924" t="n">
         <v>21000</v>
       </c>
       <c r="M924" t="n">
-        <v>20521</v>
+        <v>21000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>1026</v>
+        <v>1400</v>
       </c>
       <c r="Q924" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E925" t="n">
         <v>5</v>
@@ -66948,25 +66948,25 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K925" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L925" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M925" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q925" t="n">
         <v>15</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,32 +67029,32 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K926" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L926" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M926" t="n">
-        <v>16000</v>
+        <v>20521</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>1067</v>
+        <v>1026</v>
       </c>
       <c r="Q926" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J927" t="n">
         <v>38</v>
       </c>
       <c r="K927" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L927" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M927" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q927" t="n">
         <v>15</v>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
@@ -67236,7 +67236,7 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
@@ -67245,7 +67245,7 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K929" t="n">
         <v>13000</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E930" t="n">
         <v>5</v>
@@ -67308,41 +67308,41 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K930" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L930" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M930" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>833</v>
+        <v>1067</v>
       </c>
       <c r="Q930" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E931" t="n">
         <v>5</v>
@@ -67380,41 +67380,41 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K931" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L931" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M931" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q931" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K932" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L932" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M932" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K933" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L933" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M933" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K934" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L934" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M934" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q934" t="n">
         <v>18</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E935" t="n">
         <v>5</v>
@@ -67668,7 +67668,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -67677,32 +67677,32 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K935" t="n">
-        <v>44000</v>
+        <v>10000</v>
       </c>
       <c r="L935" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="M935" t="n">
-        <v>44571</v>
+        <v>10000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>2971</v>
+        <v>556</v>
       </c>
       <c r="Q935" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E936" t="n">
         <v>5</v>
@@ -67745,36 +67745,36 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="K936" t="n">
-        <v>38000</v>
+        <v>8000</v>
       </c>
       <c r="L936" t="n">
-        <v>39000</v>
+        <v>8000</v>
       </c>
       <c r="M936" t="n">
-        <v>38500</v>
+        <v>8000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>2567</v>
+        <v>444</v>
       </c>
       <c r="Q936" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67812,25 +67812,25 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K937" t="n">
-        <v>34000</v>
+        <v>44000</v>
       </c>
       <c r="L937" t="n">
-        <v>34000</v>
+        <v>45000</v>
       </c>
       <c r="M937" t="n">
-        <v>34000</v>
+        <v>44571</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>2267</v>
+        <v>2971</v>
       </c>
       <c r="Q937" t="n">
         <v>15</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E938" t="n">
         <v>5</v>
@@ -67884,7 +67884,7 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
@@ -67893,32 +67893,32 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K938" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
       <c r="L938" t="n">
-        <v>16000</v>
+        <v>39000</v>
       </c>
       <c r="M938" t="n">
-        <v>15521</v>
+        <v>38500</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>776</v>
+        <v>2567</v>
       </c>
       <c r="Q938" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -67956,25 +67956,25 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="K939" t="n">
-        <v>17000</v>
+        <v>34000</v>
       </c>
       <c r="L939" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="M939" t="n">
-        <v>17462</v>
+        <v>34000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>1164</v>
+        <v>2267</v>
       </c>
       <c r="Q939" t="n">
         <v>15</v>
@@ -68028,41 +68028,41 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K940" t="n">
         <v>15000</v>
       </c>
       <c r="L940" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M940" t="n">
-        <v>15000</v>
+        <v>15521</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>1000</v>
+        <v>776</v>
       </c>
       <c r="Q940" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68100,7 +68100,7 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
@@ -68109,7 +68109,7 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K941" t="n">
         <v>17000</v>
@@ -68118,7 +68118,7 @@
         <v>18000</v>
       </c>
       <c r="M941" t="n">
-        <v>17500</v>
+        <v>17462</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="Q941" t="n">
         <v>15</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E942" t="n">
         <v>5</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K942" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="L942" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M942" t="n">
-        <v>41479</v>
+        <v>15000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>2765</v>
+        <v>1000</v>
       </c>
       <c r="Q942" t="n">
         <v>15</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E943" t="n">
         <v>5</v>
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K943" t="n">
-        <v>38000</v>
+        <v>17000</v>
       </c>
       <c r="L943" t="n">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="M943" t="n">
-        <v>38521</v>
+        <v>17500</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>2568</v>
+        <v>1167</v>
       </c>
       <c r="Q943" t="n">
         <v>15</v>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,32 +68325,32 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K944" t="n">
         <v>41000</v>
       </c>
       <c r="L944" t="n">
-        <v>41000</v>
+        <v>42000</v>
       </c>
       <c r="M944" t="n">
-        <v>41000</v>
+        <v>41479</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>2278</v>
+        <v>2765</v>
       </c>
       <c r="Q944" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
@@ -68397,32 +68397,32 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K945" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="L945" t="n">
-        <v>27000</v>
+        <v>39000</v>
       </c>
       <c r="M945" t="n">
-        <v>27000</v>
+        <v>38521</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>1500</v>
+        <v>2568</v>
       </c>
       <c r="Q945" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68460,25 +68460,25 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J946" t="n">
         <v>38</v>
       </c>
       <c r="K946" t="n">
-        <v>21000</v>
+        <v>41000</v>
       </c>
       <c r="L946" t="n">
-        <v>21000</v>
+        <v>41000</v>
       </c>
       <c r="M946" t="n">
-        <v>21000</v>
+        <v>41000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>1167</v>
+        <v>2278</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68532,7 +68532,7 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
@@ -68544,13 +68544,13 @@
         <v>35</v>
       </c>
       <c r="K947" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L947" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M947" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>1111</v>
+        <v>1500</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68604,7 +68604,7 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K948" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L948" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M948" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>944</v>
+        <v>1167</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E949" t="n">
         <v>5</v>
@@ -68676,7 +68676,7 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
@@ -68685,32 +68685,32 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K949" t="n">
-        <v>41000</v>
+        <v>20000</v>
       </c>
       <c r="L949" t="n">
-        <v>42000</v>
+        <v>20000</v>
       </c>
       <c r="M949" t="n">
-        <v>41479</v>
+        <v>20000</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>2765</v>
+        <v>1111</v>
       </c>
       <c r="Q949" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E950" t="n">
         <v>5</v>
@@ -68748,7 +68748,7 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
@@ -68757,32 +68757,32 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K950" t="n">
-        <v>37000</v>
+        <v>17000</v>
       </c>
       <c r="L950" t="n">
-        <v>37000</v>
+        <v>17000</v>
       </c>
       <c r="M950" t="n">
-        <v>37000</v>
+        <v>17000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>2467</v>
+        <v>944</v>
       </c>
       <c r="Q950" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68832,13 +68832,13 @@
         <v>73</v>
       </c>
       <c r="K951" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="L951" t="n">
-        <v>29000</v>
+        <v>42000</v>
       </c>
       <c r="M951" t="n">
-        <v>28479</v>
+        <v>41479</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>1899</v>
+        <v>2765</v>
       </c>
       <c r="Q951" t="n">
         <v>15</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E952" t="n">
         <v>5</v>
@@ -68897,20 +68897,20 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J952" t="n">
         <v>38</v>
       </c>
       <c r="K952" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="L952" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M952" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>2000</v>
+        <v>2467</v>
       </c>
       <c r="Q952" t="n">
         <v>15</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E953" t="n">
         <v>5</v>
@@ -68964,7 +68964,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K953" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L953" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M953" t="n">
-        <v>25000</v>
+        <v>28479</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>1667</v>
+        <v>1899</v>
       </c>
       <c r="Q953" t="n">
         <v>15</v>
@@ -69036,25 +69036,25 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J954" t="n">
         <v>38</v>
       </c>
       <c r="K954" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L954" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M954" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>1067</v>
+        <v>2000</v>
       </c>
       <c r="Q954" t="n">
         <v>15</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E955" t="n">
         <v>5</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K955" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L955" t="n">
-        <v>41000</v>
+        <v>25000</v>
       </c>
       <c r="M955" t="n">
-        <v>40479</v>
+        <v>25000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>2699</v>
+        <v>1667</v>
       </c>
       <c r="Q955" t="n">
         <v>15</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E956" t="n">
         <v>5</v>
@@ -69180,25 +69180,25 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K956" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="L956" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="M956" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>2333</v>
+        <v>1067</v>
       </c>
       <c r="Q956" t="n">
         <v>15</v>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69264,13 +69264,13 @@
         <v>73</v>
       </c>
       <c r="K957" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="L957" t="n">
-        <v>35000</v>
+        <v>41000</v>
       </c>
       <c r="M957" t="n">
-        <v>33959</v>
+        <v>40479</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>2264</v>
+        <v>2699</v>
       </c>
       <c r="Q957" t="n">
         <v>15</v>
@@ -69324,7 +69324,7 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K958" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L958" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M958" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>1933</v>
+        <v>2333</v>
       </c>
       <c r="Q958" t="n">
         <v>15</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E959" t="n">
         <v>5</v>
@@ -69396,7 +69396,7 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K959" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L959" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M959" t="n">
-        <v>18000</v>
+        <v>33959</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>1200</v>
+        <v>2264</v>
       </c>
       <c r="Q959" t="n">
         <v>15</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E960" t="n">
         <v>5</v>
@@ -69468,7 +69468,7 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K960" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="L960" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="M960" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>1000</v>
+        <v>1933</v>
       </c>
       <c r="Q960" t="n">
         <v>15</v>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K961" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L961" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M961" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q961" t="n">
         <v>15</v>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69624,13 +69624,13 @@
         <v>38</v>
       </c>
       <c r="K962" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L962" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M962" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q962" t="n">
         <v>15</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E963" t="n">
         <v>5</v>
@@ -69684,7 +69684,7 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
@@ -69693,32 +69693,32 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K963" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L963" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M963" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q963" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E964" t="n">
         <v>5</v>
@@ -69756,7 +69756,7 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
@@ -69768,29 +69768,29 @@
         <v>38</v>
       </c>
       <c r="K964" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L964" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M964" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>400</v>
+        <v>867</v>
       </c>
       <c r="Q964" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69828,41 +69828,41 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J965" t="n">
         <v>35</v>
       </c>
       <c r="K965" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L965" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M965" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q965" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69900,41 +69900,41 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J966" t="n">
         <v>38</v>
       </c>
       <c r="K966" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L966" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M966" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="Q966" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J967" t="n">
         <v>35</v>
       </c>
       <c r="K967" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L967" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M967" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -70056,13 +70056,13 @@
         <v>38</v>
       </c>
       <c r="K968" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L968" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M968" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70116,7 +70116,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -70128,13 +70128,13 @@
         <v>35</v>
       </c>
       <c r="K969" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L969" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M969" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E970" t="n">
         <v>5</v>
@@ -70188,41 +70188,41 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K970" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L970" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="M970" t="n">
-        <v>25479</v>
+        <v>10000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>1699</v>
+        <v>556</v>
       </c>
       <c r="Q970" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E971" t="n">
         <v>5</v>
@@ -70260,41 +70260,41 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J971" t="n">
         <v>35</v>
       </c>
       <c r="K971" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="L971" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="M971" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>1533</v>
+        <v>444</v>
       </c>
       <c r="Q971" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K972" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="L972" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="M972" t="n">
-        <v>19000</v>
+        <v>25479</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>1267</v>
+        <v>1699</v>
       </c>
       <c r="Q972" t="n">
         <v>15</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E973" t="n">
         <v>5</v>
@@ -70404,7 +70404,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -70413,32 +70413,32 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K973" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L973" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M973" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>650</v>
+        <v>1533</v>
       </c>
       <c r="Q973" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E974" t="n">
         <v>5</v>
@@ -70476,7 +70476,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -70485,32 +70485,32 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K974" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L974" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M974" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>500</v>
+        <v>1267</v>
       </c>
       <c r="Q974" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70548,41 +70548,41 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
         <v>40</v>
       </c>
       <c r="K975" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L975" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M975" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>1222</v>
+        <v>650</v>
       </c>
       <c r="Q975" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70620,41 +70620,41 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J976" t="n">
         <v>40</v>
       </c>
       <c r="K976" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L976" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M976" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q976" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K977" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L977" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M977" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70764,7 +70764,7 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
@@ -70776,13 +70776,13 @@
         <v>40</v>
       </c>
       <c r="K978" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L978" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M978" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K979" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L979" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M979" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E980" t="n">
         <v>5</v>
@@ -70908,25 +70908,25 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K980" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L980" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M980" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E981" t="n">
         <v>5</v>
@@ -70980,25 +70980,25 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K981" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L981" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M981" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K982" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L982" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M982" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71124,25 +71124,25 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J983" t="n">
         <v>35</v>
       </c>
       <c r="K983" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L983" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M983" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71196,16 +71196,16 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K984" t="n">
         <v>10000</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J985" t="n">
         <v>35</v>
       </c>
       <c r="K985" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L985" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M985" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q985" t="n">
         <v>18</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E986" t="n">
         <v>5</v>
@@ -71340,25 +71340,25 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K986" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="L986" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M986" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>1944</v>
+        <v>556</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E987" t="n">
         <v>5</v>
@@ -71412,25 +71412,25 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K987" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="L987" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="M987" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>1778</v>
+        <v>444</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K988" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L988" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M988" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>1611</v>
+        <v>1944</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K989" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="L989" t="n">
-        <v>18500</v>
+        <v>32000</v>
       </c>
       <c r="M989" t="n">
-        <v>18273</v>
+        <v>32000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>1015</v>
+        <v>1778</v>
       </c>
       <c r="Q989" t="n">
         <v>18</v>
@@ -71628,7 +71628,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -71640,13 +71640,13 @@
         <v>35</v>
       </c>
       <c r="K990" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="L990" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="M990" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>833</v>
+        <v>1611</v>
       </c>
       <c r="Q990" t="n">
         <v>18</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E991" t="n">
         <v>5</v>
@@ -71700,7 +71700,7 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
@@ -71709,32 +71709,32 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K991" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="L991" t="n">
-        <v>35000</v>
+        <v>18500</v>
       </c>
       <c r="M991" t="n">
-        <v>34476</v>
+        <v>18273</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>2298</v>
+        <v>1015</v>
       </c>
       <c r="Q991" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E992" t="n">
         <v>5</v>
@@ -71772,7 +71772,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -71781,32 +71781,32 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K992" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L992" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M992" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>2000</v>
+        <v>833</v>
       </c>
       <c r="Q992" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R992" t="inlineStr">
         <is>
@@ -71844,7 +71844,7 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="K993" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L993" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M993" t="n">
-        <v>30000</v>
+        <v>34476</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>2000</v>
+        <v>2298</v>
       </c>
       <c r="Q993" t="n">
         <v>15</v>
@@ -71916,7 +71916,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K994" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L994" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M994" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="Q994" t="n">
         <v>15</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E995" t="n">
         <v>5</v>
@@ -71988,7 +71988,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -71997,32 +71997,32 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K995" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L995" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M995" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="Q995" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E996" t="n">
         <v>5</v>
@@ -72060,7 +72060,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -72069,32 +72069,32 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K996" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L996" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M996" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>600</v>
+        <v>1667</v>
       </c>
       <c r="Q996" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72132,7 +72132,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -72141,7 +72141,7 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K997" t="n">
         <v>15000</v>
@@ -72154,19 +72154,19 @@
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="Q997" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72226,19 +72226,19 @@
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q998" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72276,7 +72276,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -72288,13 +72288,13 @@
         <v>40</v>
       </c>
       <c r="K999" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L999" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M999" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="Q999" t="n">
         <v>15</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1000" t="n">
         <v>5</v>
@@ -72353,36 +72353,36 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K1000" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L1000" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M1000" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>1389</v>
+        <v>800</v>
       </c>
       <c r="Q1000" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1001" t="n">
         <v>5</v>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72429,32 +72429,32 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1001" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L1001" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M1001" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>1167</v>
+        <v>933</v>
       </c>
       <c r="Q1001" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1002" t="n">
         <v>35</v>
       </c>
       <c r="K1002" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L1002" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M1002" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72564,25 +72564,25 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1003" t="n">
         <v>38</v>
       </c>
       <c r="K1003" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L1003" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M1003" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>1111</v>
+        <v>1167</v>
       </c>
       <c r="Q1003" t="n">
         <v>18</v>
@@ -72636,25 +72636,25 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1004" t="n">
         <v>35</v>
       </c>
       <c r="K1004" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L1004" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M1004" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="Q1004" t="n">
         <v>18</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1005" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L1005" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M1005" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>833</v>
+        <v>1111</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1006" t="n">
         <v>5</v>
@@ -72780,25 +72780,25 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K1006" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L1006" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M1006" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>889</v>
+        <v>944</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1007" t="n">
         <v>5</v>
@@ -72852,25 +72852,25 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1007" t="n">
         <v>35</v>
       </c>
       <c r="K1007" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L1007" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1007" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1008" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L1008" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M1008" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>611</v>
+        <v>889</v>
       </c>
       <c r="Q1008" t="n">
         <v>18</v>
@@ -72996,7 +72996,7 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
@@ -73005,16 +73005,16 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1009" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L1009" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1009" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q1009" t="n">
         <v>18</v>
@@ -73068,7 +73068,7 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1010" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1010" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1010" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1010" t="n">
         <v>18</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1011" t="n">
         <v>5</v>
@@ -73140,7 +73140,7 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
@@ -73152,29 +73152,29 @@
         <v>38</v>
       </c>
       <c r="K1011" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1011" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M1011" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>550</v>
+        <v>667</v>
       </c>
       <c r="Q1011" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1012" t="n">
         <v>5</v>
@@ -73212,7 +73212,7 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
@@ -73224,29 +73224,29 @@
         <v>35</v>
       </c>
       <c r="K1012" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L1012" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1012" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q1012" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -73293,32 +73293,32 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1013" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="L1013" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="M1013" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>1278</v>
+        <v>550</v>
       </c>
       <c r="Q1013" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73356,41 +73356,41 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1014" t="n">
         <v>35</v>
       </c>
       <c r="K1014" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="L1014" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M1014" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>1167</v>
+        <v>400</v>
       </c>
       <c r="Q1014" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73428,7 +73428,7 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1015" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L1015" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="M1015" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>833</v>
+        <v>1278</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1016" t="n">
         <v>35</v>
       </c>
       <c r="K1016" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="L1016" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="M1016" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>611</v>
+        <v>1167</v>
       </c>
       <c r="Q1016" t="n">
         <v>18</v>
@@ -73572,7 +73572,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -73584,13 +73584,13 @@
         <v>38</v>
       </c>
       <c r="K1017" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1017" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M1017" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q1017" t="n">
         <v>18</v>
@@ -73644,7 +73644,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -73656,13 +73656,13 @@
         <v>35</v>
       </c>
       <c r="K1018" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1018" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1018" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q1018" t="n">
         <v>18</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1019" t="n">
         <v>5</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,32 +73725,32 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K1019" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="L1019" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="M1019" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>2000</v>
+        <v>611</v>
       </c>
       <c r="Q1019" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1020" t="n">
         <v>5</v>
@@ -73788,7 +73788,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -73797,32 +73797,32 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K1020" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="L1020" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="M1020" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>1733</v>
+        <v>444</v>
       </c>
       <c r="Q1020" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1020" t="inlineStr">
         <is>
@@ -73860,7 +73860,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K1021" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L1021" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M1021" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="Q1021" t="n">
         <v>15</v>
@@ -73932,7 +73932,7 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K1022" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L1022" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M1022" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>1467</v>
+        <v>1733</v>
       </c>
       <c r="Q1022" t="n">
         <v>15</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1023" t="n">
         <v>5</v>
@@ -74004,41 +74004,41 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1023" t="n">
         <v>38</v>
       </c>
       <c r="K1023" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L1023" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M1023" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>833</v>
+        <v>1667</v>
       </c>
       <c r="Q1023" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1024" t="n">
         <v>5</v>
@@ -74076,41 +74076,41 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1024" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L1024" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M1024" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>722</v>
+        <v>1467</v>
       </c>
       <c r="Q1024" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
@@ -74153,20 +74153,20 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1025" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1025" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1025" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q1025" t="n">
         <v>18</v>
@@ -74220,7 +74220,7 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
@@ -74232,13 +74232,13 @@
         <v>38</v>
       </c>
       <c r="K1026" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1026" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1026" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q1026" t="n">
         <v>18</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1027" t="n">
         <v>5</v>
@@ -74297,36 +74297,36 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="K1027" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L1027" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M1027" t="n">
-        <v>24516</v>
+        <v>10000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>1634</v>
+        <v>556</v>
       </c>
       <c r="Q1027" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1028" t="n">
         <v>5</v>
@@ -74364,41 +74364,41 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K1028" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="L1028" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M1028" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>1467</v>
+        <v>611</v>
       </c>
       <c r="Q1028" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74436,7 +74436,7 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
@@ -74445,16 +74445,16 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K1029" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L1029" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M1029" t="n">
-        <v>20000</v>
+        <v>24516</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>1333</v>
+        <v>1634</v>
       </c>
       <c r="Q1029" t="n">
         <v>15</v>
@@ -74508,41 +74508,41 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="K1030" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L1030" t="n">
         <v>22000</v>
       </c>
       <c r="M1030" t="n">
-        <v>20438</v>
+        <v>22000</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>1135</v>
+        <v>1467</v>
       </c>
       <c r="Q1030" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K1031" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L1031" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1031" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="Q1031" t="n">
         <v>15</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1032" t="n">
         <v>5</v>
@@ -74652,7 +74652,7 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
@@ -74661,32 +74661,32 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="K1032" t="n">
-        <v>41000</v>
+        <v>19000</v>
       </c>
       <c r="L1032" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="M1032" t="n">
-        <v>41479</v>
+        <v>20438</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>2765</v>
+        <v>1135</v>
       </c>
       <c r="Q1032" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1033" t="n">
         <v>5</v>
@@ -74729,20 +74729,20 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K1033" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="L1033" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="M1033" t="n">
-        <v>37521</v>
+        <v>18000</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>2501</v>
+        <v>1200</v>
       </c>
       <c r="Q1033" t="n">
         <v>15</v>
@@ -74796,7 +74796,7 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
@@ -74818,21 +74818,165 @@
       </c>
       <c r="N1034" t="inlineStr">
         <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1034" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1034" t="n">
+        <v>2765</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1034" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1035" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1035" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1035" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1035" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1035" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>37000</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>38000</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>37521</v>
+      </c>
+      <c r="N1035" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1035" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1035" t="n">
+        <v>2501</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1035" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1036" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1036" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1036" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1036" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1036" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>41000</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>41479</v>
+      </c>
+      <c r="N1036" t="inlineStr">
+        <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="O1034" t="inlineStr">
+      <c r="O1036" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P1034" t="n">
+      <c r="P1036" t="n">
         <v>2304</v>
       </c>
-      <c r="Q1034" t="n">
+      <c r="Q1036" t="n">
         <v>18</v>
       </c>
-      <c r="R1034" t="inlineStr">
+      <c r="R1036" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1036"/>
+  <dimension ref="A1:R1038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E993" t="n">
         <v>5</v>
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K993" t="n">
-        <v>34000</v>
+        <v>41000</v>
       </c>
       <c r="L993" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="M993" t="n">
-        <v>34476</v>
+        <v>41500</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>2298</v>
+        <v>2767</v>
       </c>
       <c r="Q993" t="n">
         <v>15</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E994" t="n">
         <v>5</v>
@@ -71916,41 +71916,41 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="K994" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L994" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M994" t="n">
-        <v>30000</v>
+        <v>25521</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>2000</v>
+        <v>1418</v>
       </c>
       <c r="Q994" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71988,7 +71988,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -71997,16 +71997,16 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="K995" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L995" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M995" t="n">
-        <v>30000</v>
+        <v>34476</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>2000</v>
+        <v>2298</v>
       </c>
       <c r="Q995" t="n">
         <v>15</v>
@@ -72060,7 +72060,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -72069,16 +72069,16 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K996" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L996" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M996" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="Q996" t="n">
         <v>15</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E997" t="n">
         <v>5</v>
@@ -72132,7 +72132,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -72141,32 +72141,32 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K997" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L997" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M997" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="Q997" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E998" t="n">
         <v>5</v>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,32 +72213,32 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K998" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L998" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M998" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>600</v>
+        <v>1667</v>
       </c>
       <c r="Q998" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72276,7 +72276,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -72285,7 +72285,7 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K999" t="n">
         <v>15000</v>
@@ -72298,19 +72298,19 @@
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="Q999" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72348,7 +72348,7 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -72370,19 +72370,19 @@
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q1000" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72432,13 +72432,13 @@
         <v>40</v>
       </c>
       <c r="K1001" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L1001" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M1001" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="Q1001" t="n">
         <v>15</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1002" t="n">
         <v>5</v>
@@ -72497,36 +72497,36 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K1002" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L1002" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M1002" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>1389</v>
+        <v>800</v>
       </c>
       <c r="Q1002" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1003" t="n">
         <v>5</v>
@@ -72564,7 +72564,7 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
@@ -72573,32 +72573,32 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1003" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L1003" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M1003" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>1167</v>
+        <v>933</v>
       </c>
       <c r="Q1003" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1004" t="n">
         <v>35</v>
       </c>
       <c r="K1004" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L1004" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M1004" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="Q1004" t="n">
         <v>18</v>
@@ -72708,25 +72708,25 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1005" t="n">
         <v>38</v>
       </c>
       <c r="K1005" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L1005" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M1005" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>1111</v>
+        <v>1167</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72780,25 +72780,25 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1006" t="n">
         <v>35</v>
       </c>
       <c r="K1006" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L1006" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M1006" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1007" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L1007" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M1007" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>833</v>
+        <v>1111</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1008" t="n">
         <v>5</v>
@@ -72924,25 +72924,25 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K1008" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L1008" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M1008" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>889</v>
+        <v>944</v>
       </c>
       <c r="Q1008" t="n">
         <v>18</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1009" t="n">
         <v>5</v>
@@ -72996,25 +72996,25 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1009" t="n">
         <v>35</v>
       </c>
       <c r="K1009" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L1009" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1009" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="Q1009" t="n">
         <v>18</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1010" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L1010" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M1010" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>611</v>
+        <v>889</v>
       </c>
       <c r="Q1010" t="n">
         <v>18</v>
@@ -73140,7 +73140,7 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
@@ -73149,16 +73149,16 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1011" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L1011" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1011" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q1011" t="n">
         <v>18</v>
@@ -73212,7 +73212,7 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1012" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1012" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1012" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1012" t="n">
         <v>18</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1013" t="n">
         <v>5</v>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -73296,29 +73296,29 @@
         <v>38</v>
       </c>
       <c r="K1013" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1013" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M1013" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>550</v>
+        <v>667</v>
       </c>
       <c r="Q1013" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1014" t="n">
         <v>5</v>
@@ -73356,7 +73356,7 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
@@ -73368,29 +73368,29 @@
         <v>35</v>
       </c>
       <c r="K1014" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L1014" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1014" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q1014" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73428,7 +73428,7 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
@@ -73437,32 +73437,32 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1015" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="L1015" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="M1015" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>1278</v>
+        <v>550</v>
       </c>
       <c r="Q1015" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
@@ -73500,41 +73500,41 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1016" t="n">
         <v>35</v>
       </c>
       <c r="K1016" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="L1016" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M1016" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>1167</v>
+        <v>400</v>
       </c>
       <c r="Q1016" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73572,7 +73572,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1017" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L1017" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="M1017" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>833</v>
+        <v>1278</v>
       </c>
       <c r="Q1017" t="n">
         <v>18</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1018" t="n">
         <v>35</v>
       </c>
       <c r="K1018" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="L1018" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="M1018" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>611</v>
+        <v>1167</v>
       </c>
       <c r="Q1018" t="n">
         <v>18</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73728,13 +73728,13 @@
         <v>38</v>
       </c>
       <c r="K1019" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1019" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M1019" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q1019" t="n">
         <v>18</v>
@@ -73788,7 +73788,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -73800,13 +73800,13 @@
         <v>35</v>
       </c>
       <c r="K1020" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1020" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1020" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q1020" t="n">
         <v>18</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1021" t="n">
         <v>5</v>
@@ -73860,7 +73860,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -73869,32 +73869,32 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K1021" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="L1021" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="M1021" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>2000</v>
+        <v>611</v>
       </c>
       <c r="Q1021" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1022" t="n">
         <v>5</v>
@@ -73932,7 +73932,7 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
@@ -73941,32 +73941,32 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K1022" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="L1022" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="M1022" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>1733</v>
+        <v>444</v>
       </c>
       <c r="Q1022" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1022" t="inlineStr">
         <is>
@@ -74004,7 +74004,7 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K1023" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L1023" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M1023" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="Q1023" t="n">
         <v>15</v>
@@ -74076,7 +74076,7 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -74085,16 +74085,16 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K1024" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L1024" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M1024" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>1467</v>
+        <v>1733</v>
       </c>
       <c r="Q1024" t="n">
         <v>15</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1025" t="n">
         <v>5</v>
@@ -74148,41 +74148,41 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1025" t="n">
         <v>38</v>
       </c>
       <c r="K1025" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L1025" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M1025" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>833</v>
+        <v>1667</v>
       </c>
       <c r="Q1025" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1026" t="n">
         <v>5</v>
@@ -74220,41 +74220,41 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1026" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L1026" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M1026" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>722</v>
+        <v>1467</v>
       </c>
       <c r="Q1026" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1027" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1027" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1027" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q1027" t="n">
         <v>18</v>
@@ -74364,7 +74364,7 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -74376,13 +74376,13 @@
         <v>38</v>
       </c>
       <c r="K1028" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1028" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1028" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q1028" t="n">
         <v>18</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1029" t="n">
         <v>5</v>
@@ -74441,36 +74441,36 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="K1029" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L1029" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M1029" t="n">
-        <v>24516</v>
+        <v>10000</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>1634</v>
+        <v>556</v>
       </c>
       <c r="Q1029" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1030" t="n">
         <v>5</v>
@@ -74508,41 +74508,41 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K1030" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="L1030" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M1030" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>1467</v>
+        <v>611</v>
       </c>
       <c r="Q1030" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74580,7 +74580,7 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K1031" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L1031" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M1031" t="n">
-        <v>20000</v>
+        <v>24516</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>1333</v>
+        <v>1634</v>
       </c>
       <c r="Q1031" t="n">
         <v>15</v>
@@ -74652,41 +74652,41 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="K1032" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L1032" t="n">
         <v>22000</v>
       </c>
       <c r="M1032" t="n">
-        <v>20438</v>
+        <v>22000</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>1135</v>
+        <v>1467</v>
       </c>
       <c r="Q1032" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74729,20 +74729,20 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K1033" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L1033" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1033" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="Q1033" t="n">
         <v>15</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1034" t="n">
         <v>5</v>
@@ -74796,7 +74796,7 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
@@ -74805,32 +74805,32 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="K1034" t="n">
-        <v>41000</v>
+        <v>19000</v>
       </c>
       <c r="L1034" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="M1034" t="n">
-        <v>41479</v>
+        <v>20438</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>2765</v>
+        <v>1135</v>
       </c>
       <c r="Q1034" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1034" t="inlineStr">
         <is>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1035" t="n">
         <v>5</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K1035" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="L1035" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="M1035" t="n">
-        <v>37521</v>
+        <v>18000</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>2501</v>
+        <v>1200</v>
       </c>
       <c r="Q1035" t="n">
         <v>15</v>
@@ -74940,7 +74940,7 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
@@ -74962,21 +74962,165 @@
       </c>
       <c r="N1036" t="inlineStr">
         <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1036" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1036" t="n">
+        <v>2765</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1036" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1037" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1037" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1037" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1037" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1037" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>37000</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>38000</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>37521</v>
+      </c>
+      <c r="N1037" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1037" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1037" t="n">
+        <v>2501</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1037" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1038" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1038" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1038" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1038" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1038" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>41000</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>41479</v>
+      </c>
+      <c r="N1038" t="inlineStr">
+        <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="O1036" t="inlineStr">
+      <c r="O1038" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P1036" t="n">
+      <c r="P1038" t="n">
         <v>2304</v>
       </c>
-      <c r="Q1036" t="n">
+      <c r="Q1038" t="n">
         <v>18</v>
       </c>
-      <c r="R1036" t="inlineStr">
+      <c r="R1038" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1040"/>
+  <dimension ref="A1:R1044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E859" t="n">
         <v>5</v>
@@ -62201,36 +62201,36 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K859" t="n">
-        <v>16000</v>
+        <v>42000</v>
       </c>
       <c r="L859" t="n">
-        <v>16000</v>
+        <v>43000</v>
       </c>
       <c r="M859" t="n">
-        <v>16000</v>
+        <v>42476</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>889</v>
+        <v>2832</v>
       </c>
       <c r="Q859" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R859" t="inlineStr">
         <is>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E860" t="n">
         <v>5</v>
@@ -62273,36 +62273,36 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K860" t="n">
-        <v>13000</v>
+        <v>37000</v>
       </c>
       <c r="L860" t="n">
-        <v>13000</v>
+        <v>37000</v>
       </c>
       <c r="M860" t="n">
-        <v>13000</v>
+        <v>37000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>722</v>
+        <v>2467</v>
       </c>
       <c r="Q860" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E861" t="n">
         <v>5</v>
@@ -62340,25 +62340,25 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K861" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="L861" t="n">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="M861" t="n">
-        <v>11000</v>
+        <v>30521</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>611</v>
+        <v>1696</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E862" t="n">
         <v>5</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K862" t="n">
-        <v>11000</v>
+        <v>27000</v>
       </c>
       <c r="L862" t="n">
-        <v>11000</v>
+        <v>27000</v>
       </c>
       <c r="M862" t="n">
-        <v>11000</v>
+        <v>27000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>611</v>
+        <v>1500</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62484,25 +62484,25 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K863" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L863" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M863" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>444</v>
+        <v>889</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E864" t="n">
         <v>5</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K864" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="L864" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="M864" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>2222</v>
+        <v>722</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E865" t="n">
         <v>5</v>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J865" t="n">
         <v>35</v>
       </c>
       <c r="K865" t="n">
-        <v>37000</v>
+        <v>11000</v>
       </c>
       <c r="L865" t="n">
-        <v>37000</v>
+        <v>11000</v>
       </c>
       <c r="M865" t="n">
-        <v>37000</v>
+        <v>11000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>2056</v>
+        <v>611</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E866" t="n">
         <v>5</v>
@@ -62700,25 +62700,25 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K866" t="n">
-        <v>34000</v>
+        <v>11000</v>
       </c>
       <c r="L866" t="n">
-        <v>34000</v>
+        <v>11000</v>
       </c>
       <c r="M866" t="n">
-        <v>34000</v>
+        <v>11000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>1889</v>
+        <v>611</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E867" t="n">
         <v>5</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K867" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L867" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M867" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62844,25 +62844,25 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K868" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="L868" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="M868" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>889</v>
+        <v>2222</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E869" t="n">
         <v>5</v>
@@ -62925,32 +62925,32 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="K869" t="n">
-        <v>41000</v>
+        <v>37000</v>
       </c>
       <c r="L869" t="n">
-        <v>42000</v>
+        <v>37000</v>
       </c>
       <c r="M869" t="n">
-        <v>41514</v>
+        <v>37000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>2768</v>
+        <v>2056</v>
       </c>
       <c r="Q869" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E870" t="n">
         <v>5</v>
@@ -62988,41 +62988,41 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K870" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="L870" t="n">
-        <v>39000</v>
+        <v>34000</v>
       </c>
       <c r="M870" t="n">
-        <v>38521</v>
+        <v>34000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>2568</v>
+        <v>1889</v>
       </c>
       <c r="Q870" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R870" t="inlineStr">
         <is>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E871" t="n">
         <v>5</v>
@@ -63060,25 +63060,25 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K871" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="L871" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="M871" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E872" t="n">
         <v>5</v>
@@ -63132,25 +63132,25 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K872" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L872" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="M872" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>1833</v>
+        <v>889</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E873" t="n">
         <v>5</v>
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="K873" t="n">
-        <v>16000</v>
+        <v>41000</v>
       </c>
       <c r="L873" t="n">
-        <v>16000</v>
+        <v>42000</v>
       </c>
       <c r="M873" t="n">
-        <v>16000</v>
+        <v>41514</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>1067</v>
+        <v>2768</v>
       </c>
       <c r="Q873" t="n">
         <v>15</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E874" t="n">
         <v>5</v>
@@ -63276,25 +63276,25 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K874" t="n">
-        <v>13000</v>
+        <v>38000</v>
       </c>
       <c r="L874" t="n">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="M874" t="n">
-        <v>13000</v>
+        <v>38521</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>867</v>
+        <v>2568</v>
       </c>
       <c r="Q874" t="n">
         <v>15</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E875" t="n">
         <v>5</v>
@@ -63348,41 +63348,41 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K875" t="n">
-        <v>15000</v>
+        <v>36000</v>
       </c>
       <c r="L875" t="n">
-        <v>15000</v>
+        <v>36000</v>
       </c>
       <c r="M875" t="n">
-        <v>15000</v>
+        <v>36000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q875" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R875" t="inlineStr">
         <is>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E876" t="n">
         <v>5</v>
@@ -63420,41 +63420,41 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K876" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="L876" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="M876" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>800</v>
+        <v>1833</v>
       </c>
       <c r="Q876" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R876" t="inlineStr">
         <is>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E877" t="n">
         <v>5</v>
@@ -63497,36 +63497,36 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K877" t="n">
-        <v>44000</v>
+        <v>16000</v>
       </c>
       <c r="L877" t="n">
-        <v>44000</v>
+        <v>16000</v>
       </c>
       <c r="M877" t="n">
-        <v>44000</v>
+        <v>16000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>2444</v>
+        <v>1067</v>
       </c>
       <c r="Q877" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R877" t="inlineStr">
         <is>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E878" t="n">
         <v>5</v>
@@ -63569,36 +63569,36 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J878" t="n">
         <v>35</v>
       </c>
       <c r="K878" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="L878" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="M878" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>1944</v>
+        <v>867</v>
       </c>
       <c r="Q878" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R878" t="inlineStr">
         <is>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E879" t="n">
         <v>5</v>
@@ -63645,32 +63645,32 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K879" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L879" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M879" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>1222</v>
+        <v>1000</v>
       </c>
       <c r="Q879" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E880" t="n">
         <v>5</v>
@@ -63717,32 +63717,32 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K880" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L880" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M880" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q880" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R880" t="inlineStr">
         <is>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E881" t="n">
         <v>5</v>
@@ -63785,36 +63785,36 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K881" t="n">
-        <v>42000</v>
+        <v>44000</v>
       </c>
       <c r="L881" t="n">
-        <v>43000</v>
+        <v>44000</v>
       </c>
       <c r="M881" t="n">
-        <v>42479</v>
+        <v>44000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>2832</v>
+        <v>2444</v>
       </c>
       <c r="Q881" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E882" t="n">
         <v>5</v>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,32 +63861,32 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K882" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L882" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M882" t="n">
-        <v>30479</v>
+        <v>35000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>2032</v>
+        <v>1944</v>
       </c>
       <c r="Q882" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E883" t="n">
         <v>5</v>
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K883" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L883" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="M883" t="n">
-        <v>35479</v>
+        <v>22000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63951,11 +63951,11 @@
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>1971</v>
+        <v>1222</v>
       </c>
       <c r="Q883" t="n">
         <v>18</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44481</v>
+        <v>44186</v>
       </c>
       <c r="E884" t="n">
         <v>5</v>
@@ -63996,41 +63996,41 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="K884" t="n">
-        <v>42000</v>
+        <v>18000</v>
       </c>
       <c r="L884" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="M884" t="n">
-        <v>42462</v>
+        <v>18000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>2831</v>
+        <v>1000</v>
       </c>
       <c r="Q884" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R884" t="inlineStr">
         <is>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E885" t="n">
         <v>5</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K885" t="n">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="L885" t="n">
-        <v>40000</v>
+        <v>43000</v>
       </c>
       <c r="M885" t="n">
-        <v>40000</v>
+        <v>42479</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>2667</v>
+        <v>2832</v>
       </c>
       <c r="Q885" t="n">
         <v>15</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E886" t="n">
         <v>5</v>
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="K886" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="L886" t="n">
-        <v>38000</v>
+        <v>31000</v>
       </c>
       <c r="M886" t="n">
-        <v>37500</v>
+        <v>30479</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>2500</v>
+        <v>2032</v>
       </c>
       <c r="Q886" t="n">
         <v>15</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E887" t="n">
         <v>5</v>
@@ -64217,36 +64217,36 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K887" t="n">
         <v>35000</v>
       </c>
       <c r="L887" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M887" t="n">
-        <v>35000</v>
+        <v>35479</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>2333</v>
+        <v>1971</v>
       </c>
       <c r="Q887" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R887" t="inlineStr">
         <is>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E888" t="n">
         <v>5</v>
@@ -64284,7 +64284,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -64293,32 +64293,32 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="K888" t="n">
-        <v>16000</v>
+        <v>42000</v>
       </c>
       <c r="L888" t="n">
-        <v>16000</v>
+        <v>43000</v>
       </c>
       <c r="M888" t="n">
-        <v>16000</v>
+        <v>42462</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>800</v>
+        <v>2831</v>
       </c>
       <c r="Q888" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R888" t="inlineStr">
         <is>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E889" t="n">
         <v>5</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K889" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L889" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M889" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="Q889" t="n">
         <v>15</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E890" t="n">
         <v>5</v>
@@ -64428,25 +64428,25 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="K890" t="n">
-        <v>12000</v>
+        <v>37000</v>
       </c>
       <c r="L890" t="n">
-        <v>12000</v>
+        <v>38000</v>
       </c>
       <c r="M890" t="n">
-        <v>12000</v>
+        <v>37500</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q890" t="n">
         <v>15</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E891" t="n">
         <v>5</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K891" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="L891" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M891" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>933</v>
+        <v>2333</v>
       </c>
       <c r="Q891" t="n">
         <v>15</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E892" t="n">
         <v>5</v>
@@ -64572,41 +64572,41 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="K892" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="L892" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="M892" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>1444</v>
+        <v>800</v>
       </c>
       <c r="Q892" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E893" t="n">
         <v>5</v>
@@ -64649,36 +64649,36 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K893" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L893" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M893" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="Q893" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R893" t="inlineStr">
         <is>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -64721,36 +64721,36 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K894" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L894" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M894" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="Q894" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -64788,41 +64788,41 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K895" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L895" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M895" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="Q895" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R895" t="inlineStr">
         <is>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -64872,13 +64872,13 @@
         <v>35</v>
       </c>
       <c r="K896" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L896" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M896" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>1000</v>
+        <v>1444</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64932,25 +64932,25 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K897" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L897" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M897" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>833</v>
+        <v>1333</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -65004,25 +65004,25 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K898" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="L898" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M898" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>667</v>
+        <v>1167</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E899" t="n">
         <v>5</v>
@@ -65081,36 +65081,36 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K899" t="n">
-        <v>41000</v>
+        <v>18000</v>
       </c>
       <c r="L899" t="n">
-        <v>42000</v>
+        <v>18000</v>
       </c>
       <c r="M899" t="n">
-        <v>41479</v>
+        <v>18000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>2765</v>
+        <v>1000</v>
       </c>
       <c r="Q899" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E900" t="n">
         <v>5</v>
@@ -65153,36 +65153,36 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="K900" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L900" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="M900" t="n">
-        <v>35500</v>
+        <v>18000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>2367</v>
+        <v>1000</v>
       </c>
       <c r="Q900" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E901" t="n">
         <v>5</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,32 +65229,32 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K901" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="L901" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M901" t="n">
-        <v>41479</v>
+        <v>15000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>2765</v>
+        <v>833</v>
       </c>
       <c r="Q901" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E902" t="n">
         <v>5</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65304,29 +65304,29 @@
         <v>35</v>
       </c>
       <c r="K902" t="n">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="L902" t="n">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="M902" t="n">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>2267</v>
+        <v>667</v>
       </c>
       <c r="Q902" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E903" t="n">
         <v>5</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65376,13 +65376,13 @@
         <v>73</v>
       </c>
       <c r="K903" t="n">
-        <v>37000</v>
+        <v>41000</v>
       </c>
       <c r="L903" t="n">
-        <v>38000</v>
+        <v>42000</v>
       </c>
       <c r="M903" t="n">
-        <v>37521</v>
+        <v>41479</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>2501</v>
+        <v>2765</v>
       </c>
       <c r="Q903" t="n">
         <v>15</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E904" t="n">
         <v>5</v>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K904" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L904" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="M904" t="n">
-        <v>33000</v>
+        <v>35500</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>2200</v>
+        <v>2367</v>
       </c>
       <c r="Q904" t="n">
         <v>15</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E905" t="n">
         <v>5</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K905" t="n">
-        <v>29000</v>
+        <v>41000</v>
       </c>
       <c r="L905" t="n">
-        <v>29000</v>
+        <v>42000</v>
       </c>
       <c r="M905" t="n">
-        <v>29000</v>
+        <v>41479</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>1933</v>
+        <v>2765</v>
       </c>
       <c r="Q905" t="n">
         <v>15</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65580,25 +65580,25 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K906" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L906" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M906" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>1867</v>
+        <v>2267</v>
       </c>
       <c r="Q906" t="n">
         <v>15</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E907" t="n">
         <v>5</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,32 +65661,32 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K907" t="n">
-        <v>14000</v>
+        <v>37000</v>
       </c>
       <c r="L907" t="n">
-        <v>14000</v>
+        <v>38000</v>
       </c>
       <c r="M907" t="n">
-        <v>14000</v>
+        <v>37521</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>700</v>
+        <v>2501</v>
       </c>
       <c r="Q907" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E908" t="n">
         <v>5</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K908" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L908" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="M908" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>1933</v>
+        <v>2200</v>
       </c>
       <c r="Q908" t="n">
         <v>15</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E909" t="n">
         <v>5</v>
@@ -65801,36 +65801,36 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K909" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L909" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M909" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>1778</v>
+        <v>1933</v>
       </c>
       <c r="Q909" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R909" t="inlineStr">
         <is>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E910" t="n">
         <v>5</v>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K910" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L910" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M910" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>1667</v>
+        <v>1867</v>
       </c>
       <c r="Q910" t="n">
         <v>15</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,32 +65949,32 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K911" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L911" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M911" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="Q911" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E912" t="n">
         <v>5</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K912" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L912" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="M912" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>2200</v>
+        <v>1933</v>
       </c>
       <c r="Q912" t="n">
         <v>15</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E913" t="n">
         <v>5</v>
@@ -66089,36 +66089,36 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K913" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="L913" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="M913" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>1000</v>
+        <v>1778</v>
       </c>
       <c r="Q913" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E914" t="n">
         <v>5</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K914" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L914" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M914" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>800</v>
+        <v>1667</v>
       </c>
       <c r="Q914" t="n">
         <v>15</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E915" t="n">
         <v>5</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K915" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L915" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M915" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="Q915" t="n">
         <v>15</v>
@@ -66300,25 +66300,25 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K916" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="L916" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="M916" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="Q916" t="n">
         <v>15</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E917" t="n">
         <v>5</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K917" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="L917" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M917" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="Q917" t="n">
         <v>15</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K918" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="L918" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="M918" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="Q918" t="n">
         <v>15</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E919" t="n">
         <v>5</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K919" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L919" t="n">
-        <v>37000</v>
+        <v>15000</v>
       </c>
       <c r="M919" t="n">
-        <v>36041</v>
+        <v>15000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>2403</v>
+        <v>1000</v>
       </c>
       <c r="Q919" t="n">
         <v>15</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K920" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="L920" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="M920" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>2067</v>
+        <v>800</v>
       </c>
       <c r="Q920" t="n">
         <v>15</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E921" t="n">
         <v>5</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K921" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="L921" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="M921" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>1333</v>
+        <v>2800</v>
       </c>
       <c r="Q921" t="n">
         <v>15</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E922" t="n">
         <v>5</v>
@@ -66732,25 +66732,25 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J922" t="n">
         <v>38</v>
       </c>
       <c r="K922" t="n">
-        <v>20000</v>
+        <v>36000</v>
       </c>
       <c r="L922" t="n">
-        <v>20000</v>
+        <v>36000</v>
       </c>
       <c r="M922" t="n">
-        <v>20000</v>
+        <v>36000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>1333</v>
+        <v>2400</v>
       </c>
       <c r="Q922" t="n">
         <v>15</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E923" t="n">
         <v>5</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K923" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L923" t="n">
-        <v>17000</v>
+        <v>37000</v>
       </c>
       <c r="M923" t="n">
-        <v>17000</v>
+        <v>36041</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>1133</v>
+        <v>2403</v>
       </c>
       <c r="Q923" t="n">
         <v>15</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E924" t="n">
         <v>5</v>
@@ -66876,25 +66876,25 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J924" t="n">
         <v>38</v>
       </c>
       <c r="K924" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="L924" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M924" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>1667</v>
+        <v>2067</v>
       </c>
       <c r="Q924" t="n">
         <v>15</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E925" t="n">
         <v>5</v>
@@ -66960,13 +66960,13 @@
         <v>35</v>
       </c>
       <c r="K925" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L925" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="M925" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>1400</v>
+        <v>1333</v>
       </c>
       <c r="Q925" t="n">
         <v>15</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E926" t="n">
         <v>5</v>
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K926" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L926" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="M926" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>1400</v>
+        <v>1333</v>
       </c>
       <c r="Q926" t="n">
         <v>15</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E927" t="n">
         <v>5</v>
@@ -67101,7 +67101,7 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K927" t="n">
         <v>17000</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E928" t="n">
         <v>5</v>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
@@ -67173,32 +67173,32 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K928" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L928" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M928" t="n">
-        <v>20521</v>
+        <v>25000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>1026</v>
+        <v>1667</v>
       </c>
       <c r="Q928" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E929" t="n">
         <v>5</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K929" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L929" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M929" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q929" t="n">
         <v>15</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E930" t="n">
         <v>5</v>
@@ -67308,7 +67308,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K930" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L930" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M930" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>1067</v>
+        <v>1400</v>
       </c>
       <c r="Q930" t="n">
         <v>15</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E931" t="n">
         <v>5</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K931" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L931" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M931" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>867</v>
+        <v>1133</v>
       </c>
       <c r="Q931" t="n">
         <v>15</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,32 +67461,32 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K932" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L932" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M932" t="n">
-        <v>16000</v>
+        <v>20521</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>1067</v>
+        <v>1026</v>
       </c>
       <c r="Q932" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67524,25 +67524,25 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K933" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L933" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M933" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q933" t="n">
         <v>15</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E934" t="n">
         <v>5</v>
@@ -67601,36 +67601,36 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K934" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L934" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M934" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>833</v>
+        <v>1067</v>
       </c>
       <c r="Q934" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E935" t="n">
         <v>5</v>
@@ -67673,36 +67673,36 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K935" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L935" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M935" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q935" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E936" t="n">
         <v>5</v>
@@ -67740,41 +67740,41 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K936" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L936" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M936" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>556</v>
+        <v>1067</v>
       </c>
       <c r="Q936" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67817,36 +67817,36 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K937" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L937" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M937" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>556</v>
+        <v>867</v>
       </c>
       <c r="Q937" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R937" t="inlineStr">
         <is>
@@ -67884,25 +67884,25 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K938" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L938" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M938" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -67965,32 +67965,32 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K939" t="n">
-        <v>44000</v>
+        <v>12000</v>
       </c>
       <c r="L939" t="n">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="M939" t="n">
-        <v>44571</v>
+        <v>12000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>2971</v>
+        <v>667</v>
       </c>
       <c r="Q939" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E940" t="n">
         <v>5</v>
@@ -68028,41 +68028,41 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="K940" t="n">
-        <v>38000</v>
+        <v>10000</v>
       </c>
       <c r="L940" t="n">
-        <v>39000</v>
+        <v>10000</v>
       </c>
       <c r="M940" t="n">
-        <v>38500</v>
+        <v>10000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>2567</v>
+        <v>556</v>
       </c>
       <c r="Q940" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E941" t="n">
         <v>5</v>
@@ -68105,36 +68105,36 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K941" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="L941" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="M941" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>2267</v>
+        <v>556</v>
       </c>
       <c r="Q941" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E942" t="n">
         <v>5</v>
@@ -68172,41 +68172,41 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K942" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L942" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M942" t="n">
-        <v>15521</v>
+        <v>8000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>776</v>
+        <v>444</v>
       </c>
       <c r="Q942" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E943" t="n">
         <v>5</v>
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K943" t="n">
-        <v>17000</v>
+        <v>44000</v>
       </c>
       <c r="L943" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="M943" t="n">
-        <v>17462</v>
+        <v>44571</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>1164</v>
+        <v>2971</v>
       </c>
       <c r="Q943" t="n">
         <v>15</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E944" t="n">
         <v>5</v>
@@ -68316,25 +68316,25 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K944" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
       <c r="L944" t="n">
-        <v>15000</v>
+        <v>39000</v>
       </c>
       <c r="M944" t="n">
-        <v>15000</v>
+        <v>38500</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>1000</v>
+        <v>2567</v>
       </c>
       <c r="Q944" t="n">
         <v>15</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
@@ -68393,20 +68393,20 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="K945" t="n">
-        <v>17000</v>
+        <v>34000</v>
       </c>
       <c r="L945" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="M945" t="n">
-        <v>17500</v>
+        <v>34000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>1167</v>
+        <v>2267</v>
       </c>
       <c r="Q945" t="n">
         <v>15</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68472,29 +68472,29 @@
         <v>73</v>
       </c>
       <c r="K946" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="L946" t="n">
-        <v>42000</v>
+        <v>16000</v>
       </c>
       <c r="M946" t="n">
-        <v>41479</v>
+        <v>15521</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>2765</v>
+        <v>776</v>
       </c>
       <c r="Q946" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R946" t="inlineStr">
         <is>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68532,7 +68532,7 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K947" t="n">
-        <v>38000</v>
+        <v>17000</v>
       </c>
       <c r="L947" t="n">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="M947" t="n">
-        <v>38521</v>
+        <v>17462</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>2568</v>
+        <v>1164</v>
       </c>
       <c r="Q947" t="n">
         <v>15</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E948" t="n">
         <v>5</v>
@@ -68604,41 +68604,41 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K948" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="L948" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="M948" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>2278</v>
+        <v>1000</v>
       </c>
       <c r="Q948" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E949" t="n">
         <v>5</v>
@@ -68676,7 +68676,7 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
@@ -68685,32 +68685,32 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K949" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="L949" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M949" t="n">
-        <v>27000</v>
+        <v>17500</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>1500</v>
+        <v>1167</v>
       </c>
       <c r="Q949" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E950" t="n">
         <v>5</v>
@@ -68753,36 +68753,36 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K950" t="n">
-        <v>21000</v>
+        <v>41000</v>
       </c>
       <c r="L950" t="n">
-        <v>21000</v>
+        <v>42000</v>
       </c>
       <c r="M950" t="n">
-        <v>21000</v>
+        <v>41479</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>1167</v>
+        <v>2765</v>
       </c>
       <c r="Q950" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E951" t="n">
         <v>5</v>
@@ -68829,32 +68829,32 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K951" t="n">
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="L951" t="n">
-        <v>20000</v>
+        <v>39000</v>
       </c>
       <c r="M951" t="n">
-        <v>20000</v>
+        <v>38521</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>1111</v>
+        <v>2568</v>
       </c>
       <c r="Q951" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E952" t="n">
         <v>5</v>
@@ -68897,20 +68897,20 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K952" t="n">
-        <v>17000</v>
+        <v>41000</v>
       </c>
       <c r="L952" t="n">
-        <v>17000</v>
+        <v>41000</v>
       </c>
       <c r="M952" t="n">
-        <v>17000</v>
+        <v>41000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>944</v>
+        <v>2278</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E953" t="n">
         <v>5</v>
@@ -68973,32 +68973,32 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K953" t="n">
-        <v>41000</v>
+        <v>27000</v>
       </c>
       <c r="L953" t="n">
-        <v>42000</v>
+        <v>27000</v>
       </c>
       <c r="M953" t="n">
-        <v>41479</v>
+        <v>27000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>2765</v>
+        <v>1500</v>
       </c>
       <c r="Q953" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E954" t="n">
         <v>5</v>
@@ -69048,29 +69048,29 @@
         <v>38</v>
       </c>
       <c r="K954" t="n">
-        <v>37000</v>
+        <v>21000</v>
       </c>
       <c r="L954" t="n">
-        <v>37000</v>
+        <v>21000</v>
       </c>
       <c r="M954" t="n">
-        <v>37000</v>
+        <v>21000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>2467</v>
+        <v>1167</v>
       </c>
       <c r="Q954" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E955" t="n">
         <v>5</v>
@@ -69117,32 +69117,32 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K955" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L955" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="M955" t="n">
-        <v>28479</v>
+        <v>20000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>1899</v>
+        <v>1111</v>
       </c>
       <c r="Q955" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E956" t="n">
         <v>5</v>
@@ -69180,41 +69180,41 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K956" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L956" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M956" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>2000</v>
+        <v>944</v>
       </c>
       <c r="Q956" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E957" t="n">
         <v>5</v>
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K957" t="n">
-        <v>25000</v>
+        <v>41000</v>
       </c>
       <c r="L957" t="n">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="M957" t="n">
-        <v>25000</v>
+        <v>41479</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>1667</v>
+        <v>2765</v>
       </c>
       <c r="Q957" t="n">
         <v>15</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69324,25 +69324,25 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J958" t="n">
         <v>38</v>
       </c>
       <c r="K958" t="n">
-        <v>16000</v>
+        <v>37000</v>
       </c>
       <c r="L958" t="n">
-        <v>16000</v>
+        <v>37000</v>
       </c>
       <c r="M958" t="n">
-        <v>16000</v>
+        <v>37000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>1067</v>
+        <v>2467</v>
       </c>
       <c r="Q958" t="n">
         <v>15</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E959" t="n">
         <v>5</v>
@@ -69396,7 +69396,7 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
@@ -69408,13 +69408,13 @@
         <v>73</v>
       </c>
       <c r="K959" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L959" t="n">
-        <v>41000</v>
+        <v>29000</v>
       </c>
       <c r="M959" t="n">
-        <v>40479</v>
+        <v>28479</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="Q959" t="n">
         <v>15</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E960" t="n">
         <v>5</v>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K960" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L960" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M960" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>2333</v>
+        <v>2000</v>
       </c>
       <c r="Q960" t="n">
         <v>15</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E961" t="n">
         <v>5</v>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K961" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L961" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M961" t="n">
-        <v>33959</v>
+        <v>25000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>2264</v>
+        <v>1667</v>
       </c>
       <c r="Q961" t="n">
         <v>15</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E962" t="n">
         <v>5</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K962" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L962" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="M962" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>1933</v>
+        <v>1067</v>
       </c>
       <c r="Q962" t="n">
         <v>15</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E963" t="n">
         <v>5</v>
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K963" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L963" t="n">
-        <v>18000</v>
+        <v>41000</v>
       </c>
       <c r="M963" t="n">
-        <v>18000</v>
+        <v>40479</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>1200</v>
+        <v>2699</v>
       </c>
       <c r="Q963" t="n">
         <v>15</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E964" t="n">
         <v>5</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K964" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L964" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M964" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>1000</v>
+        <v>2333</v>
       </c>
       <c r="Q964" t="n">
         <v>15</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E965" t="n">
         <v>5</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K965" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L965" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M965" t="n">
-        <v>15000</v>
+        <v>33959</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>1000</v>
+        <v>2264</v>
       </c>
       <c r="Q965" t="n">
         <v>15</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E966" t="n">
         <v>5</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K966" t="n">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="L966" t="n">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="M966" t="n">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>867</v>
+        <v>1933</v>
       </c>
       <c r="Q966" t="n">
         <v>15</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E967" t="n">
         <v>5</v>
@@ -69972,7 +69972,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -69984,29 +69984,29 @@
         <v>35</v>
       </c>
       <c r="K967" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L967" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M967" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="Q967" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -70056,29 +70056,29 @@
         <v>38</v>
       </c>
       <c r="K968" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L968" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M968" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q968" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E969" t="n">
         <v>5</v>
@@ -70116,16 +70116,16 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K969" t="n">
         <v>15000</v>
@@ -70138,19 +70138,19 @@
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q969" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E970" t="n">
         <v>5</v>
@@ -70188,41 +70188,41 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J970" t="n">
         <v>38</v>
       </c>
       <c r="K970" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L970" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M970" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q970" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70260,12 +70260,12 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J971" t="n">
@@ -70282,19 +70282,19 @@
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q971" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70332,41 +70332,41 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J972" t="n">
         <v>38</v>
       </c>
       <c r="K972" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L972" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M972" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q972" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70404,25 +70404,25 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J973" t="n">
         <v>35</v>
       </c>
       <c r="K973" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L973" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M973" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E974" t="n">
         <v>5</v>
@@ -70481,36 +70481,36 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K974" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L974" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="M974" t="n">
-        <v>25479</v>
+        <v>12000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>1699</v>
+        <v>667</v>
       </c>
       <c r="Q974" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E975" t="n">
         <v>5</v>
@@ -70553,36 +70553,36 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J975" t="n">
         <v>35</v>
       </c>
       <c r="K975" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L975" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="M975" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>1533</v>
+        <v>556</v>
       </c>
       <c r="Q975" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E976" t="n">
         <v>5</v>
@@ -70620,41 +70620,41 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J976" t="n">
         <v>38</v>
       </c>
       <c r="K976" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L976" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M976" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>1267</v>
+        <v>556</v>
       </c>
       <c r="Q976" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E977" t="n">
         <v>5</v>
@@ -70692,41 +70692,41 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K977" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L977" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M977" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>650</v>
+        <v>444</v>
       </c>
       <c r="Q977" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R977" t="inlineStr">
         <is>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E978" t="n">
         <v>5</v>
@@ -70764,41 +70764,41 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K978" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L978" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="M978" t="n">
-        <v>10000</v>
+        <v>25479</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>500</v>
+        <v>1699</v>
       </c>
       <c r="Q978" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E979" t="n">
         <v>5</v>
@@ -70841,36 +70841,36 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K979" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L979" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M979" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>1222</v>
+        <v>1533</v>
       </c>
       <c r="Q979" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R979" t="inlineStr">
         <is>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E980" t="n">
         <v>5</v>
@@ -70913,36 +70913,36 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K980" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L980" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M980" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>1000</v>
+        <v>1267</v>
       </c>
       <c r="Q980" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70980,41 +70980,41 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K981" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L981" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M981" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>833</v>
+        <v>650</v>
       </c>
       <c r="Q981" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71052,41 +71052,41 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J982" t="n">
         <v>40</v>
       </c>
       <c r="K982" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L982" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M982" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q982" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R982" t="inlineStr">
         <is>
@@ -71124,25 +71124,25 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K983" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="L983" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M983" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>444</v>
+        <v>1222</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E984" t="n">
         <v>5</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K984" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L984" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M984" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E985" t="n">
         <v>5</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K985" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L985" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M985" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="Q985" t="n">
         <v>18</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E986" t="n">
         <v>5</v>
@@ -71340,25 +71340,25 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K986" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L986" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M986" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E987" t="n">
         <v>5</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K987" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L987" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M987" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71484,25 +71484,25 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K988" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L988" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M988" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71556,25 +71556,25 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J989" t="n">
         <v>35</v>
       </c>
       <c r="K989" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L989" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M989" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q989" t="n">
         <v>18</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E990" t="n">
         <v>5</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K990" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="L990" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M990" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>1944</v>
+        <v>556</v>
       </c>
       <c r="Q990" t="n">
         <v>18</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E991" t="n">
         <v>5</v>
@@ -71700,25 +71700,25 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K991" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="L991" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="M991" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>1778</v>
+        <v>667</v>
       </c>
       <c r="Q991" t="n">
         <v>18</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E992" t="n">
         <v>5</v>
@@ -71772,25 +71772,25 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K992" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="L992" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="M992" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>1611</v>
+        <v>556</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E993" t="n">
         <v>5</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K993" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L993" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="M993" t="n">
-        <v>18273</v>
+        <v>8000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>1015</v>
+        <v>444</v>
       </c>
       <c r="Q993" t="n">
         <v>18</v>
@@ -71916,25 +71916,25 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K994" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L994" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M994" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>833</v>
+        <v>1944</v>
       </c>
       <c r="Q994" t="n">
         <v>18</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E995" t="n">
         <v>5</v>
@@ -71997,32 +71997,32 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K995" t="n">
-        <v>41000</v>
+        <v>32000</v>
       </c>
       <c r="L995" t="n">
-        <v>42000</v>
+        <v>32000</v>
       </c>
       <c r="M995" t="n">
-        <v>41500</v>
+        <v>32000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>2767</v>
+        <v>1778</v>
       </c>
       <c r="Q995" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E996" t="n">
         <v>5</v>
@@ -72060,25 +72060,25 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K996" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L996" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="M996" t="n">
-        <v>25521</v>
+        <v>29000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>1418</v>
+        <v>1611</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E997" t="n">
         <v>5</v>
@@ -72132,7 +72132,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -72141,32 +72141,32 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K997" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="L997" t="n">
-        <v>35000</v>
+        <v>18500</v>
       </c>
       <c r="M997" t="n">
-        <v>34476</v>
+        <v>18273</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>2298</v>
+        <v>1015</v>
       </c>
       <c r="Q997" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E998" t="n">
         <v>5</v>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,32 +72213,32 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K998" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L998" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M998" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>2000</v>
+        <v>833</v>
       </c>
       <c r="Q998" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E999" t="n">
         <v>5</v>
@@ -72276,7 +72276,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K999" t="n">
-        <v>30000</v>
+        <v>41000</v>
       </c>
       <c r="L999" t="n">
-        <v>30000</v>
+        <v>42000</v>
       </c>
       <c r="M999" t="n">
-        <v>30000</v>
+        <v>41500</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>2000</v>
+        <v>2767</v>
       </c>
       <c r="Q999" t="n">
         <v>15</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1000" t="n">
         <v>5</v>
@@ -72353,36 +72353,36 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K1000" t="n">
         <v>25000</v>
       </c>
       <c r="L1000" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M1000" t="n">
-        <v>25000</v>
+        <v>25521</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>1667</v>
+        <v>1418</v>
       </c>
       <c r="Q1000" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1001" t="n">
         <v>5</v>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72429,32 +72429,32 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K1001" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="L1001" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M1001" t="n">
-        <v>15000</v>
+        <v>34476</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>750</v>
+        <v>2298</v>
       </c>
       <c r="Q1001" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1002" t="n">
         <v>5</v>
@@ -72492,7 +72492,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -72501,32 +72501,32 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K1002" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L1002" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M1002" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="Q1002" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1003" t="n">
         <v>5</v>
@@ -72564,7 +72564,7 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K1003" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L1003" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M1003" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q1003" t="n">
         <v>15</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1004" t="n">
         <v>5</v>
@@ -72636,7 +72636,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K1004" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L1004" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M1004" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>800</v>
+        <v>1667</v>
       </c>
       <c r="Q1004" t="n">
         <v>15</v>
@@ -72708,7 +72708,7 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
@@ -72717,32 +72717,32 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K1005" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L1005" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M1005" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>933</v>
+        <v>750</v>
       </c>
       <c r="Q1005" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1006" t="n">
         <v>5</v>
@@ -72780,41 +72780,41 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K1006" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L1006" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M1006" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>1389</v>
+        <v>600</v>
       </c>
       <c r="Q1006" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1007" t="n">
         <v>5</v>
@@ -72861,32 +72861,32 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1007" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L1007" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M1007" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="Q1007" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1008" t="n">
         <v>5</v>
@@ -72933,32 +72933,32 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K1008" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L1008" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M1008" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q1008" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1009" t="n">
         <v>5</v>
@@ -73001,36 +73001,36 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1009" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L1009" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M1009" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>1111</v>
+        <v>933</v>
       </c>
       <c r="Q1009" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73068,25 +73068,25 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1010" t="n">
         <v>35</v>
       </c>
       <c r="K1010" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L1010" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M1010" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>944</v>
+        <v>1389</v>
       </c>
       <c r="Q1010" t="n">
         <v>18</v>
@@ -73140,25 +73140,25 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1011" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L1011" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M1011" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>833</v>
+        <v>1167</v>
       </c>
       <c r="Q1011" t="n">
         <v>18</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1012" t="n">
         <v>5</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K1012" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L1012" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1012" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q1012" t="n">
         <v>18</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1013" t="n">
         <v>5</v>
@@ -73284,25 +73284,25 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1013" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L1013" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M1013" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="Q1013" t="n">
         <v>18</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1014" t="n">
         <v>5</v>
@@ -73356,25 +73356,25 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1014" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L1014" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M1014" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>611</v>
+        <v>944</v>
       </c>
       <c r="Q1014" t="n">
         <v>18</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1015" t="n">
         <v>5</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1015" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1015" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1015" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73500,25 +73500,25 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K1016" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L1016" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M1016" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>500</v>
+        <v>889</v>
       </c>
       <c r="Q1016" t="n">
         <v>18</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1017" t="n">
         <v>5</v>
@@ -73572,7 +73572,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -73581,32 +73581,32 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1017" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1017" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1017" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>550</v>
+        <v>722</v>
       </c>
       <c r="Q1017" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1018" t="n">
         <v>5</v>
@@ -73644,7 +73644,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -73653,32 +73653,32 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1018" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1018" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1018" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>400</v>
+        <v>611</v>
       </c>
       <c r="Q1018" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1019" t="n">
         <v>5</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1019" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L1019" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="M1019" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73743,11 +73743,11 @@
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>1278</v>
+        <v>667</v>
       </c>
       <c r="Q1019" t="n">
         <v>18</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1020" t="n">
         <v>5</v>
@@ -73788,25 +73788,25 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1020" t="n">
         <v>35</v>
       </c>
       <c r="K1020" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L1020" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="M1020" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73815,11 +73815,11 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>1167</v>
+        <v>500</v>
       </c>
       <c r="Q1020" t="n">
         <v>18</v>
@@ -73860,7 +73860,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -73872,29 +73872,29 @@
         <v>38</v>
       </c>
       <c r="K1021" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L1021" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M1021" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>833</v>
+        <v>550</v>
       </c>
       <c r="Q1021" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
@@ -73932,7 +73932,7 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
@@ -73944,29 +73944,29 @@
         <v>35</v>
       </c>
       <c r="K1022" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L1022" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M1022" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>611</v>
+        <v>400</v>
       </c>
       <c r="Q1022" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1022" t="inlineStr">
         <is>
@@ -74004,7 +74004,7 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1023" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="L1023" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="M1023" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>611</v>
+        <v>1278</v>
       </c>
       <c r="Q1023" t="n">
         <v>18</v>
@@ -74076,25 +74076,25 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1024" t="n">
         <v>35</v>
       </c>
       <c r="K1024" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="L1024" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="M1024" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>444</v>
+        <v>1167</v>
       </c>
       <c r="Q1024" t="n">
         <v>18</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1025" t="n">
         <v>5</v>
@@ -74157,32 +74157,32 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K1025" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L1025" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M1025" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>2000</v>
+        <v>833</v>
       </c>
       <c r="Q1025" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1026" t="n">
         <v>5</v>
@@ -74229,32 +74229,32 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K1026" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="L1026" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="M1026" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>1733</v>
+        <v>611</v>
       </c>
       <c r="Q1026" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1027" t="n">
         <v>5</v>
@@ -74304,29 +74304,29 @@
         <v>38</v>
       </c>
       <c r="K1027" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="L1027" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M1027" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>1667</v>
+        <v>611</v>
       </c>
       <c r="Q1027" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1028" t="n">
         <v>5</v>
@@ -74376,29 +74376,29 @@
         <v>35</v>
       </c>
       <c r="K1028" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="L1028" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M1028" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>1467</v>
+        <v>444</v>
       </c>
       <c r="Q1028" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1029" t="n">
         <v>5</v>
@@ -74441,36 +74441,36 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K1029" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L1029" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M1029" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>833</v>
+        <v>2000</v>
       </c>
       <c r="Q1029" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1030" t="n">
         <v>5</v>
@@ -74513,36 +74513,36 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K1030" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="L1030" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="M1030" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>722</v>
+        <v>1733</v>
       </c>
       <c r="Q1030" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1031" t="n">
         <v>5</v>
@@ -74580,41 +74580,41 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1031" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L1031" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M1031" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>556</v>
+        <v>1667</v>
       </c>
       <c r="Q1031" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1032" t="n">
         <v>5</v>
@@ -74657,36 +74657,36 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1032" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="L1032" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M1032" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>611</v>
+        <v>1467</v>
       </c>
       <c r="Q1032" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1033" t="n">
         <v>5</v>
@@ -74729,36 +74729,36 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="K1033" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L1033" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M1033" t="n">
-        <v>24516</v>
+        <v>15000</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>1634</v>
+        <v>833</v>
       </c>
       <c r="Q1033" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1034" t="n">
         <v>5</v>
@@ -74801,36 +74801,36 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K1034" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L1034" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M1034" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>1467</v>
+        <v>722</v>
       </c>
       <c r="Q1034" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1034" t="inlineStr">
         <is>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1035" t="n">
         <v>5</v>
@@ -74868,41 +74868,41 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K1035" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L1035" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M1035" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>1333</v>
+        <v>556</v>
       </c>
       <c r="Q1035" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1036" t="n">
         <v>5</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K1036" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L1036" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M1036" t="n">
-        <v>20438</v>
+        <v>11000</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>1135</v>
+        <v>611</v>
       </c>
       <c r="Q1036" t="n">
         <v>18</v>
@@ -75012,25 +75012,25 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="K1037" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L1037" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M1037" t="n">
-        <v>18000</v>
+        <v>24516</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>1200</v>
+        <v>1634</v>
       </c>
       <c r="Q1037" t="n">
         <v>15</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1038" t="n">
         <v>5</v>
@@ -75089,20 +75089,20 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K1038" t="n">
-        <v>41000</v>
+        <v>22000</v>
       </c>
       <c r="L1038" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="M1038" t="n">
-        <v>41479</v>
+        <v>22000</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>2765</v>
+        <v>1467</v>
       </c>
       <c r="Q1038" t="n">
         <v>15</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1039" t="n">
         <v>5</v>
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K1039" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="L1039" t="n">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="M1039" t="n">
-        <v>37521</v>
+        <v>20000</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>2501</v>
+        <v>1333</v>
       </c>
       <c r="Q1039" t="n">
         <v>15</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1040" t="n">
         <v>5</v>
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="K1040" t="n">
-        <v>41000</v>
+        <v>19000</v>
       </c>
       <c r="L1040" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="M1040" t="n">
-        <v>41479</v>
+        <v>20438</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75255,16 +75255,304 @@
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>2304</v>
+        <v>1135</v>
       </c>
       <c r="Q1040" t="n">
         <v>18</v>
       </c>
       <c r="R1040" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1041" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1041" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1041" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1041" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N1041" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1041" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1041" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1041" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1042" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1042" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1042" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1042" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>41000</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>41479</v>
+      </c>
+      <c r="N1042" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1042" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1042" t="n">
+        <v>2765</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1042" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1043" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1043" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1043" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1043" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1043" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>37000</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>38000</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>37521</v>
+      </c>
+      <c r="N1043" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1043" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1043" t="n">
+        <v>2501</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1043" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1044" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1044" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1044" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1044" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1044" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>41000</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>41479</v>
+      </c>
+      <c r="N1044" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1044" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1044" t="n">
+        <v>2304</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1044" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1050"/>
+  <dimension ref="A1:R1052"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E987" t="n">
         <v>5</v>
@@ -71412,7 +71412,7 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
@@ -71421,32 +71421,32 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="K987" t="n">
-        <v>13000</v>
+        <v>42000</v>
       </c>
       <c r="L987" t="n">
-        <v>13000</v>
+        <v>43000</v>
       </c>
       <c r="M987" t="n">
-        <v>13000</v>
+        <v>42476</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>650</v>
+        <v>2832</v>
       </c>
       <c r="Q987" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E988" t="n">
         <v>5</v>
@@ -71484,41 +71484,41 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K988" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L988" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M988" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>500</v>
+        <v>1667</v>
       </c>
       <c r="Q988" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71556,41 +71556,41 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J989" t="n">
         <v>40</v>
       </c>
       <c r="K989" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L989" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M989" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>1222</v>
+        <v>650</v>
       </c>
       <c r="Q989" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71628,41 +71628,41 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J990" t="n">
         <v>40</v>
       </c>
       <c r="K990" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L990" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M990" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q990" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K991" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L991" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M991" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="Q991" t="n">
         <v>18</v>
@@ -71772,7 +71772,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -71784,13 +71784,13 @@
         <v>40</v>
       </c>
       <c r="K992" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L992" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M992" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71844,7 +71844,7 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K993" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L993" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M993" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71871,11 +71871,11 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q993" t="n">
         <v>18</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E994" t="n">
         <v>5</v>
@@ -71916,25 +71916,25 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K994" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L994" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M994" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="Q994" t="n">
         <v>18</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E995" t="n">
         <v>5</v>
@@ -71988,25 +71988,25 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K995" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L995" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M995" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72015,11 +72015,11 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q995" t="n">
         <v>18</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K996" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L996" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M996" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72132,25 +72132,25 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J997" t="n">
         <v>35</v>
       </c>
       <c r="K997" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L997" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M997" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q997" t="n">
         <v>18</v>
@@ -72204,16 +72204,16 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K998" t="n">
         <v>10000</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J999" t="n">
         <v>35</v>
       </c>
       <c r="K999" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L999" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M999" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1000" t="n">
         <v>5</v>
@@ -72348,25 +72348,25 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K1000" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="L1000" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M1000" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>1944</v>
+        <v>556</v>
       </c>
       <c r="Q1000" t="n">
         <v>18</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1001" t="n">
         <v>5</v>
@@ -72420,25 +72420,25 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K1001" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="L1001" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="M1001" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>1778</v>
+        <v>444</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K1002" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L1002" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M1002" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>1611</v>
+        <v>1944</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72564,7 +72564,7 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K1003" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="L1003" t="n">
-        <v>18500</v>
+        <v>32000</v>
       </c>
       <c r="M1003" t="n">
-        <v>18273</v>
+        <v>32000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>1015</v>
+        <v>1778</v>
       </c>
       <c r="Q1003" t="n">
         <v>18</v>
@@ -72636,7 +72636,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
@@ -72648,13 +72648,13 @@
         <v>35</v>
       </c>
       <c r="K1004" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="L1004" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="M1004" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>833</v>
+        <v>1611</v>
       </c>
       <c r="Q1004" t="n">
         <v>18</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1005" t="n">
         <v>5</v>
@@ -72708,7 +72708,7 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
@@ -72717,32 +72717,32 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K1005" t="n">
-        <v>41000</v>
+        <v>18000</v>
       </c>
       <c r="L1005" t="n">
-        <v>42000</v>
+        <v>18500</v>
       </c>
       <c r="M1005" t="n">
-        <v>41500</v>
+        <v>18273</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>2767</v>
+        <v>1015</v>
       </c>
       <c r="Q1005" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1006" t="n">
         <v>5</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K1006" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L1006" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="M1006" t="n">
-        <v>25521</v>
+        <v>15000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>1418</v>
+        <v>833</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1007" t="n">
         <v>5</v>
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K1007" t="n">
-        <v>34000</v>
+        <v>41000</v>
       </c>
       <c r="L1007" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="M1007" t="n">
-        <v>34476</v>
+        <v>41500</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>2298</v>
+        <v>2767</v>
       </c>
       <c r="Q1007" t="n">
         <v>15</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1008" t="n">
         <v>5</v>
@@ -72924,41 +72924,41 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="K1008" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L1008" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M1008" t="n">
-        <v>30000</v>
+        <v>25521</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>2000</v>
+        <v>1418</v>
       </c>
       <c r="Q1008" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72996,7 +72996,7 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
@@ -73005,16 +73005,16 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="K1009" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L1009" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M1009" t="n">
-        <v>30000</v>
+        <v>34476</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>2000</v>
+        <v>2298</v>
       </c>
       <c r="Q1009" t="n">
         <v>15</v>
@@ -73068,7 +73068,7 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K1010" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L1010" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M1010" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="Q1010" t="n">
         <v>15</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1011" t="n">
         <v>5</v>
@@ -73140,7 +73140,7 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
@@ -73149,32 +73149,32 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K1011" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L1011" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M1011" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="Q1011" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1012" t="n">
         <v>5</v>
@@ -73212,7 +73212,7 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
@@ -73221,32 +73221,32 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K1012" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L1012" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M1012" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>600</v>
+        <v>1667</v>
       </c>
       <c r="Q1012" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -73293,7 +73293,7 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K1013" t="n">
         <v>15000</v>
@@ -73306,19 +73306,19 @@
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="Q1013" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73356,7 +73356,7 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
@@ -73378,19 +73378,19 @@
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q1014" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73428,7 +73428,7 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
@@ -73440,13 +73440,13 @@
         <v>40</v>
       </c>
       <c r="K1015" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L1015" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M1015" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="Q1015" t="n">
         <v>15</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1016" t="n">
         <v>5</v>
@@ -73505,36 +73505,36 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K1016" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L1016" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M1016" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>1389</v>
+        <v>800</v>
       </c>
       <c r="Q1016" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1017" t="n">
         <v>5</v>
@@ -73572,7 +73572,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -73581,32 +73581,32 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1017" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L1017" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M1017" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>1167</v>
+        <v>933</v>
       </c>
       <c r="Q1017" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1018" t="n">
         <v>35</v>
       </c>
       <c r="K1018" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L1018" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M1018" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="Q1018" t="n">
         <v>18</v>
@@ -73716,25 +73716,25 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1019" t="n">
         <v>38</v>
       </c>
       <c r="K1019" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L1019" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M1019" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>1111</v>
+        <v>1167</v>
       </c>
       <c r="Q1019" t="n">
         <v>18</v>
@@ -73788,25 +73788,25 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1020" t="n">
         <v>35</v>
       </c>
       <c r="K1020" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L1020" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M1020" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="Q1020" t="n">
         <v>18</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1021" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L1021" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M1021" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>833</v>
+        <v>1111</v>
       </c>
       <c r="Q1021" t="n">
         <v>18</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1022" t="n">
         <v>5</v>
@@ -73932,25 +73932,25 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K1022" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L1022" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M1022" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>889</v>
+        <v>944</v>
       </c>
       <c r="Q1022" t="n">
         <v>18</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1023" t="n">
         <v>5</v>
@@ -74004,25 +74004,25 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1023" t="n">
         <v>35</v>
       </c>
       <c r="K1023" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L1023" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1023" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="Q1023" t="n">
         <v>18</v>
@@ -74081,20 +74081,20 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1024" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L1024" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M1024" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>611</v>
+        <v>889</v>
       </c>
       <c r="Q1024" t="n">
         <v>18</v>
@@ -74148,7 +74148,7 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
@@ -74157,16 +74157,16 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1025" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L1025" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1025" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q1025" t="n">
         <v>18</v>
@@ -74220,7 +74220,7 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
@@ -74229,16 +74229,16 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1026" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1026" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1026" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1026" t="n">
         <v>18</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1027" t="n">
         <v>5</v>
@@ -74292,7 +74292,7 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
@@ -74304,29 +74304,29 @@
         <v>38</v>
       </c>
       <c r="K1027" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1027" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M1027" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>550</v>
+        <v>667</v>
       </c>
       <c r="Q1027" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1028" t="n">
         <v>5</v>
@@ -74364,7 +74364,7 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -74376,29 +74376,29 @@
         <v>35</v>
       </c>
       <c r="K1028" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L1028" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1028" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q1028" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74436,7 +74436,7 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
@@ -74445,32 +74445,32 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1029" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="L1029" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="M1029" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>1278</v>
+        <v>550</v>
       </c>
       <c r="Q1029" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
@@ -74508,41 +74508,41 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1030" t="n">
         <v>35</v>
       </c>
       <c r="K1030" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="L1030" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M1030" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>1167</v>
+        <v>400</v>
       </c>
       <c r="Q1030" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74580,7 +74580,7 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1031" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L1031" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="M1031" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>833</v>
+        <v>1278</v>
       </c>
       <c r="Q1031" t="n">
         <v>18</v>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1032" t="n">
         <v>35</v>
       </c>
       <c r="K1032" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="L1032" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="M1032" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>611</v>
+        <v>1167</v>
       </c>
       <c r="Q1032" t="n">
         <v>18</v>
@@ -74724,7 +74724,7 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
@@ -74736,13 +74736,13 @@
         <v>38</v>
       </c>
       <c r="K1033" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1033" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M1033" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q1033" t="n">
         <v>18</v>
@@ -74796,7 +74796,7 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
@@ -74808,13 +74808,13 @@
         <v>35</v>
       </c>
       <c r="K1034" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1034" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1034" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q1034" t="n">
         <v>18</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1035" t="n">
         <v>5</v>
@@ -74868,7 +74868,7 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
@@ -74877,32 +74877,32 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K1035" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="L1035" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="M1035" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>2000</v>
+        <v>611</v>
       </c>
       <c r="Q1035" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1036" t="n">
         <v>5</v>
@@ -74940,7 +74940,7 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
@@ -74949,32 +74949,32 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K1036" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="L1036" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="M1036" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>1733</v>
+        <v>444</v>
       </c>
       <c r="Q1036" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
@@ -75012,7 +75012,7 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K1037" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L1037" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M1037" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="Q1037" t="n">
         <v>15</v>
@@ -75084,7 +75084,7 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K1038" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L1038" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M1038" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>1467</v>
+        <v>1733</v>
       </c>
       <c r="Q1038" t="n">
         <v>15</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1039" t="n">
         <v>5</v>
@@ -75156,41 +75156,41 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1039" t="n">
         <v>38</v>
       </c>
       <c r="K1039" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L1039" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M1039" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>833</v>
+        <v>1667</v>
       </c>
       <c r="Q1039" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1040" t="n">
         <v>5</v>
@@ -75228,41 +75228,41 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1040" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L1040" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M1040" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>722</v>
+        <v>1467</v>
       </c>
       <c r="Q1040" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
@@ -75305,20 +75305,20 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1041" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1041" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1041" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q1041" t="n">
         <v>18</v>
@@ -75372,7 +75372,7 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
@@ -75384,13 +75384,13 @@
         <v>38</v>
       </c>
       <c r="K1042" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1042" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1042" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q1042" t="n">
         <v>18</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1043" t="n">
         <v>5</v>
@@ -75449,36 +75449,36 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="K1043" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L1043" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M1043" t="n">
-        <v>24516</v>
+        <v>10000</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>1634</v>
+        <v>556</v>
       </c>
       <c r="Q1043" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1044" t="n">
         <v>5</v>
@@ -75516,41 +75516,41 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K1044" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="L1044" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M1044" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>1467</v>
+        <v>611</v>
       </c>
       <c r="Q1044" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
@@ -75588,7 +75588,7 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
@@ -75597,16 +75597,16 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K1045" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L1045" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M1045" t="n">
-        <v>20000</v>
+        <v>24516</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>1333</v>
+        <v>1634</v>
       </c>
       <c r="Q1045" t="n">
         <v>15</v>
@@ -75660,41 +75660,41 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="K1046" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L1046" t="n">
         <v>22000</v>
       </c>
       <c r="M1046" t="n">
-        <v>20438</v>
+        <v>22000</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>1135</v>
+        <v>1467</v>
       </c>
       <c r="Q1046" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K1047" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L1047" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1047" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="Q1047" t="n">
         <v>15</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1048" t="n">
         <v>5</v>
@@ -75804,7 +75804,7 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
@@ -75813,32 +75813,32 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="K1048" t="n">
-        <v>41000</v>
+        <v>19000</v>
       </c>
       <c r="L1048" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="M1048" t="n">
-        <v>41479</v>
+        <v>20438</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>2765</v>
+        <v>1135</v>
       </c>
       <c r="Q1048" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1049" t="n">
         <v>5</v>
@@ -75881,20 +75881,20 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K1049" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="L1049" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="M1049" t="n">
-        <v>37521</v>
+        <v>18000</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>2501</v>
+        <v>1200</v>
       </c>
       <c r="Q1049" t="n">
         <v>15</v>
@@ -75948,7 +75948,7 @@
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1050" t="inlineStr">
@@ -75970,21 +75970,165 @@
       </c>
       <c r="N1050" t="inlineStr">
         <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1050" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1050" t="n">
+        <v>2765</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1050" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1051" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1051" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1051" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1051" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1051" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>37000</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>38000</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>37521</v>
+      </c>
+      <c r="N1051" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1051" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1051" t="n">
+        <v>2501</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1051" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1052" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1052" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1052" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1052" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1052" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>41000</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>41479</v>
+      </c>
+      <c r="N1052" t="inlineStr">
+        <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="O1050" t="inlineStr">
+      <c r="O1052" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P1050" t="n">
+      <c r="P1052" t="n">
         <v>2304</v>
       </c>
-      <c r="Q1050" t="n">
+      <c r="Q1052" t="n">
         <v>18</v>
       </c>
-      <c r="R1050" t="inlineStr">
+      <c r="R1052" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1060"/>
+  <dimension ref="A1:R1063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E911" t="n">
         <v>5</v>
@@ -65940,41 +65940,41 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="K911" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L911" t="n">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="M911" t="n">
-        <v>26000</v>
+        <v>30507</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>1444</v>
+        <v>2034</v>
       </c>
       <c r="Q911" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E912" t="n">
         <v>5</v>
@@ -66017,36 +66017,36 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J912" t="n">
         <v>35</v>
       </c>
       <c r="K912" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L912" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M912" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>1333</v>
+        <v>1867</v>
       </c>
       <c r="Q912" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E913" t="n">
         <v>5</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K913" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L913" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M913" t="n">
-        <v>21000</v>
+        <v>22479</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>1167</v>
+        <v>1249</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66156,25 +66156,25 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J914" t="n">
         <v>35</v>
       </c>
       <c r="K914" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L914" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M914" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>1000</v>
+        <v>1444</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66228,7 +66228,7 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
@@ -66240,13 +66240,13 @@
         <v>35</v>
       </c>
       <c r="K915" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L915" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M915" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -66312,13 +66312,13 @@
         <v>38</v>
       </c>
       <c r="K916" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L916" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M916" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>833</v>
+        <v>1167</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66384,13 +66384,13 @@
         <v>35</v>
       </c>
       <c r="K917" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L917" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M917" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -66444,41 +66444,41 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K918" t="n">
-        <v>41000</v>
+        <v>18000</v>
       </c>
       <c r="L918" t="n">
-        <v>42000</v>
+        <v>18000</v>
       </c>
       <c r="M918" t="n">
-        <v>41479</v>
+        <v>18000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>2765</v>
+        <v>1000</v>
       </c>
       <c r="Q918" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R918" t="inlineStr">
         <is>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E919" t="n">
         <v>5</v>
@@ -66525,32 +66525,32 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K919" t="n">
-        <v>37000</v>
+        <v>15000</v>
       </c>
       <c r="L919" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
       <c r="M919" t="n">
-        <v>37521</v>
+        <v>15000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>2501</v>
+        <v>833</v>
       </c>
       <c r="Q919" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K920" t="n">
-        <v>41000</v>
+        <v>12000</v>
       </c>
       <c r="L920" t="n">
-        <v>42000</v>
+        <v>12000</v>
       </c>
       <c r="M920" t="n">
-        <v>41479</v>
+        <v>12000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>2304</v>
+        <v>667</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E921" t="n">
         <v>5</v>
@@ -66665,36 +66665,36 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K921" t="n">
-        <v>22000</v>
+        <v>41000</v>
       </c>
       <c r="L921" t="n">
-        <v>22000</v>
+        <v>42000</v>
       </c>
       <c r="M921" t="n">
-        <v>22000</v>
+        <v>41479</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>1222</v>
+        <v>2765</v>
       </c>
       <c r="Q921" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R921" t="inlineStr">
         <is>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E922" t="n">
         <v>5</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,32 +66741,32 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K922" t="n">
-        <v>19000</v>
+        <v>37000</v>
       </c>
       <c r="L922" t="n">
-        <v>19000</v>
+        <v>38000</v>
       </c>
       <c r="M922" t="n">
-        <v>19000</v>
+        <v>37521</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>1056</v>
+        <v>2501</v>
       </c>
       <c r="Q922" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E923" t="n">
         <v>5</v>
@@ -66804,25 +66804,25 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K923" t="n">
-        <v>16000</v>
+        <v>41000</v>
       </c>
       <c r="L923" t="n">
-        <v>16000</v>
+        <v>42000</v>
       </c>
       <c r="M923" t="n">
-        <v>16000</v>
+        <v>41479</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>889</v>
+        <v>2304</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66876,25 +66876,25 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J924" t="n">
         <v>35</v>
       </c>
       <c r="K924" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L924" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M924" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>778</v>
+        <v>1222</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66948,25 +66948,25 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J925" t="n">
         <v>38</v>
       </c>
       <c r="K925" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L925" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="M925" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>611</v>
+        <v>1056</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E926" t="n">
         <v>5</v>
@@ -67020,41 +67020,41 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K926" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L926" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M926" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>550</v>
+        <v>889</v>
       </c>
       <c r="Q926" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E927" t="n">
         <v>5</v>
@@ -67092,25 +67092,25 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K927" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L927" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M927" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E928" t="n">
         <v>5</v>
@@ -67164,25 +67164,25 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J928" t="n">
         <v>38</v>
       </c>
       <c r="K928" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L928" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M928" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67236,41 +67236,41 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K929" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L929" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M929" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="Q929" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67308,7 +67308,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -67320,13 +67320,13 @@
         <v>38</v>
       </c>
       <c r="K930" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L930" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M930" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K931" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L931" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M931" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K932" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L932" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M932" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E933" t="n">
         <v>5</v>
@@ -67524,41 +67524,41 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K933" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="L933" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="M933" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>2467</v>
+        <v>778</v>
       </c>
       <c r="Q933" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E934" t="n">
         <v>5</v>
@@ -67596,41 +67596,41 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K934" t="n">
-        <v>34000</v>
+        <v>11000</v>
       </c>
       <c r="L934" t="n">
-        <v>34000</v>
+        <v>11000</v>
       </c>
       <c r="M934" t="n">
-        <v>34000</v>
+        <v>11000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>2267</v>
+        <v>611</v>
       </c>
       <c r="Q934" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E935" t="n">
         <v>5</v>
@@ -67673,36 +67673,36 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K935" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="L935" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="M935" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>1867</v>
+        <v>444</v>
       </c>
       <c r="Q935" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67740,25 +67740,25 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K936" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="L936" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="M936" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>1600</v>
+        <v>2467</v>
       </c>
       <c r="Q936" t="n">
         <v>15</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67817,36 +67817,36 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K937" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L937" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M937" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>1833</v>
+        <v>2267</v>
       </c>
       <c r="Q937" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R937" t="inlineStr">
         <is>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E938" t="n">
         <v>5</v>
@@ -67884,7 +67884,7 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
@@ -67893,32 +67893,32 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K938" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L938" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M938" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>1667</v>
+        <v>1867</v>
       </c>
       <c r="Q938" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -67956,7 +67956,7 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -67965,32 +67965,32 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K939" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="L939" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M939" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>1444</v>
+        <v>1600</v>
       </c>
       <c r="Q939" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K940" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L940" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M940" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>1111</v>
+        <v>1833</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68100,7 +68100,7 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K941" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L941" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M941" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>944</v>
+        <v>1667</v>
       </c>
       <c r="Q941" t="n">
         <v>18</v>
@@ -68172,7 +68172,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K942" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="L942" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="M942" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>778</v>
+        <v>1444</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E943" t="n">
         <v>5</v>
@@ -68244,41 +68244,41 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K943" t="n">
-        <v>41000</v>
+        <v>20000</v>
       </c>
       <c r="L943" t="n">
-        <v>42000</v>
+        <v>20000</v>
       </c>
       <c r="M943" t="n">
-        <v>41521</v>
+        <v>20000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>2768</v>
+        <v>1111</v>
       </c>
       <c r="Q943" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E944" t="n">
         <v>5</v>
@@ -68325,32 +68325,32 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K944" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L944" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M944" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>2333</v>
+        <v>944</v>
       </c>
       <c r="Q944" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
@@ -68388,41 +68388,41 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K945" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="L945" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="M945" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>2200</v>
+        <v>778</v>
       </c>
       <c r="Q945" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K946" t="n">
-        <v>29000</v>
+        <v>41000</v>
       </c>
       <c r="L946" t="n">
-        <v>29000</v>
+        <v>42000</v>
       </c>
       <c r="M946" t="n">
-        <v>29000</v>
+        <v>41521</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>1933</v>
+        <v>2768</v>
       </c>
       <c r="Q946" t="n">
         <v>15</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68544,13 +68544,13 @@
         <v>38</v>
       </c>
       <c r="K947" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L947" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M947" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>1867</v>
+        <v>2333</v>
       </c>
       <c r="Q947" t="n">
         <v>15</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E948" t="n">
         <v>5</v>
@@ -68609,36 +68609,36 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K948" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L948" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="M948" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>944</v>
+        <v>2200</v>
       </c>
       <c r="Q948" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E949" t="n">
         <v>5</v>
@@ -68681,36 +68681,36 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K949" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="L949" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="M949" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>778</v>
+        <v>1933</v>
       </c>
       <c r="Q949" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E950" t="n">
         <v>5</v>
@@ -68748,41 +68748,41 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J950" t="n">
         <v>38</v>
       </c>
       <c r="K950" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="L950" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="M950" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>667</v>
+        <v>1867</v>
       </c>
       <c r="Q950" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68820,25 +68820,25 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K951" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L951" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M951" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68892,25 +68892,25 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K952" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L952" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M952" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E953" t="n">
         <v>5</v>
@@ -68964,41 +68964,41 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J953" t="n">
         <v>38</v>
       </c>
       <c r="K953" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="L953" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="M953" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>2133</v>
+        <v>667</v>
       </c>
       <c r="Q953" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E954" t="n">
         <v>5</v>
@@ -69036,41 +69036,41 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J954" t="n">
         <v>35</v>
       </c>
       <c r="K954" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="L954" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="M954" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>1867</v>
+        <v>722</v>
       </c>
       <c r="Q954" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E955" t="n">
         <v>5</v>
@@ -69108,41 +69108,41 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J955" t="n">
         <v>38</v>
       </c>
       <c r="K955" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L955" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M955" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>1600</v>
+        <v>556</v>
       </c>
       <c r="Q955" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69180,25 +69180,25 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K956" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="L956" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="M956" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>1067</v>
+        <v>2133</v>
       </c>
       <c r="Q956" t="n">
         <v>15</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E957" t="n">
         <v>5</v>
@@ -69264,29 +69264,29 @@
         <v>35</v>
       </c>
       <c r="K957" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L957" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="M957" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>1000</v>
+        <v>1867</v>
       </c>
       <c r="Q957" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R957" t="inlineStr">
         <is>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69336,29 +69336,29 @@
         <v>38</v>
       </c>
       <c r="K958" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L958" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M958" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>778</v>
+        <v>1600</v>
       </c>
       <c r="Q958" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E959" t="n">
         <v>5</v>
@@ -69396,41 +69396,41 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J959" t="n">
         <v>35</v>
       </c>
       <c r="K959" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L959" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M959" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="Q959" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69468,7 +69468,7 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -69480,13 +69480,13 @@
         <v>35</v>
       </c>
       <c r="K960" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L960" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M960" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69552,13 +69552,13 @@
         <v>38</v>
       </c>
       <c r="K961" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L961" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M961" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69624,13 +69624,13 @@
         <v>35</v>
       </c>
       <c r="K962" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L962" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M962" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E963" t="n">
         <v>5</v>
@@ -69684,41 +69684,41 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="K963" t="n">
-        <v>41000</v>
+        <v>14000</v>
       </c>
       <c r="L963" t="n">
-        <v>42000</v>
+        <v>14000</v>
       </c>
       <c r="M963" t="n">
-        <v>41500</v>
+        <v>14000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>2767</v>
+        <v>778</v>
       </c>
       <c r="Q963" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E964" t="n">
         <v>5</v>
@@ -69756,41 +69756,41 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K964" t="n">
-        <v>37000</v>
+        <v>11000</v>
       </c>
       <c r="L964" t="n">
-        <v>37000</v>
+        <v>11000</v>
       </c>
       <c r="M964" t="n">
-        <v>37000</v>
+        <v>11000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>2467</v>
+        <v>611</v>
       </c>
       <c r="Q964" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E965" t="n">
         <v>5</v>
@@ -69833,36 +69833,36 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K965" t="n">
-        <v>29000</v>
+        <v>9000</v>
       </c>
       <c r="L965" t="n">
-        <v>29000</v>
+        <v>9000</v>
       </c>
       <c r="M965" t="n">
-        <v>29000</v>
+        <v>9000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>1933</v>
+        <v>500</v>
       </c>
       <c r="Q965" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E966" t="n">
         <v>5</v>
@@ -69905,36 +69905,36 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="K966" t="n">
-        <v>31000</v>
+        <v>41000</v>
       </c>
       <c r="L966" t="n">
-        <v>31000</v>
+        <v>42000</v>
       </c>
       <c r="M966" t="n">
-        <v>31000</v>
+        <v>41500</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>1722</v>
+        <v>2767</v>
       </c>
       <c r="Q966" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E967" t="n">
         <v>5</v>
@@ -69977,36 +69977,36 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K967" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="L967" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M967" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>1500</v>
+        <v>2467</v>
       </c>
       <c r="Q967" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70044,41 +70044,41 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K968" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L968" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M968" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>1278</v>
+        <v>1933</v>
       </c>
       <c r="Q968" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70116,25 +70116,25 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K969" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="L969" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M969" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>1000</v>
+        <v>1722</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70188,25 +70188,25 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K970" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L970" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="M970" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>833</v>
+        <v>1500</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E971" t="n">
         <v>5</v>
@@ -70265,36 +70265,36 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J971" t="n">
         <v>35</v>
       </c>
       <c r="K971" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L971" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M971" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>1467</v>
+        <v>1278</v>
       </c>
       <c r="Q971" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E972" t="n">
         <v>5</v>
@@ -70332,7 +70332,7 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -70341,7 +70341,7 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K972" t="n">
         <v>18000</v>
@@ -70354,19 +70354,19 @@
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q972" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E973" t="n">
         <v>5</v>
@@ -70404,7 +70404,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -70426,19 +70426,19 @@
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="Q973" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70476,25 +70476,25 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J974" t="n">
         <v>35</v>
       </c>
       <c r="K974" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L974" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M974" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>933</v>
+        <v>1467</v>
       </c>
       <c r="Q974" t="n">
         <v>15</v>
@@ -70548,25 +70548,25 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
         <v>38</v>
       </c>
       <c r="K975" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L975" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M975" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q975" t="n">
         <v>15</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E976" t="n">
         <v>5</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K976" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="L976" t="n">
-        <v>43000</v>
+        <v>15000</v>
       </c>
       <c r="M976" t="n">
-        <v>42479</v>
+        <v>15000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>2832</v>
+        <v>1000</v>
       </c>
       <c r="Q976" t="n">
         <v>15</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E977" t="n">
         <v>5</v>
@@ -70701,32 +70701,32 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K977" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="L977" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="M977" t="n">
-        <v>27521</v>
+        <v>14000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>1529</v>
+        <v>933</v>
       </c>
       <c r="Q977" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R977" t="inlineStr">
         <is>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E978" t="n">
         <v>5</v>
@@ -70764,25 +70764,25 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K978" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="L978" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="M978" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>2067</v>
+        <v>800</v>
       </c>
       <c r="Q978" t="n">
         <v>15</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E979" t="n">
         <v>5</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K979" t="n">
-        <v>27000</v>
+        <v>42000</v>
       </c>
       <c r="L979" t="n">
-        <v>27000</v>
+        <v>43000</v>
       </c>
       <c r="M979" t="n">
-        <v>27000</v>
+        <v>42479</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>1800</v>
+        <v>2832</v>
       </c>
       <c r="Q979" t="n">
         <v>15</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E980" t="n">
         <v>5</v>
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K980" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="L980" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M980" t="n">
-        <v>22000</v>
+        <v>27521</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>1222</v>
+        <v>1529</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70980,41 +70980,41 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K981" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="L981" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M981" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>1000</v>
+        <v>2067</v>
       </c>
       <c r="Q981" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E982" t="n">
         <v>5</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="K982" t="n">
-        <v>41000</v>
+        <v>27000</v>
       </c>
       <c r="L982" t="n">
-        <v>42000</v>
+        <v>27000</v>
       </c>
       <c r="M982" t="n">
-        <v>41479</v>
+        <v>27000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>2765</v>
+        <v>1800</v>
       </c>
       <c r="Q982" t="n">
         <v>15</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E983" t="n">
         <v>5</v>
@@ -71124,41 +71124,41 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K983" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="L983" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="M983" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>2400</v>
+        <v>1222</v>
       </c>
       <c r="Q983" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R983" t="inlineStr">
         <is>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E984" t="n">
         <v>5</v>
@@ -71201,36 +71201,36 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K984" t="n">
-        <v>3800</v>
+        <v>18000</v>
       </c>
       <c r="L984" t="n">
-        <v>3800</v>
+        <v>18000</v>
       </c>
       <c r="M984" t="n">
-        <v>3800</v>
+        <v>18000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>253</v>
+        <v>1000</v>
       </c>
       <c r="Q984" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71268,25 +71268,25 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K985" t="n">
-        <v>34000</v>
+        <v>41000</v>
       </c>
       <c r="L985" t="n">
-        <v>34000</v>
+        <v>42000</v>
       </c>
       <c r="M985" t="n">
-        <v>34000</v>
+        <v>41479</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>2267</v>
+        <v>2765</v>
       </c>
       <c r="Q985" t="n">
         <v>15</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E986" t="n">
         <v>5</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K986" t="n">
-        <v>41000</v>
+        <v>36000</v>
       </c>
       <c r="L986" t="n">
-        <v>42000</v>
+        <v>36000</v>
       </c>
       <c r="M986" t="n">
-        <v>41479</v>
+        <v>36000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>2765</v>
+        <v>2400</v>
       </c>
       <c r="Q986" t="n">
         <v>15</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E987" t="n">
         <v>5</v>
@@ -71421,32 +71421,32 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K987" t="n">
-        <v>32000</v>
+        <v>3800</v>
       </c>
       <c r="L987" t="n">
-        <v>32000</v>
+        <v>3800</v>
       </c>
       <c r="M987" t="n">
-        <v>32000</v>
+        <v>3800</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>1778</v>
+        <v>253</v>
       </c>
       <c r="Q987" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E988" t="n">
         <v>5</v>
@@ -71484,7 +71484,7 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
@@ -71493,32 +71493,32 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K988" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="L988" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="M988" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>1111</v>
+        <v>2267</v>
       </c>
       <c r="Q988" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E989" t="n">
         <v>5</v>
@@ -71561,36 +71561,36 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K989" t="n">
-        <v>25000</v>
+        <v>41000</v>
       </c>
       <c r="L989" t="n">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="M989" t="n">
-        <v>25000</v>
+        <v>41479</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>1389</v>
+        <v>2765</v>
       </c>
       <c r="Q989" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E990" t="n">
         <v>5</v>
@@ -71628,7 +71628,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -71637,16 +71637,16 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K990" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="L990" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="M990" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>1167</v>
+        <v>1778</v>
       </c>
       <c r="Q990" t="n">
         <v>18</v>
@@ -71700,7 +71700,7 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
@@ -71712,13 +71712,13 @@
         <v>35</v>
       </c>
       <c r="K991" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L991" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M991" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="Q991" t="n">
         <v>18</v>
@@ -71772,25 +71772,25 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J992" t="n">
         <v>38</v>
       </c>
       <c r="K992" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L992" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M992" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71844,25 +71844,25 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K993" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L993" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M993" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>778</v>
+        <v>1167</v>
       </c>
       <c r="Q993" t="n">
         <v>18</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E994" t="n">
         <v>5</v>
@@ -71916,41 +71916,41 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J994" t="n">
         <v>35</v>
       </c>
       <c r="K994" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L994" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M994" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q994" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E995" t="n">
         <v>5</v>
@@ -71988,16 +71988,16 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K995" t="n">
         <v>18000</v>
@@ -72010,19 +72010,19 @@
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q995" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E996" t="n">
         <v>5</v>
@@ -72060,41 +72060,41 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K996" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L996" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M996" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="Q996" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72132,41 +72132,41 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K997" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L997" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M997" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="Q997" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72204,25 +72204,25 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K998" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L998" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M998" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>933</v>
+        <v>1200</v>
       </c>
       <c r="Q998" t="n">
         <v>15</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E999" t="n">
         <v>5</v>
@@ -72281,36 +72281,36 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K999" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L999" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M999" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="Q999" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1000" t="n">
         <v>5</v>
@@ -72353,36 +72353,36 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1000" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="L1000" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="M1000" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>1167</v>
+        <v>733</v>
       </c>
       <c r="Q1000" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1001" t="n">
         <v>5</v>
@@ -72420,41 +72420,41 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K1001" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L1001" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M1001" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="Q1001" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72492,25 +72492,25 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1002" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L1002" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M1002" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>944</v>
+        <v>1389</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72564,25 +72564,25 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1003" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L1003" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M1003" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>778</v>
+        <v>1167</v>
       </c>
       <c r="Q1003" t="n">
         <v>18</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1004" t="n">
         <v>5</v>
@@ -72641,36 +72641,36 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K1004" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L1004" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M1004" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>1133</v>
+        <v>1000</v>
       </c>
       <c r="Q1004" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1005" t="n">
         <v>5</v>
@@ -72708,7 +72708,7 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
@@ -72717,32 +72717,32 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K1005" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1005" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M1005" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="Q1005" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1006" t="n">
         <v>5</v>
@@ -72780,7 +72780,7 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
@@ -72789,32 +72789,32 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K1006" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1006" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M1006" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q1006" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72852,25 +72852,25 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="K1007" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1007" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M1007" t="n">
-        <v>15511</v>
+        <v>17000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>1034</v>
+        <v>1133</v>
       </c>
       <c r="Q1007" t="n">
         <v>15</v>
@@ -72924,25 +72924,25 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K1008" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1008" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1008" t="n">
-        <v>12545</v>
+        <v>15000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>836</v>
+        <v>1000</v>
       </c>
       <c r="Q1008" t="n">
         <v>15</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1009" t="n">
         <v>5</v>
@@ -72996,41 +72996,41 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K1009" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L1009" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M1009" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1009" t="n">
         <v>800</v>
       </c>
       <c r="Q1009" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1010" t="n">
         <v>5</v>
@@ -73068,41 +73068,41 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="K1010" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L1010" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="M1010" t="n">
-        <v>24000</v>
+        <v>15511</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>1333</v>
+        <v>1034</v>
       </c>
       <c r="Q1010" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1011" t="n">
         <v>5</v>
@@ -73140,41 +73140,41 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="K1011" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L1011" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M1011" t="n">
-        <v>20000</v>
+        <v>12545</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>1111</v>
+        <v>836</v>
       </c>
       <c r="Q1011" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73212,41 +73212,41 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1012" t="n">
         <v>35</v>
       </c>
       <c r="K1012" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L1012" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M1012" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="Q1012" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73284,25 +73284,25 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1013" t="n">
         <v>30</v>
       </c>
       <c r="K1013" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L1013" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M1013" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>944</v>
+        <v>1333</v>
       </c>
       <c r="Q1013" t="n">
         <v>18</v>
@@ -73356,25 +73356,25 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1014" t="n">
         <v>35</v>
       </c>
       <c r="K1014" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L1014" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M1014" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="Q1014" t="n">
         <v>18</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1015" t="n">
         <v>5</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1015" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="L1015" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="M1015" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73455,11 +73455,11 @@
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>1611</v>
+        <v>944</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1016" t="n">
         <v>5</v>
@@ -73500,7 +73500,7 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K1016" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="L1016" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="M1016" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>1444</v>
+        <v>944</v>
       </c>
       <c r="Q1016" t="n">
         <v>18</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1017" t="n">
         <v>5</v>
@@ -73572,7 +73572,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K1017" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L1017" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M1017" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>1278</v>
+        <v>778</v>
       </c>
       <c r="Q1017" t="n">
         <v>18</v>
@@ -73644,7 +73644,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -73653,16 +73653,16 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K1018" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L1018" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="M1018" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>1111</v>
+        <v>1611</v>
       </c>
       <c r="Q1018" t="n">
         <v>18</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1019" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L1019" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M1019" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>1000</v>
+        <v>1444</v>
       </c>
       <c r="Q1019" t="n">
         <v>18</v>
@@ -73788,7 +73788,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -73800,13 +73800,13 @@
         <v>30</v>
       </c>
       <c r="K1020" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L1020" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M1020" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>778</v>
+        <v>1278</v>
       </c>
       <c r="Q1020" t="n">
         <v>18</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1021" t="n">
         <v>5</v>
@@ -73860,41 +73860,41 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K1021" t="n">
-        <v>44000</v>
+        <v>20000</v>
       </c>
       <c r="L1021" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M1021" t="n">
-        <v>44479</v>
+        <v>20000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>2965</v>
+        <v>1111</v>
       </c>
       <c r="Q1021" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1022" t="n">
         <v>5</v>
@@ -73932,41 +73932,41 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1022" t="n">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="L1022" t="n">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="M1022" t="n">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="Q1022" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1022" t="inlineStr">
         <is>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1023" t="n">
         <v>5</v>
@@ -74009,20 +74009,20 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K1023" t="n">
-        <v>34000</v>
+        <v>14000</v>
       </c>
       <c r="L1023" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="M1023" t="n">
-        <v>34521</v>
+        <v>14000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>1918</v>
+        <v>778</v>
       </c>
       <c r="Q1023" t="n">
         <v>18</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1024" t="n">
         <v>5</v>
@@ -74081,20 +74081,20 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1024" t="n">
         <v>73</v>
       </c>
       <c r="K1024" t="n">
-        <v>25000</v>
+        <v>44000</v>
       </c>
       <c r="L1024" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M1024" t="n">
-        <v>25479</v>
+        <v>44479</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>1699</v>
+        <v>2965</v>
       </c>
       <c r="Q1024" t="n">
         <v>15</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1025" t="n">
         <v>5</v>
@@ -74153,20 +74153,20 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1025" t="n">
         <v>35</v>
       </c>
       <c r="K1025" t="n">
-        <v>23000</v>
+        <v>39000</v>
       </c>
       <c r="L1025" t="n">
-        <v>23000</v>
+        <v>39000</v>
       </c>
       <c r="M1025" t="n">
-        <v>23000</v>
+        <v>39000</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>1533</v>
+        <v>2600</v>
       </c>
       <c r="Q1025" t="n">
         <v>15</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1026" t="n">
         <v>5</v>
@@ -74220,41 +74220,41 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K1026" t="n">
-        <v>19000</v>
+        <v>34000</v>
       </c>
       <c r="L1026" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="M1026" t="n">
-        <v>19000</v>
+        <v>34521</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>1267</v>
+        <v>1918</v>
       </c>
       <c r="Q1026" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1027" t="n">
         <v>5</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K1027" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L1027" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="M1027" t="n">
-        <v>31000</v>
+        <v>25479</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>2067</v>
+        <v>1699</v>
       </c>
       <c r="Q1027" t="n">
         <v>15</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1028" t="n">
         <v>5</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1028" t="n">
         <v>35</v>
       </c>
       <c r="K1028" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L1028" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M1028" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>1667</v>
+        <v>1533</v>
       </c>
       <c r="Q1028" t="n">
         <v>15</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1029" t="n">
         <v>5</v>
@@ -74436,25 +74436,25 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1029" t="n">
         <v>38</v>
       </c>
       <c r="K1029" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="L1029" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="M1029" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>1600</v>
+        <v>1267</v>
       </c>
       <c r="Q1029" t="n">
         <v>15</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1030" t="n">
         <v>5</v>
@@ -74520,29 +74520,29 @@
         <v>35</v>
       </c>
       <c r="K1030" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="L1030" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="M1030" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>1500</v>
+        <v>2067</v>
       </c>
       <c r="Q1030" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1031" t="n">
         <v>5</v>
@@ -74589,32 +74589,32 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1031" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L1031" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M1031" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>1167</v>
+        <v>1667</v>
       </c>
       <c r="Q1031" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1032" t="n">
         <v>5</v>
@@ -74661,32 +74661,32 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1032" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L1032" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M1032" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>1111</v>
+        <v>1600</v>
       </c>
       <c r="Q1032" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74724,25 +74724,25 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K1033" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="L1033" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="M1033" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>944</v>
+        <v>1500</v>
       </c>
       <c r="Q1033" t="n">
         <v>18</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1034" t="n">
         <v>5</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1034" t="n">
         <v>38</v>
       </c>
       <c r="K1034" t="n">
-        <v>44000</v>
+        <v>21000</v>
       </c>
       <c r="L1034" t="n">
-        <v>44000</v>
+        <v>21000</v>
       </c>
       <c r="M1034" t="n">
-        <v>44000</v>
+        <v>21000</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>2444</v>
+        <v>1167</v>
       </c>
       <c r="Q1034" t="n">
         <v>18</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1035" t="n">
         <v>5</v>
@@ -74868,7 +74868,7 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
@@ -74880,13 +74880,13 @@
         <v>35</v>
       </c>
       <c r="K1035" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L1035" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M1035" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="Q1035" t="n">
         <v>18</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1036" t="n">
         <v>5</v>
@@ -74940,7 +74940,7 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
@@ -74952,13 +74952,13 @@
         <v>30</v>
       </c>
       <c r="K1036" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L1036" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M1036" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>1944</v>
+        <v>944</v>
       </c>
       <c r="Q1036" t="n">
         <v>18</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1037" t="n">
         <v>5</v>
@@ -75024,13 +75024,13 @@
         <v>38</v>
       </c>
       <c r="K1037" t="n">
-        <v>22000</v>
+        <v>44000</v>
       </c>
       <c r="L1037" t="n">
-        <v>22000</v>
+        <v>44000</v>
       </c>
       <c r="M1037" t="n">
-        <v>22000</v>
+        <v>44000</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>1222</v>
+        <v>2444</v>
       </c>
       <c r="Q1037" t="n">
         <v>18</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1038" t="n">
         <v>5</v>
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1038" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="L1038" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="M1038" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>1056</v>
+        <v>2222</v>
       </c>
       <c r="Q1038" t="n">
         <v>18</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1039" t="n">
         <v>5</v>
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K1039" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="L1039" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="M1039" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>889</v>
+        <v>1944</v>
       </c>
       <c r="Q1039" t="n">
         <v>18</v>
@@ -75228,25 +75228,25 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1040" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L1040" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M1040" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>778</v>
+        <v>1222</v>
       </c>
       <c r="Q1040" t="n">
         <v>18</v>
@@ -75300,25 +75300,25 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1041" t="n">
         <v>38</v>
       </c>
       <c r="K1041" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L1041" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M1041" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>556</v>
+        <v>1056</v>
       </c>
       <c r="Q1041" t="n">
         <v>18</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1042" t="n">
         <v>5</v>
@@ -75377,11 +75377,11 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K1042" t="n">
         <v>16000</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1043" t="n">
         <v>5</v>
@@ -75444,7 +75444,7 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
@@ -75456,13 +75456,13 @@
         <v>35</v>
       </c>
       <c r="K1043" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L1043" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M1043" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q1043" t="n">
         <v>18</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1044" t="n">
         <v>5</v>
@@ -75516,7 +75516,7 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -75528,13 +75528,13 @@
         <v>38</v>
       </c>
       <c r="K1044" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L1044" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M1044" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q1044" t="n">
         <v>18</v>
@@ -75588,25 +75588,25 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1045" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L1045" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M1045" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="Q1045" t="n">
         <v>18</v>
@@ -75660,25 +75660,25 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1046" t="n">
         <v>35</v>
       </c>
       <c r="K1046" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L1046" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M1046" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q1046" t="n">
         <v>18</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1047" t="n">
         <v>5</v>
@@ -75732,41 +75732,41 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K1047" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L1047" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M1047" t="n">
-        <v>15521</v>
+        <v>11000</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>776</v>
+        <v>611</v>
       </c>
       <c r="Q1047" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1048" t="n">
         <v>5</v>
@@ -75804,7 +75804,7 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
@@ -75813,32 +75813,32 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="K1048" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L1048" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M1048" t="n">
-        <v>17462</v>
+        <v>12000</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>1164</v>
+        <v>667</v>
       </c>
       <c r="Q1048" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1049" t="n">
         <v>5</v>
@@ -75876,7 +75876,7 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
@@ -75885,32 +75885,32 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K1049" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L1049" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M1049" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q1049" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
@@ -75948,7 +75948,7 @@
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1050" t="inlineStr">
@@ -75957,32 +75957,32 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K1050" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L1050" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M1050" t="n">
-        <v>17500</v>
+        <v>15521</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>1167</v>
+        <v>776</v>
       </c>
       <c r="Q1050" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1050" t="inlineStr">
         <is>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1051" t="n">
         <v>5</v>
@@ -76025,36 +76025,36 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K1051" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1051" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M1051" t="n">
-        <v>15000</v>
+        <v>17462</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>833</v>
+        <v>1164</v>
       </c>
       <c r="Q1051" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1051" t="inlineStr">
         <is>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1052" t="n">
         <v>5</v>
@@ -76097,36 +76097,36 @@
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1052" t="n">
         <v>30</v>
       </c>
       <c r="K1052" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L1052" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1052" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="Q1052" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1052" t="inlineStr">
         <is>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1053" t="n">
         <v>5</v>
@@ -76164,41 +76164,41 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K1053" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L1053" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M1053" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1053" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>556</v>
+        <v>1167</v>
       </c>
       <c r="Q1053" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1053" t="inlineStr">
         <is>
@@ -76236,25 +76236,25 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K1054" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1054" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1054" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q1054" t="n">
         <v>18</v>
@@ -76308,25 +76308,25 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K1055" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L1055" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M1055" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q1055" t="n">
         <v>18</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1056" t="n">
         <v>5</v>
@@ -76385,36 +76385,36 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K1056" t="n">
-        <v>41000</v>
+        <v>10000</v>
       </c>
       <c r="L1056" t="n">
-        <v>42000</v>
+        <v>10000</v>
       </c>
       <c r="M1056" t="n">
-        <v>41507</v>
+        <v>10000</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>2767</v>
+        <v>556</v>
       </c>
       <c r="Q1056" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1057" t="n">
         <v>5</v>
@@ -76452,7 +76452,7 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K1057" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="L1057" t="n">
-        <v>29000</v>
+        <v>12000</v>
       </c>
       <c r="M1057" t="n">
-        <v>28479</v>
+        <v>12000</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>1582</v>
+        <v>667</v>
       </c>
       <c r="Q1057" t="n">
         <v>18</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E1058" t="n">
         <v>5</v>
@@ -76524,25 +76524,25 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K1058" t="n">
-        <v>42000</v>
+        <v>9000</v>
       </c>
       <c r="L1058" t="n">
-        <v>42000</v>
+        <v>9000</v>
       </c>
       <c r="M1058" t="n">
-        <v>42000</v>
+        <v>9000</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>2333</v>
+        <v>500</v>
       </c>
       <c r="Q1058" t="n">
         <v>18</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1059" t="n">
         <v>5</v>
@@ -76605,32 +76605,32 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="K1059" t="n">
-        <v>37000</v>
+        <v>41000</v>
       </c>
       <c r="L1059" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="M1059" t="n">
-        <v>37000</v>
+        <v>41507</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>2056</v>
+        <v>2767</v>
       </c>
       <c r="Q1059" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1060" t="n">
         <v>5</v>
@@ -76668,7 +76668,7 @@
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1060" t="inlineStr">
@@ -76677,16 +76677,16 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K1060" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L1060" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="M1060" t="n">
-        <v>18000</v>
+        <v>28479</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,12 +76699,228 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>1000</v>
+        <v>1582</v>
       </c>
       <c r="Q1060" t="n">
         <v>18</v>
       </c>
       <c r="R1060" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1061" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1061" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1061" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1061" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1061" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>42000</v>
+      </c>
+      <c r="N1061" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1061" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1061" t="n">
+        <v>2333</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1061" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1062" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1062" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1062" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1062" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>37000</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>37000</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>37000</v>
+      </c>
+      <c r="N1062" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1062" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1062" t="n">
+        <v>2056</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1062" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1063" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1063" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1063" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1063" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1063" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N1063" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1063" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1063" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1063" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1183"/>
+  <dimension ref="A1:R1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1096" t="n">
         <v>5</v>
@@ -79260,7 +79260,7 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
@@ -79269,32 +79269,32 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K1096" t="n">
-        <v>41000</v>
+        <v>29000</v>
       </c>
       <c r="L1096" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="M1096" t="n">
-        <v>41500</v>
+        <v>29000</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1096" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>2767</v>
+        <v>1611</v>
       </c>
       <c r="Q1096" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1097" t="n">
         <v>5</v>
@@ -79337,36 +79337,36 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1097" t="n">
-        <v>38000</v>
+        <v>24000</v>
       </c>
       <c r="L1097" t="n">
-        <v>38000</v>
+        <v>24000</v>
       </c>
       <c r="M1097" t="n">
-        <v>38000</v>
+        <v>24000</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>2533</v>
+        <v>1333</v>
       </c>
       <c r="Q1097" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1098" t="n">
         <v>5</v>
@@ -79404,41 +79404,41 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K1098" t="n">
-        <v>37000</v>
+        <v>22000</v>
       </c>
       <c r="L1098" t="n">
-        <v>38000</v>
+        <v>22000</v>
       </c>
       <c r="M1098" t="n">
-        <v>37479</v>
+        <v>22000</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>2499</v>
+        <v>1222</v>
       </c>
       <c r="Q1098" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1099" t="n">
         <v>5</v>
@@ -79488,13 +79488,13 @@
         <v>38</v>
       </c>
       <c r="K1099" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="L1099" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="M1099" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79503,11 +79503,11 @@
       </c>
       <c r="O1099" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>2278</v>
+        <v>833</v>
       </c>
       <c r="Q1099" t="n">
         <v>18</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44427</v>
+        <v>44578</v>
       </c>
       <c r="E1100" t="n">
         <v>5</v>
@@ -79548,41 +79548,41 @@
       </c>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K1100" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="L1100" t="n">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="M1100" t="n">
-        <v>33479</v>
+        <v>12000</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1100" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>2232</v>
+        <v>667</v>
       </c>
       <c r="Q1100" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1101" t="n">
         <v>5</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="K1101" t="n">
-        <v>29000</v>
+        <v>41000</v>
       </c>
       <c r="L1101" t="n">
-        <v>29000</v>
+        <v>42000</v>
       </c>
       <c r="M1101" t="n">
-        <v>29000</v>
+        <v>41500</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>1933</v>
+        <v>2767</v>
       </c>
       <c r="Q1101" t="n">
         <v>15</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1102" t="n">
         <v>5</v>
@@ -79692,25 +79692,25 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K1102" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="L1102" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="M1102" t="n">
-        <v>26521</v>
+        <v>38000</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>1768</v>
+        <v>2533</v>
       </c>
       <c r="Q1102" t="n">
         <v>15</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1103" t="n">
         <v>5</v>
@@ -79769,20 +79769,20 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K1103" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="L1103" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="M1103" t="n">
-        <v>23000</v>
+        <v>37479</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>1533</v>
+        <v>2499</v>
       </c>
       <c r="Q1103" t="n">
         <v>15</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="E1104" t="n">
         <v>5</v>
@@ -79836,7 +79836,7 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
@@ -79845,20 +79845,20 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K1104" t="n">
         <v>41000</v>
       </c>
       <c r="L1104" t="n">
-        <v>42000</v>
+        <v>41000</v>
       </c>
       <c r="M1104" t="n">
-        <v>41479</v>
+        <v>41000</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1104" t="inlineStr">
@@ -79867,10 +79867,10 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>2765</v>
+        <v>2278</v>
       </c>
       <c r="Q1104" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1105" t="n">
         <v>5</v>
@@ -79908,7 +79908,7 @@
       </c>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
@@ -79920,13 +79920,13 @@
         <v>73</v>
       </c>
       <c r="K1105" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="L1105" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="M1105" t="n">
-        <v>37521</v>
+        <v>33479</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>2501</v>
+        <v>2232</v>
       </c>
       <c r="Q1105" t="n">
         <v>15</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1106" t="n">
         <v>5</v>
@@ -79980,41 +79980,41 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K1106" t="n">
-        <v>41000</v>
+        <v>29000</v>
       </c>
       <c r="L1106" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="M1106" t="n">
-        <v>41479</v>
+        <v>29000</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>2304</v>
+        <v>1933</v>
       </c>
       <c r="Q1106" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44293</v>
+        <v>44427</v>
       </c>
       <c r="E1107" t="n">
         <v>5</v>
@@ -80052,41 +80052,41 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K1107" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="L1107" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="M1107" t="n">
-        <v>14000</v>
+        <v>26521</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1107" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>778</v>
+        <v>1768</v>
       </c>
       <c r="Q1107" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1107" t="inlineStr">
         <is>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44293</v>
+        <v>44427</v>
       </c>
       <c r="E1108" t="n">
         <v>5</v>
@@ -80124,41 +80124,41 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1108" t="n">
         <v>38</v>
       </c>
       <c r="K1108" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="L1108" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="M1108" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>611</v>
+        <v>1533</v>
       </c>
       <c r="Q1108" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1109" t="n">
         <v>5</v>
@@ -80201,36 +80201,36 @@
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K1109" t="n">
-        <v>9000</v>
+        <v>41000</v>
       </c>
       <c r="L1109" t="n">
-        <v>9000</v>
+        <v>42000</v>
       </c>
       <c r="M1109" t="n">
-        <v>9000</v>
+        <v>41479</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>500</v>
+        <v>2765</v>
       </c>
       <c r="Q1109" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1110" t="n">
         <v>5</v>
@@ -80273,36 +80273,36 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K1110" t="n">
-        <v>11000</v>
+        <v>37000</v>
       </c>
       <c r="L1110" t="n">
-        <v>11000</v>
+        <v>38000</v>
       </c>
       <c r="M1110" t="n">
-        <v>11000</v>
+        <v>37521</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1110" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>611</v>
+        <v>2501</v>
       </c>
       <c r="Q1110" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1110" t="inlineStr">
         <is>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1111" t="n">
         <v>5</v>
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K1111" t="n">
-        <v>8000</v>
+        <v>41000</v>
       </c>
       <c r="L1111" t="n">
-        <v>8000</v>
+        <v>42000</v>
       </c>
       <c r="M1111" t="n">
-        <v>8000</v>
+        <v>41479</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80367,11 +80367,11 @@
       </c>
       <c r="O1111" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>444</v>
+        <v>2304</v>
       </c>
       <c r="Q1111" t="n">
         <v>18</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1112" t="n">
         <v>5</v>
@@ -80412,7 +80412,7 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
@@ -80424,13 +80424,13 @@
         <v>35</v>
       </c>
       <c r="K1112" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="L1112" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M1112" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>1389</v>
+        <v>778</v>
       </c>
       <c r="Q1112" t="n">
         <v>18</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1113" t="n">
         <v>5</v>
@@ -80489,20 +80489,20 @@
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K1113" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="L1113" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="M1113" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>1278</v>
+        <v>611</v>
       </c>
       <c r="Q1113" t="n">
         <v>18</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1114" t="n">
         <v>5</v>
@@ -80561,20 +80561,20 @@
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K1114" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L1114" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M1114" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>1111</v>
+        <v>500</v>
       </c>
       <c r="Q1114" t="n">
         <v>18</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1115" t="n">
         <v>5</v>
@@ -80628,25 +80628,25 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K1115" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L1115" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M1115" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>944</v>
+        <v>611</v>
       </c>
       <c r="Q1115" t="n">
         <v>18</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1116" t="n">
         <v>5</v>
@@ -80712,13 +80712,13 @@
         <v>38</v>
       </c>
       <c r="K1116" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L1116" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M1116" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q1116" t="n">
         <v>18</v>
@@ -80772,25 +80772,25 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1117" t="n">
         <v>35</v>
       </c>
       <c r="K1117" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L1117" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M1117" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>556</v>
+        <v>1389</v>
       </c>
       <c r="Q1117" t="n">
         <v>18</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1118" t="n">
         <v>5</v>
@@ -80849,36 +80849,36 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K1118" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L1118" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M1118" t="n">
-        <v>25500</v>
+        <v>23000</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>1700</v>
+        <v>1278</v>
       </c>
       <c r="Q1118" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1119" t="n">
         <v>5</v>
@@ -80916,7 +80916,7 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
@@ -80925,16 +80925,16 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K1119" t="n">
         <v>20000</v>
       </c>
       <c r="L1119" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="M1119" t="n">
-        <v>20479</v>
+        <v>20000</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80943,11 +80943,11 @@
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>1138</v>
+        <v>1111</v>
       </c>
       <c r="Q1119" t="n">
         <v>18</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E1120" t="n">
         <v>5</v>
@@ -80988,25 +80988,25 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K1120" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L1120" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M1120" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>1333</v>
+        <v>944</v>
       </c>
       <c r="Q1120" t="n">
         <v>18</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E1121" t="n">
         <v>5</v>
@@ -81060,25 +81060,25 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1121" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L1121" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M1121" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="Q1121" t="n">
         <v>18</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E1122" t="n">
         <v>5</v>
@@ -81132,25 +81132,25 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1122" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L1122" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M1122" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>1056</v>
+        <v>556</v>
       </c>
       <c r="Q1122" t="n">
         <v>18</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1123" t="n">
         <v>5</v>
@@ -81209,36 +81209,36 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K1123" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L1123" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="M1123" t="n">
-        <v>16000</v>
+        <v>25500</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>889</v>
+        <v>1700</v>
       </c>
       <c r="Q1123" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44494</v>
+        <v>44533</v>
       </c>
       <c r="E1124" t="n">
         <v>5</v>
@@ -81276,7 +81276,7 @@
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
@@ -81288,29 +81288,29 @@
         <v>73</v>
       </c>
       <c r="K1124" t="n">
-        <v>41000</v>
+        <v>20000</v>
       </c>
       <c r="L1124" t="n">
-        <v>42000</v>
+        <v>21000</v>
       </c>
       <c r="M1124" t="n">
-        <v>41479</v>
+        <v>20479</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>2765</v>
+        <v>1138</v>
       </c>
       <c r="Q1124" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1124" t="inlineStr">
         <is>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1125" t="n">
         <v>5</v>
@@ -81348,41 +81348,41 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1125" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="L1125" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="M1125" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>2467</v>
+        <v>1333</v>
       </c>
       <c r="Q1125" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1126" t="n">
         <v>5</v>
@@ -81420,41 +81420,41 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K1126" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L1126" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M1126" t="n">
-        <v>28479</v>
+        <v>22000</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>1899</v>
+        <v>1222</v>
       </c>
       <c r="Q1126" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1126" t="inlineStr">
         <is>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1127" t="n">
         <v>5</v>
@@ -81504,13 +81504,13 @@
         <v>38</v>
       </c>
       <c r="K1127" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="L1127" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="M1127" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>1444</v>
+        <v>1056</v>
       </c>
       <c r="Q1127" t="n">
         <v>18</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1128" t="n">
         <v>5</v>
@@ -81576,13 +81576,13 @@
         <v>35</v>
       </c>
       <c r="K1128" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L1128" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M1128" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>1056</v>
+        <v>889</v>
       </c>
       <c r="Q1128" t="n">
         <v>18</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1129" t="n">
         <v>5</v>
@@ -81641,36 +81641,36 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K1129" t="n">
-        <v>15000</v>
+        <v>41000</v>
       </c>
       <c r="L1129" t="n">
-        <v>15000</v>
+        <v>42000</v>
       </c>
       <c r="M1129" t="n">
-        <v>15000</v>
+        <v>41479</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>833</v>
+        <v>2765</v>
       </c>
       <c r="Q1129" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1130" t="n">
         <v>5</v>
@@ -81708,41 +81708,41 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="K1130" t="n">
-        <v>17000</v>
+        <v>37000</v>
       </c>
       <c r="L1130" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="M1130" t="n">
-        <v>17500</v>
+        <v>37000</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1130" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>972</v>
+        <v>2467</v>
       </c>
       <c r="Q1130" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1130" t="inlineStr">
         <is>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1131" t="n">
         <v>5</v>
@@ -81785,36 +81785,36 @@
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K1131" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="L1131" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="M1131" t="n">
-        <v>14000</v>
+        <v>28479</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1131" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>778</v>
+        <v>1899</v>
       </c>
       <c r="Q1131" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1131" t="inlineStr">
         <is>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1132" t="n">
         <v>5</v>
@@ -81857,36 +81857,36 @@
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1132" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L1132" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M1132" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1132" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>1133</v>
+        <v>1444</v>
       </c>
       <c r="Q1132" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1133" t="n">
         <v>5</v>
@@ -81929,36 +81929,36 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K1133" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L1133" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M1133" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1133" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>1000</v>
+        <v>1056</v>
       </c>
       <c r="Q1133" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1133" t="inlineStr">
         <is>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1134" t="n">
         <v>5</v>
@@ -82001,36 +82001,36 @@
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1134" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1134" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1134" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1134" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="Q1134" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1134" t="inlineStr">
         <is>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1135" t="n">
         <v>5</v>
@@ -82077,32 +82077,32 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="K1135" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1135" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M1135" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="Q1135" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1136" t="n">
         <v>5</v>
@@ -82149,32 +82149,32 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1136" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1136" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M1136" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1136" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q1136" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1137" t="n">
         <v>5</v>
@@ -82221,32 +82221,32 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K1137" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L1137" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M1137" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>1222</v>
+        <v>1133</v>
       </c>
       <c r="Q1137" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1138" t="n">
         <v>5</v>
@@ -82293,32 +82293,32 @@
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K1138" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L1138" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M1138" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1138" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q1138" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1139" t="n">
         <v>5</v>
@@ -82368,29 +82368,29 @@
         <v>38</v>
       </c>
       <c r="K1139" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L1139" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M1139" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1139" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q1139" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1139" t="inlineStr">
         <is>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1140" t="n">
         <v>5</v>
@@ -82437,32 +82437,32 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K1140" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1140" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1140" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1140" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q1140" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1141" t="n">
         <v>5</v>
@@ -82509,32 +82509,32 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K1141" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L1141" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M1141" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1141" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q1141" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1141" t="inlineStr">
         <is>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44481</v>
+        <v>44279</v>
       </c>
       <c r="E1142" t="n">
         <v>5</v>
@@ -82577,36 +82577,36 @@
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K1142" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="L1142" t="n">
-        <v>43000</v>
+        <v>22000</v>
       </c>
       <c r="M1142" t="n">
-        <v>42462</v>
+        <v>22000</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1142" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>2831</v>
+        <v>1222</v>
       </c>
       <c r="Q1142" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44481</v>
+        <v>44279</v>
       </c>
       <c r="E1143" t="n">
         <v>5</v>
@@ -82649,36 +82649,36 @@
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K1143" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L1143" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="M1143" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1143" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>2667</v>
+        <v>889</v>
       </c>
       <c r="Q1143" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44481</v>
+        <v>44279</v>
       </c>
       <c r="E1144" t="n">
         <v>5</v>
@@ -82716,41 +82716,41 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K1144" t="n">
-        <v>37000</v>
+        <v>13000</v>
       </c>
       <c r="L1144" t="n">
-        <v>38000</v>
+        <v>13000</v>
       </c>
       <c r="M1144" t="n">
-        <v>37500</v>
+        <v>13000</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1144" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>2500</v>
+        <v>722</v>
       </c>
       <c r="Q1144" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44481</v>
+        <v>44279</v>
       </c>
       <c r="E1145" t="n">
         <v>5</v>
@@ -82793,36 +82793,36 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K1145" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L1145" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M1145" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1145" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>2333</v>
+        <v>667</v>
       </c>
       <c r="Q1145" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1146" t="n">
         <v>5</v>
@@ -82860,41 +82860,41 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K1146" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L1146" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M1146" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1146" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>550</v>
+        <v>444</v>
       </c>
       <c r="Q1146" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44277</v>
+        <v>44481</v>
       </c>
       <c r="E1147" t="n">
         <v>5</v>
@@ -82932,41 +82932,41 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="K1147" t="n">
-        <v>8000</v>
+        <v>42000</v>
       </c>
       <c r="L1147" t="n">
-        <v>8000</v>
+        <v>43000</v>
       </c>
       <c r="M1147" t="n">
-        <v>8000</v>
+        <v>42462</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1147" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>400</v>
+        <v>2831</v>
       </c>
       <c r="Q1147" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1147" t="inlineStr">
         <is>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44277</v>
+        <v>44481</v>
       </c>
       <c r="E1148" t="n">
         <v>5</v>
@@ -83009,36 +83009,36 @@
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K1148" t="n">
-        <v>21000</v>
+        <v>40000</v>
       </c>
       <c r="L1148" t="n">
-        <v>21000</v>
+        <v>40000</v>
       </c>
       <c r="M1148" t="n">
-        <v>21000</v>
+        <v>40000</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1148" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>1167</v>
+        <v>2667</v>
       </c>
       <c r="Q1148" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44277</v>
+        <v>44481</v>
       </c>
       <c r="E1149" t="n">
         <v>5</v>
@@ -83076,7 +83076,7 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -83085,32 +83085,32 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K1149" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="L1149" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="M1149" t="n">
-        <v>18000</v>
+        <v>37500</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1149" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="Q1149" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44277</v>
+        <v>44481</v>
       </c>
       <c r="E1150" t="n">
         <v>5</v>
@@ -83148,7 +83148,7 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
@@ -83157,32 +83157,32 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K1150" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="L1150" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M1150" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1150" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>778</v>
+        <v>2333</v>
       </c>
       <c r="Q1150" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
@@ -83220,7 +83220,7 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
@@ -83229,32 +83229,32 @@
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K1151" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L1151" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M1151" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1151" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="Q1151" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1151" t="inlineStr">
         <is>
@@ -83292,7 +83292,7 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -83314,19 +83314,19 @@
       </c>
       <c r="N1152" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1152" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="Q1152" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1152" t="inlineStr">
         <is>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1153" t="n">
         <v>5</v>
@@ -83369,36 +83369,36 @@
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="K1153" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L1153" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M1153" t="n">
-        <v>26533</v>
+        <v>21000</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1153" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>1769</v>
+        <v>1167</v>
       </c>
       <c r="Q1153" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1153" t="inlineStr">
         <is>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1154" t="n">
         <v>5</v>
@@ -83436,7 +83436,7 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
@@ -83445,16 +83445,16 @@
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K1154" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L1154" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M1154" t="n">
-        <v>22521</v>
+        <v>18000</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
@@ -83467,7 +83467,7 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>1251</v>
+        <v>1000</v>
       </c>
       <c r="Q1154" t="n">
         <v>18</v>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E1155" t="n">
         <v>5</v>
@@ -83513,36 +83513,36 @@
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1155" t="n">
         <v>35</v>
       </c>
       <c r="K1155" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="L1155" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M1155" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1155" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>1467</v>
+        <v>778</v>
       </c>
       <c r="Q1155" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E1156" t="n">
         <v>5</v>
@@ -83580,7 +83580,7 @@
       </c>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
@@ -83592,29 +83592,29 @@
         <v>38</v>
       </c>
       <c r="K1156" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L1156" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M1156" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1156" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q1156" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1156" t="inlineStr">
         <is>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E1157" t="n">
         <v>5</v>
@@ -83652,7 +83652,7 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
@@ -83664,29 +83664,29 @@
         <v>35</v>
       </c>
       <c r="K1157" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L1157" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M1157" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1157" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q1157" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1158" t="n">
         <v>5</v>
@@ -83724,7 +83724,7 @@
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
@@ -83733,16 +83733,16 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="K1158" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="L1158" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="M1158" t="n">
-        <v>14000</v>
+        <v>26533</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83755,7 +83755,7 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>933</v>
+        <v>1769</v>
       </c>
       <c r="Q1158" t="n">
         <v>15</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1159" t="n">
         <v>5</v>
@@ -83801,36 +83801,36 @@
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K1159" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L1159" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="M1159" t="n">
-        <v>12000</v>
+        <v>22521</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1159" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>800</v>
+        <v>1251</v>
       </c>
       <c r="Q1159" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1159" t="inlineStr">
         <is>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44503</v>
+        <v>44327</v>
       </c>
       <c r="E1160" t="n">
         <v>5</v>
@@ -83873,20 +83873,20 @@
       </c>
       <c r="I1160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K1160" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="L1160" t="n">
-        <v>43000</v>
+        <v>22000</v>
       </c>
       <c r="M1160" t="n">
-        <v>42521</v>
+        <v>22000</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83899,7 +83899,7 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>2835</v>
+        <v>1467</v>
       </c>
       <c r="Q1160" t="n">
         <v>15</v>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44503</v>
+        <v>44327</v>
       </c>
       <c r="E1161" t="n">
         <v>5</v>
@@ -83940,7 +83940,7 @@
       </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1161" t="inlineStr">
@@ -83949,16 +83949,16 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K1161" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="L1161" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="M1161" t="n">
-        <v>32479</v>
+        <v>18000</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>2165</v>
+        <v>1200</v>
       </c>
       <c r="Q1161" t="n">
         <v>15</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44462</v>
+        <v>44327</v>
       </c>
       <c r="E1162" t="n">
         <v>5</v>
@@ -84017,20 +84017,20 @@
       </c>
       <c r="I1162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K1162" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="L1162" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M1162" t="n">
-        <v>41479</v>
+        <v>15000</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>2765</v>
+        <v>1000</v>
       </c>
       <c r="Q1162" t="n">
         <v>15</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44462</v>
+        <v>44327</v>
       </c>
       <c r="E1163" t="n">
         <v>5</v>
@@ -84084,25 +84084,25 @@
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1163" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="L1163" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="M1163" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>2333</v>
+        <v>933</v>
       </c>
       <c r="Q1163" t="n">
         <v>15</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44462</v>
+        <v>44327</v>
       </c>
       <c r="E1164" t="n">
         <v>5</v>
@@ -84161,20 +84161,20 @@
       </c>
       <c r="I1164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1164" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L1164" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M1164" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>2333</v>
+        <v>800</v>
       </c>
       <c r="Q1164" t="n">
         <v>15</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1165" t="n">
         <v>5</v>
@@ -84228,25 +84228,25 @@
       </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K1165" t="n">
-        <v>32000</v>
+        <v>42000</v>
       </c>
       <c r="L1165" t="n">
-        <v>32000</v>
+        <v>43000</v>
       </c>
       <c r="M1165" t="n">
-        <v>32000</v>
+        <v>42521</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
@@ -84259,7 +84259,7 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>2133</v>
+        <v>2835</v>
       </c>
       <c r="Q1165" t="n">
         <v>15</v>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1166" t="n">
         <v>5</v>
@@ -84305,36 +84305,36 @@
       </c>
       <c r="I1166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K1166" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="L1166" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="M1166" t="n">
-        <v>37000</v>
+        <v>32479</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1166" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>2056</v>
+        <v>2165</v>
       </c>
       <c r="Q1166" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1166" t="inlineStr">
         <is>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1167" t="n">
         <v>5</v>
@@ -84372,7 +84372,7 @@
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1167" t="inlineStr">
@@ -84381,32 +84381,32 @@
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="K1167" t="n">
-        <v>16000</v>
+        <v>41000</v>
       </c>
       <c r="L1167" t="n">
-        <v>16000</v>
+        <v>42000</v>
       </c>
       <c r="M1167" t="n">
-        <v>16000</v>
+        <v>41479</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1167" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>800</v>
+        <v>2765</v>
       </c>
       <c r="Q1167" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1167" t="inlineStr">
         <is>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1168" t="n">
         <v>5</v>
@@ -84449,20 +84449,20 @@
       </c>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1168" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L1168" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M1168" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84475,7 +84475,7 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>1000</v>
+        <v>2333</v>
       </c>
       <c r="Q1168" t="n">
         <v>15</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1169" t="n">
         <v>5</v>
@@ -84516,25 +84516,25 @@
       </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1169" t="n">
         <v>35</v>
       </c>
       <c r="K1169" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="L1169" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M1169" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
@@ -84547,7 +84547,7 @@
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>800</v>
+        <v>2333</v>
       </c>
       <c r="Q1169" t="n">
         <v>15</v>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1170" t="n">
         <v>5</v>
@@ -84593,20 +84593,20 @@
       </c>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1170" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="L1170" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="M1170" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
@@ -84619,7 +84619,7 @@
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>933</v>
+        <v>2133</v>
       </c>
       <c r="Q1170" t="n">
         <v>15</v>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44512</v>
+        <v>44462</v>
       </c>
       <c r="E1171" t="n">
         <v>5</v>
@@ -84660,41 +84660,41 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1171" t="n">
         <v>38</v>
       </c>
       <c r="K1171" t="n">
-        <v>42000</v>
+        <v>37000</v>
       </c>
       <c r="L1171" t="n">
-        <v>42000</v>
+        <v>37000</v>
       </c>
       <c r="M1171" t="n">
-        <v>42000</v>
+        <v>37000</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1171" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>2800</v>
+        <v>2056</v>
       </c>
       <c r="Q1171" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1171" t="inlineStr">
         <is>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1172" t="n">
         <v>5</v>
@@ -84732,41 +84732,41 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K1172" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="L1172" t="n">
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="M1172" t="n">
-        <v>35500</v>
+        <v>16000</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1172" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>2367</v>
+        <v>800</v>
       </c>
       <c r="Q1172" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1173" t="n">
         <v>5</v>
@@ -84804,7 +84804,7 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
@@ -84813,16 +84813,16 @@
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="K1173" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="L1173" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="M1173" t="n">
-        <v>26479</v>
+        <v>15000</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
@@ -84831,11 +84831,11 @@
       </c>
       <c r="O1173" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>1765</v>
+        <v>1000</v>
       </c>
       <c r="Q1173" t="n">
         <v>15</v>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E1174" t="n">
         <v>5</v>
@@ -84881,36 +84881,36 @@
       </c>
       <c r="I1174" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1174" t="n">
         <v>35</v>
       </c>
       <c r="K1174" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L1174" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M1174" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1174" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="Q1174" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1174" t="inlineStr">
         <is>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E1175" t="n">
         <v>5</v>
@@ -84948,7 +84948,7 @@
       </c>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1175" t="inlineStr">
@@ -84957,32 +84957,32 @@
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1175" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L1175" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M1175" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1175" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q1175" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1175" t="inlineStr">
         <is>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1176" t="n">
         <v>5</v>
@@ -85025,36 +85025,36 @@
       </c>
       <c r="I1176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1176" t="n">
-        <v>10000</v>
+        <v>42000</v>
       </c>
       <c r="L1176" t="n">
-        <v>10000</v>
+        <v>42000</v>
       </c>
       <c r="M1176" t="n">
-        <v>10000</v>
+        <v>42000</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1176" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>556</v>
+        <v>2800</v>
       </c>
       <c r="Q1176" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1176" t="inlineStr">
         <is>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1177" t="n">
         <v>5</v>
@@ -85092,41 +85092,41 @@
       </c>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K1177" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="L1177" t="n">
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="M1177" t="n">
-        <v>12000</v>
+        <v>35500</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1177" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>667</v>
+        <v>2367</v>
       </c>
       <c r="Q1177" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1177" t="inlineStr">
         <is>
@@ -85149,7 +85149,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1178" t="n">
         <v>5</v>
@@ -85173,20 +85173,20 @@
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K1178" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="L1178" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="M1178" t="n">
-        <v>10000</v>
+        <v>26479</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1178" t="inlineStr">
@@ -85195,10 +85195,10 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>556</v>
+        <v>1765</v>
       </c>
       <c r="Q1178" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1178" t="inlineStr">
         <is>
@@ -85236,25 +85236,25 @@
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1179" t="n">
         <v>35</v>
       </c>
       <c r="K1179" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L1179" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M1179" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
@@ -85267,7 +85267,7 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q1179" t="n">
         <v>18</v>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1180" t="n">
         <v>5</v>
@@ -85317,32 +85317,32 @@
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K1180" t="n">
-        <v>42000</v>
+        <v>13000</v>
       </c>
       <c r="L1180" t="n">
-        <v>43000</v>
+        <v>13000</v>
       </c>
       <c r="M1180" t="n">
-        <v>42476</v>
+        <v>13000</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1180" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>2832</v>
+        <v>722</v>
       </c>
       <c r="Q1180" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1180" t="inlineStr">
         <is>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1181" t="n">
         <v>5</v>
@@ -85389,32 +85389,32 @@
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K1181" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="L1181" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="M1181" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1181" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>2467</v>
+        <v>556</v>
       </c>
       <c r="Q1181" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1181" t="inlineStr">
         <is>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1182" t="n">
         <v>5</v>
@@ -85457,20 +85457,20 @@
       </c>
       <c r="I1182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K1182" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="L1182" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="M1182" t="n">
-        <v>30521</v>
+        <v>12000</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
@@ -85483,7 +85483,7 @@
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>1696</v>
+        <v>667</v>
       </c>
       <c r="Q1182" t="n">
         <v>18</v>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1183" t="n">
         <v>5</v>
@@ -85529,20 +85529,20 @@
       </c>
       <c r="I1183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1183" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="L1183" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="M1183" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85555,12 +85555,372 @@
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>1500</v>
+        <v>556</v>
       </c>
       <c r="Q1183" t="n">
         <v>18</v>
       </c>
       <c r="R1183" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1184" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1184" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1184" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1184" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N1184" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1184" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1184" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1184" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1185" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1185" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1185" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1185" t="n">
+        <v>105</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>43000</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>42476</v>
+      </c>
+      <c r="N1185" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1185" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1185" t="n">
+        <v>2832</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1185" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1186" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1186" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1186" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1186" t="n">
+        <v>55</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>37000</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>37000</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>37000</v>
+      </c>
+      <c r="N1186" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1186" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1186" t="n">
+        <v>2467</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1186" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1187" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1187" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1187" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1187" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>31000</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>30521</v>
+      </c>
+      <c r="N1187" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1187" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1187" t="n">
+        <v>1696</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1187" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1188" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1188" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1188" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1188" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1188" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>27000</v>
+      </c>
+      <c r="N1188" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1188" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1188" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1188" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1204"/>
+  <dimension ref="A1:R1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1127" t="n">
         <v>5</v>
@@ -81492,7 +81492,7 @@
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
@@ -81501,32 +81501,32 @@
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K1127" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L1127" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M1127" t="n">
-        <v>24529</v>
+        <v>25479</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>1635</v>
+        <v>1416</v>
       </c>
       <c r="Q1127" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1127" t="inlineStr">
         <is>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1128" t="n">
         <v>5</v>
@@ -81564,7 +81564,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -81573,16 +81573,16 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K1128" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L1128" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M1128" t="n">
-        <v>13487</v>
+        <v>23479</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81591,11 +81591,11 @@
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>749</v>
+        <v>1304</v>
       </c>
       <c r="Q1128" t="n">
         <v>18</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1129" t="n">
         <v>5</v>
@@ -81641,20 +81641,20 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K1129" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L1129" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M1129" t="n">
-        <v>10000</v>
+        <v>16521</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81663,11 +81663,11 @@
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>556</v>
+        <v>918</v>
       </c>
       <c r="Q1129" t="n">
         <v>18</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E1130" t="n">
         <v>5</v>
@@ -81708,25 +81708,25 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1130" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L1130" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M1130" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="Q1130" t="n">
         <v>18</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1131" t="n">
         <v>5</v>
@@ -81789,32 +81789,32 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K1131" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="L1131" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="M1131" t="n">
-        <v>19000</v>
+        <v>24529</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1131" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>1056</v>
+        <v>1635</v>
       </c>
       <c r="Q1131" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1131" t="inlineStr">
         <is>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1132" t="n">
         <v>5</v>
@@ -81852,25 +81852,25 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K1132" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L1132" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M1132" t="n">
-        <v>16000</v>
+        <v>13487</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81879,11 +81879,11 @@
       </c>
       <c r="O1132" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>889</v>
+        <v>749</v>
       </c>
       <c r="Q1132" t="n">
         <v>18</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1133" t="n">
         <v>5</v>
@@ -81929,20 +81929,20 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1133" t="n">
         <v>35</v>
       </c>
       <c r="K1133" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L1133" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M1133" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81951,11 +81951,11 @@
       </c>
       <c r="O1133" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q1133" t="n">
         <v>18</v>
@@ -81996,25 +81996,25 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1134" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="L1134" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M1134" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>611</v>
+        <v>1222</v>
       </c>
       <c r="Q1134" t="n">
         <v>18</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1135" t="n">
         <v>5</v>
@@ -82068,7 +82068,7 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
@@ -82077,32 +82077,32 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1135" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L1135" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M1135" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>750</v>
+        <v>1056</v>
       </c>
       <c r="Q1135" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1136" t="n">
         <v>5</v>
@@ -82140,7 +82140,7 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
@@ -82149,32 +82149,32 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K1136" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L1136" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M1136" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1136" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="Q1136" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1137" t="n">
         <v>5</v>
@@ -82212,7 +82212,7 @@
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
@@ -82221,32 +82221,32 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K1137" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L1137" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M1137" t="n">
-        <v>14781</v>
+        <v>14000</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>985</v>
+        <v>778</v>
       </c>
       <c r="Q1137" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1138" t="n">
         <v>5</v>
@@ -82284,7 +82284,7 @@
       </c>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1138" t="inlineStr">
@@ -82293,32 +82293,32 @@
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1138" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L1138" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M1138" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1138" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>800</v>
+        <v>611</v>
       </c>
       <c r="Q1138" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
@@ -82356,7 +82356,7 @@
       </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
@@ -82365,32 +82365,32 @@
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="K1139" t="n">
         <v>15000</v>
       </c>
       <c r="L1139" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M1139" t="n">
-        <v>15479</v>
+        <v>15000</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1139" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>1032</v>
+        <v>750</v>
       </c>
       <c r="Q1139" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1139" t="inlineStr">
         <is>
@@ -82428,7 +82428,7 @@
       </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1140" t="inlineStr">
@@ -82437,32 +82437,32 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K1140" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L1140" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M1140" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1140" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="Q1140" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1141" t="n">
         <v>5</v>
@@ -82509,16 +82509,16 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K1141" t="n">
-        <v>32000</v>
+        <v>14500</v>
       </c>
       <c r="L1141" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="M1141" t="n">
-        <v>32000</v>
+        <v>14781</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>2133</v>
+        <v>985</v>
       </c>
       <c r="Q1141" t="n">
         <v>15</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1142" t="n">
         <v>5</v>
@@ -82581,16 +82581,16 @@
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K1142" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="L1142" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="M1142" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>1867</v>
+        <v>800</v>
       </c>
       <c r="Q1142" t="n">
         <v>15</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1143" t="n">
         <v>5</v>
@@ -82653,32 +82653,32 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K1143" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L1143" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M1143" t="n">
-        <v>23000</v>
+        <v>15479</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1143" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>1278</v>
+        <v>1032</v>
       </c>
       <c r="Q1143" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1144" t="n">
         <v>5</v>
@@ -82728,29 +82728,29 @@
         <v>35</v>
       </c>
       <c r="K1144" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L1144" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M1144" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1144" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>1056</v>
+        <v>867</v>
       </c>
       <c r="Q1144" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1145" t="n">
         <v>5</v>
@@ -82797,16 +82797,16 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K1145" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L1145" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="M1145" t="n">
-        <v>25479</v>
+        <v>32000</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>1699</v>
+        <v>2133</v>
       </c>
       <c r="Q1145" t="n">
         <v>15</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1146" t="n">
         <v>5</v>
@@ -82860,41 +82860,41 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="K1146" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="L1146" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M1146" t="n">
-        <v>19521</v>
+        <v>28000</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1146" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>1084</v>
+        <v>1867</v>
       </c>
       <c r="Q1146" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44414</v>
+        <v>44162</v>
       </c>
       <c r="E1147" t="n">
         <v>5</v>
@@ -82932,7 +82932,7 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
@@ -82944,29 +82944,29 @@
         <v>35</v>
       </c>
       <c r="K1147" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L1147" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M1147" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1147" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>1600</v>
+        <v>1278</v>
       </c>
       <c r="Q1147" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1147" t="inlineStr">
         <is>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44414</v>
+        <v>44162</v>
       </c>
       <c r="E1148" t="n">
         <v>5</v>
@@ -83004,7 +83004,7 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
@@ -83013,32 +83013,32 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1148" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="L1148" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M1148" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1148" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>1333</v>
+        <v>1056</v>
       </c>
       <c r="Q1148" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1149" t="n">
         <v>5</v>
@@ -83076,7 +83076,7 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -83085,16 +83085,16 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K1149" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L1149" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M1149" t="n">
-        <v>18000</v>
+        <v>25479</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>1200</v>
+        <v>1699</v>
       </c>
       <c r="Q1149" t="n">
         <v>15</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1150" t="n">
         <v>5</v>
@@ -83153,36 +83153,36 @@
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K1150" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L1150" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M1150" t="n">
-        <v>14000</v>
+        <v>19521</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1150" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>933</v>
+        <v>1084</v>
       </c>
       <c r="Q1150" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1151" t="n">
         <v>5</v>
@@ -83225,36 +83225,36 @@
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1151" t="n">
         <v>35</v>
       </c>
       <c r="K1151" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L1151" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M1151" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1151" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>944</v>
+        <v>1600</v>
       </c>
       <c r="Q1151" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1151" t="inlineStr">
         <is>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1152" t="n">
         <v>5</v>
@@ -83297,36 +83297,36 @@
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1152" t="n">
         <v>38</v>
       </c>
       <c r="K1152" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L1152" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M1152" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1152" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>778</v>
+        <v>1333</v>
       </c>
       <c r="Q1152" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1152" t="inlineStr">
         <is>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1153" t="n">
         <v>5</v>
@@ -83364,41 +83364,41 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1153" t="n">
         <v>35</v>
       </c>
       <c r="K1153" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L1153" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M1153" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1153" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>611</v>
+        <v>1200</v>
       </c>
       <c r="Q1153" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1153" t="inlineStr">
         <is>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1154" t="n">
         <v>5</v>
@@ -83441,36 +83441,36 @@
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1154" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L1154" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M1154" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1154" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q1154" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
@@ -83508,25 +83508,25 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1155" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L1155" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M1155" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83539,7 +83539,7 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>611</v>
+        <v>944</v>
       </c>
       <c r="Q1155" t="n">
         <v>18</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1156" t="n">
         <v>5</v>
@@ -83585,20 +83585,20 @@
       </c>
       <c r="I1156" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1156" t="n">
         <v>38</v>
       </c>
       <c r="K1156" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L1156" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M1156" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83611,7 +83611,7 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>889</v>
+        <v>778</v>
       </c>
       <c r="Q1156" t="n">
         <v>18</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1157" t="n">
         <v>5</v>
@@ -83657,20 +83657,20 @@
       </c>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1157" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L1157" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M1157" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83683,7 +83683,7 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q1157" t="n">
         <v>18</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1158" t="n">
         <v>5</v>
@@ -83724,25 +83724,25 @@
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1158" t="n">
         <v>35</v>
       </c>
       <c r="K1158" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1158" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1158" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83755,7 +83755,7 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q1158" t="n">
         <v>18</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1159" t="n">
         <v>5</v>
@@ -83801,11 +83801,11 @@
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K1159" t="n">
         <v>11000</v>
@@ -83868,25 +83868,25 @@
       </c>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K1160" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L1160" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M1160" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83899,7 +83899,7 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>444</v>
+        <v>889</v>
       </c>
       <c r="Q1160" t="n">
         <v>18</v>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1161" t="n">
         <v>5</v>
@@ -83945,20 +83945,20 @@
       </c>
       <c r="I1161" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K1161" t="n">
-        <v>44000</v>
+        <v>13000</v>
       </c>
       <c r="L1161" t="n">
-        <v>44000</v>
+        <v>13000</v>
       </c>
       <c r="M1161" t="n">
-        <v>44000</v>
+        <v>13000</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>2444</v>
+        <v>722</v>
       </c>
       <c r="Q1161" t="n">
         <v>18</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1162" t="n">
         <v>5</v>
@@ -84017,20 +84017,20 @@
       </c>
       <c r="I1162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1162" t="n">
         <v>35</v>
       </c>
       <c r="K1162" t="n">
-        <v>39000</v>
+        <v>11000</v>
       </c>
       <c r="L1162" t="n">
-        <v>39000</v>
+        <v>11000</v>
       </c>
       <c r="M1162" t="n">
-        <v>39000</v>
+        <v>11000</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>2167</v>
+        <v>611</v>
       </c>
       <c r="Q1162" t="n">
         <v>18</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1163" t="n">
         <v>5</v>
@@ -84089,20 +84089,20 @@
       </c>
       <c r="I1163" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K1163" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="L1163" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="M1163" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>1278</v>
+        <v>611</v>
       </c>
       <c r="Q1163" t="n">
         <v>18</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1164" t="n">
         <v>5</v>
@@ -84161,20 +84161,20 @@
       </c>
       <c r="I1164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K1164" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L1164" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M1164" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>1056</v>
+        <v>444</v>
       </c>
       <c r="Q1164" t="n">
         <v>18</v>
@@ -84228,25 +84228,25 @@
       </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K1165" t="n">
-        <v>17000</v>
+        <v>44000</v>
       </c>
       <c r="L1165" t="n">
-        <v>17000</v>
+        <v>44000</v>
       </c>
       <c r="M1165" t="n">
-        <v>17000</v>
+        <v>44000</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
@@ -84259,7 +84259,7 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>944</v>
+        <v>2444</v>
       </c>
       <c r="Q1165" t="n">
         <v>18</v>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1166" t="n">
         <v>5</v>
@@ -84305,20 +84305,20 @@
       </c>
       <c r="I1166" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1166" t="n">
-        <v>15000</v>
+        <v>39000</v>
       </c>
       <c r="L1166" t="n">
-        <v>15000</v>
+        <v>39000</v>
       </c>
       <c r="M1166" t="n">
-        <v>15000</v>
+        <v>39000</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84331,7 +84331,7 @@
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>833</v>
+        <v>2167</v>
       </c>
       <c r="Q1166" t="n">
         <v>18</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1167" t="n">
         <v>5</v>
@@ -84372,25 +84372,25 @@
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1167" t="n">
         <v>35</v>
       </c>
       <c r="K1167" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L1167" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="M1167" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84403,7 +84403,7 @@
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>667</v>
+        <v>1278</v>
       </c>
       <c r="Q1167" t="n">
         <v>18</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1168" t="n">
         <v>5</v>
@@ -84444,25 +84444,25 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1168" t="n">
         <v>38</v>
       </c>
       <c r="K1168" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L1168" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="M1168" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84475,7 +84475,7 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>500</v>
+        <v>1056</v>
       </c>
       <c r="Q1168" t="n">
         <v>18</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1169" t="n">
         <v>5</v>
@@ -84521,20 +84521,20 @@
       </c>
       <c r="I1169" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1169" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L1169" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M1169" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
@@ -84547,7 +84547,7 @@
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="Q1169" t="n">
         <v>18</v>
@@ -84588,25 +84588,25 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1170" t="n">
         <v>38</v>
       </c>
       <c r="K1170" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1170" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1170" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
@@ -84619,7 +84619,7 @@
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q1170" t="n">
         <v>18</v>
@@ -84660,25 +84660,25 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1171" t="n">
         <v>35</v>
       </c>
       <c r="K1171" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L1171" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M1171" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
@@ -84691,7 +84691,7 @@
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q1171" t="n">
         <v>18</v>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1172" t="n">
         <v>5</v>
@@ -84737,36 +84737,36 @@
       </c>
       <c r="I1172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="K1172" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="L1172" t="n">
-        <v>33000</v>
+        <v>9000</v>
       </c>
       <c r="M1172" t="n">
-        <v>32485</v>
+        <v>9000</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1172" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>2166</v>
+        <v>500</v>
       </c>
       <c r="Q1172" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1173" t="n">
         <v>5</v>
@@ -84809,36 +84809,36 @@
       </c>
       <c r="I1173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1173" t="n">
         <v>38</v>
       </c>
       <c r="K1173" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="L1173" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="M1173" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1173" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>1733</v>
+        <v>667</v>
       </c>
       <c r="Q1173" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1173" t="inlineStr">
         <is>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44321</v>
+        <v>44299</v>
       </c>
       <c r="E1174" t="n">
         <v>5</v>
@@ -84876,25 +84876,25 @@
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1174" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1174" t="n">
         <v>38</v>
       </c>
       <c r="K1174" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L1174" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M1174" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
@@ -84907,7 +84907,7 @@
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="Q1174" t="n">
         <v>18</v>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44321</v>
+        <v>44299</v>
       </c>
       <c r="E1175" t="n">
         <v>5</v>
@@ -84948,25 +84948,25 @@
       </c>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1175" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L1175" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M1175" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
@@ -84979,7 +84979,7 @@
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="Q1175" t="n">
         <v>18</v>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1176" t="n">
         <v>5</v>
@@ -85025,36 +85025,36 @@
       </c>
       <c r="I1176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="K1176" t="n">
-        <v>11000</v>
+        <v>32000</v>
       </c>
       <c r="L1176" t="n">
-        <v>11000</v>
+        <v>33000</v>
       </c>
       <c r="M1176" t="n">
-        <v>11000</v>
+        <v>32485</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1176" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>611</v>
+        <v>2166</v>
       </c>
       <c r="Q1176" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1176" t="inlineStr">
         <is>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1177" t="n">
         <v>5</v>
@@ -85097,36 +85097,36 @@
       </c>
       <c r="I1177" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1177" t="n">
         <v>38</v>
       </c>
       <c r="K1177" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="L1177" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="M1177" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1177" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>778</v>
+        <v>1733</v>
       </c>
       <c r="Q1177" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1177" t="inlineStr">
         <is>
@@ -85164,25 +85164,25 @@
       </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1178" t="n">
         <v>38</v>
       </c>
       <c r="K1178" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L1178" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M1178" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
@@ -85195,7 +85195,7 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="Q1178" t="n">
         <v>18</v>
@@ -85236,25 +85236,25 @@
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1179" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L1179" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M1179" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
@@ -85267,7 +85267,7 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q1179" t="n">
         <v>18</v>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1180" t="n">
         <v>5</v>
@@ -85313,20 +85313,20 @@
       </c>
       <c r="I1180" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1180" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L1180" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M1180" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="Q1180" t="n">
         <v>18</v>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1181" t="n">
         <v>5</v>
@@ -85380,25 +85380,25 @@
       </c>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1181" t="n">
         <v>38</v>
       </c>
       <c r="K1181" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L1181" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M1181" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
@@ -85411,7 +85411,7 @@
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q1181" t="n">
         <v>18</v>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1182" t="n">
         <v>5</v>
@@ -85452,25 +85452,25 @@
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1182" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1182" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1182" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
@@ -85483,7 +85483,7 @@
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q1182" t="n">
         <v>18</v>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1183" t="n">
         <v>5</v>
@@ -85529,20 +85529,20 @@
       </c>
       <c r="I1183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1183" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L1183" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M1183" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85555,7 +85555,7 @@
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q1183" t="n">
         <v>18</v>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1184" t="n">
         <v>5</v>
@@ -85605,16 +85605,16 @@
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="K1184" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="L1184" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="M1184" t="n">
-        <v>40500</v>
+        <v>15000</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
@@ -85627,7 +85627,7 @@
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>2250</v>
+        <v>833</v>
       </c>
       <c r="Q1184" t="n">
         <v>18</v>
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1185" t="n">
         <v>5</v>
@@ -85680,13 +85680,13 @@
         <v>38</v>
       </c>
       <c r="K1185" t="n">
-        <v>37000</v>
+        <v>13000</v>
       </c>
       <c r="L1185" t="n">
-        <v>37000</v>
+        <v>13000</v>
       </c>
       <c r="M1185" t="n">
-        <v>37000</v>
+        <v>13000</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85699,7 +85699,7 @@
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>2056</v>
+        <v>722</v>
       </c>
       <c r="Q1185" t="n">
         <v>18</v>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1186" t="n">
         <v>5</v>
@@ -85752,13 +85752,13 @@
         <v>35</v>
       </c>
       <c r="K1186" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="L1186" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="M1186" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
@@ -85771,7 +85771,7 @@
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>1889</v>
+        <v>556</v>
       </c>
       <c r="Q1186" t="n">
         <v>18</v>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1187" t="n">
         <v>5</v>
@@ -85817,20 +85817,20 @@
       </c>
       <c r="I1187" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1187" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="L1187" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="M1187" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
@@ -85843,7 +85843,7 @@
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>1167</v>
+        <v>611</v>
       </c>
       <c r="Q1187" t="n">
         <v>18</v>
@@ -85884,25 +85884,25 @@
       </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K1188" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="L1188" t="n">
-        <v>19000</v>
+        <v>41000</v>
       </c>
       <c r="M1188" t="n">
-        <v>19000</v>
+        <v>40500</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
@@ -85915,7 +85915,7 @@
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>1056</v>
+        <v>2250</v>
       </c>
       <c r="Q1188" t="n">
         <v>18</v>
@@ -85956,25 +85956,25 @@
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1189" t="n">
-        <v>17000</v>
+        <v>37000</v>
       </c>
       <c r="L1189" t="n">
-        <v>17000</v>
+        <v>37000</v>
       </c>
       <c r="M1189" t="n">
-        <v>17000</v>
+        <v>37000</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
@@ -85987,7 +85987,7 @@
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>944</v>
+        <v>2056</v>
       </c>
       <c r="Q1189" t="n">
         <v>18</v>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1190" t="n">
         <v>5</v>
@@ -86028,25 +86028,25 @@
       </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1190" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1190" t="n">
         <v>35</v>
       </c>
       <c r="K1190" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="L1190" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="M1190" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
@@ -86059,7 +86059,7 @@
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>1444</v>
+        <v>1889</v>
       </c>
       <c r="Q1190" t="n">
         <v>18</v>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1191" t="n">
         <v>5</v>
@@ -86100,7 +86100,7 @@
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
@@ -86112,13 +86112,13 @@
         <v>35</v>
       </c>
       <c r="K1191" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L1191" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M1191" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
@@ -86131,7 +86131,7 @@
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>1111</v>
+        <v>1167</v>
       </c>
       <c r="Q1191" t="n">
         <v>18</v>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1192" t="n">
         <v>5</v>
@@ -86172,7 +86172,7 @@
       </c>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1192" t="inlineStr">
@@ -86184,13 +86184,13 @@
         <v>38</v>
       </c>
       <c r="K1192" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L1192" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M1192" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86203,7 +86203,7 @@
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>889</v>
+        <v>1056</v>
       </c>
       <c r="Q1192" t="n">
         <v>18</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1193" t="n">
         <v>5</v>
@@ -86244,7 +86244,7 @@
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1193" t="inlineStr">
@@ -86256,13 +86256,13 @@
         <v>35</v>
       </c>
       <c r="K1193" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L1193" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M1193" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86275,7 +86275,7 @@
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="Q1193" t="n">
         <v>18</v>
@@ -86316,25 +86316,25 @@
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1194" t="n">
         <v>35</v>
       </c>
       <c r="K1194" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="L1194" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="M1194" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>667</v>
+        <v>1444</v>
       </c>
       <c r="Q1194" t="n">
         <v>18</v>
@@ -86388,25 +86388,25 @@
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1195" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L1195" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M1195" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86419,7 +86419,7 @@
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>444</v>
+        <v>1111</v>
       </c>
       <c r="Q1195" t="n">
         <v>18</v>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1196" t="n">
         <v>5</v>
@@ -86469,32 +86469,32 @@
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="K1196" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L1196" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="M1196" t="n">
-        <v>23462</v>
+        <v>16000</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1196" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>1564</v>
+        <v>889</v>
       </c>
       <c r="Q1196" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1196" t="inlineStr">
         <is>
@@ -86517,7 +86517,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1197" t="n">
         <v>5</v>
@@ -86532,25 +86532,25 @@
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="K1197" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L1197" t="n">
         <v>13000</v>
       </c>
       <c r="M1197" t="n">
-        <v>12466</v>
+        <v>13000</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
@@ -86563,7 +86563,7 @@
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>693</v>
+        <v>722</v>
       </c>
       <c r="Q1197" t="n">
         <v>18</v>
@@ -86589,7 +86589,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1198" t="n">
         <v>5</v>
@@ -86609,20 +86609,20 @@
       </c>
       <c r="I1198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1198" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L1198" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M1198" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
@@ -86635,7 +86635,7 @@
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q1198" t="n">
         <v>18</v>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44392</v>
+        <v>44274</v>
       </c>
       <c r="E1199" t="n">
         <v>5</v>
@@ -86676,41 +86676,41 @@
       </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K1199" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L1199" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M1199" t="n">
-        <v>20521</v>
+        <v>8000</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1199" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>1026</v>
+        <v>444</v>
       </c>
       <c r="Q1199" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1199" t="inlineStr">
         <is>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1200" t="n">
         <v>5</v>
@@ -86753,20 +86753,20 @@
       </c>
       <c r="I1200" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="K1200" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L1200" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M1200" t="n">
-        <v>18000</v>
+        <v>23462</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
@@ -86779,7 +86779,7 @@
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>1200</v>
+        <v>1564</v>
       </c>
       <c r="Q1200" t="n">
         <v>15</v>
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1201" t="n">
         <v>5</v>
@@ -86820,7 +86820,7 @@
       </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1201" t="inlineStr">
@@ -86829,32 +86829,32 @@
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="K1201" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L1201" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M1201" t="n">
-        <v>16000</v>
+        <v>12466</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1201" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>1067</v>
+        <v>693</v>
       </c>
       <c r="Q1201" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1201" t="inlineStr">
         <is>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1202" t="n">
         <v>5</v>
@@ -86892,7 +86892,7 @@
       </c>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1202" t="inlineStr">
@@ -86904,29 +86904,29 @@
         <v>38</v>
       </c>
       <c r="K1202" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L1202" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M1202" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1202" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>867</v>
+        <v>500</v>
       </c>
       <c r="Q1202" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
@@ -86964,7 +86964,7 @@
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1203" t="inlineStr">
@@ -86973,32 +86973,32 @@
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K1203" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L1203" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M1203" t="n">
-        <v>16000</v>
+        <v>20521</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1203" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>1067</v>
+        <v>1026</v>
       </c>
       <c r="Q1203" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1203" t="inlineStr">
         <is>
@@ -87036,25 +87036,25 @@
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1204" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L1204" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M1204" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
@@ -87067,12 +87067,300 @@
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q1204" t="n">
         <v>15</v>
       </c>
       <c r="R1204" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1205" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1205" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1205" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1205" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>16000</v>
+      </c>
+      <c r="N1205" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1205" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1205" t="n">
+        <v>1067</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1205" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1206" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1206" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1206" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1206" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N1206" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1206" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1206" t="n">
+        <v>867</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1206" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1207" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1207" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1207" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>16000</v>
+      </c>
+      <c r="N1207" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1207" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1207" t="n">
+        <v>1067</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1207" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1208" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1208" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1208" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N1208" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1208" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1208" t="n">
+        <v>867</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1208" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1233"/>
+  <dimension ref="A1:R1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1220" t="n">
         <v>5</v>
@@ -88188,41 +88188,41 @@
       </c>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1220" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1220" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="L1220" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M1220" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1220" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>2133</v>
+        <v>1111</v>
       </c>
       <c r="Q1220" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1220" t="inlineStr">
         <is>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1221" t="n">
         <v>5</v>
@@ -88265,36 +88265,36 @@
       </c>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K1221" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L1221" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M1221" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1221" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>1667</v>
+        <v>944</v>
       </c>
       <c r="Q1221" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1221" t="inlineStr">
         <is>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1222" t="n">
         <v>5</v>
@@ -88332,7 +88332,7 @@
       </c>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1222" t="inlineStr">
@@ -88341,32 +88341,32 @@
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K1222" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L1222" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M1222" t="n">
-        <v>21000</v>
+        <v>14500</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1222" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>1400</v>
+        <v>806</v>
       </c>
       <c r="Q1222" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1222" t="inlineStr">
         <is>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1223" t="n">
         <v>5</v>
@@ -88409,36 +88409,36 @@
       </c>
       <c r="I1223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K1223" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L1223" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M1223" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1223" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>1133</v>
+        <v>611</v>
       </c>
       <c r="Q1223" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1223" t="inlineStr">
         <is>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1224" t="n">
         <v>5</v>
@@ -88476,25 +88476,25 @@
       </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K1224" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L1224" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="M1224" t="n">
-        <v>23479</v>
+        <v>32000</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
@@ -88507,7 +88507,7 @@
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>1565</v>
+        <v>2133</v>
       </c>
       <c r="Q1224" t="n">
         <v>15</v>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1225" t="n">
         <v>5</v>
@@ -88553,20 +88553,20 @@
       </c>
       <c r="I1225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K1225" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L1225" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M1225" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
@@ -88579,7 +88579,7 @@
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="Q1225" t="n">
         <v>15</v>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1226" t="n">
         <v>5</v>
@@ -88620,7 +88620,7 @@
       </c>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1226" t="inlineStr">
@@ -88629,32 +88629,32 @@
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="K1226" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="L1226" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M1226" t="n">
-        <v>11516</v>
+        <v>21000</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1226" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>640</v>
+        <v>1400</v>
       </c>
       <c r="Q1226" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1226" t="inlineStr">
         <is>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1227" t="n">
         <v>5</v>
@@ -88697,36 +88697,36 @@
       </c>
       <c r="I1227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K1227" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L1227" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M1227" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1227" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>444</v>
+        <v>1133</v>
       </c>
       <c r="Q1227" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1227" t="inlineStr">
         <is>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1228" t="n">
         <v>5</v>
@@ -88776,13 +88776,13 @@
         <v>73</v>
       </c>
       <c r="K1228" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L1228" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M1228" t="n">
-        <v>22479</v>
+        <v>23479</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
@@ -88795,7 +88795,7 @@
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>1499</v>
+        <v>1565</v>
       </c>
       <c r="Q1228" t="n">
         <v>15</v>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1229" t="n">
         <v>5</v>
@@ -88836,41 +88836,41 @@
       </c>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K1229" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L1229" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M1229" t="n">
-        <v>13479</v>
+        <v>20000</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1229" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>749</v>
+        <v>1333</v>
       </c>
       <c r="Q1229" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1229" t="inlineStr">
         <is>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E1230" t="n">
         <v>5</v>
@@ -88908,7 +88908,7 @@
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1230" t="inlineStr">
@@ -88917,32 +88917,32 @@
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="K1230" t="n">
-        <v>34000</v>
+        <v>11000</v>
       </c>
       <c r="L1230" t="n">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="M1230" t="n">
-        <v>34000</v>
+        <v>11516</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1230" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>2267</v>
+        <v>640</v>
       </c>
       <c r="Q1230" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1230" t="inlineStr">
         <is>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E1231" t="n">
         <v>5</v>
@@ -88980,7 +88980,7 @@
       </c>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
@@ -88989,32 +88989,32 @@
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="K1231" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="L1231" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="M1231" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1231" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>2000</v>
+        <v>444</v>
       </c>
       <c r="Q1231" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1231" t="inlineStr">
         <is>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1232" t="n">
         <v>5</v>
@@ -89052,7 +89052,7 @@
       </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1232" t="inlineStr">
@@ -89061,16 +89061,16 @@
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K1232" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L1232" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M1232" t="n">
-        <v>27000</v>
+        <v>22479</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
@@ -89083,7 +89083,7 @@
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>1800</v>
+        <v>1499</v>
       </c>
       <c r="Q1232" t="n">
         <v>15</v>
@@ -89109,58 +89109,346 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1233" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1233" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1233" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>13479</v>
+      </c>
+      <c r="N1233" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1233" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1233" t="n">
+        <v>749</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1233" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1234" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1233" t="n">
-        <v>5</v>
-      </c>
-      <c r="F1233" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H1233" t="inlineStr">
+      <c r="E1234" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1234" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1234" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1234" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>34000</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>34000</v>
+      </c>
+      <c r="N1234" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1234" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1234" t="n">
+        <v>2267</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1234" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1235" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1235" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1235" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1235" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N1235" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1235" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1235" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1235" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1236" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1236" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1236" t="inlineStr">
         <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I1233" t="inlineStr">
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1236" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>27000</v>
+      </c>
+      <c r="N1236" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1236" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1236" t="n">
+        <v>1800</v>
+      </c>
+      <c r="Q1236" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1236" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1237" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1237" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1237" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1237" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1233" t="n">
+      <c r="J1237" t="n">
         <v>35</v>
       </c>
-      <c r="K1233" t="n">
+      <c r="K1237" t="n">
         <v>23000</v>
       </c>
-      <c r="L1233" t="n">
+      <c r="L1237" t="n">
         <v>23000</v>
       </c>
-      <c r="M1233" t="n">
+      <c r="M1237" t="n">
         <v>23000</v>
       </c>
-      <c r="N1233" t="inlineStr">
+      <c r="N1237" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O1233" t="inlineStr">
+      <c r="O1237" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1233" t="n">
+      <c r="P1237" t="n">
         <v>1533</v>
       </c>
-      <c r="Q1233" t="n">
+      <c r="Q1237" t="n">
         <v>15</v>
       </c>
-      <c r="R1233" t="inlineStr">
+      <c r="R1237" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1280"/>
+  <dimension ref="A1:R1286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1203" t="n">
         <v>5</v>
@@ -86969,20 +86969,20 @@
       </c>
       <c r="I1203" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1203" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L1203" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M1203" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
@@ -86995,7 +86995,7 @@
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="Q1203" t="n">
         <v>18</v>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1204" t="n">
         <v>5</v>
@@ -87041,20 +87041,20 @@
       </c>
       <c r="I1204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1204" t="n">
         <v>38</v>
       </c>
       <c r="K1204" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L1204" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1204" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
@@ -87067,7 +87067,7 @@
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="Q1204" t="n">
         <v>18</v>
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1205" t="n">
         <v>5</v>
@@ -87113,20 +87113,20 @@
       </c>
       <c r="I1205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1205" t="n">
         <v>35</v>
       </c>
       <c r="K1205" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1205" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1205" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
@@ -87139,7 +87139,7 @@
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q1205" t="n">
         <v>18</v>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1206" t="n">
         <v>5</v>
@@ -87185,20 +87185,20 @@
       </c>
       <c r="I1206" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1206" t="n">
         <v>38</v>
       </c>
       <c r="K1206" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L1206" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1206" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
@@ -87211,7 +87211,7 @@
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q1206" t="n">
         <v>18</v>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1207" t="n">
         <v>5</v>
@@ -87257,11 +87257,11 @@
       </c>
       <c r="I1207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1207" t="n">
         <v>10000</v>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1208" t="n">
         <v>5</v>
@@ -87329,7 +87329,7 @@
       </c>
       <c r="I1208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1208" t="n">
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1209" t="n">
         <v>5</v>
@@ -87396,41 +87396,41 @@
       </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K1209" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L1209" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M1209" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1209" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>2333</v>
+        <v>833</v>
       </c>
       <c r="Q1209" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1209" t="inlineStr">
         <is>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1210" t="n">
         <v>5</v>
@@ -87480,29 +87480,29 @@
         <v>38</v>
       </c>
       <c r="K1210" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L1210" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M1210" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1210" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q1210" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1210" t="inlineStr">
         <is>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1211" t="n">
         <v>5</v>
@@ -87549,32 +87549,32 @@
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1211" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L1211" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M1211" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1211" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="Q1211" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1211" t="inlineStr">
         <is>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1212" t="n">
         <v>5</v>
@@ -87617,36 +87617,36 @@
       </c>
       <c r="I1212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1212" t="n">
         <v>38</v>
       </c>
       <c r="K1212" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L1212" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M1212" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1212" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>1133</v>
+        <v>667</v>
       </c>
       <c r="Q1212" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1212" t="inlineStr">
         <is>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1213" t="n">
         <v>5</v>
@@ -87689,36 +87689,36 @@
       </c>
       <c r="I1213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1213" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L1213" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M1213" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1213" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>933</v>
+        <v>556</v>
       </c>
       <c r="Q1213" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1213" t="inlineStr">
         <is>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44522</v>
+        <v>44312</v>
       </c>
       <c r="E1214" t="n">
         <v>5</v>
@@ -87756,41 +87756,41 @@
       </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K1214" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="L1214" t="n">
-        <v>31000</v>
+        <v>8000</v>
       </c>
       <c r="M1214" t="n">
-        <v>30507</v>
+        <v>8000</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1214" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>2034</v>
+        <v>444</v>
       </c>
       <c r="Q1214" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1214" t="inlineStr">
         <is>
@@ -87813,7 +87813,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1215" t="n">
         <v>5</v>
@@ -87828,25 +87828,25 @@
       </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1215" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K1215" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L1215" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M1215" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
@@ -87859,7 +87859,7 @@
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>1867</v>
+        <v>2333</v>
       </c>
       <c r="Q1215" t="n">
         <v>15</v>
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1216" t="n">
         <v>5</v>
@@ -87900,7 +87900,7 @@
       </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1216" t="inlineStr">
@@ -87909,32 +87909,32 @@
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K1216" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L1216" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M1216" t="n">
-        <v>22479</v>
+        <v>18000</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1216" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>1249</v>
+        <v>1200</v>
       </c>
       <c r="Q1216" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1216" t="inlineStr">
         <is>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44543</v>
+        <v>44399</v>
       </c>
       <c r="E1217" t="n">
         <v>5</v>
@@ -87977,20 +87977,20 @@
       </c>
       <c r="I1217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="K1217" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="L1217" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="M1217" t="n">
-        <v>26462</v>
+        <v>15000</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
@@ -88003,7 +88003,7 @@
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>1764</v>
+        <v>1000</v>
       </c>
       <c r="Q1217" t="n">
         <v>15</v>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44543</v>
+        <v>44399</v>
       </c>
       <c r="E1218" t="n">
         <v>5</v>
@@ -88044,25 +88044,25 @@
       </c>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1218" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L1218" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M1218" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
@@ -88075,7 +88075,7 @@
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>1333</v>
+        <v>1133</v>
       </c>
       <c r="Q1218" t="n">
         <v>15</v>
@@ -88101,7 +88101,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44543</v>
+        <v>44399</v>
       </c>
       <c r="E1219" t="n">
         <v>5</v>
@@ -88121,36 +88121,36 @@
       </c>
       <c r="I1219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K1219" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1219" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M1219" t="n">
-        <v>12521</v>
+        <v>14000</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1219" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>696</v>
+        <v>933</v>
       </c>
       <c r="Q1219" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1219" t="inlineStr">
         <is>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44543</v>
+        <v>44522</v>
       </c>
       <c r="E1220" t="n">
         <v>5</v>
@@ -88188,41 +88188,41 @@
       </c>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="K1220" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L1220" t="n">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="M1220" t="n">
-        <v>10000</v>
+        <v>30507</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1220" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>556</v>
+        <v>2034</v>
       </c>
       <c r="Q1220" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1220" t="inlineStr">
         <is>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E1221" t="n">
         <v>5</v>
@@ -88265,36 +88265,36 @@
       </c>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1221" t="n">
         <v>35</v>
       </c>
       <c r="K1221" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L1221" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="M1221" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1221" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>1833</v>
+        <v>1867</v>
       </c>
       <c r="Q1221" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1221" t="inlineStr">
         <is>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E1222" t="n">
         <v>5</v>
@@ -88332,25 +88332,25 @@
       </c>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K1222" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L1222" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M1222" t="n">
-        <v>28000</v>
+        <v>22479</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88363,7 +88363,7 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>1556</v>
+        <v>1249</v>
       </c>
       <c r="Q1222" t="n">
         <v>18</v>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E1223" t="n">
         <v>5</v>
@@ -88404,41 +88404,41 @@
       </c>
       <c r="H1223" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K1223" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="L1223" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M1223" t="n">
-        <v>19000</v>
+        <v>26462</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1223" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>1056</v>
+        <v>1764</v>
       </c>
       <c r="Q1223" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1223" t="inlineStr">
         <is>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44277</v>
+        <v>44543</v>
       </c>
       <c r="E1224" t="n">
         <v>5</v>
@@ -88476,41 +88476,41 @@
       </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K1224" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L1224" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M1224" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1224" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>550</v>
+        <v>1333</v>
       </c>
       <c r="Q1224" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1224" t="inlineStr">
         <is>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44277</v>
+        <v>44543</v>
       </c>
       <c r="E1225" t="n">
         <v>5</v>
@@ -88548,41 +88548,41 @@
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K1225" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L1225" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M1225" t="n">
-        <v>8000</v>
+        <v>12521</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1225" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>400</v>
+        <v>696</v>
       </c>
       <c r="Q1225" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1225" t="inlineStr">
         <is>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44277</v>
+        <v>44543</v>
       </c>
       <c r="E1226" t="n">
         <v>5</v>
@@ -88620,25 +88620,25 @@
       </c>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1226" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1226" t="n">
         <v>35</v>
       </c>
       <c r="K1226" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="L1226" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="M1226" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
@@ -88647,11 +88647,11 @@
       </c>
       <c r="O1226" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>1167</v>
+        <v>556</v>
       </c>
       <c r="Q1226" t="n">
         <v>18</v>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1227" t="n">
         <v>5</v>
@@ -88701,16 +88701,16 @@
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1227" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L1227" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="M1227" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
@@ -88723,7 +88723,7 @@
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>1000</v>
+        <v>1833</v>
       </c>
       <c r="Q1227" t="n">
         <v>18</v>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1228" t="n">
         <v>5</v>
@@ -88773,16 +88773,16 @@
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K1228" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="L1228" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="M1228" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
@@ -88795,7 +88795,7 @@
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>778</v>
+        <v>1556</v>
       </c>
       <c r="Q1228" t="n">
         <v>18</v>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1229" t="n">
         <v>5</v>
@@ -88841,20 +88841,20 @@
       </c>
       <c r="I1229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K1229" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L1229" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M1229" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
@@ -88867,7 +88867,7 @@
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="Q1229" t="n">
         <v>18</v>
@@ -88908,41 +88908,41 @@
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K1230" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1230" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1230" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1230" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>444</v>
+        <v>550</v>
       </c>
       <c r="Q1230" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1230" t="inlineStr">
         <is>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1231" t="n">
         <v>5</v>
@@ -88980,41 +88980,41 @@
       </c>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1231" t="n">
         <v>35</v>
       </c>
       <c r="K1231" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="L1231" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="M1231" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1231" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>1278</v>
+        <v>400</v>
       </c>
       <c r="Q1231" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1231" t="inlineStr">
         <is>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1232" t="n">
         <v>5</v>
@@ -89057,20 +89057,20 @@
       </c>
       <c r="I1232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1232" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L1232" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M1232" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
@@ -89083,7 +89083,7 @@
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>1056</v>
+        <v>1167</v>
       </c>
       <c r="Q1232" t="n">
         <v>18</v>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1233" t="n">
         <v>5</v>
@@ -89129,20 +89129,20 @@
       </c>
       <c r="I1233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1233" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L1233" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M1233" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
@@ -89155,7 +89155,7 @@
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="Q1233" t="n">
         <v>18</v>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1234" t="n">
         <v>5</v>
@@ -89196,25 +89196,25 @@
       </c>
       <c r="H1234" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1234" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1234" t="n">
         <v>35</v>
       </c>
       <c r="K1234" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L1234" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M1234" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
@@ -89227,7 +89227,7 @@
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="Q1234" t="n">
         <v>18</v>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1235" t="n">
         <v>5</v>
@@ -89280,13 +89280,13 @@
         <v>38</v>
       </c>
       <c r="K1235" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L1235" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M1235" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
@@ -89299,7 +89299,7 @@
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="Q1235" t="n">
         <v>18</v>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1236" t="n">
         <v>5</v>
@@ -89352,13 +89352,13 @@
         <v>35</v>
       </c>
       <c r="K1236" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L1236" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M1236" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89371,7 +89371,7 @@
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q1236" t="n">
         <v>18</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1237" t="n">
         <v>5</v>
@@ -89421,32 +89421,32 @@
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K1237" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L1237" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M1237" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1237" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>1133</v>
+        <v>1278</v>
       </c>
       <c r="Q1237" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1237" t="inlineStr">
         <is>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1238" t="n">
         <v>5</v>
@@ -89493,32 +89493,32 @@
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1238" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L1238" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M1238" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1238" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>1000</v>
+        <v>1056</v>
       </c>
       <c r="Q1238" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1238" t="inlineStr">
         <is>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1239" t="n">
         <v>5</v>
@@ -89565,32 +89565,32 @@
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1239" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L1239" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M1239" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1239" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="Q1239" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1239" t="inlineStr">
         <is>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1240" t="n">
         <v>5</v>
@@ -89633,36 +89633,36 @@
       </c>
       <c r="I1240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K1240" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L1240" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M1240" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1240" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1240" t="n">
         <v>1000</v>
       </c>
       <c r="Q1240" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1240" t="inlineStr">
         <is>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1241" t="n">
         <v>5</v>
@@ -89705,36 +89705,36 @@
       </c>
       <c r="I1241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1241" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1241" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M1241" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1241" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q1241" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1241" t="inlineStr">
         <is>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E1242" t="n">
         <v>5</v>
@@ -89772,41 +89772,41 @@
       </c>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1242" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1242" t="n">
         <v>35</v>
       </c>
       <c r="K1242" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="L1242" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="M1242" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1242" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>2133</v>
+        <v>667</v>
       </c>
       <c r="Q1242" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1242" t="inlineStr">
         <is>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1243" t="n">
         <v>5</v>
@@ -89849,20 +89849,20 @@
       </c>
       <c r="I1243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K1243" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="L1243" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="M1243" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89871,11 +89871,11 @@
       </c>
       <c r="O1243" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>1800</v>
+        <v>1133</v>
       </c>
       <c r="Q1243" t="n">
         <v>15</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1244" t="n">
         <v>5</v>
@@ -89921,20 +89921,20 @@
       </c>
       <c r="I1244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K1244" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L1244" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M1244" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89943,11 +89943,11 @@
       </c>
       <c r="O1244" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>1533</v>
+        <v>1000</v>
       </c>
       <c r="Q1244" t="n">
         <v>15</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1245" t="n">
         <v>5</v>
@@ -89988,25 +89988,25 @@
       </c>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1245" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L1245" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M1245" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90015,11 +90015,11 @@
       </c>
       <c r="O1245" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>1067</v>
+        <v>800</v>
       </c>
       <c r="Q1245" t="n">
         <v>15</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1246" t="n">
         <v>5</v>
@@ -90065,20 +90065,20 @@
       </c>
       <c r="I1246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K1246" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1246" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1246" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90087,11 +90087,11 @@
       </c>
       <c r="O1246" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q1246" t="n">
         <v>15</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44285</v>
+        <v>44390</v>
       </c>
       <c r="E1247" t="n">
         <v>5</v>
@@ -90132,41 +90132,41 @@
       </c>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1247" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K1247" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L1247" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M1247" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1247" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="Q1247" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1247" t="inlineStr">
         <is>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1248" t="n">
         <v>5</v>
@@ -90204,41 +90204,41 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K1248" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="L1248" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="M1248" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1248" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>667</v>
+        <v>2133</v>
       </c>
       <c r="Q1248" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1248" t="inlineStr">
         <is>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1249" t="n">
         <v>5</v>
@@ -90281,36 +90281,36 @@
       </c>
       <c r="I1249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K1249" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="L1249" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="M1249" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1249" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>556</v>
+        <v>1800</v>
       </c>
       <c r="Q1249" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1249" t="inlineStr">
         <is>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1250" t="n">
         <v>5</v>
@@ -90348,41 +90348,41 @@
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K1250" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="L1250" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="M1250" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1250" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>556</v>
+        <v>1533</v>
       </c>
       <c r="Q1250" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1250" t="inlineStr">
         <is>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1251" t="n">
         <v>5</v>
@@ -90425,36 +90425,36 @@
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K1251" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L1251" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M1251" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1251" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>444</v>
+        <v>1067</v>
       </c>
       <c r="Q1251" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1251" t="inlineStr">
         <is>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44498</v>
+        <v>44349</v>
       </c>
       <c r="E1252" t="n">
         <v>5</v>
@@ -90492,25 +90492,25 @@
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1252" t="n">
-        <v>41000</v>
+        <v>12000</v>
       </c>
       <c r="L1252" t="n">
-        <v>41000</v>
+        <v>12000</v>
       </c>
       <c r="M1252" t="n">
-        <v>41000</v>
+        <v>12000</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90523,7 +90523,7 @@
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>2733</v>
+        <v>800</v>
       </c>
       <c r="Q1252" t="n">
         <v>15</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44498</v>
+        <v>44285</v>
       </c>
       <c r="E1253" t="n">
         <v>5</v>
@@ -90569,36 +90569,36 @@
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1253" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
       <c r="L1253" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
       <c r="M1253" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1253" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>2533</v>
+        <v>833</v>
       </c>
       <c r="Q1253" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1253" t="inlineStr">
         <is>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44498</v>
+        <v>44285</v>
       </c>
       <c r="E1254" t="n">
         <v>5</v>
@@ -90636,7 +90636,7 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
@@ -90645,32 +90645,32 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="K1254" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="L1254" t="n">
-        <v>29000</v>
+        <v>12000</v>
       </c>
       <c r="M1254" t="n">
-        <v>28521</v>
+        <v>12000</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1254" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>1901</v>
+        <v>667</v>
       </c>
       <c r="Q1254" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1254" t="inlineStr">
         <is>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44179</v>
+        <v>44285</v>
       </c>
       <c r="E1255" t="n">
         <v>5</v>
@@ -90713,36 +90713,36 @@
       </c>
       <c r="I1255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="K1255" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L1255" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M1255" t="n">
-        <v>24516</v>
+        <v>10000</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1255" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>1634</v>
+        <v>556</v>
       </c>
       <c r="Q1255" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1255" t="inlineStr">
         <is>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44179</v>
+        <v>44285</v>
       </c>
       <c r="E1256" t="n">
         <v>5</v>
@@ -90780,41 +90780,41 @@
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K1256" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L1256" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M1256" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1256" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>1467</v>
+        <v>556</v>
       </c>
       <c r="Q1256" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1256" t="inlineStr">
         <is>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44179</v>
+        <v>44285</v>
       </c>
       <c r="E1257" t="n">
         <v>5</v>
@@ -90857,36 +90857,36 @@
       </c>
       <c r="I1257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K1257" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L1257" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M1257" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1257" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>1333</v>
+        <v>444</v>
       </c>
       <c r="Q1257" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1257" t="inlineStr">
         <is>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44179</v>
+        <v>44498</v>
       </c>
       <c r="E1258" t="n">
         <v>5</v>
@@ -90924,7 +90924,7 @@
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1258" t="inlineStr">
@@ -90933,32 +90933,32 @@
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="K1258" t="n">
-        <v>19000</v>
+        <v>41000</v>
       </c>
       <c r="L1258" t="n">
-        <v>22000</v>
+        <v>41000</v>
       </c>
       <c r="M1258" t="n">
-        <v>20438</v>
+        <v>41000</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1258" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>1135</v>
+        <v>2733</v>
       </c>
       <c r="Q1258" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1258" t="inlineStr">
         <is>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44179</v>
+        <v>44498</v>
       </c>
       <c r="E1259" t="n">
         <v>5</v>
@@ -90996,7 +90996,7 @@
       </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1259" t="inlineStr">
@@ -91005,16 +91005,16 @@
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K1259" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="L1259" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="M1259" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91027,7 +91027,7 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>1200</v>
+        <v>2533</v>
       </c>
       <c r="Q1259" t="n">
         <v>15</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44418</v>
+        <v>44498</v>
       </c>
       <c r="E1260" t="n">
         <v>5</v>
@@ -91068,7 +91068,7 @@
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1260" t="inlineStr">
@@ -91077,16 +91077,16 @@
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K1260" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L1260" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M1260" t="n">
-        <v>34000</v>
+        <v>28521</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91099,7 +91099,7 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>2267</v>
+        <v>1901</v>
       </c>
       <c r="Q1260" t="n">
         <v>15</v>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E1261" t="n">
         <v>5</v>
@@ -91145,20 +91145,20 @@
       </c>
       <c r="I1261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="K1261" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L1261" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M1261" t="n">
-        <v>30000</v>
+        <v>24516</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91171,7 +91171,7 @@
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>2000</v>
+        <v>1634</v>
       </c>
       <c r="Q1261" t="n">
         <v>15</v>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E1262" t="n">
         <v>5</v>
@@ -91212,25 +91212,25 @@
       </c>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K1262" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L1262" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M1262" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91243,7 +91243,7 @@
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>1800</v>
+        <v>1467</v>
       </c>
       <c r="Q1262" t="n">
         <v>15</v>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1263" t="n">
         <v>5</v>
@@ -91284,7 +91284,7 @@
       </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1263" t="inlineStr">
@@ -91293,7 +91293,7 @@
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K1263" t="n">
         <v>20000</v>
@@ -91306,19 +91306,19 @@
       </c>
       <c r="N1263" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1263" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>1111</v>
+        <v>1333</v>
       </c>
       <c r="Q1263" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1263" t="inlineStr">
         <is>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1264" t="n">
         <v>5</v>
@@ -91356,25 +91356,25 @@
       </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="K1264" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L1264" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M1264" t="n">
-        <v>17000</v>
+        <v>20438</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91387,7 +91387,7 @@
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>944</v>
+        <v>1135</v>
       </c>
       <c r="Q1264" t="n">
         <v>18</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1265" t="n">
         <v>5</v>
@@ -91433,36 +91433,36 @@
       </c>
       <c r="I1265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K1265" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L1265" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M1265" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1265" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>806</v>
+        <v>1200</v>
       </c>
       <c r="Q1265" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1265" t="inlineStr">
         <is>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E1266" t="n">
         <v>5</v>
@@ -91500,41 +91500,41 @@
       </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K1266" t="n">
-        <v>11000</v>
+        <v>34000</v>
       </c>
       <c r="L1266" t="n">
-        <v>11000</v>
+        <v>34000</v>
       </c>
       <c r="M1266" t="n">
-        <v>11000</v>
+        <v>34000</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1266" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>611</v>
+        <v>2267</v>
       </c>
       <c r="Q1266" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1266" t="inlineStr">
         <is>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44335</v>
+        <v>44418</v>
       </c>
       <c r="E1267" t="n">
         <v>5</v>
@@ -91572,25 +91572,25 @@
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1267" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1267" t="n">
         <v>35</v>
       </c>
       <c r="K1267" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L1267" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M1267" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
@@ -91603,7 +91603,7 @@
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>2133</v>
+        <v>2000</v>
       </c>
       <c r="Q1267" t="n">
         <v>15</v>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44335</v>
+        <v>44418</v>
       </c>
       <c r="E1268" t="n">
         <v>5</v>
@@ -91644,25 +91644,25 @@
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K1268" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L1268" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M1268" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
@@ -91675,7 +91675,7 @@
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>1667</v>
+        <v>1800</v>
       </c>
       <c r="Q1268" t="n">
         <v>15</v>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1269" t="n">
         <v>5</v>
@@ -91728,29 +91728,29 @@
         <v>38</v>
       </c>
       <c r="K1269" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L1269" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="M1269" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1269" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>1400</v>
+        <v>1111</v>
       </c>
       <c r="Q1269" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1269" t="inlineStr">
         <is>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1270" t="n">
         <v>5</v>
@@ -91788,12 +91788,12 @@
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1270" t="n">
@@ -91810,19 +91810,19 @@
       </c>
       <c r="N1270" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1270" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>1133</v>
+        <v>944</v>
       </c>
       <c r="Q1270" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1270" t="inlineStr">
         <is>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1271" t="n">
         <v>5</v>
@@ -91860,7 +91860,7 @@
       </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1271" t="inlineStr">
@@ -91869,32 +91869,32 @@
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K1271" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L1271" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M1271" t="n">
-        <v>23479</v>
+        <v>14500</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1271" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>1565</v>
+        <v>806</v>
       </c>
       <c r="Q1271" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1271" t="inlineStr">
         <is>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1272" t="n">
         <v>5</v>
@@ -91932,7 +91932,7 @@
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
@@ -91941,32 +91941,32 @@
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K1272" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L1272" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M1272" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1272" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>1333</v>
+        <v>611</v>
       </c>
       <c r="Q1272" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1272" t="inlineStr">
         <is>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1273" t="n">
         <v>5</v>
@@ -92004,41 +92004,41 @@
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="K1273" t="n">
-        <v>11000</v>
+        <v>32000</v>
       </c>
       <c r="L1273" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="M1273" t="n">
-        <v>11516</v>
+        <v>32000</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1273" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>640</v>
+        <v>2133</v>
       </c>
       <c r="Q1273" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1273" t="inlineStr">
         <is>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1274" t="n">
         <v>5</v>
@@ -92076,41 +92076,41 @@
       </c>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K1274" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="L1274" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="M1274" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1274" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>444</v>
+        <v>1667</v>
       </c>
       <c r="Q1274" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1274" t="inlineStr">
         <is>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E1275" t="n">
         <v>5</v>
@@ -92157,16 +92157,16 @@
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K1275" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="L1275" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="M1275" t="n">
-        <v>22479</v>
+        <v>21000</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
@@ -92179,7 +92179,7 @@
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>1499</v>
+        <v>1400</v>
       </c>
       <c r="Q1275" t="n">
         <v>15</v>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E1276" t="n">
         <v>5</v>
@@ -92229,32 +92229,32 @@
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K1276" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L1276" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M1276" t="n">
-        <v>13479</v>
+        <v>17000</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1276" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>749</v>
+        <v>1133</v>
       </c>
       <c r="Q1276" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1276" t="inlineStr">
         <is>
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E1277" t="n">
         <v>5</v>
@@ -92301,16 +92301,16 @@
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="K1277" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="L1277" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="M1277" t="n">
-        <v>34000</v>
+        <v>23479</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
@@ -92323,7 +92323,7 @@
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>2267</v>
+        <v>1565</v>
       </c>
       <c r="Q1277" t="n">
         <v>15</v>
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E1278" t="n">
         <v>5</v>
@@ -92373,16 +92373,16 @@
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K1278" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L1278" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M1278" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92395,7 +92395,7 @@
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>2000</v>
+        <v>1333</v>
       </c>
       <c r="Q1278" t="n">
         <v>15</v>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E1279" t="n">
         <v>5</v>
@@ -92445,32 +92445,32 @@
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="K1279" t="n">
-        <v>27000</v>
+        <v>11000</v>
       </c>
       <c r="L1279" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="M1279" t="n">
-        <v>27000</v>
+        <v>11516</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1279" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>1800</v>
+        <v>640</v>
       </c>
       <c r="Q1279" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1279" t="inlineStr">
         <is>
@@ -92493,58 +92493,490 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1280" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1280" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1280" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1280" t="n">
+        <v>45</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N1280" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1280" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1280" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1280" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1281" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1281" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1281" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1281" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1281" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>22479</v>
+      </c>
+      <c r="N1281" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1281" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1281" t="n">
+        <v>1499</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1281" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1282" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1282" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1282" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1282" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1282" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>13479</v>
+      </c>
+      <c r="N1282" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1282" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1282" t="n">
+        <v>749</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1282" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1283" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1280" t="n">
-        <v>5</v>
-      </c>
-      <c r="F1280" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G1280" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H1280" t="inlineStr">
+      <c r="E1283" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1283" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1283" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1283" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1283" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>34000</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>34000</v>
+      </c>
+      <c r="N1283" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1283" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1283" t="n">
+        <v>2267</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1283" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1284" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1284" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1284" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1284" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1284" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N1284" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1284" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1284" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1284" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1285" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1285" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1285" t="inlineStr">
         <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I1280" t="inlineStr">
+      <c r="I1285" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1285" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>27000</v>
+      </c>
+      <c r="N1285" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1285" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1285" t="n">
+        <v>1800</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1285" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1286" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1286" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1286" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1286" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1280" t="n">
+      <c r="J1286" t="n">
         <v>35</v>
       </c>
-      <c r="K1280" t="n">
+      <c r="K1286" t="n">
         <v>23000</v>
       </c>
-      <c r="L1280" t="n">
+      <c r="L1286" t="n">
         <v>23000</v>
       </c>
-      <c r="M1280" t="n">
+      <c r="M1286" t="n">
         <v>23000</v>
       </c>
-      <c r="N1280" t="inlineStr">
+      <c r="N1286" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O1280" t="inlineStr">
+      <c r="O1286" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1280" t="n">
+      <c r="P1286" t="n">
         <v>1533</v>
       </c>
-      <c r="Q1280" t="n">
+      <c r="Q1286" t="n">
         <v>15</v>
       </c>
-      <c r="R1280" t="inlineStr">
+      <c r="R1286" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1333"/>
+  <dimension ref="A1:R1337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95373,7 +95373,7 @@
         </is>
       </c>
       <c r="D1320" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1320" t="n">
         <v>5</v>
@@ -95388,7 +95388,7 @@
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1320" t="inlineStr">
@@ -95400,13 +95400,13 @@
         <v>35</v>
       </c>
       <c r="K1320" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="L1320" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="M1320" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
@@ -95419,7 +95419,7 @@
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>2133</v>
+        <v>1733</v>
       </c>
       <c r="Q1320" t="n">
         <v>15</v>
@@ -95445,7 +95445,7 @@
         </is>
       </c>
       <c r="D1321" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1321" t="n">
         <v>5</v>
@@ -95465,20 +95465,20 @@
       </c>
       <c r="I1321" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1321" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K1321" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L1321" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M1321" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
@@ -95491,7 +95491,7 @@
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>1667</v>
+        <v>1533</v>
       </c>
       <c r="Q1321" t="n">
         <v>15</v>
@@ -95517,7 +95517,7 @@
         </is>
       </c>
       <c r="D1322" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1322" t="n">
         <v>5</v>
@@ -95537,20 +95537,20 @@
       </c>
       <c r="I1322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1322" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1322" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L1322" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="M1322" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
@@ -95563,7 +95563,7 @@
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>1400</v>
+        <v>1267</v>
       </c>
       <c r="Q1322" t="n">
         <v>15</v>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1323" t="n">
         <v>5</v>
@@ -95613,16 +95613,16 @@
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1323" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L1323" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M1323" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95635,7 +95635,7 @@
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>1133</v>
+        <v>1067</v>
       </c>
       <c r="Q1323" t="n">
         <v>15</v>
@@ -95661,7 +95661,7 @@
         </is>
       </c>
       <c r="D1324" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1324" t="n">
         <v>5</v>
@@ -95676,25 +95676,25 @@
       </c>
       <c r="H1324" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1324" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K1324" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L1324" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="M1324" t="n">
-        <v>23479</v>
+        <v>32000</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
@@ -95707,7 +95707,7 @@
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>1565</v>
+        <v>2133</v>
       </c>
       <c r="Q1324" t="n">
         <v>15</v>
@@ -95733,7 +95733,7 @@
         </is>
       </c>
       <c r="D1325" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1325" t="n">
         <v>5</v>
@@ -95753,20 +95753,20 @@
       </c>
       <c r="I1325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1325" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K1325" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L1325" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M1325" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
@@ -95779,7 +95779,7 @@
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="Q1325" t="n">
         <v>15</v>
@@ -95805,7 +95805,7 @@
         </is>
       </c>
       <c r="D1326" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1326" t="n">
         <v>5</v>
@@ -95820,7 +95820,7 @@
       </c>
       <c r="H1326" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1326" t="inlineStr">
@@ -95829,32 +95829,32 @@
         </is>
       </c>
       <c r="J1326" t="n">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="K1326" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="L1326" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M1326" t="n">
-        <v>11516</v>
+        <v>21000</v>
       </c>
       <c r="N1326" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1326" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1326" t="n">
-        <v>640</v>
+        <v>1400</v>
       </c>
       <c r="Q1326" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1326" t="inlineStr">
         <is>
@@ -95877,7 +95877,7 @@
         </is>
       </c>
       <c r="D1327" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1327" t="n">
         <v>5</v>
@@ -95897,36 +95897,36 @@
       </c>
       <c r="I1327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1327" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K1327" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L1327" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M1327" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="N1327" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1327" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1327" t="n">
-        <v>444</v>
+        <v>1133</v>
       </c>
       <c r="Q1327" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1327" t="inlineStr">
         <is>
@@ -95949,7 +95949,7 @@
         </is>
       </c>
       <c r="D1328" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1328" t="n">
         <v>5</v>
@@ -95976,13 +95976,13 @@
         <v>73</v>
       </c>
       <c r="K1328" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L1328" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M1328" t="n">
-        <v>22479</v>
+        <v>23479</v>
       </c>
       <c r="N1328" t="inlineStr">
         <is>
@@ -95995,7 +95995,7 @@
         </is>
       </c>
       <c r="P1328" t="n">
-        <v>1499</v>
+        <v>1565</v>
       </c>
       <c r="Q1328" t="n">
         <v>15</v>
@@ -96021,7 +96021,7 @@
         </is>
       </c>
       <c r="D1329" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1329" t="n">
         <v>5</v>
@@ -96036,41 +96036,41 @@
       </c>
       <c r="H1329" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1329" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K1329" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L1329" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M1329" t="n">
-        <v>13479</v>
+        <v>20000</v>
       </c>
       <c r="N1329" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1329" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1329" t="n">
-        <v>749</v>
+        <v>1333</v>
       </c>
       <c r="Q1329" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1329" t="inlineStr">
         <is>
@@ -96093,7 +96093,7 @@
         </is>
       </c>
       <c r="D1330" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E1330" t="n">
         <v>5</v>
@@ -96108,7 +96108,7 @@
       </c>
       <c r="H1330" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1330" t="inlineStr">
@@ -96117,32 +96117,32 @@
         </is>
       </c>
       <c r="J1330" t="n">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="K1330" t="n">
-        <v>34000</v>
+        <v>11000</v>
       </c>
       <c r="L1330" t="n">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="M1330" t="n">
-        <v>34000</v>
+        <v>11516</v>
       </c>
       <c r="N1330" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1330" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1330" t="n">
-        <v>2267</v>
+        <v>640</v>
       </c>
       <c r="Q1330" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1330" t="inlineStr">
         <is>
@@ -96165,7 +96165,7 @@
         </is>
       </c>
       <c r="D1331" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E1331" t="n">
         <v>5</v>
@@ -96180,7 +96180,7 @@
       </c>
       <c r="H1331" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1331" t="inlineStr">
@@ -96189,32 +96189,32 @@
         </is>
       </c>
       <c r="J1331" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="K1331" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="L1331" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="M1331" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="N1331" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1331" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1331" t="n">
-        <v>2000</v>
+        <v>444</v>
       </c>
       <c r="Q1331" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1331" t="inlineStr">
         <is>
@@ -96237,7 +96237,7 @@
         </is>
       </c>
       <c r="D1332" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1332" t="n">
         <v>5</v>
@@ -96252,7 +96252,7 @@
       </c>
       <c r="H1332" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1332" t="inlineStr">
@@ -96261,16 +96261,16 @@
         </is>
       </c>
       <c r="J1332" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K1332" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L1332" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M1332" t="n">
-        <v>27000</v>
+        <v>22479</v>
       </c>
       <c r="N1332" t="inlineStr">
         <is>
@@ -96283,7 +96283,7 @@
         </is>
       </c>
       <c r="P1332" t="n">
-        <v>1800</v>
+        <v>1499</v>
       </c>
       <c r="Q1332" t="n">
         <v>15</v>
@@ -96309,58 +96309,346 @@
         </is>
       </c>
       <c r="D1333" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1333" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1333" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1333" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1333" t="n">
+        <v>73</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>13479</v>
+      </c>
+      <c r="N1333" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1333" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1333" t="n">
+        <v>749</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1333" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1334" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1333" t="n">
-        <v>5</v>
-      </c>
-      <c r="F1333" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G1333" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H1333" t="inlineStr">
+      <c r="E1334" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1334" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1334" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1334" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1334" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>34000</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>34000</v>
+      </c>
+      <c r="N1334" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1334" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1334" t="n">
+        <v>2267</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1334" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1335" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1335" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1335" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1335" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1335" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N1335" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1335" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1335" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1335" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1336" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1336" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1336" t="inlineStr">
         <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I1333" t="inlineStr">
+      <c r="I1336" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1336" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>27000</v>
+      </c>
+      <c r="N1336" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1336" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1336" t="n">
+        <v>1800</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1336" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1337" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1337" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1337" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1337" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1333" t="n">
+      <c r="J1337" t="n">
         <v>35</v>
       </c>
-      <c r="K1333" t="n">
+      <c r="K1337" t="n">
         <v>23000</v>
       </c>
-      <c r="L1333" t="n">
+      <c r="L1337" t="n">
         <v>23000</v>
       </c>
-      <c r="M1333" t="n">
+      <c r="M1337" t="n">
         <v>23000</v>
       </c>
-      <c r="N1333" t="inlineStr">
+      <c r="N1337" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O1333" t="inlineStr">
+      <c r="O1337" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1333" t="n">
+      <c r="P1337" t="n">
         <v>1533</v>
       </c>
-      <c r="Q1333" t="n">
+      <c r="Q1337" t="n">
         <v>15</v>
       </c>
-      <c r="R1333" t="inlineStr">
+      <c r="R1337" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
